--- a/WIP/Deliverable/Report3/VMN_System Test Case_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report3/VMN_System Test Case_v1.0_EN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" tabRatio="840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" tabRatio="840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="Message Rules" sheetId="22" r:id="rId4"/>
     <sheet name="Medicinal plants Article" sheetId="24" r:id="rId5"/>
     <sheet name="Remedy Article" sheetId="25" r:id="rId6"/>
+    <sheet name="Herbal medicine store" sheetId="27" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="ACTION" localSheetId="4">#REF!</definedName>
@@ -207,8 +208,52 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Chinh Vu Cong</author>
+  </authors>
+  <commentList>
+    <comment ref="F10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pass
+Fail
+Untested
+N/A</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pass
+Fail
+Untested
+N/A</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="398">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -352,12 +397,6 @@
   </si>
   <si>
     <t>Back to Test Report</t>
-  </si>
-  <si>
-    <t>ChinhVCSE02585</t>
-  </si>
-  <si>
-    <t>ManhNLSE02619</t>
   </si>
   <si>
     <t xml:space="preserve">List enviroment requires in this system
@@ -1190,19 +1229,7 @@
   <si>
     <t xml:space="preserve">1. Homepage is displayed
 2. "Medicinal plants" page will be displayed
-3. "Article Detail" Page will displayed but "Report" button is disable
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Homepage is displayed
-2. "Medicinal plants" page will be displayed
 3. "Article Detail" Page will displayed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Homepage is displayed
-2. "Medicinal plants" page will be displayed
-3. "Article Detail" Page will displayed but "Report" button and "Share" button is disable
-</t>
   </si>
   <si>
     <t>1. Homepage is displayed
@@ -1304,13 +1331,6 @@
 6. Comment successful </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Homepage is displayed
-2. "Medicinal plants" page will be displayed
-3. "Article Detail" Page will displayed 
-4. "Comment" tab is displayed but "Send" button and "Comment" text field is disable
-</t>
-  </si>
-  <si>
     <t>"Comment" tab when user enter under 10 characters in "Comment" text field</t>
   </si>
   <si>
@@ -1368,11 +1388,6 @@
 4. Click on "Comment" tab</t>
   </si>
   <si>
-    <t>1. Homepage is displayed
-2. "Medicinal plants" page will be displayed
-3. "Article Detail" Page will displayed but "Rate" box is disable</t>
-  </si>
-  <si>
     <t>"Rate" box when user logged into VMN system succesful</t>
   </si>
   <si>
@@ -1395,12 +1410,6 @@
 2. Click on "Medicinal Plants" tab
 3. Click on "Detail" link under an article
 4. Click on "Share" button</t>
-  </si>
-  <si>
-    <t>1. Homepage is displayed
-2. "Medicinal plants" page will be displayed
-3. "Article Detail" Page will displayed
-4. "Share" button is disable</t>
   </si>
   <si>
     <t>"Send" button when user logged into VMN system succesful</t>
@@ -1981,27 +1990,6 @@
 3. Click on "Contribute" button under banner and the right of Searching field
 4. Enter "Note" field in "Contribute new Article" Form but string under 50 characters and other required fields are enough
 5. Click on "Contribute" button </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. Homepage is displayed
-2. "Remedy" page will be displayed but "Contribute new remedy" button is disable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <t>1. Login VMN system by Member or Mod role
@@ -2268,6 +2256,202 @@
   </si>
   <si>
     <t>Remedy article</t>
+  </si>
+  <si>
+    <t>22/02/2016</t>
+  </si>
+  <si>
+    <t>This test cases were created to test Herbal medine store (HMS) module.</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Medicinal plants" page will be displayed
+3. "Article Detail" Page will displayed
+4. "Share" button is disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Homepage is displayed
+2. "Medicinal plants" page will be displayed
+3. "Article Detail" Page will displayed but "Report" button and "Share" button is disabled
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Homepage is displayed
+2. "Medicinal plants" page will be displayed
+3. "Article Detail" Page will displayed but "Report" button is disabled
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Homepage is displayed
+2. "Medicinal plants" page will be displayed
+3. "Article Detail" Page will displayed 
+4. "Comment" tab is displayed but "Send" button and "Comment" text field is disabled
+</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Medicinal plants" page will be displayed
+3. "Article Detail" Page will displayed but "Rate" box is disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Homepage is displayed
+2. "Remedy" page will be displayed but "Contribute new remedy" button is disabled
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Homepage is displayed
+2. "Remedy" page will be displayed
+3. "Article Detail" Page will displayed but "Report" button and "Share" button is disabled
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Homepage is displayed
+2. "Remedy" page will be displayed
+3. "Article Detail" Page will displayed but "Report" button is disabled
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Homepage is displayed
+2. "Remedy" page will be displayed
+3. "Article Detail" Page will displayed 
+4. "Comment" tab is displayed but "Send" button and "Comment" text field is disabled
+</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Remedy" page will be displayed
+3. "Article Detail" Page will displayed but "Rate" box is disabled</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Remedy" page will be displayed
+3. "Article Detail" Page will displayed
+4. "Share" button is disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to VMN.com
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. Homepage is displayed but "HMS" tab is disabled 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>"Share" button when user is Guest that mean user have not logged into VMN system</t>
+  </si>
+  <si>
+    <t>"Share" button when user logged into VMN system succesful</t>
+  </si>
+  <si>
+    <t>Herbal medicine store</t>
+  </si>
+  <si>
+    <t>Herbal medicne store</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>HMS tab</t>
+  </si>
+  <si>
+    <t>"HMS" tab view in 1366x768 screen</t>
+  </si>
+  <si>
+    <t>"HMS" tab view in 1024x768 screen</t>
+  </si>
+  <si>
+    <t>"HMS" tab when user is Guest that means user have not logged in VMN system.</t>
+  </si>
+  <si>
+    <t>"HMS Searching" page in 1366x768 screen</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Member or Mod role
+2. Click on "HMS" tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Member or Mod role
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The Homepage is displayed
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The Homepage is displayed
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The Homepage is displayed
+2. "HMS Searching" Page is displayed
+</t>
+  </si>
+  <si>
+    <t>"HMS Searching" page in 1024x768 screen</t>
+  </si>
+  <si>
+    <t>1. The Homepage is displayed
+2. "HMS Searching" Page is displayed</t>
+  </si>
+  <si>
+    <t>"HMS Searching" Page when user user NOT enter any fields on "HMS Searching" Form</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Member or Mod role
+2. Click on "HMS" tab
+3. Click on "Search" button</t>
+  </si>
+  <si>
+    <t>1. The Homepage is displayed
+2. "HMS Searching" Page is displayed
+3. VMN system will alert error message:" You have to fill some searching fields"</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Member or Mod role
+2. Click on "HMS" tab
+3. Click on "Re- enter" button</t>
+  </si>
+  <si>
+    <t>1. The Homepage is displayed
+2. "HMS Searching" Page is displayed
+3. VMN system will alert error message:" You have not entered some fields to search. Please enter some searching fields"</t>
+  </si>
+  <si>
+    <t>"HMS Searching" Page when user NOT enter any fields on "HMS Searching" Form</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Member or Mod role
+2. Click on "HMS" tab
+3. Enter name of HMS that wanna search but under 5 character on "HMS Searching" Form, for example: "abcd"</t>
+  </si>
+  <si>
+    <t>1. The Homepage is displayed
+2. "HMS Searching" Page is displayed
+3. VMN system will alert error message:" Name field should over 5 character. Please enter again"</t>
+  </si>
+  <si>
+    <t>"HMS Searching" Page when user enter over 50 characters on "Name" fields of "HMS Searching" Form</t>
+  </si>
+  <si>
+    <t>"HMS Searching" Page when user enter under 5 characters on "Name" fields of "HMS Searching" Form</t>
   </si>
 </sst>
 </file>
@@ -2480,7 +2664,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2529,8 +2713,14 @@
         <bgColor indexed="41"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="62">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -3305,6 +3495,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3316,7 +3539,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3804,6 +4027,61 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="58" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="61" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="56" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="56" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="62" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="41" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="56" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="64" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3838,53 +4116,56 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="50" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="52" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="55" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="60" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="57" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="55" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="50" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="52" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3898,11 +4179,23 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="58" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="63" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="61" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="55" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -4383,13 +4676,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -4400,44 +4693,44 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="187" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
+      <c r="C4" s="210" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="210"/>
+      <c r="E4" s="210"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="187" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
+      <c r="C5" s="210" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="210"/>
+      <c r="E5" s="210"/>
       <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="188" t="s">
+      <c r="B6" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="189" t="str">
+      <c r="C6" s="212" t="str">
         <f>C5&amp;"_"&amp;"System Test Case"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_System Test Case_v1.0</v>
       </c>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="212"/>
       <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
@@ -4446,10 +4739,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="188"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
+      <c r="B7" s="211"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
       <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
@@ -4581,8 +4874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4597,15 +4890,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="216" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="55"/>
@@ -4621,17 +4914,17 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="190" t="str">
+      <c r="C3" s="213" t="str">
         <f>Cover!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="D3" s="190"/>
-      <c r="E3" s="191" t="s">
+      <c r="D3" s="213"/>
+      <c r="E3" s="214" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="191"/>
+      <c r="F3" s="214"/>
       <c r="G3" s="58" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="H3" s="59"/>
     </row>
@@ -4639,17 +4932,17 @@
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="190" t="str">
+      <c r="C4" s="213" t="str">
         <f>Cover!C5</f>
         <v>VMN</v>
       </c>
-      <c r="D4" s="190"/>
-      <c r="E4" s="191" t="s">
+      <c r="D4" s="213"/>
+      <c r="E4" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="191"/>
+      <c r="F4" s="214"/>
       <c r="G4" s="58" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="H4" s="59"/>
     </row>
@@ -4657,17 +4950,17 @@
       <c r="B5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="190" t="str">
+      <c r="C5" s="213" t="str">
         <f>C4&amp;"_"&amp;"System Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_System Test Report_v1.0</v>
       </c>
-      <c r="D5" s="190"/>
-      <c r="E5" s="191" t="s">
+      <c r="D5" s="213"/>
+      <c r="E5" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="191"/>
-      <c r="G5" s="94">
-        <v>42307</v>
+      <c r="F5" s="214"/>
+      <c r="G5" s="94" t="s">
+        <v>356</v>
       </c>
       <c r="H5" s="61"/>
     </row>
@@ -4676,12 +4969,12 @@
       <c r="B6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="192"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="215"/>
+      <c r="F6" s="215"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="215"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="55"/>
@@ -4762,7 +5055,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="122" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D13" s="130">
         <f>'Medicinal plants Article'!A6</f>
@@ -4791,7 +5084,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="122" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D14" s="130">
         <f>'Remedy Article'!A6</f>
@@ -5008,7 +5301,7 @@
   <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5035,39 +5328,39 @@
       <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="196" t="s">
+      <c r="B3" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="196"/>
-      <c r="D3" s="190" t="str">
+      <c r="C3" s="219"/>
+      <c r="D3" s="213" t="str">
         <f>Cover!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="213"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="196" t="s">
+      <c r="B4" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="196"/>
-      <c r="D4" s="190" t="str">
+      <c r="C4" s="219"/>
+      <c r="D4" s="213" t="str">
         <f>Cover!C5</f>
         <v>VMN</v>
       </c>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
     </row>
     <row r="5" spans="2:6" s="39" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="194" t="s">
+      <c r="B5" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="194"/>
-      <c r="D5" s="195" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
+      <c r="C5" s="217"/>
+      <c r="D5" s="218" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="218"/>
+      <c r="F5" s="218"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="40"/>
@@ -5105,10 +5398,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="127" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D9" s="122" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E9" s="128"/>
       <c r="F9" s="129"/>
@@ -5118,18 +5411,24 @@
         <v>2</v>
       </c>
       <c r="C10" s="127" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D10" s="165" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E10" s="128"/>
       <c r="F10" s="129"/>
     </row>
     <row r="11" spans="2:6" ht="14.25">
-      <c r="B11" s="119"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="122"/>
+      <c r="B11" s="119">
+        <v>3</v>
+      </c>
+      <c r="C11" s="127" t="s">
+        <v>373</v>
+      </c>
+      <c r="D11" s="165" t="s">
+        <v>374</v>
+      </c>
       <c r="E11" s="129"/>
       <c r="F11" s="129"/>
     </row>
@@ -5153,6 +5452,7 @@
   <hyperlinks>
     <hyperlink ref="D9" location="'Medicinal plants Article'!A1" display="Medicinal plants article"/>
     <hyperlink ref="D10" location="'Remedy Article'!A1" display="Remedy article"/>
+    <hyperlink ref="D11" location="'Herbal medicne store'!A1" display="Herbal medicne store"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="1.1506944444444445" header="0.51180555555555562" footer="0.98402777777777783"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5179,11 +5479,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A1" s="197" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
+      <c r="A1" s="220" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:3" ht="15">
@@ -5191,285 +5491,285 @@
         <v>16</v>
       </c>
       <c r="B3" s="163" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="164" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
       <c r="A4" s="135" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="133"/>
     </row>
     <row r="5" spans="1:3" ht="15">
       <c r="A5" s="135" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" s="133"/>
     </row>
     <row r="6" spans="1:3" ht="15">
       <c r="A6" s="135" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" s="133"/>
     </row>
     <row r="7" spans="1:3" ht="15">
       <c r="A7" s="135" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="133" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="133"/>
     </row>
     <row r="8" spans="1:3" ht="15">
       <c r="A8" s="135" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="133" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="133"/>
     </row>
     <row r="9" spans="1:3" ht="15">
       <c r="A9" s="135" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="133" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="133"/>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="135" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B10" s="133" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C10" s="133"/>
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" s="135" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B11" s="133" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="133"/>
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" s="135" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B12" s="133" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="133"/>
     </row>
     <row r="13" spans="1:3" ht="15">
       <c r="A13" s="135" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="133" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="133"/>
     </row>
     <row r="14" spans="1:3" ht="15">
       <c r="A14" s="135" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" s="134" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" s="133"/>
     </row>
     <row r="15" spans="1:3" ht="15">
       <c r="A15" s="135" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" s="133" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C15" s="133"/>
     </row>
     <row r="16" spans="1:3" ht="15">
       <c r="A16" s="135" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="133" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C16" s="133"/>
     </row>
     <row r="17" spans="1:3" ht="15">
       <c r="A17" s="135" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" s="133" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C17" s="133"/>
     </row>
     <row r="18" spans="1:3" ht="15">
       <c r="A18" s="135" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B18" s="133" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" s="133"/>
     </row>
     <row r="19" spans="1:3" ht="15">
       <c r="A19" s="135" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B19" s="134" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C19" s="133"/>
     </row>
     <row r="20" spans="1:3" ht="15">
       <c r="A20" s="135" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B20" s="134" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="133"/>
     </row>
     <row r="21" spans="1:3" ht="15">
       <c r="A21" s="135" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21" s="134" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C21" s="133"/>
     </row>
     <row r="22" spans="1:3" ht="60">
       <c r="A22" s="135" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B22" s="148" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="133"/>
     </row>
     <row r="23" spans="1:3" ht="15">
       <c r="A23" s="135" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B23" s="133" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C23" s="133"/>
     </row>
     <row r="24" spans="1:3" ht="15">
       <c r="A24" s="135" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" s="133" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C24" s="133"/>
     </row>
     <row r="25" spans="1:3" ht="15">
       <c r="A25" s="135" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B25" s="133" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C25" s="133"/>
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" s="151" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B26" s="133" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C26" s="133"/>
     </row>
     <row r="27" spans="1:3" ht="15">
       <c r="A27" s="151" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B27" s="133" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C27" s="133"/>
     </row>
     <row r="28" spans="1:3" ht="15">
       <c r="A28" s="151" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B28" s="133" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C28" s="133"/>
     </row>
     <row r="29" spans="1:3" ht="15">
       <c r="A29" s="151" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B29" s="133" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C29" s="133"/>
     </row>
     <row r="30" spans="1:3" ht="15">
       <c r="A30" s="151" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B30" s="133" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C30" s="133"/>
     </row>
     <row r="31" spans="1:3" ht="15">
       <c r="A31" s="151" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B31" s="133" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C31" s="133"/>
     </row>
     <row r="32" spans="1:3" ht="15">
       <c r="A32" s="151" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B32" s="133" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C32" s="133"/>
     </row>
     <row r="33" spans="1:3" ht="15">
       <c r="A33" s="151" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B33" s="133" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C33" s="133"/>
     </row>
     <row r="34" spans="1:3" ht="15">
       <c r="A34" s="151" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B34" s="133"/>
       <c r="C34" s="133"/>
@@ -5488,13 +5788,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW112"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21" style="90" customWidth="1"/>
+    <col min="1" max="1" width="22.875" style="90" customWidth="1"/>
     <col min="2" max="2" width="30.625" style="90" customWidth="1"/>
     <col min="3" max="3" width="34.375" style="90" customWidth="1"/>
     <col min="4" max="4" width="42.25" style="90" customWidth="1"/>
@@ -5767,14 +6067,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="202" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="204"/>
+      <c r="B2" s="221" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="223"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -6025,14 +6325,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="205" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="207"/>
+      <c r="B3" s="224" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="226"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -6283,14 +6583,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="205" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="207"/>
+      <c r="B4" s="224" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="225"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="225"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="226"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -6548,11 +6848,11 @@
       <c r="D5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="208" t="s">
+      <c r="E5" s="227" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="209"/>
-      <c r="G5" s="210"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="229"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -6816,12 +7116,12 @@
         <f>COUNTIF(F12:G144,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="211">
+      <c r="E6" s="230">
         <f>COUNTA(A12:A144)*2</f>
         <v>84</v>
       </c>
-      <c r="F6" s="212"/>
-      <c r="G6" s="213"/>
+      <c r="F6" s="231"/>
+      <c r="G6" s="232"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -7848,10 +8148,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>35</v>
@@ -8102,7 +8402,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="51"/>
       <c r="B11" s="51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -8357,13 +8657,13 @@
         <v>[Medicinal plants Article-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C12" s="109" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D12" s="95" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E12" s="100"/>
       <c r="F12" s="95"/>
@@ -8378,13 +8678,13 @@
         <v>[Medicinal plants Article-3]</v>
       </c>
       <c r="B13" s="139" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C13" s="142" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E13" s="103"/>
       <c r="F13" s="95"/>
@@ -8399,13 +8699,13 @@
         <v>[Medicinal plants Article-4]</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C14" s="143" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D14" s="166" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="95"/>
@@ -8420,13 +8720,13 @@
         <v>[Medicinal plants Article-5]</v>
       </c>
       <c r="B15" s="109" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C15" s="143" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E15" s="103"/>
       <c r="F15" s="95"/>
@@ -8441,13 +8741,13 @@
         <v>[Medicinal plants Article-6]</v>
       </c>
       <c r="B16" s="109" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C16" s="143" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E16" s="103"/>
       <c r="F16" s="95"/>
@@ -8462,13 +8762,13 @@
         <v>[Medicinal plants Article-7]</v>
       </c>
       <c r="B17" s="109" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C17" s="143" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E17" s="103"/>
       <c r="F17" s="95"/>
@@ -8483,13 +8783,13 @@
         <v>[Medicinal plants Article-8]</v>
       </c>
       <c r="B18" s="109" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C18" s="143" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D18" s="97" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E18" s="103"/>
       <c r="F18" s="95"/>
@@ -8504,13 +8804,13 @@
         <v>[Medicinal plants Article-9]</v>
       </c>
       <c r="B19" s="109" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C19" s="143" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D19" s="97" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E19" s="103"/>
       <c r="F19" s="95"/>
@@ -8525,13 +8825,13 @@
         <v>[Medicinal plants Article-10]</v>
       </c>
       <c r="B20" s="109" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C20" s="143" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D20" s="97" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E20" s="103"/>
       <c r="F20" s="95"/>
@@ -8546,13 +8846,13 @@
         <v>[Medicinal plants Article-11]</v>
       </c>
       <c r="B21" s="109" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C21" s="143" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D21" s="97" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E21" s="103"/>
       <c r="F21" s="95"/>
@@ -8567,13 +8867,13 @@
         <v>[Medicinal plants Article-12]</v>
       </c>
       <c r="B22" s="109" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C22" s="143" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D22" s="97" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E22" s="103"/>
       <c r="F22" s="95"/>
@@ -8588,18 +8888,18 @@
         <v>[Medicinal plants Article-13]</v>
       </c>
       <c r="B23" s="109" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C23" s="143" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D23" s="97" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E23" s="103"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="101"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="104"/>
       <c r="I23" s="105"/>
       <c r="J23" s="90"/>
     </row>
@@ -8609,33 +8909,33 @@
         <v>[Medicinal plants Article-14]</v>
       </c>
       <c r="B24" s="109" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C24" s="143" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D24" s="144" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E24" s="103"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="101"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="104"/>
       <c r="I24" s="105"/>
       <c r="J24" s="90"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
       <c r="A25" s="140"/>
       <c r="B25" s="140" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" s="200"/>
-      <c r="D25" s="201"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
+        <v>186</v>
+      </c>
+      <c r="C25" s="233"/>
+      <c r="D25" s="233"/>
+      <c r="E25" s="233"/>
+      <c r="F25" s="233"/>
+      <c r="G25" s="233"/>
+      <c r="H25" s="233"/>
+      <c r="I25" s="234"/>
       <c r="J25" s="90"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1">
@@ -8644,13 +8944,13 @@
         <v>[Medicinal plants Article-16]</v>
       </c>
       <c r="B26" s="97" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C26" s="143" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D26" s="97" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E26" s="103"/>
       <c r="F26" s="95"/>
@@ -8665,13 +8965,13 @@
         <v>[Medicinal plants Article-17]</v>
       </c>
       <c r="B27" s="97" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C27" s="143" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D27" s="97" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E27" s="146"/>
       <c r="F27" s="95"/>
@@ -8686,13 +8986,13 @@
         <v>[Medicinal plants Article-18]</v>
       </c>
       <c r="B28" s="109" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C28" s="143" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D28" s="166" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E28" s="146"/>
       <c r="F28" s="95"/>
@@ -8707,13 +9007,13 @@
         <v>[Medicinal plants Article-19]</v>
       </c>
       <c r="B29" s="109" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C29" s="143" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D29" s="97" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E29" s="146"/>
       <c r="F29" s="95"/>
@@ -8728,13 +9028,13 @@
         <v>[Medicinal plants Article-20]</v>
       </c>
       <c r="B30" s="109" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C30" s="143" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D30" s="97" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E30" s="146"/>
       <c r="F30" s="95"/>
@@ -8749,13 +9049,13 @@
         <v>[Medicinal plants Article-21]</v>
       </c>
       <c r="B31" s="109" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C31" s="143" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D31" s="97" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E31" s="146"/>
       <c r="F31" s="95"/>
@@ -8770,13 +9070,13 @@
         <v>[Medicinal plants Article-22]</v>
       </c>
       <c r="B32" s="109" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C32" s="143" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D32" s="97" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E32" s="146"/>
       <c r="F32" s="95"/>
@@ -8791,13 +9091,13 @@
         <v>[Medicinal plants Article-23]</v>
       </c>
       <c r="B33" s="109" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C33" s="143" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D33" s="97" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E33" s="146"/>
       <c r="F33" s="95"/>
@@ -8812,15 +9112,15 @@
         <v>[Medicinal plants Article-24]</v>
       </c>
       <c r="B34" s="109" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C34" s="143" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D34" s="97" t="s">
-        <v>184</v>
-      </c>
-      <c r="E34" s="146"/>
+        <v>182</v>
+      </c>
+      <c r="E34" s="150"/>
       <c r="F34" s="95"/>
       <c r="G34" s="95"/>
       <c r="H34" s="157"/>
@@ -8833,17 +9133,17 @@
         <v>[Medicinal plants Article-25]</v>
       </c>
       <c r="B35" s="109" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C35" s="143" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D35" s="97" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E35" s="146"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
       <c r="H35" s="157"/>
       <c r="I35" s="146"/>
       <c r="J35" s="90"/>
@@ -8854,17 +9154,17 @@
         <v>[Medicinal plants Article-26]</v>
       </c>
       <c r="B36" s="109" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C36" s="143" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D36" s="97" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E36" s="146"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
       <c r="H36" s="157"/>
       <c r="I36" s="146"/>
       <c r="J36" s="90"/>
@@ -8875,17 +9175,17 @@
         <v>[Medicinal plants Article-27]</v>
       </c>
       <c r="B37" s="175" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C37" s="143" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D37" s="144" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E37" s="146"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
       <c r="H37" s="157"/>
       <c r="I37" s="146"/>
       <c r="J37" s="90"/>
@@ -8893,15 +9193,15 @@
     <row r="38" spans="1:10" ht="14.25" customHeight="1">
       <c r="A38" s="145"/>
       <c r="B38" s="158" t="s">
-        <v>194</v>
-      </c>
-      <c r="C38" s="198"/>
-      <c r="D38" s="199"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="145"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="145"/>
-      <c r="I38" s="145"/>
+        <v>192</v>
+      </c>
+      <c r="C38" s="235"/>
+      <c r="D38" s="235"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="235"/>
+      <c r="G38" s="235"/>
+      <c r="H38" s="235"/>
+      <c r="I38" s="236"/>
       <c r="J38" s="90"/>
     </row>
     <row r="39" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1">
@@ -8910,13 +9210,13 @@
         <v>[Medicinal plants Article-29]</v>
       </c>
       <c r="B39" s="172" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C39" s="173" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D39" s="173" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E39" s="168"/>
       <c r="F39" s="168"/>
@@ -8930,13 +9230,13 @@
         <v>[Medicinal plants Article-30]</v>
       </c>
       <c r="B40" s="172" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C40" s="173" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D40" s="173" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E40" s="168"/>
       <c r="F40" s="168"/>
@@ -8950,13 +9250,13 @@
         <v>[Medicinal plants Article-31]</v>
       </c>
       <c r="B41" s="178" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C41" s="171" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D41" s="106" t="s">
-        <v>210</v>
+        <v>359</v>
       </c>
       <c r="E41" s="174"/>
       <c r="F41" s="160"/>
@@ -8971,33 +9271,33 @@
         <v>[Medicinal plants Article-32]</v>
       </c>
       <c r="B42" s="179" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" s="137" t="s">
-        <v>190</v>
-      </c>
-      <c r="D42" s="97" t="s">
-        <v>211</v>
-      </c>
-      <c r="E42" s="146"/>
+        <v>187</v>
+      </c>
+      <c r="C42" s="136" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" s="139" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42" s="150"/>
       <c r="F42" s="95"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="157"/>
-      <c r="I42" s="146"/>
+      <c r="G42" s="139"/>
+      <c r="H42" s="195"/>
+      <c r="I42" s="150"/>
       <c r="J42" s="90"/>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1">
       <c r="A43" s="145"/>
       <c r="B43" s="141" t="s">
-        <v>191</v>
-      </c>
-      <c r="C43" s="200"/>
-      <c r="D43" s="201"/>
-      <c r="E43" s="145"/>
-      <c r="F43" s="145"/>
-      <c r="G43" s="145"/>
-      <c r="H43" s="145"/>
-      <c r="I43" s="145"/>
+        <v>189</v>
+      </c>
+      <c r="C43" s="237"/>
+      <c r="D43" s="237"/>
+      <c r="E43" s="237"/>
+      <c r="F43" s="237"/>
+      <c r="G43" s="237"/>
+      <c r="H43" s="237"/>
+      <c r="I43" s="237"/>
       <c r="J43" s="90"/>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1">
@@ -9006,19 +9306,19 @@
         <v>[Medicinal plants Article-34]</v>
       </c>
       <c r="B44" s="97" t="s">
-        <v>200</v>
-      </c>
-      <c r="C44" s="137" t="s">
-        <v>204</v>
-      </c>
-      <c r="D44" s="97" t="s">
-        <v>213</v>
-      </c>
-      <c r="E44" s="146"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="157"/>
-      <c r="I44" s="146"/>
+        <v>198</v>
+      </c>
+      <c r="C44" s="171" t="s">
+        <v>202</v>
+      </c>
+      <c r="D44" s="196" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" s="174"/>
+      <c r="F44" s="160"/>
+      <c r="G44" s="196"/>
+      <c r="H44" s="197"/>
+      <c r="I44" s="174"/>
       <c r="J44" s="90"/>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1">
@@ -9027,13 +9327,13 @@
         <v>[Medicinal plants Article-35]</v>
       </c>
       <c r="B45" s="97" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C45" s="137" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D45" s="97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E45" s="146"/>
       <c r="F45" s="95"/>
@@ -9048,13 +9348,13 @@
         <v>[Medicinal plants Article-36]</v>
       </c>
       <c r="B46" s="109" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C46" s="137" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D46" s="97" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E46" s="146"/>
       <c r="F46" s="95"/>
@@ -9069,13 +9369,13 @@
         <v>[Medicinal plants Article-37]</v>
       </c>
       <c r="B47" s="109" t="s">
+        <v>199</v>
+      </c>
+      <c r="C47" s="137" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="97" t="s">
         <v>201</v>
-      </c>
-      <c r="C47" s="137" t="s">
-        <v>202</v>
-      </c>
-      <c r="D47" s="97" t="s">
-        <v>203</v>
       </c>
       <c r="E47" s="146"/>
       <c r="F47" s="95"/>
@@ -9090,33 +9390,33 @@
         <v>[Medicinal plants Article-38]</v>
       </c>
       <c r="B48" s="175" t="s">
-        <v>205</v>
-      </c>
-      <c r="C48" s="137" t="s">
-        <v>214</v>
-      </c>
-      <c r="D48" s="97" t="s">
-        <v>208</v>
-      </c>
-      <c r="E48" s="146"/>
+        <v>203</v>
+      </c>
+      <c r="C48" s="136" t="s">
+        <v>210</v>
+      </c>
+      <c r="D48" s="139" t="s">
+        <v>360</v>
+      </c>
+      <c r="E48" s="150"/>
       <c r="F48" s="95"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="157"/>
-      <c r="I48" s="146"/>
+      <c r="G48" s="139"/>
+      <c r="H48" s="195"/>
+      <c r="I48" s="150"/>
       <c r="J48" s="90"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1">
       <c r="A49" s="145"/>
       <c r="B49" s="141" t="s">
-        <v>206</v>
-      </c>
-      <c r="C49" s="200"/>
-      <c r="D49" s="201"/>
-      <c r="E49" s="145"/>
-      <c r="F49" s="145"/>
-      <c r="G49" s="145"/>
-      <c r="H49" s="145"/>
-      <c r="I49" s="145"/>
+        <v>204</v>
+      </c>
+      <c r="C49" s="237"/>
+      <c r="D49" s="237"/>
+      <c r="E49" s="237"/>
+      <c r="F49" s="237"/>
+      <c r="G49" s="237"/>
+      <c r="H49" s="237"/>
+      <c r="I49" s="237"/>
       <c r="J49" s="90"/>
     </row>
     <row r="50" spans="1:10" ht="14.25" customHeight="1">
@@ -9125,19 +9425,19 @@
         <v>[Medicinal plants Article-40]</v>
       </c>
       <c r="B50" s="176" t="s">
-        <v>216</v>
-      </c>
-      <c r="C50" s="142" t="s">
-        <v>217</v>
-      </c>
-      <c r="D50" s="139" t="s">
-        <v>218</v>
-      </c>
-      <c r="E50" s="146"/>
-      <c r="F50" s="95"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="157"/>
-      <c r="I50" s="146"/>
+        <v>212</v>
+      </c>
+      <c r="C50" s="180" t="s">
+        <v>213</v>
+      </c>
+      <c r="D50" s="181" t="s">
+        <v>214</v>
+      </c>
+      <c r="E50" s="174"/>
+      <c r="F50" s="160"/>
+      <c r="G50" s="196"/>
+      <c r="H50" s="197"/>
+      <c r="I50" s="174"/>
       <c r="J50" s="90"/>
     </row>
     <row r="51" spans="1:10" ht="14.25" customHeight="1">
@@ -9146,13 +9446,13 @@
         <v>[Medicinal plants Article-41]</v>
       </c>
       <c r="B51" s="109" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C51" s="137" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D51" s="97" t="s">
-        <v>219</v>
+        <v>361</v>
       </c>
       <c r="E51" s="146"/>
       <c r="F51" s="95"/>
@@ -9167,13 +9467,13 @@
         <v>[Medicinal plants Article-42]</v>
       </c>
       <c r="B52" s="109" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C52" s="137" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D52" s="97" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E52" s="146"/>
       <c r="F52" s="95"/>
@@ -9188,33 +9488,33 @@
         <v>[Medicinal plants Article-43]</v>
       </c>
       <c r="B53" s="109" t="s">
-        <v>224</v>
-      </c>
-      <c r="C53" s="143" t="s">
-        <v>225</v>
-      </c>
-      <c r="D53" s="97" t="s">
-        <v>226</v>
-      </c>
-      <c r="E53" s="146"/>
+        <v>219</v>
+      </c>
+      <c r="C53" s="142" t="s">
+        <v>220</v>
+      </c>
+      <c r="D53" s="139" t="s">
+        <v>221</v>
+      </c>
+      <c r="E53" s="150"/>
       <c r="F53" s="95"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="157"/>
-      <c r="I53" s="146"/>
+      <c r="G53" s="139"/>
+      <c r="H53" s="195"/>
+      <c r="I53" s="150"/>
       <c r="J53" s="90"/>
     </row>
     <row r="54" spans="1:10" ht="14.25" customHeight="1">
       <c r="A54" s="145"/>
       <c r="B54" s="141" t="s">
-        <v>228</v>
-      </c>
-      <c r="C54" s="200"/>
-      <c r="D54" s="201"/>
-      <c r="E54" s="145"/>
-      <c r="F54" s="145"/>
-      <c r="G54" s="145"/>
-      <c r="H54" s="145"/>
-      <c r="I54" s="145"/>
+        <v>223</v>
+      </c>
+      <c r="C54" s="237"/>
+      <c r="D54" s="237"/>
+      <c r="E54" s="237"/>
+      <c r="F54" s="237"/>
+      <c r="G54" s="237"/>
+      <c r="H54" s="237"/>
+      <c r="I54" s="237"/>
       <c r="J54" s="90"/>
     </row>
     <row r="55" spans="1:10" ht="14.25" customHeight="1">
@@ -9223,19 +9523,19 @@
         <v>[Medicinal plants Article-45]</v>
       </c>
       <c r="B55" s="139" t="s">
-        <v>229</v>
-      </c>
-      <c r="C55" s="142" t="s">
-        <v>214</v>
-      </c>
-      <c r="D55" s="139" t="s">
-        <v>231</v>
-      </c>
-      <c r="E55" s="146"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="97"/>
-      <c r="H55" s="157"/>
-      <c r="I55" s="146"/>
+        <v>224</v>
+      </c>
+      <c r="C55" s="180" t="s">
+        <v>210</v>
+      </c>
+      <c r="D55" s="181" t="s">
+        <v>362</v>
+      </c>
+      <c r="E55" s="174"/>
+      <c r="F55" s="160"/>
+      <c r="G55" s="196"/>
+      <c r="H55" s="197"/>
+      <c r="I55" s="174"/>
       <c r="J55" s="90"/>
     </row>
     <row r="56" spans="1:10" ht="14.25" customHeight="1">
@@ -9244,13 +9544,13 @@
         <v>[Medicinal plants Article-46]</v>
       </c>
       <c r="B56" s="97" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C56" s="97" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D56" s="97" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E56" s="146"/>
       <c r="F56" s="95"/>
@@ -9262,15 +9562,15 @@
     <row r="57" spans="1:10" ht="14.25" customHeight="1">
       <c r="A57" s="140"/>
       <c r="B57" s="182" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C57" s="184"/>
-      <c r="D57" s="183"/>
-      <c r="E57" s="145"/>
-      <c r="F57" s="145"/>
-      <c r="G57" s="145"/>
-      <c r="H57" s="145"/>
-      <c r="I57" s="145"/>
+      <c r="D57" s="182"/>
+      <c r="E57" s="184"/>
+      <c r="F57" s="184"/>
+      <c r="G57" s="184"/>
+      <c r="H57" s="184"/>
+      <c r="I57" s="183"/>
       <c r="J57" s="90"/>
     </row>
     <row r="58" spans="1:10" ht="14.25" customHeight="1">
@@ -9279,19 +9579,19 @@
         <v>[Medicinal plants Article-48]</v>
       </c>
       <c r="B58" s="160" t="s">
-        <v>235</v>
+        <v>371</v>
       </c>
       <c r="C58" s="180" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D58" s="181" t="s">
-        <v>237</v>
-      </c>
-      <c r="E58" s="150"/>
-      <c r="F58" s="95"/>
-      <c r="G58" s="97"/>
-      <c r="H58" s="157"/>
-      <c r="I58" s="150"/>
+        <v>358</v>
+      </c>
+      <c r="E58" s="198"/>
+      <c r="F58" s="160"/>
+      <c r="G58" s="196"/>
+      <c r="H58" s="197"/>
+      <c r="I58" s="198"/>
       <c r="J58" s="90"/>
     </row>
     <row r="59" spans="1:10" ht="14.25" customHeight="1">
@@ -9300,13 +9600,13 @@
         <v>[Medicinal plants Article-49]</v>
       </c>
       <c r="B59" s="97" t="s">
-        <v>238</v>
+        <v>372</v>
       </c>
       <c r="C59" s="97" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D59" s="97" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E59" s="146"/>
       <c r="F59" s="95"/>
@@ -9944,16 +10244,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="C49:I49"/>
+    <mergeCell ref="C54:I54"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:G24 F26:G37 F41:G42 F44:G48 F58:G111 F50:G53 F55:G56">
@@ -9973,8 +10273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW66"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10253,14 +10553,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="214" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
+      <c r="B2" s="238" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -10511,14 +10811,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="214" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="214"/>
+      <c r="B3" s="238" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -10769,14 +11069,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="215" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
+      <c r="B4" s="239" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -11034,11 +11334,11 @@
       <c r="D5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="216" t="s">
+      <c r="E5" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="216"/>
-      <c r="G5" s="216"/>
+      <c r="F5" s="240"/>
+      <c r="G5" s="240"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -11302,12 +11602,12 @@
         <f>COUNTIF(F12:G161,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="217">
+      <c r="E6" s="241">
         <f>COUNTA(A12:A161)*2</f>
         <v>94</v>
       </c>
-      <c r="F6" s="217"/>
-      <c r="G6" s="217"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -12334,10 +12634,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>35</v>
@@ -12590,7 +12890,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="51"/>
       <c r="B11" s="51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -12847,13 +13147,13 @@
         <v>[Remedy Article-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C12" s="109" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D12" s="95" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E12" s="98"/>
       <c r="F12" s="109"/>
@@ -12868,13 +13168,13 @@
         <v>[Remedy Article-3]</v>
       </c>
       <c r="B13" s="139" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C13" s="142" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E13" s="103"/>
       <c r="F13" s="109"/>
@@ -12889,13 +13189,13 @@
         <v>[Remedy Article-4]</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C14" s="143" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D14" s="166" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="109"/>
@@ -12910,16 +13210,16 @@
         <v>[Remedy Article-5]</v>
       </c>
       <c r="B15" s="109" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C15" s="143" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E15" s="107"/>
-      <c r="F15" s="109"/>
+      <c r="F15" s="95"/>
       <c r="G15" s="109"/>
       <c r="H15" s="107"/>
       <c r="I15" s="107"/>
@@ -12931,19 +13231,19 @@
         <v>[Remedy Article-6]</v>
       </c>
       <c r="B16" s="109" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C16" s="143" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>335</v>
-      </c>
-      <c r="E16" s="107"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
+        <v>327</v>
+      </c>
+      <c r="E16" s="202"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="202"/>
+      <c r="I16" s="202"/>
       <c r="J16" s="90"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1">
@@ -12952,19 +13252,19 @@
         <v>[Remedy Article-7]</v>
       </c>
       <c r="B17" s="109" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C17" s="143" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>336</v>
-      </c>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
+        <v>328</v>
+      </c>
+      <c r="E17" s="168"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="168"/>
       <c r="J17" s="90"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1">
@@ -12973,19 +13273,19 @@
         <v>[Remedy Article-8]</v>
       </c>
       <c r="B18" s="109" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="143" t="s">
         <v>262</v>
       </c>
-      <c r="C18" s="143" t="s">
-        <v>269</v>
-      </c>
       <c r="D18" s="97" t="s">
-        <v>340</v>
-      </c>
-      <c r="E18" s="145"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
+        <v>332</v>
+      </c>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
       <c r="J18" s="90"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1">
@@ -12994,19 +13294,19 @@
         <v>[Remedy Article-9]</v>
       </c>
       <c r="B19" s="109" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C19" s="143" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D19" s="97" t="s">
-        <v>339</v>
-      </c>
-      <c r="E19" s="153"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="146"/>
+        <v>331</v>
+      </c>
+      <c r="E19" s="203"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="174"/>
       <c r="J19" s="90"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1">
@@ -13015,13 +13315,13 @@
         <v>[Remedy Article-10]</v>
       </c>
       <c r="B20" s="109" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C20" s="143" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D20" s="97" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E20" s="153"/>
       <c r="F20" s="109"/>
@@ -13036,13 +13336,13 @@
         <v>[Remedy Article-11]</v>
       </c>
       <c r="B21" s="109" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C21" s="143" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D21" s="97" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E21" s="153"/>
       <c r="F21" s="109"/>
@@ -13057,19 +13357,19 @@
         <v>[Remedy Article-12]</v>
       </c>
       <c r="B22" s="109" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C22" s="143" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D22" s="97" t="s">
-        <v>344</v>
-      </c>
-      <c r="E22" s="153"/>
+        <v>336</v>
+      </c>
+      <c r="E22" s="191"/>
       <c r="F22" s="185"/>
       <c r="G22" s="185"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="146"/>
+      <c r="H22" s="192"/>
+      <c r="I22" s="193"/>
       <c r="J22" s="90"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
@@ -13078,19 +13378,19 @@
         <v>[Remedy Article-13]</v>
       </c>
       <c r="B23" s="109" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C23" s="143" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D23" s="97" t="s">
-        <v>345</v>
-      </c>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
+        <v>337</v>
+      </c>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="168"/>
       <c r="J23" s="90"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
@@ -13099,19 +13399,19 @@
         <v>[Remedy Article-14]</v>
       </c>
       <c r="B24" s="109" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C24" s="143" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D24" s="97" t="s">
-        <v>350</v>
-      </c>
-      <c r="E24" s="145"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
+        <v>342</v>
+      </c>
+      <c r="E24" s="168"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="190"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="168"/>
       <c r="J24" s="90"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
@@ -13120,19 +13420,19 @@
         <v>[Remedy Article-15]</v>
       </c>
       <c r="B25" s="109" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C25" s="143" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D25" s="97" t="s">
-        <v>349</v>
-      </c>
-      <c r="E25" s="146"/>
+        <v>341</v>
+      </c>
+      <c r="E25" s="193"/>
       <c r="F25" s="109"/>
       <c r="G25" s="109"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="146"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="193"/>
       <c r="J25" s="90"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1">
@@ -13141,19 +13441,19 @@
         <v>[Remedy Article-16]</v>
       </c>
       <c r="B26" s="109" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C26" s="143" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D26" s="97" t="s">
-        <v>352</v>
-      </c>
-      <c r="E26" s="146"/>
+        <v>344</v>
+      </c>
+      <c r="E26" s="193"/>
       <c r="F26" s="109"/>
       <c r="G26" s="109"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="146"/>
+      <c r="H26" s="192"/>
+      <c r="I26" s="193"/>
       <c r="J26" s="90"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1">
@@ -13162,13 +13462,13 @@
         <v>[Remedy Article-17]</v>
       </c>
       <c r="B27" s="109" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C27" s="143" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D27" s="97" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E27" s="146"/>
       <c r="F27" s="109"/>
@@ -13183,13 +13483,13 @@
         <v>[Remedy Article-18]</v>
       </c>
       <c r="B28" s="109" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C28" s="143" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D28" s="97" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E28" s="146"/>
       <c r="F28" s="185"/>
@@ -13204,33 +13504,33 @@
         <v>[Remedy Article-19]</v>
       </c>
       <c r="B29" s="109" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C29" s="143" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D29" s="97" t="s">
-        <v>353</v>
-      </c>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
+        <v>345</v>
+      </c>
+      <c r="E29" s="168"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="168"/>
+      <c r="I29" s="168"/>
       <c r="J29" s="90"/>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1">
       <c r="A30" s="140"/>
       <c r="B30" s="140" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="200"/>
-      <c r="D30" s="201"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="146"/>
+        <v>186</v>
+      </c>
+      <c r="C30" s="233"/>
+      <c r="D30" s="233"/>
+      <c r="E30" s="233"/>
+      <c r="F30" s="233"/>
+      <c r="G30" s="233"/>
+      <c r="H30" s="233"/>
+      <c r="I30" s="234"/>
       <c r="J30" s="90"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1">
@@ -13239,13 +13539,13 @@
         <v>[Remedy Article-21]</v>
       </c>
       <c r="B31" s="97" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C31" s="143" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D31" s="97" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E31" s="146"/>
       <c r="F31" s="109"/>
@@ -13260,13 +13560,13 @@
         <v>[Remedy Article-22]</v>
       </c>
       <c r="B32" s="97" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C32" s="143" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D32" s="97" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E32" s="146"/>
       <c r="F32" s="109"/>
@@ -13281,13 +13581,13 @@
         <v>[Remedy Article-23]</v>
       </c>
       <c r="B33" s="109" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C33" s="143" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D33" s="166" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E33" s="146"/>
       <c r="F33" s="109"/>
@@ -13302,13 +13602,13 @@
         <v>[Remedy Article-24]</v>
       </c>
       <c r="B34" s="109" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C34" s="143" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D34" s="97" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E34" s="146"/>
       <c r="F34" s="109"/>
@@ -13323,13 +13623,13 @@
         <v>[Remedy Article-25]</v>
       </c>
       <c r="B35" s="109" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C35" s="143" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D35" s="97" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E35" s="146"/>
       <c r="F35" s="109"/>
@@ -13340,17 +13640,17 @@
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1">
       <c r="A36" s="138" t="str">
-        <f t="shared" ref="A36:A60" si="3">IF(OR(B36&lt;&gt;"",D36&lt;E35&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A36:A58" si="3">IF(OR(B36&lt;&gt;"",D36&lt;E35&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Remedy Article-26]</v>
       </c>
       <c r="B36" s="109" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C36" s="143" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D36" s="97" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E36" s="146"/>
       <c r="F36" s="109"/>
@@ -13365,13 +13665,13 @@
         <v>[Remedy Article-27]</v>
       </c>
       <c r="B37" s="109" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C37" s="143" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D37" s="97" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E37" s="146"/>
       <c r="F37" s="109"/>
@@ -13386,13 +13686,13 @@
         <v>[Remedy Article-28]</v>
       </c>
       <c r="B38" s="109" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C38" s="143" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D38" s="97" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E38" s="146"/>
       <c r="F38" s="109"/>
@@ -13407,13 +13707,13 @@
         <v>[Remedy Article-29]</v>
       </c>
       <c r="B39" s="109" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C39" s="143" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D39" s="97" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E39" s="146"/>
       <c r="F39" s="109"/>
@@ -13428,13 +13728,13 @@
         <v>[Remedy Article-30]</v>
       </c>
       <c r="B40" s="109" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C40" s="143" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D40" s="97" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E40" s="146"/>
       <c r="F40" s="109"/>
@@ -13449,19 +13749,19 @@
         <v>[Remedy Article-31]</v>
       </c>
       <c r="B41" s="109" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C41" s="143" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D41" s="97" t="s">
-        <v>289</v>
-      </c>
-      <c r="E41" s="145"/>
-      <c r="F41" s="145"/>
-      <c r="G41" s="145"/>
-      <c r="H41" s="145"/>
-      <c r="I41" s="145"/>
+        <v>282</v>
+      </c>
+      <c r="E41" s="168"/>
+      <c r="F41" s="168"/>
+      <c r="G41" s="168"/>
+      <c r="H41" s="168"/>
+      <c r="I41" s="168"/>
       <c r="J41" s="90"/>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1">
@@ -13470,13 +13770,13 @@
         <v>[Remedy Article-32]</v>
       </c>
       <c r="B42" s="175" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C42" s="143" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D42" s="144" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E42" s="146"/>
       <c r="F42" s="109"/>
@@ -13488,15 +13788,15 @@
     <row r="43" spans="1:10" ht="14.25" customHeight="1">
       <c r="A43" s="145"/>
       <c r="B43" s="158" t="s">
-        <v>194</v>
-      </c>
-      <c r="C43" s="198"/>
-      <c r="D43" s="199"/>
-      <c r="E43" s="146"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="109"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="146"/>
+        <v>192</v>
+      </c>
+      <c r="C43" s="233"/>
+      <c r="D43" s="233"/>
+      <c r="E43" s="233"/>
+      <c r="F43" s="233"/>
+      <c r="G43" s="233"/>
+      <c r="H43" s="233"/>
+      <c r="I43" s="234"/>
       <c r="J43" s="90"/>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1">
@@ -13505,13 +13805,13 @@
         <v>[Remedy Article-34]</v>
       </c>
       <c r="B44" s="172" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C44" s="173" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D44" s="173" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E44" s="146"/>
       <c r="F44" s="109"/>
@@ -13526,13 +13826,13 @@
         <v>[Remedy Article-35]</v>
       </c>
       <c r="B45" s="172" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C45" s="173" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D45" s="173" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E45" s="146"/>
       <c r="F45" s="109"/>
@@ -13547,19 +13847,19 @@
         <v>[Remedy Article-36]</v>
       </c>
       <c r="B46" s="178" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C46" s="171" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D46" s="106" t="s">
-        <v>295</v>
-      </c>
-      <c r="E46" s="146"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="109"/>
-      <c r="H46" s="147"/>
-      <c r="I46" s="146"/>
+        <v>364</v>
+      </c>
+      <c r="E46" s="150"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="201"/>
+      <c r="I46" s="150"/>
       <c r="J46" s="90"/>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1">
@@ -13568,33 +13868,33 @@
         <v>[Remedy Article-37]</v>
       </c>
       <c r="B47" s="179" t="s">
-        <v>189</v>
-      </c>
-      <c r="C47" s="137" t="s">
-        <v>292</v>
-      </c>
-      <c r="D47" s="97" t="s">
-        <v>296</v>
-      </c>
-      <c r="E47" s="145"/>
-      <c r="F47" s="145"/>
-      <c r="G47" s="145"/>
-      <c r="H47" s="145"/>
-      <c r="I47" s="145"/>
+        <v>187</v>
+      </c>
+      <c r="C47" s="136" t="s">
+        <v>285</v>
+      </c>
+      <c r="D47" s="139" t="s">
+        <v>289</v>
+      </c>
+      <c r="E47" s="205"/>
+      <c r="F47" s="205"/>
+      <c r="G47" s="205"/>
+      <c r="H47" s="205"/>
+      <c r="I47" s="205"/>
       <c r="J47" s="90"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1">
       <c r="A48" s="145"/>
-      <c r="B48" s="141" t="s">
-        <v>191</v>
-      </c>
-      <c r="C48" s="200"/>
-      <c r="D48" s="201"/>
-      <c r="E48" s="146"/>
-      <c r="F48" s="109"/>
-      <c r="G48" s="109"/>
-      <c r="H48" s="159"/>
-      <c r="I48" s="146"/>
+      <c r="B48" s="245" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="246"/>
+      <c r="D48" s="246"/>
+      <c r="E48" s="246"/>
+      <c r="F48" s="246"/>
+      <c r="G48" s="246"/>
+      <c r="H48" s="246"/>
+      <c r="I48" s="247"/>
       <c r="J48" s="90"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1">
@@ -13603,19 +13903,19 @@
         <v>[Remedy Article-39]</v>
       </c>
       <c r="B49" s="97" t="s">
-        <v>200</v>
-      </c>
-      <c r="C49" s="137" t="s">
-        <v>297</v>
-      </c>
-      <c r="D49" s="97" t="s">
-        <v>358</v>
-      </c>
-      <c r="E49" s="145"/>
-      <c r="F49" s="145"/>
-      <c r="G49" s="145"/>
-      <c r="H49" s="145"/>
-      <c r="I49" s="145"/>
+        <v>198</v>
+      </c>
+      <c r="C49" s="171" t="s">
+        <v>290</v>
+      </c>
+      <c r="D49" s="196" t="s">
+        <v>350</v>
+      </c>
+      <c r="E49" s="206"/>
+      <c r="F49" s="206"/>
+      <c r="G49" s="206"/>
+      <c r="H49" s="206"/>
+      <c r="I49" s="206"/>
       <c r="J49" s="90"/>
     </row>
     <row r="50" spans="1:10" ht="14.25" customHeight="1">
@@ -13624,19 +13924,19 @@
         <v>[Remedy Article-40]</v>
       </c>
       <c r="B50" s="97" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C50" s="137" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D50" s="97" t="s">
-        <v>299</v>
-      </c>
-      <c r="E50" s="146"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="147"/>
-      <c r="I50" s="146"/>
+        <v>292</v>
+      </c>
+      <c r="E50" s="198"/>
+      <c r="F50" s="160"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="204"/>
+      <c r="I50" s="198"/>
       <c r="J50" s="90"/>
     </row>
     <row r="51" spans="1:10" ht="14.25" customHeight="1">
@@ -13645,40 +13945,40 @@
         <v>[Remedy Article-41]</v>
       </c>
       <c r="B51" s="109" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C51" s="137" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D51" s="97" t="s">
-        <v>301</v>
-      </c>
-      <c r="E51" s="145"/>
-      <c r="F51" s="145"/>
-      <c r="G51" s="145"/>
-      <c r="H51" s="145"/>
-      <c r="I51" s="145"/>
+        <v>294</v>
+      </c>
+      <c r="E51" s="168"/>
+      <c r="F51" s="168"/>
+      <c r="G51" s="168"/>
+      <c r="H51" s="168"/>
+      <c r="I51" s="168"/>
       <c r="J51" s="90"/>
     </row>
     <row r="52" spans="1:10" ht="14.25" customHeight="1">
       <c r="A52" s="138" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(B52&lt;&gt;"",D52&lt;E51&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Remedy Article-42]</v>
       </c>
       <c r="B52" s="109" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C52" s="137" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D52" s="97" t="s">
-        <v>303</v>
-      </c>
-      <c r="E52" s="146"/>
-      <c r="F52" s="109"/>
-      <c r="G52" s="109"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="146"/>
+        <v>296</v>
+      </c>
+      <c r="E52" s="174"/>
+      <c r="F52" s="199"/>
+      <c r="G52" s="199"/>
+      <c r="H52" s="200"/>
+      <c r="I52" s="174"/>
       <c r="J52" s="90"/>
     </row>
     <row r="53" spans="1:10" ht="14.25" customHeight="1">
@@ -13687,13 +13987,13 @@
         <v>[Remedy Article-43]</v>
       </c>
       <c r="B53" s="175" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C53" s="137" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D53" s="97" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="E53" s="146"/>
       <c r="F53" s="109"/>
@@ -13704,31 +14004,31 @@
     </row>
     <row r="54" spans="1:10" ht="14.25" customHeight="1">
       <c r="A54" s="145"/>
-      <c r="B54" s="141" t="s">
-        <v>206</v>
-      </c>
-      <c r="C54" s="200"/>
-      <c r="D54" s="201"/>
-      <c r="E54" s="146"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="147"/>
-      <c r="I54" s="146"/>
+      <c r="B54" s="242" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" s="243"/>
+      <c r="D54" s="243"/>
+      <c r="E54" s="243"/>
+      <c r="F54" s="243"/>
+      <c r="G54" s="243"/>
+      <c r="H54" s="243"/>
+      <c r="I54" s="244"/>
       <c r="J54" s="90"/>
     </row>
     <row r="55" spans="1:10" ht="14.25" customHeight="1">
       <c r="A55" s="96" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(B55&lt;&gt;"",D55&lt;E54&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Remedy Article-45]</v>
       </c>
       <c r="B55" s="176" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C55" s="142" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D55" s="139" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E55" s="146"/>
       <c r="F55" s="109"/>
@@ -13743,13 +14043,13 @@
         <v>[Remedy Article-46]</v>
       </c>
       <c r="B56" s="109" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C56" s="137" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D56" s="97" t="s">
-        <v>308</v>
+        <v>366</v>
       </c>
       <c r="E56" s="146"/>
       <c r="F56" s="109"/>
@@ -13764,13 +14064,13 @@
         <v>[Remedy Article-47]</v>
       </c>
       <c r="B57" s="109" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C57" s="137" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D57" s="97" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E57" s="146"/>
       <c r="F57" s="109"/>
@@ -13785,13 +14085,13 @@
         <v>[Remedy Article-48]</v>
       </c>
       <c r="B58" s="109" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C58" s="143" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D58" s="97" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E58" s="146"/>
       <c r="F58" s="109"/>
@@ -13802,37 +14102,37 @@
     </row>
     <row r="59" spans="1:10" ht="14.25" customHeight="1">
       <c r="A59" s="145"/>
-      <c r="B59" s="141" t="s">
-        <v>228</v>
-      </c>
-      <c r="C59" s="200"/>
-      <c r="D59" s="201"/>
-      <c r="E59" s="146"/>
-      <c r="F59" s="109"/>
-      <c r="G59" s="109"/>
-      <c r="H59" s="147"/>
-      <c r="I59" s="146"/>
+      <c r="B59" s="242" t="s">
+        <v>223</v>
+      </c>
+      <c r="C59" s="243"/>
+      <c r="D59" s="243"/>
+      <c r="E59" s="243"/>
+      <c r="F59" s="243"/>
+      <c r="G59" s="243"/>
+      <c r="H59" s="243"/>
+      <c r="I59" s="244"/>
       <c r="J59" s="90"/>
     </row>
     <row r="60" spans="1:10" ht="14.25" customHeight="1">
       <c r="A60" s="96" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(B60&lt;&gt;"",D60&lt;E59&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Remedy Article-50]</v>
       </c>
       <c r="B60" s="139" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C60" s="142" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D60" s="139" t="s">
-        <v>313</v>
-      </c>
-      <c r="E60" s="145"/>
-      <c r="F60" s="145"/>
-      <c r="G60" s="145"/>
-      <c r="H60" s="145"/>
-      <c r="I60" s="145"/>
+        <v>367</v>
+      </c>
+      <c r="E60" s="168"/>
+      <c r="F60" s="168"/>
+      <c r="G60" s="168"/>
+      <c r="H60" s="168"/>
+      <c r="I60" s="168"/>
       <c r="J60" s="90"/>
     </row>
     <row r="61" spans="1:10" ht="14.25" customHeight="1">
@@ -13841,33 +14141,33 @@
         <v>[Remedy Article-51]</v>
       </c>
       <c r="B61" s="97" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C61" s="97" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D61" s="97" t="s">
-        <v>315</v>
-      </c>
-      <c r="E61" s="146"/>
-      <c r="F61" s="109"/>
-      <c r="G61" s="109"/>
-      <c r="H61" s="147"/>
-      <c r="I61" s="146"/>
+        <v>308</v>
+      </c>
+      <c r="E61" s="168"/>
+      <c r="F61" s="168"/>
+      <c r="G61" s="168"/>
+      <c r="H61" s="168"/>
+      <c r="I61" s="168"/>
       <c r="J61" s="90"/>
     </row>
     <row r="62" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A62" s="218"/>
-      <c r="B62" s="219" t="s">
-        <v>207</v>
+      <c r="A62" s="187"/>
+      <c r="B62" s="182" t="s">
+        <v>205</v>
       </c>
       <c r="C62" s="184"/>
-      <c r="D62" s="183"/>
-      <c r="E62" s="146"/>
-      <c r="F62" s="109"/>
-      <c r="G62" s="109"/>
-      <c r="H62" s="147"/>
-      <c r="I62" s="146"/>
+      <c r="D62" s="184"/>
+      <c r="E62" s="184"/>
+      <c r="F62" s="184"/>
+      <c r="G62" s="184"/>
+      <c r="H62" s="184"/>
+      <c r="I62" s="208"/>
       <c r="J62" s="90"/>
     </row>
     <row r="63" spans="1:10" ht="14.25" customHeight="1">
@@ -13876,19 +14176,19 @@
         <v>[Remedy Article-53]</v>
       </c>
       <c r="B63" s="97" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C63" s="185" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D63" s="181" t="s">
-        <v>317</v>
-      </c>
-      <c r="E63" s="146"/>
-      <c r="F63" s="109"/>
-      <c r="G63" s="109"/>
+        <v>368</v>
+      </c>
+      <c r="E63" s="174"/>
+      <c r="F63" s="199"/>
+      <c r="G63" s="199"/>
       <c r="H63" s="159"/>
-      <c r="I63" s="146"/>
+      <c r="I63" s="207"/>
       <c r="J63" s="90"/>
     </row>
     <row r="64" spans="1:10" ht="14.25" customHeight="1">
@@ -13897,13 +14197,13 @@
         <v>[Remedy Article-54]</v>
       </c>
       <c r="B64" s="97" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C64" s="179" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D64" s="97" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E64" s="146"/>
       <c r="F64" s="109"/>
@@ -13920,19 +14220,19 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B59:I59"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C59:D59"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F61:G64 F50:G50 F48:G48 F19:G22 F25:G28 F12:G16 F42:G46 F52:G59 F30:G40">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F55:G58 F50:G50 F44:G46 F19:G22 F25:G28 F12:G16 F31:G40 F42:G42 F52:G53 F61:G61 F63:G64">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -13943,4 +14243,4212 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="21.875" style="90" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="90" customWidth="1"/>
+    <col min="3" max="3" width="34.375" style="90" customWidth="1"/>
+    <col min="4" max="4" width="25.375" style="90" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="90" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="90" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="90" customWidth="1"/>
+    <col min="8" max="8" width="9" style="93"/>
+    <col min="9" max="9" width="16.5" style="90" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="92" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="90" customWidth="1"/>
+    <col min="12" max="16" width="9" style="90"/>
+    <col min="17" max="17" width="0" style="90" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:257" ht="13.5" thickBot="1">
+      <c r="A1" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="78"/>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="78"/>
+      <c r="BA1" s="78"/>
+      <c r="BB1" s="78"/>
+      <c r="BC1" s="78"/>
+      <c r="BD1" s="78"/>
+      <c r="BE1" s="78"/>
+      <c r="BF1" s="78"/>
+      <c r="BG1" s="78"/>
+      <c r="BH1" s="78"/>
+      <c r="BI1" s="78"/>
+      <c r="BJ1" s="78"/>
+      <c r="BK1" s="78"/>
+      <c r="BL1" s="78"/>
+      <c r="BM1" s="78"/>
+      <c r="BN1" s="78"/>
+      <c r="BO1" s="78"/>
+      <c r="BP1" s="78"/>
+      <c r="BQ1" s="78"/>
+      <c r="BR1" s="78"/>
+      <c r="BS1" s="78"/>
+      <c r="BT1" s="78"/>
+      <c r="BU1" s="78"/>
+      <c r="BV1" s="78"/>
+      <c r="BW1" s="78"/>
+      <c r="BX1" s="78"/>
+      <c r="BY1" s="78"/>
+      <c r="BZ1" s="78"/>
+      <c r="CA1" s="78"/>
+      <c r="CB1" s="78"/>
+      <c r="CC1" s="78"/>
+      <c r="CD1" s="78"/>
+      <c r="CE1" s="78"/>
+      <c r="CF1" s="78"/>
+      <c r="CG1" s="78"/>
+      <c r="CH1" s="78"/>
+      <c r="CI1" s="78"/>
+      <c r="CJ1" s="78"/>
+      <c r="CK1" s="78"/>
+      <c r="CL1" s="78"/>
+      <c r="CM1" s="78"/>
+      <c r="CN1" s="78"/>
+      <c r="CO1" s="78"/>
+      <c r="CP1" s="78"/>
+      <c r="CQ1" s="78"/>
+      <c r="CR1" s="78"/>
+      <c r="CS1" s="78"/>
+      <c r="CT1" s="78"/>
+      <c r="CU1" s="78"/>
+      <c r="CV1" s="78"/>
+      <c r="CW1" s="78"/>
+      <c r="CX1" s="78"/>
+      <c r="CY1" s="78"/>
+      <c r="CZ1" s="78"/>
+      <c r="DA1" s="78"/>
+      <c r="DB1" s="78"/>
+      <c r="DC1" s="78"/>
+      <c r="DD1" s="78"/>
+      <c r="DE1" s="78"/>
+      <c r="DF1" s="78"/>
+      <c r="DG1" s="78"/>
+      <c r="DH1" s="78"/>
+      <c r="DI1" s="78"/>
+      <c r="DJ1" s="78"/>
+      <c r="DK1" s="78"/>
+      <c r="DL1" s="78"/>
+      <c r="DM1" s="78"/>
+      <c r="DN1" s="78"/>
+      <c r="DO1" s="78"/>
+      <c r="DP1" s="78"/>
+      <c r="DQ1" s="78"/>
+      <c r="DR1" s="78"/>
+      <c r="DS1" s="78"/>
+      <c r="DT1" s="78"/>
+      <c r="DU1" s="78"/>
+      <c r="DV1" s="78"/>
+      <c r="DW1" s="78"/>
+      <c r="DX1" s="78"/>
+      <c r="DY1" s="78"/>
+      <c r="DZ1" s="78"/>
+      <c r="EA1" s="78"/>
+      <c r="EB1" s="78"/>
+      <c r="EC1" s="78"/>
+      <c r="ED1" s="78"/>
+      <c r="EE1" s="78"/>
+      <c r="EF1" s="78"/>
+      <c r="EG1" s="78"/>
+      <c r="EH1" s="78"/>
+      <c r="EI1" s="78"/>
+      <c r="EJ1" s="78"/>
+      <c r="EK1" s="78"/>
+      <c r="EL1" s="78"/>
+      <c r="EM1" s="78"/>
+      <c r="EN1" s="78"/>
+      <c r="EO1" s="78"/>
+      <c r="EP1" s="78"/>
+      <c r="EQ1" s="78"/>
+      <c r="ER1" s="78"/>
+      <c r="ES1" s="78"/>
+      <c r="ET1" s="78"/>
+      <c r="EU1" s="78"/>
+      <c r="EV1" s="78"/>
+      <c r="EW1" s="78"/>
+      <c r="EX1" s="78"/>
+      <c r="EY1" s="78"/>
+      <c r="EZ1" s="78"/>
+      <c r="FA1" s="78"/>
+      <c r="FB1" s="78"/>
+      <c r="FC1" s="78"/>
+      <c r="FD1" s="78"/>
+      <c r="FE1" s="78"/>
+      <c r="FF1" s="78"/>
+      <c r="FG1" s="78"/>
+      <c r="FH1" s="78"/>
+      <c r="FI1" s="78"/>
+      <c r="FJ1" s="78"/>
+      <c r="FK1" s="78"/>
+      <c r="FL1" s="78"/>
+      <c r="FM1" s="78"/>
+      <c r="FN1" s="78"/>
+      <c r="FO1" s="78"/>
+      <c r="FP1" s="78"/>
+      <c r="FQ1" s="78"/>
+      <c r="FR1" s="78"/>
+      <c r="FS1" s="78"/>
+      <c r="FT1" s="78"/>
+      <c r="FU1" s="78"/>
+      <c r="FV1" s="78"/>
+      <c r="FW1" s="78"/>
+      <c r="FX1" s="78"/>
+      <c r="FY1" s="78"/>
+      <c r="FZ1" s="78"/>
+      <c r="GA1" s="78"/>
+      <c r="GB1" s="78"/>
+      <c r="GC1" s="78"/>
+      <c r="GD1" s="78"/>
+      <c r="GE1" s="78"/>
+      <c r="GF1" s="78"/>
+      <c r="GG1" s="78"/>
+      <c r="GH1" s="78"/>
+      <c r="GI1" s="78"/>
+      <c r="GJ1" s="78"/>
+      <c r="GK1" s="78"/>
+      <c r="GL1" s="78"/>
+      <c r="GM1" s="78"/>
+      <c r="GN1" s="78"/>
+      <c r="GO1" s="78"/>
+      <c r="GP1" s="78"/>
+      <c r="GQ1" s="78"/>
+      <c r="GR1" s="78"/>
+      <c r="GS1" s="78"/>
+      <c r="GT1" s="78"/>
+      <c r="GU1" s="78"/>
+      <c r="GV1" s="78"/>
+      <c r="GW1" s="78"/>
+      <c r="GX1" s="78"/>
+      <c r="GY1" s="78"/>
+      <c r="GZ1" s="78"/>
+      <c r="HA1" s="78"/>
+      <c r="HB1" s="78"/>
+      <c r="HC1" s="78"/>
+      <c r="HD1" s="78"/>
+      <c r="HE1" s="78"/>
+      <c r="HF1" s="78"/>
+      <c r="HG1" s="78"/>
+      <c r="HH1" s="78"/>
+      <c r="HI1" s="78"/>
+      <c r="HJ1" s="78"/>
+      <c r="HK1" s="78"/>
+      <c r="HL1" s="78"/>
+      <c r="HM1" s="78"/>
+      <c r="HN1" s="78"/>
+      <c r="HO1" s="78"/>
+      <c r="HP1" s="78"/>
+      <c r="HQ1" s="78"/>
+      <c r="HR1" s="78"/>
+      <c r="HS1" s="78"/>
+      <c r="HT1" s="78"/>
+      <c r="HU1" s="78"/>
+      <c r="HV1" s="78"/>
+      <c r="HW1" s="78"/>
+      <c r="HX1" s="78"/>
+      <c r="HY1" s="78"/>
+      <c r="HZ1" s="78"/>
+      <c r="IA1" s="78"/>
+      <c r="IB1" s="78"/>
+      <c r="IC1" s="78"/>
+      <c r="ID1" s="78"/>
+      <c r="IE1" s="78"/>
+      <c r="IF1" s="78"/>
+      <c r="IG1" s="78"/>
+      <c r="IH1" s="78"/>
+      <c r="II1" s="78"/>
+      <c r="IJ1" s="78"/>
+      <c r="IK1" s="78"/>
+      <c r="IL1" s="78"/>
+      <c r="IM1" s="78"/>
+      <c r="IN1" s="78"/>
+      <c r="IO1" s="78"/>
+      <c r="IP1" s="78"/>
+    </row>
+    <row r="2" spans="1:257">
+      <c r="A2" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="238" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="78"/>
+      <c r="AO2" s="78"/>
+      <c r="AP2" s="78"/>
+      <c r="AQ2" s="78"/>
+      <c r="AR2" s="78"/>
+      <c r="AS2" s="78"/>
+      <c r="AT2" s="78"/>
+      <c r="AU2" s="78"/>
+      <c r="AV2" s="78"/>
+      <c r="AW2" s="78"/>
+      <c r="AX2" s="78"/>
+      <c r="AY2" s="78"/>
+      <c r="AZ2" s="78"/>
+      <c r="BA2" s="78"/>
+      <c r="BB2" s="78"/>
+      <c r="BC2" s="78"/>
+      <c r="BD2" s="78"/>
+      <c r="BE2" s="78"/>
+      <c r="BF2" s="78"/>
+      <c r="BG2" s="78"/>
+      <c r="BH2" s="78"/>
+      <c r="BI2" s="78"/>
+      <c r="BJ2" s="78"/>
+      <c r="BK2" s="78"/>
+      <c r="BL2" s="78"/>
+      <c r="BM2" s="78"/>
+      <c r="BN2" s="78"/>
+      <c r="BO2" s="78"/>
+      <c r="BP2" s="78"/>
+      <c r="BQ2" s="78"/>
+      <c r="BR2" s="78"/>
+      <c r="BS2" s="78"/>
+      <c r="BT2" s="78"/>
+      <c r="BU2" s="78"/>
+      <c r="BV2" s="78"/>
+      <c r="BW2" s="78"/>
+      <c r="BX2" s="78"/>
+      <c r="BY2" s="78"/>
+      <c r="BZ2" s="78"/>
+      <c r="CA2" s="78"/>
+      <c r="CB2" s="78"/>
+      <c r="CC2" s="78"/>
+      <c r="CD2" s="78"/>
+      <c r="CE2" s="78"/>
+      <c r="CF2" s="78"/>
+      <c r="CG2" s="78"/>
+      <c r="CH2" s="78"/>
+      <c r="CI2" s="78"/>
+      <c r="CJ2" s="78"/>
+      <c r="CK2" s="78"/>
+      <c r="CL2" s="78"/>
+      <c r="CM2" s="78"/>
+      <c r="CN2" s="78"/>
+      <c r="CO2" s="78"/>
+      <c r="CP2" s="78"/>
+      <c r="CQ2" s="78"/>
+      <c r="CR2" s="78"/>
+      <c r="CS2" s="78"/>
+      <c r="CT2" s="78"/>
+      <c r="CU2" s="78"/>
+      <c r="CV2" s="78"/>
+      <c r="CW2" s="78"/>
+      <c r="CX2" s="78"/>
+      <c r="CY2" s="78"/>
+      <c r="CZ2" s="78"/>
+      <c r="DA2" s="78"/>
+      <c r="DB2" s="78"/>
+      <c r="DC2" s="78"/>
+      <c r="DD2" s="78"/>
+      <c r="DE2" s="78"/>
+      <c r="DF2" s="78"/>
+      <c r="DG2" s="78"/>
+      <c r="DH2" s="78"/>
+      <c r="DI2" s="78"/>
+      <c r="DJ2" s="78"/>
+      <c r="DK2" s="78"/>
+      <c r="DL2" s="78"/>
+      <c r="DM2" s="78"/>
+      <c r="DN2" s="78"/>
+      <c r="DO2" s="78"/>
+      <c r="DP2" s="78"/>
+      <c r="DQ2" s="78"/>
+      <c r="DR2" s="78"/>
+      <c r="DS2" s="78"/>
+      <c r="DT2" s="78"/>
+      <c r="DU2" s="78"/>
+      <c r="DV2" s="78"/>
+      <c r="DW2" s="78"/>
+      <c r="DX2" s="78"/>
+      <c r="DY2" s="78"/>
+      <c r="DZ2" s="78"/>
+      <c r="EA2" s="78"/>
+      <c r="EB2" s="78"/>
+      <c r="EC2" s="78"/>
+      <c r="ED2" s="78"/>
+      <c r="EE2" s="78"/>
+      <c r="EF2" s="78"/>
+      <c r="EG2" s="78"/>
+      <c r="EH2" s="78"/>
+      <c r="EI2" s="78"/>
+      <c r="EJ2" s="78"/>
+      <c r="EK2" s="78"/>
+      <c r="EL2" s="78"/>
+      <c r="EM2" s="78"/>
+      <c r="EN2" s="78"/>
+      <c r="EO2" s="78"/>
+      <c r="EP2" s="78"/>
+      <c r="EQ2" s="78"/>
+      <c r="ER2" s="78"/>
+      <c r="ES2" s="78"/>
+      <c r="ET2" s="78"/>
+      <c r="EU2" s="78"/>
+      <c r="EV2" s="78"/>
+      <c r="EW2" s="78"/>
+      <c r="EX2" s="78"/>
+      <c r="EY2" s="78"/>
+      <c r="EZ2" s="78"/>
+      <c r="FA2" s="78"/>
+      <c r="FB2" s="78"/>
+      <c r="FC2" s="78"/>
+      <c r="FD2" s="78"/>
+      <c r="FE2" s="78"/>
+      <c r="FF2" s="78"/>
+      <c r="FG2" s="78"/>
+      <c r="FH2" s="78"/>
+      <c r="FI2" s="78"/>
+      <c r="FJ2" s="78"/>
+      <c r="FK2" s="78"/>
+      <c r="FL2" s="78"/>
+      <c r="FM2" s="78"/>
+      <c r="FN2" s="78"/>
+      <c r="FO2" s="78"/>
+      <c r="FP2" s="78"/>
+      <c r="FQ2" s="78"/>
+      <c r="FR2" s="78"/>
+      <c r="FS2" s="78"/>
+      <c r="FT2" s="78"/>
+      <c r="FU2" s="78"/>
+      <c r="FV2" s="78"/>
+      <c r="FW2" s="78"/>
+      <c r="FX2" s="78"/>
+      <c r="FY2" s="78"/>
+      <c r="FZ2" s="78"/>
+      <c r="GA2" s="78"/>
+      <c r="GB2" s="78"/>
+      <c r="GC2" s="78"/>
+      <c r="GD2" s="78"/>
+      <c r="GE2" s="78"/>
+      <c r="GF2" s="78"/>
+      <c r="GG2" s="78"/>
+      <c r="GH2" s="78"/>
+      <c r="GI2" s="78"/>
+      <c r="GJ2" s="78"/>
+      <c r="GK2" s="78"/>
+      <c r="GL2" s="78"/>
+      <c r="GM2" s="78"/>
+      <c r="GN2" s="78"/>
+      <c r="GO2" s="78"/>
+      <c r="GP2" s="78"/>
+      <c r="GQ2" s="78"/>
+      <c r="GR2" s="78"/>
+      <c r="GS2" s="78"/>
+      <c r="GT2" s="78"/>
+      <c r="GU2" s="78"/>
+      <c r="GV2" s="78"/>
+      <c r="GW2" s="78"/>
+      <c r="GX2" s="78"/>
+      <c r="GY2" s="78"/>
+      <c r="GZ2" s="78"/>
+      <c r="HA2" s="78"/>
+      <c r="HB2" s="78"/>
+      <c r="HC2" s="78"/>
+      <c r="HD2" s="78"/>
+      <c r="HE2" s="78"/>
+      <c r="HF2" s="78"/>
+      <c r="HG2" s="78"/>
+      <c r="HH2" s="78"/>
+      <c r="HI2" s="78"/>
+      <c r="HJ2" s="78"/>
+      <c r="HK2" s="78"/>
+      <c r="HL2" s="78"/>
+      <c r="HM2" s="78"/>
+      <c r="HN2" s="78"/>
+      <c r="HO2" s="78"/>
+      <c r="HP2" s="78"/>
+      <c r="HQ2" s="78"/>
+      <c r="HR2" s="78"/>
+      <c r="HS2" s="78"/>
+      <c r="HT2" s="78"/>
+      <c r="HU2" s="78"/>
+      <c r="HV2" s="78"/>
+      <c r="HW2" s="78"/>
+      <c r="HX2" s="78"/>
+      <c r="HY2" s="78"/>
+      <c r="HZ2" s="78"/>
+      <c r="IA2" s="78"/>
+      <c r="IB2" s="78"/>
+      <c r="IC2" s="78"/>
+      <c r="ID2" s="78"/>
+      <c r="IE2" s="78"/>
+      <c r="IF2" s="78"/>
+      <c r="IG2" s="78"/>
+      <c r="IH2" s="78"/>
+      <c r="II2" s="78"/>
+      <c r="IJ2" s="78"/>
+      <c r="IK2" s="78"/>
+      <c r="IL2" s="78"/>
+      <c r="IM2" s="78"/>
+      <c r="IN2" s="78"/>
+      <c r="IO2" s="78"/>
+      <c r="IP2" s="78"/>
+    </row>
+    <row r="3" spans="1:257">
+      <c r="A3" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="238" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="78"/>
+      <c r="AO3" s="78"/>
+      <c r="AP3" s="78"/>
+      <c r="AQ3" s="78"/>
+      <c r="AR3" s="78"/>
+      <c r="AS3" s="78"/>
+      <c r="AT3" s="78"/>
+      <c r="AU3" s="78"/>
+      <c r="AV3" s="78"/>
+      <c r="AW3" s="78"/>
+      <c r="AX3" s="78"/>
+      <c r="AY3" s="78"/>
+      <c r="AZ3" s="78"/>
+      <c r="BA3" s="78"/>
+      <c r="BB3" s="78"/>
+      <c r="BC3" s="78"/>
+      <c r="BD3" s="78"/>
+      <c r="BE3" s="78"/>
+      <c r="BF3" s="78"/>
+      <c r="BG3" s="78"/>
+      <c r="BH3" s="78"/>
+      <c r="BI3" s="78"/>
+      <c r="BJ3" s="78"/>
+      <c r="BK3" s="78"/>
+      <c r="BL3" s="78"/>
+      <c r="BM3" s="78"/>
+      <c r="BN3" s="78"/>
+      <c r="BO3" s="78"/>
+      <c r="BP3" s="78"/>
+      <c r="BQ3" s="78"/>
+      <c r="BR3" s="78"/>
+      <c r="BS3" s="78"/>
+      <c r="BT3" s="78"/>
+      <c r="BU3" s="78"/>
+      <c r="BV3" s="78"/>
+      <c r="BW3" s="78"/>
+      <c r="BX3" s="78"/>
+      <c r="BY3" s="78"/>
+      <c r="BZ3" s="78"/>
+      <c r="CA3" s="78"/>
+      <c r="CB3" s="78"/>
+      <c r="CC3" s="78"/>
+      <c r="CD3" s="78"/>
+      <c r="CE3" s="78"/>
+      <c r="CF3" s="78"/>
+      <c r="CG3" s="78"/>
+      <c r="CH3" s="78"/>
+      <c r="CI3" s="78"/>
+      <c r="CJ3" s="78"/>
+      <c r="CK3" s="78"/>
+      <c r="CL3" s="78"/>
+      <c r="CM3" s="78"/>
+      <c r="CN3" s="78"/>
+      <c r="CO3" s="78"/>
+      <c r="CP3" s="78"/>
+      <c r="CQ3" s="78"/>
+      <c r="CR3" s="78"/>
+      <c r="CS3" s="78"/>
+      <c r="CT3" s="78"/>
+      <c r="CU3" s="78"/>
+      <c r="CV3" s="78"/>
+      <c r="CW3" s="78"/>
+      <c r="CX3" s="78"/>
+      <c r="CY3" s="78"/>
+      <c r="CZ3" s="78"/>
+      <c r="DA3" s="78"/>
+      <c r="DB3" s="78"/>
+      <c r="DC3" s="78"/>
+      <c r="DD3" s="78"/>
+      <c r="DE3" s="78"/>
+      <c r="DF3" s="78"/>
+      <c r="DG3" s="78"/>
+      <c r="DH3" s="78"/>
+      <c r="DI3" s="78"/>
+      <c r="DJ3" s="78"/>
+      <c r="DK3" s="78"/>
+      <c r="DL3" s="78"/>
+      <c r="DM3" s="78"/>
+      <c r="DN3" s="78"/>
+      <c r="DO3" s="78"/>
+      <c r="DP3" s="78"/>
+      <c r="DQ3" s="78"/>
+      <c r="DR3" s="78"/>
+      <c r="DS3" s="78"/>
+      <c r="DT3" s="78"/>
+      <c r="DU3" s="78"/>
+      <c r="DV3" s="78"/>
+      <c r="DW3" s="78"/>
+      <c r="DX3" s="78"/>
+      <c r="DY3" s="78"/>
+      <c r="DZ3" s="78"/>
+      <c r="EA3" s="78"/>
+      <c r="EB3" s="78"/>
+      <c r="EC3" s="78"/>
+      <c r="ED3" s="78"/>
+      <c r="EE3" s="78"/>
+      <c r="EF3" s="78"/>
+      <c r="EG3" s="78"/>
+      <c r="EH3" s="78"/>
+      <c r="EI3" s="78"/>
+      <c r="EJ3" s="78"/>
+      <c r="EK3" s="78"/>
+      <c r="EL3" s="78"/>
+      <c r="EM3" s="78"/>
+      <c r="EN3" s="78"/>
+      <c r="EO3" s="78"/>
+      <c r="EP3" s="78"/>
+      <c r="EQ3" s="78"/>
+      <c r="ER3" s="78"/>
+      <c r="ES3" s="78"/>
+      <c r="ET3" s="78"/>
+      <c r="EU3" s="78"/>
+      <c r="EV3" s="78"/>
+      <c r="EW3" s="78"/>
+      <c r="EX3" s="78"/>
+      <c r="EY3" s="78"/>
+      <c r="EZ3" s="78"/>
+      <c r="FA3" s="78"/>
+      <c r="FB3" s="78"/>
+      <c r="FC3" s="78"/>
+      <c r="FD3" s="78"/>
+      <c r="FE3" s="78"/>
+      <c r="FF3" s="78"/>
+      <c r="FG3" s="78"/>
+      <c r="FH3" s="78"/>
+      <c r="FI3" s="78"/>
+      <c r="FJ3" s="78"/>
+      <c r="FK3" s="78"/>
+      <c r="FL3" s="78"/>
+      <c r="FM3" s="78"/>
+      <c r="FN3" s="78"/>
+      <c r="FO3" s="78"/>
+      <c r="FP3" s="78"/>
+      <c r="FQ3" s="78"/>
+      <c r="FR3" s="78"/>
+      <c r="FS3" s="78"/>
+      <c r="FT3" s="78"/>
+      <c r="FU3" s="78"/>
+      <c r="FV3" s="78"/>
+      <c r="FW3" s="78"/>
+      <c r="FX3" s="78"/>
+      <c r="FY3" s="78"/>
+      <c r="FZ3" s="78"/>
+      <c r="GA3" s="78"/>
+      <c r="GB3" s="78"/>
+      <c r="GC3" s="78"/>
+      <c r="GD3" s="78"/>
+      <c r="GE3" s="78"/>
+      <c r="GF3" s="78"/>
+      <c r="GG3" s="78"/>
+      <c r="GH3" s="78"/>
+      <c r="GI3" s="78"/>
+      <c r="GJ3" s="78"/>
+      <c r="GK3" s="78"/>
+      <c r="GL3" s="78"/>
+      <c r="GM3" s="78"/>
+      <c r="GN3" s="78"/>
+      <c r="GO3" s="78"/>
+      <c r="GP3" s="78"/>
+      <c r="GQ3" s="78"/>
+      <c r="GR3" s="78"/>
+      <c r="GS3" s="78"/>
+      <c r="GT3" s="78"/>
+      <c r="GU3" s="78"/>
+      <c r="GV3" s="78"/>
+      <c r="GW3" s="78"/>
+      <c r="GX3" s="78"/>
+      <c r="GY3" s="78"/>
+      <c r="GZ3" s="78"/>
+      <c r="HA3" s="78"/>
+      <c r="HB3" s="78"/>
+      <c r="HC3" s="78"/>
+      <c r="HD3" s="78"/>
+      <c r="HE3" s="78"/>
+      <c r="HF3" s="78"/>
+      <c r="HG3" s="78"/>
+      <c r="HH3" s="78"/>
+      <c r="HI3" s="78"/>
+      <c r="HJ3" s="78"/>
+      <c r="HK3" s="78"/>
+      <c r="HL3" s="78"/>
+      <c r="HM3" s="78"/>
+      <c r="HN3" s="78"/>
+      <c r="HO3" s="78"/>
+      <c r="HP3" s="78"/>
+      <c r="HQ3" s="78"/>
+      <c r="HR3" s="78"/>
+      <c r="HS3" s="78"/>
+      <c r="HT3" s="78"/>
+      <c r="HU3" s="78"/>
+      <c r="HV3" s="78"/>
+      <c r="HW3" s="78"/>
+      <c r="HX3" s="78"/>
+      <c r="HY3" s="78"/>
+      <c r="HZ3" s="78"/>
+      <c r="IA3" s="78"/>
+      <c r="IB3" s="78"/>
+      <c r="IC3" s="78"/>
+      <c r="ID3" s="78"/>
+      <c r="IE3" s="78"/>
+      <c r="IF3" s="78"/>
+      <c r="IG3" s="78"/>
+      <c r="IH3" s="78"/>
+      <c r="II3" s="78"/>
+      <c r="IJ3" s="78"/>
+      <c r="IK3" s="78"/>
+      <c r="IL3" s="78"/>
+      <c r="IM3" s="78"/>
+      <c r="IN3" s="78"/>
+      <c r="IO3" s="78"/>
+      <c r="IP3" s="78"/>
+    </row>
+    <row r="4" spans="1:257">
+      <c r="A4" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="239" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="78"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="78"/>
+      <c r="AI4" s="78"/>
+      <c r="AJ4" s="78"/>
+      <c r="AK4" s="78"/>
+      <c r="AL4" s="78"/>
+      <c r="AM4" s="78"/>
+      <c r="AN4" s="78"/>
+      <c r="AO4" s="78"/>
+      <c r="AP4" s="78"/>
+      <c r="AQ4" s="78"/>
+      <c r="AR4" s="78"/>
+      <c r="AS4" s="78"/>
+      <c r="AT4" s="78"/>
+      <c r="AU4" s="78"/>
+      <c r="AV4" s="78"/>
+      <c r="AW4" s="78"/>
+      <c r="AX4" s="78"/>
+      <c r="AY4" s="78"/>
+      <c r="AZ4" s="78"/>
+      <c r="BA4" s="78"/>
+      <c r="BB4" s="78"/>
+      <c r="BC4" s="78"/>
+      <c r="BD4" s="78"/>
+      <c r="BE4" s="78"/>
+      <c r="BF4" s="78"/>
+      <c r="BG4" s="78"/>
+      <c r="BH4" s="78"/>
+      <c r="BI4" s="78"/>
+      <c r="BJ4" s="78"/>
+      <c r="BK4" s="78"/>
+      <c r="BL4" s="78"/>
+      <c r="BM4" s="78"/>
+      <c r="BN4" s="78"/>
+      <c r="BO4" s="78"/>
+      <c r="BP4" s="78"/>
+      <c r="BQ4" s="78"/>
+      <c r="BR4" s="78"/>
+      <c r="BS4" s="78"/>
+      <c r="BT4" s="78"/>
+      <c r="BU4" s="78"/>
+      <c r="BV4" s="78"/>
+      <c r="BW4" s="78"/>
+      <c r="BX4" s="78"/>
+      <c r="BY4" s="78"/>
+      <c r="BZ4" s="78"/>
+      <c r="CA4" s="78"/>
+      <c r="CB4" s="78"/>
+      <c r="CC4" s="78"/>
+      <c r="CD4" s="78"/>
+      <c r="CE4" s="78"/>
+      <c r="CF4" s="78"/>
+      <c r="CG4" s="78"/>
+      <c r="CH4" s="78"/>
+      <c r="CI4" s="78"/>
+      <c r="CJ4" s="78"/>
+      <c r="CK4" s="78"/>
+      <c r="CL4" s="78"/>
+      <c r="CM4" s="78"/>
+      <c r="CN4" s="78"/>
+      <c r="CO4" s="78"/>
+      <c r="CP4" s="78"/>
+      <c r="CQ4" s="78"/>
+      <c r="CR4" s="78"/>
+      <c r="CS4" s="78"/>
+      <c r="CT4" s="78"/>
+      <c r="CU4" s="78"/>
+      <c r="CV4" s="78"/>
+      <c r="CW4" s="78"/>
+      <c r="CX4" s="78"/>
+      <c r="CY4" s="78"/>
+      <c r="CZ4" s="78"/>
+      <c r="DA4" s="78"/>
+      <c r="DB4" s="78"/>
+      <c r="DC4" s="78"/>
+      <c r="DD4" s="78"/>
+      <c r="DE4" s="78"/>
+      <c r="DF4" s="78"/>
+      <c r="DG4" s="78"/>
+      <c r="DH4" s="78"/>
+      <c r="DI4" s="78"/>
+      <c r="DJ4" s="78"/>
+      <c r="DK4" s="78"/>
+      <c r="DL4" s="78"/>
+      <c r="DM4" s="78"/>
+      <c r="DN4" s="78"/>
+      <c r="DO4" s="78"/>
+      <c r="DP4" s="78"/>
+      <c r="DQ4" s="78"/>
+      <c r="DR4" s="78"/>
+      <c r="DS4" s="78"/>
+      <c r="DT4" s="78"/>
+      <c r="DU4" s="78"/>
+      <c r="DV4" s="78"/>
+      <c r="DW4" s="78"/>
+      <c r="DX4" s="78"/>
+      <c r="DY4" s="78"/>
+      <c r="DZ4" s="78"/>
+      <c r="EA4" s="78"/>
+      <c r="EB4" s="78"/>
+      <c r="EC4" s="78"/>
+      <c r="ED4" s="78"/>
+      <c r="EE4" s="78"/>
+      <c r="EF4" s="78"/>
+      <c r="EG4" s="78"/>
+      <c r="EH4" s="78"/>
+      <c r="EI4" s="78"/>
+      <c r="EJ4" s="78"/>
+      <c r="EK4" s="78"/>
+      <c r="EL4" s="78"/>
+      <c r="EM4" s="78"/>
+      <c r="EN4" s="78"/>
+      <c r="EO4" s="78"/>
+      <c r="EP4" s="78"/>
+      <c r="EQ4" s="78"/>
+      <c r="ER4" s="78"/>
+      <c r="ES4" s="78"/>
+      <c r="ET4" s="78"/>
+      <c r="EU4" s="78"/>
+      <c r="EV4" s="78"/>
+      <c r="EW4" s="78"/>
+      <c r="EX4" s="78"/>
+      <c r="EY4" s="78"/>
+      <c r="EZ4" s="78"/>
+      <c r="FA4" s="78"/>
+      <c r="FB4" s="78"/>
+      <c r="FC4" s="78"/>
+      <c r="FD4" s="78"/>
+      <c r="FE4" s="78"/>
+      <c r="FF4" s="78"/>
+      <c r="FG4" s="78"/>
+      <c r="FH4" s="78"/>
+      <c r="FI4" s="78"/>
+      <c r="FJ4" s="78"/>
+      <c r="FK4" s="78"/>
+      <c r="FL4" s="78"/>
+      <c r="FM4" s="78"/>
+      <c r="FN4" s="78"/>
+      <c r="FO4" s="78"/>
+      <c r="FP4" s="78"/>
+      <c r="FQ4" s="78"/>
+      <c r="FR4" s="78"/>
+      <c r="FS4" s="78"/>
+      <c r="FT4" s="78"/>
+      <c r="FU4" s="78"/>
+      <c r="FV4" s="78"/>
+      <c r="FW4" s="78"/>
+      <c r="FX4" s="78"/>
+      <c r="FY4" s="78"/>
+      <c r="FZ4" s="78"/>
+      <c r="GA4" s="78"/>
+      <c r="GB4" s="78"/>
+      <c r="GC4" s="78"/>
+      <c r="GD4" s="78"/>
+      <c r="GE4" s="78"/>
+      <c r="GF4" s="78"/>
+      <c r="GG4" s="78"/>
+      <c r="GH4" s="78"/>
+      <c r="GI4" s="78"/>
+      <c r="GJ4" s="78"/>
+      <c r="GK4" s="78"/>
+      <c r="GL4" s="78"/>
+      <c r="GM4" s="78"/>
+      <c r="GN4" s="78"/>
+      <c r="GO4" s="78"/>
+      <c r="GP4" s="78"/>
+      <c r="GQ4" s="78"/>
+      <c r="GR4" s="78"/>
+      <c r="GS4" s="78"/>
+      <c r="GT4" s="78"/>
+      <c r="GU4" s="78"/>
+      <c r="GV4" s="78"/>
+      <c r="GW4" s="78"/>
+      <c r="GX4" s="78"/>
+      <c r="GY4" s="78"/>
+      <c r="GZ4" s="78"/>
+      <c r="HA4" s="78"/>
+      <c r="HB4" s="78"/>
+      <c r="HC4" s="78"/>
+      <c r="HD4" s="78"/>
+      <c r="HE4" s="78"/>
+      <c r="HF4" s="78"/>
+      <c r="HG4" s="78"/>
+      <c r="HH4" s="78"/>
+      <c r="HI4" s="78"/>
+      <c r="HJ4" s="78"/>
+      <c r="HK4" s="78"/>
+      <c r="HL4" s="78"/>
+      <c r="HM4" s="78"/>
+      <c r="HN4" s="78"/>
+      <c r="HO4" s="78"/>
+      <c r="HP4" s="78"/>
+      <c r="HQ4" s="78"/>
+      <c r="HR4" s="78"/>
+      <c r="HS4" s="78"/>
+      <c r="HT4" s="78"/>
+      <c r="HU4" s="78"/>
+      <c r="HV4" s="78"/>
+      <c r="HW4" s="78"/>
+      <c r="HX4" s="78"/>
+      <c r="HY4" s="78"/>
+      <c r="HZ4" s="78"/>
+      <c r="IA4" s="78"/>
+      <c r="IB4" s="78"/>
+      <c r="IC4" s="78"/>
+      <c r="ID4" s="78"/>
+      <c r="IE4" s="78"/>
+      <c r="IF4" s="78"/>
+      <c r="IG4" s="78"/>
+      <c r="IH4" s="78"/>
+      <c r="II4" s="78"/>
+      <c r="IJ4" s="78"/>
+      <c r="IK4" s="78"/>
+      <c r="IL4" s="78"/>
+      <c r="IM4" s="78"/>
+      <c r="IN4" s="78"/>
+      <c r="IO4" s="78"/>
+      <c r="IP4" s="78"/>
+    </row>
+    <row r="5" spans="1:257">
+      <c r="A5" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="186" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="240" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="240"/>
+      <c r="G5" s="240"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
+      <c r="AD5" s="78"/>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="78"/>
+      <c r="AG5" s="78"/>
+      <c r="AH5" s="78"/>
+      <c r="AI5" s="78"/>
+      <c r="AJ5" s="78"/>
+      <c r="AK5" s="78"/>
+      <c r="AL5" s="78"/>
+      <c r="AM5" s="78"/>
+      <c r="AN5" s="78"/>
+      <c r="AO5" s="78"/>
+      <c r="AP5" s="78"/>
+      <c r="AQ5" s="78"/>
+      <c r="AR5" s="78"/>
+      <c r="AS5" s="78"/>
+      <c r="AT5" s="78"/>
+      <c r="AU5" s="78"/>
+      <c r="AV5" s="78"/>
+      <c r="AW5" s="78"/>
+      <c r="AX5" s="78"/>
+      <c r="AY5" s="78"/>
+      <c r="AZ5" s="78"/>
+      <c r="BA5" s="78"/>
+      <c r="BB5" s="78"/>
+      <c r="BC5" s="78"/>
+      <c r="BD5" s="78"/>
+      <c r="BE5" s="78"/>
+      <c r="BF5" s="78"/>
+      <c r="BG5" s="78"/>
+      <c r="BH5" s="78"/>
+      <c r="BI5" s="78"/>
+      <c r="BJ5" s="78"/>
+      <c r="BK5" s="78"/>
+      <c r="BL5" s="78"/>
+      <c r="BM5" s="78"/>
+      <c r="BN5" s="78"/>
+      <c r="BO5" s="78"/>
+      <c r="BP5" s="78"/>
+      <c r="BQ5" s="78"/>
+      <c r="BR5" s="78"/>
+      <c r="BS5" s="78"/>
+      <c r="BT5" s="78"/>
+      <c r="BU5" s="78"/>
+      <c r="BV5" s="78"/>
+      <c r="BW5" s="78"/>
+      <c r="BX5" s="78"/>
+      <c r="BY5" s="78"/>
+      <c r="BZ5" s="78"/>
+      <c r="CA5" s="78"/>
+      <c r="CB5" s="78"/>
+      <c r="CC5" s="78"/>
+      <c r="CD5" s="78"/>
+      <c r="CE5" s="78"/>
+      <c r="CF5" s="78"/>
+      <c r="CG5" s="78"/>
+      <c r="CH5" s="78"/>
+      <c r="CI5" s="78"/>
+      <c r="CJ5" s="78"/>
+      <c r="CK5" s="78"/>
+      <c r="CL5" s="78"/>
+      <c r="CM5" s="78"/>
+      <c r="CN5" s="78"/>
+      <c r="CO5" s="78"/>
+      <c r="CP5" s="78"/>
+      <c r="CQ5" s="78"/>
+      <c r="CR5" s="78"/>
+      <c r="CS5" s="78"/>
+      <c r="CT5" s="78"/>
+      <c r="CU5" s="78"/>
+      <c r="CV5" s="78"/>
+      <c r="CW5" s="78"/>
+      <c r="CX5" s="78"/>
+      <c r="CY5" s="78"/>
+      <c r="CZ5" s="78"/>
+      <c r="DA5" s="78"/>
+      <c r="DB5" s="78"/>
+      <c r="DC5" s="78"/>
+      <c r="DD5" s="78"/>
+      <c r="DE5" s="78"/>
+      <c r="DF5" s="78"/>
+      <c r="DG5" s="78"/>
+      <c r="DH5" s="78"/>
+      <c r="DI5" s="78"/>
+      <c r="DJ5" s="78"/>
+      <c r="DK5" s="78"/>
+      <c r="DL5" s="78"/>
+      <c r="DM5" s="78"/>
+      <c r="DN5" s="78"/>
+      <c r="DO5" s="78"/>
+      <c r="DP5" s="78"/>
+      <c r="DQ5" s="78"/>
+      <c r="DR5" s="78"/>
+      <c r="DS5" s="78"/>
+      <c r="DT5" s="78"/>
+      <c r="DU5" s="78"/>
+      <c r="DV5" s="78"/>
+      <c r="DW5" s="78"/>
+      <c r="DX5" s="78"/>
+      <c r="DY5" s="78"/>
+      <c r="DZ5" s="78"/>
+      <c r="EA5" s="78"/>
+      <c r="EB5" s="78"/>
+      <c r="EC5" s="78"/>
+      <c r="ED5" s="78"/>
+      <c r="EE5" s="78"/>
+      <c r="EF5" s="78"/>
+      <c r="EG5" s="78"/>
+      <c r="EH5" s="78"/>
+      <c r="EI5" s="78"/>
+      <c r="EJ5" s="78"/>
+      <c r="EK5" s="78"/>
+      <c r="EL5" s="78"/>
+      <c r="EM5" s="78"/>
+      <c r="EN5" s="78"/>
+      <c r="EO5" s="78"/>
+      <c r="EP5" s="78"/>
+      <c r="EQ5" s="78"/>
+      <c r="ER5" s="78"/>
+      <c r="ES5" s="78"/>
+      <c r="ET5" s="78"/>
+      <c r="EU5" s="78"/>
+      <c r="EV5" s="78"/>
+      <c r="EW5" s="78"/>
+      <c r="EX5" s="78"/>
+      <c r="EY5" s="78"/>
+      <c r="EZ5" s="78"/>
+      <c r="FA5" s="78"/>
+      <c r="FB5" s="78"/>
+      <c r="FC5" s="78"/>
+      <c r="FD5" s="78"/>
+      <c r="FE5" s="78"/>
+      <c r="FF5" s="78"/>
+      <c r="FG5" s="78"/>
+      <c r="FH5" s="78"/>
+      <c r="FI5" s="78"/>
+      <c r="FJ5" s="78"/>
+      <c r="FK5" s="78"/>
+      <c r="FL5" s="78"/>
+      <c r="FM5" s="78"/>
+      <c r="FN5" s="78"/>
+      <c r="FO5" s="78"/>
+      <c r="FP5" s="78"/>
+      <c r="FQ5" s="78"/>
+      <c r="FR5" s="78"/>
+      <c r="FS5" s="78"/>
+      <c r="FT5" s="78"/>
+      <c r="FU5" s="78"/>
+      <c r="FV5" s="78"/>
+      <c r="FW5" s="78"/>
+      <c r="FX5" s="78"/>
+      <c r="FY5" s="78"/>
+      <c r="FZ5" s="78"/>
+      <c r="GA5" s="78"/>
+      <c r="GB5" s="78"/>
+      <c r="GC5" s="78"/>
+      <c r="GD5" s="78"/>
+      <c r="GE5" s="78"/>
+      <c r="GF5" s="78"/>
+      <c r="GG5" s="78"/>
+      <c r="GH5" s="78"/>
+      <c r="GI5" s="78"/>
+      <c r="GJ5" s="78"/>
+      <c r="GK5" s="78"/>
+      <c r="GL5" s="78"/>
+      <c r="GM5" s="78"/>
+      <c r="GN5" s="78"/>
+      <c r="GO5" s="78"/>
+      <c r="GP5" s="78"/>
+      <c r="GQ5" s="78"/>
+      <c r="GR5" s="78"/>
+      <c r="GS5" s="78"/>
+      <c r="GT5" s="78"/>
+      <c r="GU5" s="78"/>
+      <c r="GV5" s="78"/>
+      <c r="GW5" s="78"/>
+      <c r="GX5" s="78"/>
+      <c r="GY5" s="78"/>
+      <c r="GZ5" s="78"/>
+      <c r="HA5" s="78"/>
+      <c r="HB5" s="78"/>
+      <c r="HC5" s="78"/>
+      <c r="HD5" s="78"/>
+      <c r="HE5" s="78"/>
+      <c r="HF5" s="78"/>
+      <c r="HG5" s="78"/>
+      <c r="HH5" s="78"/>
+      <c r="HI5" s="78"/>
+      <c r="HJ5" s="78"/>
+      <c r="HK5" s="78"/>
+      <c r="HL5" s="78"/>
+      <c r="HM5" s="78"/>
+      <c r="HN5" s="78"/>
+      <c r="HO5" s="78"/>
+      <c r="HP5" s="78"/>
+      <c r="HQ5" s="78"/>
+      <c r="HR5" s="78"/>
+      <c r="HS5" s="78"/>
+      <c r="HT5" s="78"/>
+      <c r="HU5" s="78"/>
+      <c r="HV5" s="78"/>
+      <c r="HW5" s="78"/>
+      <c r="HX5" s="78"/>
+      <c r="HY5" s="78"/>
+      <c r="HZ5" s="78"/>
+      <c r="IA5" s="78"/>
+      <c r="IB5" s="78"/>
+      <c r="IC5" s="78"/>
+      <c r="ID5" s="78"/>
+      <c r="IE5" s="78"/>
+      <c r="IF5" s="78"/>
+      <c r="IG5" s="78"/>
+      <c r="IH5" s="78"/>
+      <c r="II5" s="78"/>
+      <c r="IJ5" s="78"/>
+      <c r="IK5" s="78"/>
+      <c r="IL5" s="78"/>
+      <c r="IM5" s="78"/>
+      <c r="IN5" s="78"/>
+      <c r="IO5" s="78"/>
+      <c r="IP5" s="78"/>
+    </row>
+    <row r="6" spans="1:257" ht="13.5" thickBot="1">
+      <c r="A6" s="86">
+        <f>COUNTIF(F12:G161,"Pass")</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="87">
+        <f>COUNTIF(F12:G161,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="87">
+        <f>E6-D6-B6-A6</f>
+        <v>92</v>
+      </c>
+      <c r="D6" s="88">
+        <f>COUNTIF(F12:G161,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="241">
+        <f>COUNTA(A12:A161)*2</f>
+        <v>92</v>
+      </c>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="78"/>
+      <c r="AF6" s="78"/>
+      <c r="AG6" s="78"/>
+      <c r="AH6" s="78"/>
+      <c r="AI6" s="78"/>
+      <c r="AJ6" s="78"/>
+      <c r="AK6" s="78"/>
+      <c r="AL6" s="78"/>
+      <c r="AM6" s="78"/>
+      <c r="AN6" s="78"/>
+      <c r="AO6" s="78"/>
+      <c r="AP6" s="78"/>
+      <c r="AQ6" s="78"/>
+      <c r="AR6" s="78"/>
+      <c r="AS6" s="78"/>
+      <c r="AT6" s="78"/>
+      <c r="AU6" s="78"/>
+      <c r="AV6" s="78"/>
+      <c r="AW6" s="78"/>
+      <c r="AX6" s="78"/>
+      <c r="AY6" s="78"/>
+      <c r="AZ6" s="78"/>
+      <c r="BA6" s="78"/>
+      <c r="BB6" s="78"/>
+      <c r="BC6" s="78"/>
+      <c r="BD6" s="78"/>
+      <c r="BE6" s="78"/>
+      <c r="BF6" s="78"/>
+      <c r="BG6" s="78"/>
+      <c r="BH6" s="78"/>
+      <c r="BI6" s="78"/>
+      <c r="BJ6" s="78"/>
+      <c r="BK6" s="78"/>
+      <c r="BL6" s="78"/>
+      <c r="BM6" s="78"/>
+      <c r="BN6" s="78"/>
+      <c r="BO6" s="78"/>
+      <c r="BP6" s="78"/>
+      <c r="BQ6" s="78"/>
+      <c r="BR6" s="78"/>
+      <c r="BS6" s="78"/>
+      <c r="BT6" s="78"/>
+      <c r="BU6" s="78"/>
+      <c r="BV6" s="78"/>
+      <c r="BW6" s="78"/>
+      <c r="BX6" s="78"/>
+      <c r="BY6" s="78"/>
+      <c r="BZ6" s="78"/>
+      <c r="CA6" s="78"/>
+      <c r="CB6" s="78"/>
+      <c r="CC6" s="78"/>
+      <c r="CD6" s="78"/>
+      <c r="CE6" s="78"/>
+      <c r="CF6" s="78"/>
+      <c r="CG6" s="78"/>
+      <c r="CH6" s="78"/>
+      <c r="CI6" s="78"/>
+      <c r="CJ6" s="78"/>
+      <c r="CK6" s="78"/>
+      <c r="CL6" s="78"/>
+      <c r="CM6" s="78"/>
+      <c r="CN6" s="78"/>
+      <c r="CO6" s="78"/>
+      <c r="CP6" s="78"/>
+      <c r="CQ6" s="78"/>
+      <c r="CR6" s="78"/>
+      <c r="CS6" s="78"/>
+      <c r="CT6" s="78"/>
+      <c r="CU6" s="78"/>
+      <c r="CV6" s="78"/>
+      <c r="CW6" s="78"/>
+      <c r="CX6" s="78"/>
+      <c r="CY6" s="78"/>
+      <c r="CZ6" s="78"/>
+      <c r="DA6" s="78"/>
+      <c r="DB6" s="78"/>
+      <c r="DC6" s="78"/>
+      <c r="DD6" s="78"/>
+      <c r="DE6" s="78"/>
+      <c r="DF6" s="78"/>
+      <c r="DG6" s="78"/>
+      <c r="DH6" s="78"/>
+      <c r="DI6" s="78"/>
+      <c r="DJ6" s="78"/>
+      <c r="DK6" s="78"/>
+      <c r="DL6" s="78"/>
+      <c r="DM6" s="78"/>
+      <c r="DN6" s="78"/>
+      <c r="DO6" s="78"/>
+      <c r="DP6" s="78"/>
+      <c r="DQ6" s="78"/>
+      <c r="DR6" s="78"/>
+      <c r="DS6" s="78"/>
+      <c r="DT6" s="78"/>
+      <c r="DU6" s="78"/>
+      <c r="DV6" s="78"/>
+      <c r="DW6" s="78"/>
+      <c r="DX6" s="78"/>
+      <c r="DY6" s="78"/>
+      <c r="DZ6" s="78"/>
+      <c r="EA6" s="78"/>
+      <c r="EB6" s="78"/>
+      <c r="EC6" s="78"/>
+      <c r="ED6" s="78"/>
+      <c r="EE6" s="78"/>
+      <c r="EF6" s="78"/>
+      <c r="EG6" s="78"/>
+      <c r="EH6" s="78"/>
+      <c r="EI6" s="78"/>
+      <c r="EJ6" s="78"/>
+      <c r="EK6" s="78"/>
+      <c r="EL6" s="78"/>
+      <c r="EM6" s="78"/>
+      <c r="EN6" s="78"/>
+      <c r="EO6" s="78"/>
+      <c r="EP6" s="78"/>
+      <c r="EQ6" s="78"/>
+      <c r="ER6" s="78"/>
+      <c r="ES6" s="78"/>
+      <c r="ET6" s="78"/>
+      <c r="EU6" s="78"/>
+      <c r="EV6" s="78"/>
+      <c r="EW6" s="78"/>
+      <c r="EX6" s="78"/>
+      <c r="EY6" s="78"/>
+      <c r="EZ6" s="78"/>
+      <c r="FA6" s="78"/>
+      <c r="FB6" s="78"/>
+      <c r="FC6" s="78"/>
+      <c r="FD6" s="78"/>
+      <c r="FE6" s="78"/>
+      <c r="FF6" s="78"/>
+      <c r="FG6" s="78"/>
+      <c r="FH6" s="78"/>
+      <c r="FI6" s="78"/>
+      <c r="FJ6" s="78"/>
+      <c r="FK6" s="78"/>
+      <c r="FL6" s="78"/>
+      <c r="FM6" s="78"/>
+      <c r="FN6" s="78"/>
+      <c r="FO6" s="78"/>
+      <c r="FP6" s="78"/>
+      <c r="FQ6" s="78"/>
+      <c r="FR6" s="78"/>
+      <c r="FS6" s="78"/>
+      <c r="FT6" s="78"/>
+      <c r="FU6" s="78"/>
+      <c r="FV6" s="78"/>
+      <c r="FW6" s="78"/>
+      <c r="FX6" s="78"/>
+      <c r="FY6" s="78"/>
+      <c r="FZ6" s="78"/>
+      <c r="GA6" s="78"/>
+      <c r="GB6" s="78"/>
+      <c r="GC6" s="78"/>
+      <c r="GD6" s="78"/>
+      <c r="GE6" s="78"/>
+      <c r="GF6" s="78"/>
+      <c r="GG6" s="78"/>
+      <c r="GH6" s="78"/>
+      <c r="GI6" s="78"/>
+      <c r="GJ6" s="78"/>
+      <c r="GK6" s="78"/>
+      <c r="GL6" s="78"/>
+      <c r="GM6" s="78"/>
+      <c r="GN6" s="78"/>
+      <c r="GO6" s="78"/>
+      <c r="GP6" s="78"/>
+      <c r="GQ6" s="78"/>
+      <c r="GR6" s="78"/>
+      <c r="GS6" s="78"/>
+      <c r="GT6" s="78"/>
+      <c r="GU6" s="78"/>
+      <c r="GV6" s="78"/>
+      <c r="GW6" s="78"/>
+      <c r="GX6" s="78"/>
+      <c r="GY6" s="78"/>
+      <c r="GZ6" s="78"/>
+      <c r="HA6" s="78"/>
+      <c r="HB6" s="78"/>
+      <c r="HC6" s="78"/>
+      <c r="HD6" s="78"/>
+      <c r="HE6" s="78"/>
+      <c r="HF6" s="78"/>
+      <c r="HG6" s="78"/>
+      <c r="HH6" s="78"/>
+      <c r="HI6" s="78"/>
+      <c r="HJ6" s="78"/>
+      <c r="HK6" s="78"/>
+      <c r="HL6" s="78"/>
+      <c r="HM6" s="78"/>
+      <c r="HN6" s="78"/>
+      <c r="HO6" s="78"/>
+      <c r="HP6" s="78"/>
+      <c r="HQ6" s="78"/>
+      <c r="HR6" s="78"/>
+      <c r="HS6" s="78"/>
+      <c r="HT6" s="78"/>
+      <c r="HU6" s="78"/>
+      <c r="HV6" s="78"/>
+      <c r="HW6" s="78"/>
+      <c r="HX6" s="78"/>
+      <c r="HY6" s="78"/>
+      <c r="HZ6" s="78"/>
+      <c r="IA6" s="78"/>
+      <c r="IB6" s="78"/>
+      <c r="IC6" s="78"/>
+      <c r="ID6" s="78"/>
+      <c r="IE6" s="78"/>
+      <c r="IF6" s="78"/>
+      <c r="IG6" s="78"/>
+      <c r="IH6" s="78"/>
+      <c r="II6" s="78"/>
+      <c r="IJ6" s="78"/>
+      <c r="IK6" s="78"/>
+      <c r="IL6" s="78"/>
+      <c r="IM6" s="78"/>
+      <c r="IN6" s="78"/>
+      <c r="IO6" s="78"/>
+      <c r="IP6" s="78"/>
+    </row>
+    <row r="7" spans="1:257">
+      <c r="A7" s="155"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="78"/>
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="78"/>
+      <c r="AI7" s="78"/>
+      <c r="AJ7" s="78"/>
+      <c r="AK7" s="78"/>
+      <c r="AL7" s="78"/>
+      <c r="AM7" s="78"/>
+      <c r="AN7" s="78"/>
+      <c r="AO7" s="78"/>
+      <c r="AP7" s="78"/>
+      <c r="AQ7" s="78"/>
+      <c r="AR7" s="78"/>
+      <c r="AS7" s="78"/>
+      <c r="AT7" s="78"/>
+      <c r="AU7" s="78"/>
+      <c r="AV7" s="78"/>
+      <c r="AW7" s="78"/>
+      <c r="AX7" s="78"/>
+      <c r="AY7" s="78"/>
+      <c r="AZ7" s="78"/>
+      <c r="BA7" s="78"/>
+      <c r="BB7" s="78"/>
+      <c r="BC7" s="78"/>
+      <c r="BD7" s="78"/>
+      <c r="BE7" s="78"/>
+      <c r="BF7" s="78"/>
+      <c r="BG7" s="78"/>
+      <c r="BH7" s="78"/>
+      <c r="BI7" s="78"/>
+      <c r="BJ7" s="78"/>
+      <c r="BK7" s="78"/>
+      <c r="BL7" s="78"/>
+      <c r="BM7" s="78"/>
+      <c r="BN7" s="78"/>
+      <c r="BO7" s="78"/>
+      <c r="BP7" s="78"/>
+      <c r="BQ7" s="78"/>
+      <c r="BR7" s="78"/>
+      <c r="BS7" s="78"/>
+      <c r="BT7" s="78"/>
+      <c r="BU7" s="78"/>
+      <c r="BV7" s="78"/>
+      <c r="BW7" s="78"/>
+      <c r="BX7" s="78"/>
+      <c r="BY7" s="78"/>
+      <c r="BZ7" s="78"/>
+      <c r="CA7" s="78"/>
+      <c r="CB7" s="78"/>
+      <c r="CC7" s="78"/>
+      <c r="CD7" s="78"/>
+      <c r="CE7" s="78"/>
+      <c r="CF7" s="78"/>
+      <c r="CG7" s="78"/>
+      <c r="CH7" s="78"/>
+      <c r="CI7" s="78"/>
+      <c r="CJ7" s="78"/>
+      <c r="CK7" s="78"/>
+      <c r="CL7" s="78"/>
+      <c r="CM7" s="78"/>
+      <c r="CN7" s="78"/>
+      <c r="CO7" s="78"/>
+      <c r="CP7" s="78"/>
+      <c r="CQ7" s="78"/>
+      <c r="CR7" s="78"/>
+      <c r="CS7" s="78"/>
+      <c r="CT7" s="78"/>
+      <c r="CU7" s="78"/>
+      <c r="CV7" s="78"/>
+      <c r="CW7" s="78"/>
+      <c r="CX7" s="78"/>
+      <c r="CY7" s="78"/>
+      <c r="CZ7" s="78"/>
+      <c r="DA7" s="78"/>
+      <c r="DB7" s="78"/>
+      <c r="DC7" s="78"/>
+      <c r="DD7" s="78"/>
+      <c r="DE7" s="78"/>
+      <c r="DF7" s="78"/>
+      <c r="DG7" s="78"/>
+      <c r="DH7" s="78"/>
+      <c r="DI7" s="78"/>
+      <c r="DJ7" s="78"/>
+      <c r="DK7" s="78"/>
+      <c r="DL7" s="78"/>
+      <c r="DM7" s="78"/>
+      <c r="DN7" s="78"/>
+      <c r="DO7" s="78"/>
+      <c r="DP7" s="78"/>
+      <c r="DQ7" s="78"/>
+      <c r="DR7" s="78"/>
+      <c r="DS7" s="78"/>
+      <c r="DT7" s="78"/>
+      <c r="DU7" s="78"/>
+      <c r="DV7" s="78"/>
+      <c r="DW7" s="78"/>
+      <c r="DX7" s="78"/>
+      <c r="DY7" s="78"/>
+      <c r="DZ7" s="78"/>
+      <c r="EA7" s="78"/>
+      <c r="EB7" s="78"/>
+      <c r="EC7" s="78"/>
+      <c r="ED7" s="78"/>
+      <c r="EE7" s="78"/>
+      <c r="EF7" s="78"/>
+      <c r="EG7" s="78"/>
+      <c r="EH7" s="78"/>
+      <c r="EI7" s="78"/>
+      <c r="EJ7" s="78"/>
+      <c r="EK7" s="78"/>
+      <c r="EL7" s="78"/>
+      <c r="EM7" s="78"/>
+      <c r="EN7" s="78"/>
+      <c r="EO7" s="78"/>
+      <c r="EP7" s="78"/>
+      <c r="EQ7" s="78"/>
+      <c r="ER7" s="78"/>
+      <c r="ES7" s="78"/>
+      <c r="ET7" s="78"/>
+      <c r="EU7" s="78"/>
+      <c r="EV7" s="78"/>
+      <c r="EW7" s="78"/>
+      <c r="EX7" s="78"/>
+      <c r="EY7" s="78"/>
+      <c r="EZ7" s="78"/>
+      <c r="FA7" s="78"/>
+      <c r="FB7" s="78"/>
+      <c r="FC7" s="78"/>
+      <c r="FD7" s="78"/>
+      <c r="FE7" s="78"/>
+      <c r="FF7" s="78"/>
+      <c r="FG7" s="78"/>
+      <c r="FH7" s="78"/>
+      <c r="FI7" s="78"/>
+      <c r="FJ7" s="78"/>
+      <c r="FK7" s="78"/>
+      <c r="FL7" s="78"/>
+      <c r="FM7" s="78"/>
+      <c r="FN7" s="78"/>
+      <c r="FO7" s="78"/>
+      <c r="FP7" s="78"/>
+      <c r="FQ7" s="78"/>
+      <c r="FR7" s="78"/>
+      <c r="FS7" s="78"/>
+      <c r="FT7" s="78"/>
+      <c r="FU7" s="78"/>
+      <c r="FV7" s="78"/>
+      <c r="FW7" s="78"/>
+      <c r="FX7" s="78"/>
+      <c r="FY7" s="78"/>
+      <c r="FZ7" s="78"/>
+      <c r="GA7" s="78"/>
+      <c r="GB7" s="78"/>
+      <c r="GC7" s="78"/>
+      <c r="GD7" s="78"/>
+      <c r="GE7" s="78"/>
+      <c r="GF7" s="78"/>
+      <c r="GG7" s="78"/>
+      <c r="GH7" s="78"/>
+      <c r="GI7" s="78"/>
+      <c r="GJ7" s="78"/>
+      <c r="GK7" s="78"/>
+      <c r="GL7" s="78"/>
+      <c r="GM7" s="78"/>
+      <c r="GN7" s="78"/>
+      <c r="GO7" s="78"/>
+      <c r="GP7" s="78"/>
+      <c r="GQ7" s="78"/>
+      <c r="GR7" s="78"/>
+      <c r="GS7" s="78"/>
+      <c r="GT7" s="78"/>
+      <c r="GU7" s="78"/>
+      <c r="GV7" s="78"/>
+      <c r="GW7" s="78"/>
+      <c r="GX7" s="78"/>
+      <c r="GY7" s="78"/>
+      <c r="GZ7" s="78"/>
+      <c r="HA7" s="78"/>
+      <c r="HB7" s="78"/>
+      <c r="HC7" s="78"/>
+      <c r="HD7" s="78"/>
+      <c r="HE7" s="78"/>
+      <c r="HF7" s="78"/>
+      <c r="HG7" s="78"/>
+      <c r="HH7" s="78"/>
+      <c r="HI7" s="78"/>
+      <c r="HJ7" s="78"/>
+      <c r="HK7" s="78"/>
+      <c r="HL7" s="78"/>
+      <c r="HM7" s="78"/>
+      <c r="HN7" s="78"/>
+      <c r="HO7" s="78"/>
+      <c r="HP7" s="78"/>
+      <c r="HQ7" s="78"/>
+      <c r="HR7" s="78"/>
+      <c r="HS7" s="78"/>
+      <c r="HT7" s="78"/>
+      <c r="HU7" s="78"/>
+      <c r="HV7" s="78"/>
+      <c r="HW7" s="78"/>
+      <c r="HX7" s="78"/>
+      <c r="HY7" s="78"/>
+      <c r="HZ7" s="78"/>
+      <c r="IA7" s="78"/>
+      <c r="IB7" s="78"/>
+      <c r="IC7" s="78"/>
+      <c r="ID7" s="78"/>
+      <c r="IE7" s="78"/>
+      <c r="IF7" s="78"/>
+      <c r="IG7" s="78"/>
+      <c r="IH7" s="78"/>
+      <c r="II7" s="78"/>
+      <c r="IJ7" s="78"/>
+      <c r="IK7" s="78"/>
+      <c r="IL7" s="78"/>
+      <c r="IM7" s="78"/>
+      <c r="IN7" s="78"/>
+      <c r="IO7" s="78"/>
+      <c r="IP7" s="78"/>
+    </row>
+    <row r="8" spans="1:257">
+      <c r="A8" s="155"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="78"/>
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="78"/>
+      <c r="AB8" s="78"/>
+      <c r="AC8" s="78"/>
+      <c r="AD8" s="78"/>
+      <c r="AE8" s="78"/>
+      <c r="AF8" s="78"/>
+      <c r="AG8" s="78"/>
+      <c r="AH8" s="78"/>
+      <c r="AI8" s="78"/>
+      <c r="AJ8" s="78"/>
+      <c r="AK8" s="78"/>
+      <c r="AL8" s="78"/>
+      <c r="AM8" s="78"/>
+      <c r="AN8" s="78"/>
+      <c r="AO8" s="78"/>
+      <c r="AP8" s="78"/>
+      <c r="AQ8" s="78"/>
+      <c r="AR8" s="78"/>
+      <c r="AS8" s="78"/>
+      <c r="AT8" s="78"/>
+      <c r="AU8" s="78"/>
+      <c r="AV8" s="78"/>
+      <c r="AW8" s="78"/>
+      <c r="AX8" s="78"/>
+      <c r="AY8" s="78"/>
+      <c r="AZ8" s="78"/>
+      <c r="BA8" s="78"/>
+      <c r="BB8" s="78"/>
+      <c r="BC8" s="78"/>
+      <c r="BD8" s="78"/>
+      <c r="BE8" s="78"/>
+      <c r="BF8" s="78"/>
+      <c r="BG8" s="78"/>
+      <c r="BH8" s="78"/>
+      <c r="BI8" s="78"/>
+      <c r="BJ8" s="78"/>
+      <c r="BK8" s="78"/>
+      <c r="BL8" s="78"/>
+      <c r="BM8" s="78"/>
+      <c r="BN8" s="78"/>
+      <c r="BO8" s="78"/>
+      <c r="BP8" s="78"/>
+      <c r="BQ8" s="78"/>
+      <c r="BR8" s="78"/>
+      <c r="BS8" s="78"/>
+      <c r="BT8" s="78"/>
+      <c r="BU8" s="78"/>
+      <c r="BV8" s="78"/>
+      <c r="BW8" s="78"/>
+      <c r="BX8" s="78"/>
+      <c r="BY8" s="78"/>
+      <c r="BZ8" s="78"/>
+      <c r="CA8" s="78"/>
+      <c r="CB8" s="78"/>
+      <c r="CC8" s="78"/>
+      <c r="CD8" s="78"/>
+      <c r="CE8" s="78"/>
+      <c r="CF8" s="78"/>
+      <c r="CG8" s="78"/>
+      <c r="CH8" s="78"/>
+      <c r="CI8" s="78"/>
+      <c r="CJ8" s="78"/>
+      <c r="CK8" s="78"/>
+      <c r="CL8" s="78"/>
+      <c r="CM8" s="78"/>
+      <c r="CN8" s="78"/>
+      <c r="CO8" s="78"/>
+      <c r="CP8" s="78"/>
+      <c r="CQ8" s="78"/>
+      <c r="CR8" s="78"/>
+      <c r="CS8" s="78"/>
+      <c r="CT8" s="78"/>
+      <c r="CU8" s="78"/>
+      <c r="CV8" s="78"/>
+      <c r="CW8" s="78"/>
+      <c r="CX8" s="78"/>
+      <c r="CY8" s="78"/>
+      <c r="CZ8" s="78"/>
+      <c r="DA8" s="78"/>
+      <c r="DB8" s="78"/>
+      <c r="DC8" s="78"/>
+      <c r="DD8" s="78"/>
+      <c r="DE8" s="78"/>
+      <c r="DF8" s="78"/>
+      <c r="DG8" s="78"/>
+      <c r="DH8" s="78"/>
+      <c r="DI8" s="78"/>
+      <c r="DJ8" s="78"/>
+      <c r="DK8" s="78"/>
+      <c r="DL8" s="78"/>
+      <c r="DM8" s="78"/>
+      <c r="DN8" s="78"/>
+      <c r="DO8" s="78"/>
+      <c r="DP8" s="78"/>
+      <c r="DQ8" s="78"/>
+      <c r="DR8" s="78"/>
+      <c r="DS8" s="78"/>
+      <c r="DT8" s="78"/>
+      <c r="DU8" s="78"/>
+      <c r="DV8" s="78"/>
+      <c r="DW8" s="78"/>
+      <c r="DX8" s="78"/>
+      <c r="DY8" s="78"/>
+      <c r="DZ8" s="78"/>
+      <c r="EA8" s="78"/>
+      <c r="EB8" s="78"/>
+      <c r="EC8" s="78"/>
+      <c r="ED8" s="78"/>
+      <c r="EE8" s="78"/>
+      <c r="EF8" s="78"/>
+      <c r="EG8" s="78"/>
+      <c r="EH8" s="78"/>
+      <c r="EI8" s="78"/>
+      <c r="EJ8" s="78"/>
+      <c r="EK8" s="78"/>
+      <c r="EL8" s="78"/>
+      <c r="EM8" s="78"/>
+      <c r="EN8" s="78"/>
+      <c r="EO8" s="78"/>
+      <c r="EP8" s="78"/>
+      <c r="EQ8" s="78"/>
+      <c r="ER8" s="78"/>
+      <c r="ES8" s="78"/>
+      <c r="ET8" s="78"/>
+      <c r="EU8" s="78"/>
+      <c r="EV8" s="78"/>
+      <c r="EW8" s="78"/>
+      <c r="EX8" s="78"/>
+      <c r="EY8" s="78"/>
+      <c r="EZ8" s="78"/>
+      <c r="FA8" s="78"/>
+      <c r="FB8" s="78"/>
+      <c r="FC8" s="78"/>
+      <c r="FD8" s="78"/>
+      <c r="FE8" s="78"/>
+      <c r="FF8" s="78"/>
+      <c r="FG8" s="78"/>
+      <c r="FH8" s="78"/>
+      <c r="FI8" s="78"/>
+      <c r="FJ8" s="78"/>
+      <c r="FK8" s="78"/>
+      <c r="FL8" s="78"/>
+      <c r="FM8" s="78"/>
+      <c r="FN8" s="78"/>
+      <c r="FO8" s="78"/>
+      <c r="FP8" s="78"/>
+      <c r="FQ8" s="78"/>
+      <c r="FR8" s="78"/>
+      <c r="FS8" s="78"/>
+      <c r="FT8" s="78"/>
+      <c r="FU8" s="78"/>
+      <c r="FV8" s="78"/>
+      <c r="FW8" s="78"/>
+      <c r="FX8" s="78"/>
+      <c r="FY8" s="78"/>
+      <c r="FZ8" s="78"/>
+      <c r="GA8" s="78"/>
+      <c r="GB8" s="78"/>
+      <c r="GC8" s="78"/>
+      <c r="GD8" s="78"/>
+      <c r="GE8" s="78"/>
+      <c r="GF8" s="78"/>
+      <c r="GG8" s="78"/>
+      <c r="GH8" s="78"/>
+      <c r="GI8" s="78"/>
+      <c r="GJ8" s="78"/>
+      <c r="GK8" s="78"/>
+      <c r="GL8" s="78"/>
+      <c r="GM8" s="78"/>
+      <c r="GN8" s="78"/>
+      <c r="GO8" s="78"/>
+      <c r="GP8" s="78"/>
+      <c r="GQ8" s="78"/>
+      <c r="GR8" s="78"/>
+      <c r="GS8" s="78"/>
+      <c r="GT8" s="78"/>
+      <c r="GU8" s="78"/>
+      <c r="GV8" s="78"/>
+      <c r="GW8" s="78"/>
+      <c r="GX8" s="78"/>
+      <c r="GY8" s="78"/>
+      <c r="GZ8" s="78"/>
+      <c r="HA8" s="78"/>
+      <c r="HB8" s="78"/>
+      <c r="HC8" s="78"/>
+      <c r="HD8" s="78"/>
+      <c r="HE8" s="78"/>
+      <c r="HF8" s="78"/>
+      <c r="HG8" s="78"/>
+      <c r="HH8" s="78"/>
+      <c r="HI8" s="78"/>
+      <c r="HJ8" s="78"/>
+      <c r="HK8" s="78"/>
+      <c r="HL8" s="78"/>
+      <c r="HM8" s="78"/>
+      <c r="HN8" s="78"/>
+      <c r="HO8" s="78"/>
+      <c r="HP8" s="78"/>
+      <c r="HQ8" s="78"/>
+      <c r="HR8" s="78"/>
+      <c r="HS8" s="78"/>
+      <c r="HT8" s="78"/>
+      <c r="HU8" s="78"/>
+      <c r="HV8" s="78"/>
+      <c r="HW8" s="78"/>
+      <c r="HX8" s="78"/>
+      <c r="HY8" s="78"/>
+      <c r="HZ8" s="78"/>
+      <c r="IA8" s="78"/>
+      <c r="IB8" s="78"/>
+      <c r="IC8" s="78"/>
+      <c r="ID8" s="78"/>
+      <c r="IE8" s="78"/>
+      <c r="IF8" s="78"/>
+      <c r="IG8" s="78"/>
+      <c r="IH8" s="78"/>
+      <c r="II8" s="78"/>
+      <c r="IJ8" s="78"/>
+      <c r="IK8" s="78"/>
+      <c r="IL8" s="78"/>
+      <c r="IM8" s="78"/>
+      <c r="IN8" s="78"/>
+      <c r="IO8" s="78"/>
+      <c r="IP8" s="78"/>
+    </row>
+    <row r="9" spans="1:257">
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="78"/>
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="78"/>
+      <c r="AF9" s="78"/>
+      <c r="AG9" s="78"/>
+      <c r="AH9" s="78"/>
+      <c r="AI9" s="78"/>
+      <c r="AJ9" s="78"/>
+      <c r="AK9" s="78"/>
+      <c r="AL9" s="78"/>
+      <c r="AM9" s="78"/>
+      <c r="AN9" s="78"/>
+      <c r="AO9" s="78"/>
+      <c r="AP9" s="78"/>
+      <c r="AQ9" s="78"/>
+      <c r="AR9" s="78"/>
+      <c r="AS9" s="78"/>
+      <c r="AT9" s="78"/>
+      <c r="AU9" s="78"/>
+      <c r="AV9" s="78"/>
+      <c r="AW9" s="78"/>
+      <c r="AX9" s="78"/>
+      <c r="AY9" s="78"/>
+      <c r="AZ9" s="78"/>
+      <c r="BA9" s="78"/>
+      <c r="BB9" s="78"/>
+      <c r="BC9" s="78"/>
+      <c r="BD9" s="78"/>
+      <c r="BE9" s="78"/>
+      <c r="BF9" s="78"/>
+      <c r="BG9" s="78"/>
+      <c r="BH9" s="78"/>
+      <c r="BI9" s="78"/>
+      <c r="BJ9" s="78"/>
+      <c r="BK9" s="78"/>
+      <c r="BL9" s="78"/>
+      <c r="BM9" s="78"/>
+      <c r="BN9" s="78"/>
+      <c r="BO9" s="78"/>
+      <c r="BP9" s="78"/>
+      <c r="BQ9" s="78"/>
+      <c r="BR9" s="78"/>
+      <c r="BS9" s="78"/>
+      <c r="BT9" s="78"/>
+      <c r="BU9" s="78"/>
+      <c r="BV9" s="78"/>
+      <c r="BW9" s="78"/>
+      <c r="BX9" s="78"/>
+      <c r="BY9" s="78"/>
+      <c r="BZ9" s="78"/>
+      <c r="CA9" s="78"/>
+      <c r="CB9" s="78"/>
+      <c r="CC9" s="78"/>
+      <c r="CD9" s="78"/>
+      <c r="CE9" s="78"/>
+      <c r="CF9" s="78"/>
+      <c r="CG9" s="78"/>
+      <c r="CH9" s="78"/>
+      <c r="CI9" s="78"/>
+      <c r="CJ9" s="78"/>
+      <c r="CK9" s="78"/>
+      <c r="CL9" s="78"/>
+      <c r="CM9" s="78"/>
+      <c r="CN9" s="78"/>
+      <c r="CO9" s="78"/>
+      <c r="CP9" s="78"/>
+      <c r="CQ9" s="78"/>
+      <c r="CR9" s="78"/>
+      <c r="CS9" s="78"/>
+      <c r="CT9" s="78"/>
+      <c r="CU9" s="78"/>
+      <c r="CV9" s="78"/>
+      <c r="CW9" s="78"/>
+      <c r="CX9" s="78"/>
+      <c r="CY9" s="78"/>
+      <c r="CZ9" s="78"/>
+      <c r="DA9" s="78"/>
+      <c r="DB9" s="78"/>
+      <c r="DC9" s="78"/>
+      <c r="DD9" s="78"/>
+      <c r="DE9" s="78"/>
+      <c r="DF9" s="78"/>
+      <c r="DG9" s="78"/>
+      <c r="DH9" s="78"/>
+      <c r="DI9" s="78"/>
+      <c r="DJ9" s="78"/>
+      <c r="DK9" s="78"/>
+      <c r="DL9" s="78"/>
+      <c r="DM9" s="78"/>
+      <c r="DN9" s="78"/>
+      <c r="DO9" s="78"/>
+      <c r="DP9" s="78"/>
+      <c r="DQ9" s="78"/>
+      <c r="DR9" s="78"/>
+      <c r="DS9" s="78"/>
+      <c r="DT9" s="78"/>
+      <c r="DU9" s="78"/>
+      <c r="DV9" s="78"/>
+      <c r="DW9" s="78"/>
+      <c r="DX9" s="78"/>
+      <c r="DY9" s="78"/>
+      <c r="DZ9" s="78"/>
+      <c r="EA9" s="78"/>
+      <c r="EB9" s="78"/>
+      <c r="EC9" s="78"/>
+      <c r="ED9" s="78"/>
+      <c r="EE9" s="78"/>
+      <c r="EF9" s="78"/>
+      <c r="EG9" s="78"/>
+      <c r="EH9" s="78"/>
+      <c r="EI9" s="78"/>
+      <c r="EJ9" s="78"/>
+      <c r="EK9" s="78"/>
+      <c r="EL9" s="78"/>
+      <c r="EM9" s="78"/>
+      <c r="EN9" s="78"/>
+      <c r="EO9" s="78"/>
+      <c r="EP9" s="78"/>
+      <c r="EQ9" s="78"/>
+      <c r="ER9" s="78"/>
+      <c r="ES9" s="78"/>
+      <c r="ET9" s="78"/>
+      <c r="EU9" s="78"/>
+      <c r="EV9" s="78"/>
+      <c r="EW9" s="78"/>
+      <c r="EX9" s="78"/>
+      <c r="EY9" s="78"/>
+      <c r="EZ9" s="78"/>
+      <c r="FA9" s="78"/>
+      <c r="FB9" s="78"/>
+      <c r="FC9" s="78"/>
+      <c r="FD9" s="78"/>
+      <c r="FE9" s="78"/>
+      <c r="FF9" s="78"/>
+      <c r="FG9" s="78"/>
+      <c r="FH9" s="78"/>
+      <c r="FI9" s="78"/>
+      <c r="FJ9" s="78"/>
+      <c r="FK9" s="78"/>
+      <c r="FL9" s="78"/>
+      <c r="FM9" s="78"/>
+      <c r="FN9" s="78"/>
+      <c r="FO9" s="78"/>
+      <c r="FP9" s="78"/>
+      <c r="FQ9" s="78"/>
+      <c r="FR9" s="78"/>
+      <c r="FS9" s="78"/>
+      <c r="FT9" s="78"/>
+      <c r="FU9" s="78"/>
+      <c r="FV9" s="78"/>
+      <c r="FW9" s="78"/>
+      <c r="FX9" s="78"/>
+      <c r="FY9" s="78"/>
+      <c r="FZ9" s="78"/>
+      <c r="GA9" s="78"/>
+      <c r="GB9" s="78"/>
+      <c r="GC9" s="78"/>
+      <c r="GD9" s="78"/>
+      <c r="GE9" s="78"/>
+      <c r="GF9" s="78"/>
+      <c r="GG9" s="78"/>
+      <c r="GH9" s="78"/>
+      <c r="GI9" s="78"/>
+      <c r="GJ9" s="78"/>
+      <c r="GK9" s="78"/>
+      <c r="GL9" s="78"/>
+      <c r="GM9" s="78"/>
+      <c r="GN9" s="78"/>
+      <c r="GO9" s="78"/>
+      <c r="GP9" s="78"/>
+      <c r="GQ9" s="78"/>
+      <c r="GR9" s="78"/>
+      <c r="GS9" s="78"/>
+      <c r="GT9" s="78"/>
+      <c r="GU9" s="78"/>
+      <c r="GV9" s="78"/>
+      <c r="GW9" s="78"/>
+      <c r="GX9" s="78"/>
+      <c r="GY9" s="78"/>
+      <c r="GZ9" s="78"/>
+      <c r="HA9" s="78"/>
+      <c r="HB9" s="78"/>
+      <c r="HC9" s="78"/>
+      <c r="HD9" s="78"/>
+      <c r="HE9" s="78"/>
+      <c r="HF9" s="78"/>
+      <c r="HG9" s="78"/>
+      <c r="HH9" s="78"/>
+      <c r="HI9" s="78"/>
+      <c r="HJ9" s="78"/>
+      <c r="HK9" s="78"/>
+      <c r="HL9" s="78"/>
+      <c r="HM9" s="78"/>
+      <c r="HN9" s="78"/>
+      <c r="HO9" s="78"/>
+      <c r="HP9" s="78"/>
+      <c r="HQ9" s="78"/>
+      <c r="HR9" s="78"/>
+      <c r="HS9" s="78"/>
+      <c r="HT9" s="78"/>
+      <c r="HU9" s="78"/>
+      <c r="HV9" s="78"/>
+      <c r="HW9" s="78"/>
+      <c r="HX9" s="78"/>
+      <c r="HY9" s="78"/>
+      <c r="HZ9" s="78"/>
+      <c r="IA9" s="78"/>
+      <c r="IB9" s="78"/>
+      <c r="IC9" s="78"/>
+      <c r="ID9" s="78"/>
+      <c r="IE9" s="78"/>
+      <c r="IF9" s="78"/>
+      <c r="IG9" s="78"/>
+      <c r="IH9" s="78"/>
+      <c r="II9" s="78"/>
+      <c r="IJ9" s="78"/>
+      <c r="IK9" s="78"/>
+      <c r="IL9" s="78"/>
+      <c r="IM9" s="78"/>
+      <c r="IN9" s="78"/>
+      <c r="IO9" s="78"/>
+      <c r="IP9" s="78"/>
+      <c r="IQ9" s="78"/>
+      <c r="IR9" s="78"/>
+      <c r="IS9" s="78"/>
+      <c r="IT9" s="78"/>
+      <c r="IU9" s="78"/>
+      <c r="IV9" s="78"/>
+      <c r="IW9" s="78"/>
+    </row>
+    <row r="10" spans="1:257" ht="56.25" customHeight="1">
+      <c r="A10" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="78"/>
+      <c r="AB10" s="78"/>
+      <c r="AC10" s="78"/>
+      <c r="AD10" s="78"/>
+      <c r="AE10" s="78"/>
+      <c r="AF10" s="78"/>
+      <c r="AG10" s="78"/>
+      <c r="AH10" s="78"/>
+      <c r="AI10" s="78"/>
+      <c r="AJ10" s="78"/>
+      <c r="AK10" s="78"/>
+      <c r="AL10" s="78"/>
+      <c r="AM10" s="78"/>
+      <c r="AN10" s="78"/>
+      <c r="AO10" s="78"/>
+      <c r="AP10" s="78"/>
+      <c r="AQ10" s="78"/>
+      <c r="AR10" s="78"/>
+      <c r="AS10" s="78"/>
+      <c r="AT10" s="78"/>
+      <c r="AU10" s="78"/>
+      <c r="AV10" s="78"/>
+      <c r="AW10" s="78"/>
+      <c r="AX10" s="78"/>
+      <c r="AY10" s="78"/>
+      <c r="AZ10" s="78"/>
+      <c r="BA10" s="78"/>
+      <c r="BB10" s="78"/>
+      <c r="BC10" s="78"/>
+      <c r="BD10" s="78"/>
+      <c r="BE10" s="78"/>
+      <c r="BF10" s="78"/>
+      <c r="BG10" s="78"/>
+      <c r="BH10" s="78"/>
+      <c r="BI10" s="78"/>
+      <c r="BJ10" s="78"/>
+      <c r="BK10" s="78"/>
+      <c r="BL10" s="78"/>
+      <c r="BM10" s="78"/>
+      <c r="BN10" s="78"/>
+      <c r="BO10" s="78"/>
+      <c r="BP10" s="78"/>
+      <c r="BQ10" s="78"/>
+      <c r="BR10" s="78"/>
+      <c r="BS10" s="78"/>
+      <c r="BT10" s="78"/>
+      <c r="BU10" s="78"/>
+      <c r="BV10" s="78"/>
+      <c r="BW10" s="78"/>
+      <c r="BX10" s="78"/>
+      <c r="BY10" s="78"/>
+      <c r="BZ10" s="78"/>
+      <c r="CA10" s="78"/>
+      <c r="CB10" s="78"/>
+      <c r="CC10" s="78"/>
+      <c r="CD10" s="78"/>
+      <c r="CE10" s="78"/>
+      <c r="CF10" s="78"/>
+      <c r="CG10" s="78"/>
+      <c r="CH10" s="78"/>
+      <c r="CI10" s="78"/>
+      <c r="CJ10" s="78"/>
+      <c r="CK10" s="78"/>
+      <c r="CL10" s="78"/>
+      <c r="CM10" s="78"/>
+      <c r="CN10" s="78"/>
+      <c r="CO10" s="78"/>
+      <c r="CP10" s="78"/>
+      <c r="CQ10" s="78"/>
+      <c r="CR10" s="78"/>
+      <c r="CS10" s="78"/>
+      <c r="CT10" s="78"/>
+      <c r="CU10" s="78"/>
+      <c r="CV10" s="78"/>
+      <c r="CW10" s="78"/>
+      <c r="CX10" s="78"/>
+      <c r="CY10" s="78"/>
+      <c r="CZ10" s="78"/>
+      <c r="DA10" s="78"/>
+      <c r="DB10" s="78"/>
+      <c r="DC10" s="78"/>
+      <c r="DD10" s="78"/>
+      <c r="DE10" s="78"/>
+      <c r="DF10" s="78"/>
+      <c r="DG10" s="78"/>
+      <c r="DH10" s="78"/>
+      <c r="DI10" s="78"/>
+      <c r="DJ10" s="78"/>
+      <c r="DK10" s="78"/>
+      <c r="DL10" s="78"/>
+      <c r="DM10" s="78"/>
+      <c r="DN10" s="78"/>
+      <c r="DO10" s="78"/>
+      <c r="DP10" s="78"/>
+      <c r="DQ10" s="78"/>
+      <c r="DR10" s="78"/>
+      <c r="DS10" s="78"/>
+      <c r="DT10" s="78"/>
+      <c r="DU10" s="78"/>
+      <c r="DV10" s="78"/>
+      <c r="DW10" s="78"/>
+      <c r="DX10" s="78"/>
+      <c r="DY10" s="78"/>
+      <c r="DZ10" s="78"/>
+      <c r="EA10" s="78"/>
+      <c r="EB10" s="78"/>
+      <c r="EC10" s="78"/>
+      <c r="ED10" s="78"/>
+      <c r="EE10" s="78"/>
+      <c r="EF10" s="78"/>
+      <c r="EG10" s="78"/>
+      <c r="EH10" s="78"/>
+      <c r="EI10" s="78"/>
+      <c r="EJ10" s="78"/>
+      <c r="EK10" s="78"/>
+      <c r="EL10" s="78"/>
+      <c r="EM10" s="78"/>
+      <c r="EN10" s="78"/>
+      <c r="EO10" s="78"/>
+      <c r="EP10" s="78"/>
+      <c r="EQ10" s="78"/>
+      <c r="ER10" s="78"/>
+      <c r="ES10" s="78"/>
+      <c r="ET10" s="78"/>
+      <c r="EU10" s="78"/>
+      <c r="EV10" s="78"/>
+      <c r="EW10" s="78"/>
+      <c r="EX10" s="78"/>
+      <c r="EY10" s="78"/>
+      <c r="EZ10" s="78"/>
+      <c r="FA10" s="78"/>
+      <c r="FB10" s="78"/>
+      <c r="FC10" s="78"/>
+      <c r="FD10" s="78"/>
+      <c r="FE10" s="78"/>
+      <c r="FF10" s="78"/>
+      <c r="FG10" s="78"/>
+      <c r="FH10" s="78"/>
+      <c r="FI10" s="78"/>
+      <c r="FJ10" s="78"/>
+      <c r="FK10" s="78"/>
+      <c r="FL10" s="78"/>
+      <c r="FM10" s="78"/>
+      <c r="FN10" s="78"/>
+      <c r="FO10" s="78"/>
+      <c r="FP10" s="78"/>
+      <c r="FQ10" s="78"/>
+      <c r="FR10" s="78"/>
+      <c r="FS10" s="78"/>
+      <c r="FT10" s="78"/>
+      <c r="FU10" s="78"/>
+      <c r="FV10" s="78"/>
+      <c r="FW10" s="78"/>
+      <c r="FX10" s="78"/>
+      <c r="FY10" s="78"/>
+      <c r="FZ10" s="78"/>
+      <c r="GA10" s="78"/>
+      <c r="GB10" s="78"/>
+      <c r="GC10" s="78"/>
+      <c r="GD10" s="78"/>
+      <c r="GE10" s="78"/>
+      <c r="GF10" s="78"/>
+      <c r="GG10" s="78"/>
+      <c r="GH10" s="78"/>
+      <c r="GI10" s="78"/>
+      <c r="GJ10" s="78"/>
+      <c r="GK10" s="78"/>
+      <c r="GL10" s="78"/>
+      <c r="GM10" s="78"/>
+      <c r="GN10" s="78"/>
+      <c r="GO10" s="78"/>
+      <c r="GP10" s="78"/>
+      <c r="GQ10" s="78"/>
+      <c r="GR10" s="78"/>
+      <c r="GS10" s="78"/>
+      <c r="GT10" s="78"/>
+      <c r="GU10" s="78"/>
+      <c r="GV10" s="78"/>
+      <c r="GW10" s="78"/>
+      <c r="GX10" s="78"/>
+      <c r="GY10" s="78"/>
+      <c r="GZ10" s="78"/>
+      <c r="HA10" s="78"/>
+      <c r="HB10" s="78"/>
+      <c r="HC10" s="78"/>
+      <c r="HD10" s="78"/>
+      <c r="HE10" s="78"/>
+      <c r="HF10" s="78"/>
+      <c r="HG10" s="78"/>
+      <c r="HH10" s="78"/>
+      <c r="HI10" s="78"/>
+      <c r="HJ10" s="78"/>
+      <c r="HK10" s="78"/>
+      <c r="HL10" s="78"/>
+      <c r="HM10" s="78"/>
+      <c r="HN10" s="78"/>
+      <c r="HO10" s="78"/>
+      <c r="HP10" s="78"/>
+      <c r="HQ10" s="78"/>
+      <c r="HR10" s="78"/>
+      <c r="HS10" s="78"/>
+      <c r="HT10" s="78"/>
+      <c r="HU10" s="78"/>
+      <c r="HV10" s="78"/>
+      <c r="HW10" s="78"/>
+      <c r="HX10" s="78"/>
+      <c r="HY10" s="78"/>
+      <c r="HZ10" s="78"/>
+      <c r="IA10" s="78"/>
+      <c r="IB10" s="78"/>
+      <c r="IC10" s="78"/>
+      <c r="ID10" s="78"/>
+      <c r="IE10" s="78"/>
+      <c r="IF10" s="78"/>
+      <c r="IG10" s="78"/>
+      <c r="IH10" s="78"/>
+      <c r="II10" s="78"/>
+      <c r="IJ10" s="78"/>
+      <c r="IK10" s="78"/>
+      <c r="IL10" s="78"/>
+      <c r="IM10" s="78"/>
+      <c r="IN10" s="78"/>
+      <c r="IO10" s="78"/>
+      <c r="IP10" s="78"/>
+    </row>
+    <row r="11" spans="1:257" ht="14.25" customHeight="1">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51" t="s">
+        <v>376</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="78"/>
+      <c r="AF11" s="78"/>
+      <c r="AG11" s="78"/>
+      <c r="AH11" s="78"/>
+      <c r="AI11" s="78"/>
+      <c r="AJ11" s="78"/>
+      <c r="AK11" s="78"/>
+      <c r="AL11" s="78"/>
+      <c r="AM11" s="78"/>
+      <c r="AN11" s="78"/>
+      <c r="AO11" s="78"/>
+      <c r="AP11" s="78"/>
+      <c r="AQ11" s="78"/>
+      <c r="AR11" s="78"/>
+      <c r="AS11" s="78"/>
+      <c r="AT11" s="78"/>
+      <c r="AU11" s="78"/>
+      <c r="AV11" s="78"/>
+      <c r="AW11" s="78"/>
+      <c r="AX11" s="78"/>
+      <c r="AY11" s="78"/>
+      <c r="AZ11" s="78"/>
+      <c r="BA11" s="78"/>
+      <c r="BB11" s="78"/>
+      <c r="BC11" s="78"/>
+      <c r="BD11" s="78"/>
+      <c r="BE11" s="78"/>
+      <c r="BF11" s="78"/>
+      <c r="BG11" s="78"/>
+      <c r="BH11" s="78"/>
+      <c r="BI11" s="78"/>
+      <c r="BJ11" s="78"/>
+      <c r="BK11" s="78"/>
+      <c r="BL11" s="78"/>
+      <c r="BM11" s="78"/>
+      <c r="BN11" s="78"/>
+      <c r="BO11" s="78"/>
+      <c r="BP11" s="78"/>
+      <c r="BQ11" s="78"/>
+      <c r="BR11" s="78"/>
+      <c r="BS11" s="78"/>
+      <c r="BT11" s="78"/>
+      <c r="BU11" s="78"/>
+      <c r="BV11" s="78"/>
+      <c r="BW11" s="78"/>
+      <c r="BX11" s="78"/>
+      <c r="BY11" s="78"/>
+      <c r="BZ11" s="78"/>
+      <c r="CA11" s="78"/>
+      <c r="CB11" s="78"/>
+      <c r="CC11" s="78"/>
+      <c r="CD11" s="78"/>
+      <c r="CE11" s="78"/>
+      <c r="CF11" s="78"/>
+      <c r="CG11" s="78"/>
+      <c r="CH11" s="78"/>
+      <c r="CI11" s="78"/>
+      <c r="CJ11" s="78"/>
+      <c r="CK11" s="78"/>
+      <c r="CL11" s="78"/>
+      <c r="CM11" s="78"/>
+      <c r="CN11" s="78"/>
+      <c r="CO11" s="78"/>
+      <c r="CP11" s="78"/>
+      <c r="CQ11" s="78"/>
+      <c r="CR11" s="78"/>
+      <c r="CS11" s="78"/>
+      <c r="CT11" s="78"/>
+      <c r="CU11" s="78"/>
+      <c r="CV11" s="78"/>
+      <c r="CW11" s="78"/>
+      <c r="CX11" s="78"/>
+      <c r="CY11" s="78"/>
+      <c r="CZ11" s="78"/>
+      <c r="DA11" s="78"/>
+      <c r="DB11" s="78"/>
+      <c r="DC11" s="78"/>
+      <c r="DD11" s="78"/>
+      <c r="DE11" s="78"/>
+      <c r="DF11" s="78"/>
+      <c r="DG11" s="78"/>
+      <c r="DH11" s="78"/>
+      <c r="DI11" s="78"/>
+      <c r="DJ11" s="78"/>
+      <c r="DK11" s="78"/>
+      <c r="DL11" s="78"/>
+      <c r="DM11" s="78"/>
+      <c r="DN11" s="78"/>
+      <c r="DO11" s="78"/>
+      <c r="DP11" s="78"/>
+      <c r="DQ11" s="78"/>
+      <c r="DR11" s="78"/>
+      <c r="DS11" s="78"/>
+      <c r="DT11" s="78"/>
+      <c r="DU11" s="78"/>
+      <c r="DV11" s="78"/>
+      <c r="DW11" s="78"/>
+      <c r="DX11" s="78"/>
+      <c r="DY11" s="78"/>
+      <c r="DZ11" s="78"/>
+      <c r="EA11" s="78"/>
+      <c r="EB11" s="78"/>
+      <c r="EC11" s="78"/>
+      <c r="ED11" s="78"/>
+      <c r="EE11" s="78"/>
+      <c r="EF11" s="78"/>
+      <c r="EG11" s="78"/>
+      <c r="EH11" s="78"/>
+      <c r="EI11" s="78"/>
+      <c r="EJ11" s="78"/>
+      <c r="EK11" s="78"/>
+      <c r="EL11" s="78"/>
+      <c r="EM11" s="78"/>
+      <c r="EN11" s="78"/>
+      <c r="EO11" s="78"/>
+      <c r="EP11" s="78"/>
+      <c r="EQ11" s="78"/>
+      <c r="ER11" s="78"/>
+      <c r="ES11" s="78"/>
+      <c r="ET11" s="78"/>
+      <c r="EU11" s="78"/>
+      <c r="EV11" s="78"/>
+      <c r="EW11" s="78"/>
+      <c r="EX11" s="78"/>
+      <c r="EY11" s="78"/>
+      <c r="EZ11" s="78"/>
+      <c r="FA11" s="78"/>
+      <c r="FB11" s="78"/>
+      <c r="FC11" s="78"/>
+      <c r="FD11" s="78"/>
+      <c r="FE11" s="78"/>
+      <c r="FF11" s="78"/>
+      <c r="FG11" s="78"/>
+      <c r="FH11" s="78"/>
+      <c r="FI11" s="78"/>
+      <c r="FJ11" s="78"/>
+      <c r="FK11" s="78"/>
+      <c r="FL11" s="78"/>
+      <c r="FM11" s="78"/>
+      <c r="FN11" s="78"/>
+      <c r="FO11" s="78"/>
+      <c r="FP11" s="78"/>
+      <c r="FQ11" s="78"/>
+      <c r="FR11" s="78"/>
+      <c r="FS11" s="78"/>
+      <c r="FT11" s="78"/>
+      <c r="FU11" s="78"/>
+      <c r="FV11" s="78"/>
+      <c r="FW11" s="78"/>
+      <c r="FX11" s="78"/>
+      <c r="FY11" s="78"/>
+      <c r="FZ11" s="78"/>
+      <c r="GA11" s="78"/>
+      <c r="GB11" s="78"/>
+      <c r="GC11" s="78"/>
+      <c r="GD11" s="78"/>
+      <c r="GE11" s="78"/>
+      <c r="GF11" s="78"/>
+      <c r="GG11" s="78"/>
+      <c r="GH11" s="78"/>
+      <c r="GI11" s="78"/>
+      <c r="GJ11" s="78"/>
+      <c r="GK11" s="78"/>
+      <c r="GL11" s="78"/>
+      <c r="GM11" s="78"/>
+      <c r="GN11" s="78"/>
+      <c r="GO11" s="78"/>
+      <c r="GP11" s="78"/>
+      <c r="GQ11" s="78"/>
+      <c r="GR11" s="78"/>
+      <c r="GS11" s="78"/>
+      <c r="GT11" s="78"/>
+      <c r="GU11" s="78"/>
+      <c r="GV11" s="78"/>
+      <c r="GW11" s="78"/>
+      <c r="GX11" s="78"/>
+      <c r="GY11" s="78"/>
+      <c r="GZ11" s="78"/>
+      <c r="HA11" s="78"/>
+      <c r="HB11" s="78"/>
+      <c r="HC11" s="78"/>
+      <c r="HD11" s="78"/>
+      <c r="HE11" s="78"/>
+      <c r="HF11" s="78"/>
+      <c r="HG11" s="78"/>
+      <c r="HH11" s="78"/>
+      <c r="HI11" s="78"/>
+      <c r="HJ11" s="78"/>
+      <c r="HK11" s="78"/>
+      <c r="HL11" s="78"/>
+      <c r="HM11" s="78"/>
+      <c r="HN11" s="78"/>
+      <c r="HO11" s="78"/>
+      <c r="HP11" s="78"/>
+      <c r="HQ11" s="78"/>
+      <c r="HR11" s="78"/>
+      <c r="HS11" s="78"/>
+      <c r="HT11" s="78"/>
+      <c r="HU11" s="78"/>
+      <c r="HV11" s="78"/>
+      <c r="HW11" s="78"/>
+      <c r="HX11" s="78"/>
+      <c r="HY11" s="78"/>
+      <c r="HZ11" s="78"/>
+      <c r="IA11" s="78"/>
+      <c r="IB11" s="78"/>
+      <c r="IC11" s="78"/>
+      <c r="ID11" s="78"/>
+      <c r="IE11" s="78"/>
+      <c r="IF11" s="78"/>
+      <c r="IG11" s="78"/>
+      <c r="IH11" s="78"/>
+      <c r="II11" s="78"/>
+      <c r="IJ11" s="78"/>
+      <c r="IK11" s="78"/>
+      <c r="IL11" s="78"/>
+      <c r="IM11" s="78"/>
+      <c r="IN11" s="78"/>
+      <c r="IO11" s="78"/>
+      <c r="IP11" s="78"/>
+    </row>
+    <row r="12" spans="1:257" ht="14.25" customHeight="1">
+      <c r="A12" s="54" t="str">
+        <f>IF(OR(B12&lt;&gt;"",D12&lt;E11&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Herbal medicine store-2]</v>
+      </c>
+      <c r="B12" s="97" t="s">
+        <v>377</v>
+      </c>
+      <c r="C12" s="109" t="s">
+        <v>382</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>383</v>
+      </c>
+      <c r="E12" s="98"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="90"/>
+    </row>
+    <row r="13" spans="1:257" ht="14.25" customHeight="1">
+      <c r="A13" s="138" t="str">
+        <f t="shared" ref="A13:A18" si="0">IF(OR(B13&lt;&gt;"",D13&lt;E12&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Herbal medicine store-3]</v>
+      </c>
+      <c r="B13" s="139" t="s">
+        <v>378</v>
+      </c>
+      <c r="C13" s="142" t="s">
+        <v>382</v>
+      </c>
+      <c r="D13" s="97" t="s">
+        <v>384</v>
+      </c>
+      <c r="E13" s="103"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="90"/>
+    </row>
+    <row r="14" spans="1:257" ht="14.25" customHeight="1">
+      <c r="A14" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>[Herbal medicine store-4]</v>
+      </c>
+      <c r="B14" s="97" t="s">
+        <v>379</v>
+      </c>
+      <c r="C14" s="143" t="s">
+        <v>369</v>
+      </c>
+      <c r="D14" s="166" t="s">
+        <v>370</v>
+      </c>
+      <c r="E14" s="103"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="90"/>
+    </row>
+    <row r="15" spans="1:257" ht="14.25" customHeight="1">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="78"/>
+      <c r="Z15" s="78"/>
+      <c r="AA15" s="78"/>
+      <c r="AB15" s="78"/>
+      <c r="AC15" s="78"/>
+      <c r="AD15" s="78"/>
+      <c r="AE15" s="78"/>
+      <c r="AF15" s="78"/>
+      <c r="AG15" s="78"/>
+      <c r="AH15" s="78"/>
+      <c r="AI15" s="78"/>
+      <c r="AJ15" s="78"/>
+      <c r="AK15" s="78"/>
+      <c r="AL15" s="78"/>
+      <c r="AM15" s="78"/>
+      <c r="AN15" s="78"/>
+      <c r="AO15" s="78"/>
+      <c r="AP15" s="78"/>
+      <c r="AQ15" s="78"/>
+      <c r="AR15" s="78"/>
+      <c r="AS15" s="78"/>
+      <c r="AT15" s="78"/>
+      <c r="AU15" s="78"/>
+      <c r="AV15" s="78"/>
+      <c r="AW15" s="78"/>
+      <c r="AX15" s="78"/>
+      <c r="AY15" s="78"/>
+      <c r="AZ15" s="78"/>
+      <c r="BA15" s="78"/>
+      <c r="BB15" s="78"/>
+      <c r="BC15" s="78"/>
+      <c r="BD15" s="78"/>
+      <c r="BE15" s="78"/>
+      <c r="BF15" s="78"/>
+      <c r="BG15" s="78"/>
+      <c r="BH15" s="78"/>
+      <c r="BI15" s="78"/>
+      <c r="BJ15" s="78"/>
+      <c r="BK15" s="78"/>
+      <c r="BL15" s="78"/>
+      <c r="BM15" s="78"/>
+      <c r="BN15" s="78"/>
+      <c r="BO15" s="78"/>
+      <c r="BP15" s="78"/>
+      <c r="BQ15" s="78"/>
+      <c r="BR15" s="78"/>
+      <c r="BS15" s="78"/>
+      <c r="BT15" s="78"/>
+      <c r="BU15" s="78"/>
+      <c r="BV15" s="78"/>
+      <c r="BW15" s="78"/>
+      <c r="BX15" s="78"/>
+      <c r="BY15" s="78"/>
+      <c r="BZ15" s="78"/>
+      <c r="CA15" s="78"/>
+      <c r="CB15" s="78"/>
+      <c r="CC15" s="78"/>
+      <c r="CD15" s="78"/>
+      <c r="CE15" s="78"/>
+      <c r="CF15" s="78"/>
+      <c r="CG15" s="78"/>
+      <c r="CH15" s="78"/>
+      <c r="CI15" s="78"/>
+      <c r="CJ15" s="78"/>
+      <c r="CK15" s="78"/>
+      <c r="CL15" s="78"/>
+      <c r="CM15" s="78"/>
+      <c r="CN15" s="78"/>
+      <c r="CO15" s="78"/>
+      <c r="CP15" s="78"/>
+      <c r="CQ15" s="78"/>
+      <c r="CR15" s="78"/>
+      <c r="CS15" s="78"/>
+      <c r="CT15" s="78"/>
+      <c r="CU15" s="78"/>
+      <c r="CV15" s="78"/>
+      <c r="CW15" s="78"/>
+      <c r="CX15" s="78"/>
+      <c r="CY15" s="78"/>
+      <c r="CZ15" s="78"/>
+      <c r="DA15" s="78"/>
+      <c r="DB15" s="78"/>
+      <c r="DC15" s="78"/>
+      <c r="DD15" s="78"/>
+      <c r="DE15" s="78"/>
+      <c r="DF15" s="78"/>
+      <c r="DG15" s="78"/>
+      <c r="DH15" s="78"/>
+      <c r="DI15" s="78"/>
+      <c r="DJ15" s="78"/>
+      <c r="DK15" s="78"/>
+      <c r="DL15" s="78"/>
+      <c r="DM15" s="78"/>
+      <c r="DN15" s="78"/>
+      <c r="DO15" s="78"/>
+      <c r="DP15" s="78"/>
+      <c r="DQ15" s="78"/>
+      <c r="DR15" s="78"/>
+      <c r="DS15" s="78"/>
+      <c r="DT15" s="78"/>
+      <c r="DU15" s="78"/>
+      <c r="DV15" s="78"/>
+      <c r="DW15" s="78"/>
+      <c r="DX15" s="78"/>
+      <c r="DY15" s="78"/>
+      <c r="DZ15" s="78"/>
+      <c r="EA15" s="78"/>
+      <c r="EB15" s="78"/>
+      <c r="EC15" s="78"/>
+      <c r="ED15" s="78"/>
+      <c r="EE15" s="78"/>
+      <c r="EF15" s="78"/>
+      <c r="EG15" s="78"/>
+      <c r="EH15" s="78"/>
+      <c r="EI15" s="78"/>
+      <c r="EJ15" s="78"/>
+      <c r="EK15" s="78"/>
+      <c r="EL15" s="78"/>
+      <c r="EM15" s="78"/>
+      <c r="EN15" s="78"/>
+      <c r="EO15" s="78"/>
+      <c r="EP15" s="78"/>
+      <c r="EQ15" s="78"/>
+      <c r="ER15" s="78"/>
+      <c r="ES15" s="78"/>
+      <c r="ET15" s="78"/>
+      <c r="EU15" s="78"/>
+      <c r="EV15" s="78"/>
+      <c r="EW15" s="78"/>
+      <c r="EX15" s="78"/>
+      <c r="EY15" s="78"/>
+      <c r="EZ15" s="78"/>
+      <c r="FA15" s="78"/>
+      <c r="FB15" s="78"/>
+      <c r="FC15" s="78"/>
+      <c r="FD15" s="78"/>
+      <c r="FE15" s="78"/>
+      <c r="FF15" s="78"/>
+      <c r="FG15" s="78"/>
+      <c r="FH15" s="78"/>
+      <c r="FI15" s="78"/>
+      <c r="FJ15" s="78"/>
+      <c r="FK15" s="78"/>
+      <c r="FL15" s="78"/>
+      <c r="FM15" s="78"/>
+      <c r="FN15" s="78"/>
+      <c r="FO15" s="78"/>
+      <c r="FP15" s="78"/>
+      <c r="FQ15" s="78"/>
+      <c r="FR15" s="78"/>
+      <c r="FS15" s="78"/>
+      <c r="FT15" s="78"/>
+      <c r="FU15" s="78"/>
+      <c r="FV15" s="78"/>
+      <c r="FW15" s="78"/>
+      <c r="FX15" s="78"/>
+      <c r="FY15" s="78"/>
+      <c r="FZ15" s="78"/>
+      <c r="GA15" s="78"/>
+      <c r="GB15" s="78"/>
+      <c r="GC15" s="78"/>
+      <c r="GD15" s="78"/>
+      <c r="GE15" s="78"/>
+      <c r="GF15" s="78"/>
+      <c r="GG15" s="78"/>
+      <c r="GH15" s="78"/>
+      <c r="GI15" s="78"/>
+      <c r="GJ15" s="78"/>
+      <c r="GK15" s="78"/>
+      <c r="GL15" s="78"/>
+      <c r="GM15" s="78"/>
+      <c r="GN15" s="78"/>
+      <c r="GO15" s="78"/>
+      <c r="GP15" s="78"/>
+      <c r="GQ15" s="78"/>
+      <c r="GR15" s="78"/>
+      <c r="GS15" s="78"/>
+      <c r="GT15" s="78"/>
+      <c r="GU15" s="78"/>
+      <c r="GV15" s="78"/>
+      <c r="GW15" s="78"/>
+      <c r="GX15" s="78"/>
+      <c r="GY15" s="78"/>
+      <c r="GZ15" s="78"/>
+      <c r="HA15" s="78"/>
+      <c r="HB15" s="78"/>
+      <c r="HC15" s="78"/>
+      <c r="HD15" s="78"/>
+      <c r="HE15" s="78"/>
+      <c r="HF15" s="78"/>
+      <c r="HG15" s="78"/>
+      <c r="HH15" s="78"/>
+      <c r="HI15" s="78"/>
+      <c r="HJ15" s="78"/>
+      <c r="HK15" s="78"/>
+      <c r="HL15" s="78"/>
+      <c r="HM15" s="78"/>
+      <c r="HN15" s="78"/>
+      <c r="HO15" s="78"/>
+      <c r="HP15" s="78"/>
+      <c r="HQ15" s="78"/>
+      <c r="HR15" s="78"/>
+      <c r="HS15" s="78"/>
+      <c r="HT15" s="78"/>
+      <c r="HU15" s="78"/>
+      <c r="HV15" s="78"/>
+      <c r="HW15" s="78"/>
+      <c r="HX15" s="78"/>
+      <c r="HY15" s="78"/>
+      <c r="HZ15" s="78"/>
+      <c r="IA15" s="78"/>
+      <c r="IB15" s="78"/>
+      <c r="IC15" s="78"/>
+      <c r="ID15" s="78"/>
+      <c r="IE15" s="78"/>
+      <c r="IF15" s="78"/>
+      <c r="IG15" s="78"/>
+      <c r="IH15" s="78"/>
+      <c r="II15" s="78"/>
+      <c r="IJ15" s="78"/>
+      <c r="IK15" s="78"/>
+      <c r="IL15" s="78"/>
+      <c r="IM15" s="78"/>
+      <c r="IN15" s="78"/>
+      <c r="IO15" s="78"/>
+      <c r="IP15" s="78"/>
+    </row>
+    <row r="16" spans="1:257" ht="14.25" customHeight="1">
+      <c r="A16" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>[Herbal medicine store-6]</v>
+      </c>
+      <c r="B16" s="109" t="s">
+        <v>380</v>
+      </c>
+      <c r="C16" s="143" t="s">
+        <v>381</v>
+      </c>
+      <c r="D16" s="97" t="s">
+        <v>385</v>
+      </c>
+      <c r="E16" s="189"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="90"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A17" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>[Herbal medicine store-7]</v>
+      </c>
+      <c r="B17" s="109" t="s">
+        <v>386</v>
+      </c>
+      <c r="C17" s="143" t="s">
+        <v>381</v>
+      </c>
+      <c r="D17" s="97" t="s">
+        <v>387</v>
+      </c>
+      <c r="E17" s="168"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="168"/>
+      <c r="J17" s="90"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A18" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>[Herbal medicine store-8]</v>
+      </c>
+      <c r="B18" s="109" t="s">
+        <v>388</v>
+      </c>
+      <c r="C18" s="143" t="s">
+        <v>389</v>
+      </c>
+      <c r="D18" s="97" t="s">
+        <v>390</v>
+      </c>
+      <c r="E18" s="168"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="190"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="90"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A19" s="96" t="str">
+        <f>IF(OR(B19&lt;&gt;"",D19&lt;E16&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Herbal medicine store-9]</v>
+      </c>
+      <c r="B19" s="109" t="s">
+        <v>393</v>
+      </c>
+      <c r="C19" s="143" t="s">
+        <v>391</v>
+      </c>
+      <c r="D19" s="97" t="s">
+        <v>392</v>
+      </c>
+      <c r="E19" s="191"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="192"/>
+      <c r="I19" s="193"/>
+      <c r="J19" s="90"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A20" s="96" t="str">
+        <f>IF(OR(B20&lt;&gt;"",D20&lt;E17&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Herbal medicine store-10]</v>
+      </c>
+      <c r="B20" s="109" t="s">
+        <v>397</v>
+      </c>
+      <c r="C20" s="143" t="s">
+        <v>394</v>
+      </c>
+      <c r="D20" s="97" t="s">
+        <v>395</v>
+      </c>
+      <c r="E20" s="191"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="192"/>
+      <c r="I20" s="193"/>
+      <c r="J20" s="90"/>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A21" s="96" t="str">
+        <f t="shared" ref="A21:A29" si="1">IF(OR(B21&lt;&gt;"",D21&lt;E19&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Herbal medicine store-11]</v>
+      </c>
+      <c r="B21" s="109" t="s">
+        <v>396</v>
+      </c>
+      <c r="C21" s="143" t="s">
+        <v>333</v>
+      </c>
+      <c r="D21" s="97" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" s="191"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="193"/>
+      <c r="J21" s="90"/>
+    </row>
+    <row r="22" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A22" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>[Herbal medicine store-12]</v>
+      </c>
+      <c r="B22" s="109" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="143" t="s">
+        <v>314</v>
+      </c>
+      <c r="D22" s="97" t="s">
+        <v>336</v>
+      </c>
+      <c r="E22" s="191"/>
+      <c r="F22" s="185"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="192"/>
+      <c r="I22" s="193"/>
+      <c r="J22" s="90"/>
+    </row>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A23" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>[Herbal medicine store-13]</v>
+      </c>
+      <c r="B23" s="109" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="143" t="s">
+        <v>315</v>
+      </c>
+      <c r="D23" s="97" t="s">
+        <v>337</v>
+      </c>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="168"/>
+      <c r="J23" s="90"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A24" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>[Herbal medicine store-14]</v>
+      </c>
+      <c r="B24" s="109" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="143" t="s">
+        <v>338</v>
+      </c>
+      <c r="D24" s="97" t="s">
+        <v>342</v>
+      </c>
+      <c r="E24" s="168"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="190"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="168"/>
+      <c r="J24" s="90"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A25" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>[Herbal medicine store-15]</v>
+      </c>
+      <c r="B25" s="109" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" s="143" t="s">
+        <v>316</v>
+      </c>
+      <c r="D25" s="97" t="s">
+        <v>341</v>
+      </c>
+      <c r="E25" s="193"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="193"/>
+      <c r="J25" s="90"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A26" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>[Herbal medicine store-16]</v>
+      </c>
+      <c r="B26" s="109" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="143" t="s">
+        <v>318</v>
+      </c>
+      <c r="D26" s="97" t="s">
+        <v>344</v>
+      </c>
+      <c r="E26" s="146"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="90"/>
+    </row>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A27" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>[Herbal medicine store-17]</v>
+      </c>
+      <c r="B27" s="109" t="s">
+        <v>253</v>
+      </c>
+      <c r="C27" s="143" t="s">
+        <v>317</v>
+      </c>
+      <c r="D27" s="97" t="s">
+        <v>343</v>
+      </c>
+      <c r="E27" s="146"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="90"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A28" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>[Herbal medicine store-18]</v>
+      </c>
+      <c r="B28" s="109" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="143" t="s">
+        <v>320</v>
+      </c>
+      <c r="D28" s="97" t="s">
+        <v>346</v>
+      </c>
+      <c r="E28" s="193"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="192"/>
+      <c r="I28" s="193"/>
+      <c r="J28" s="90"/>
+    </row>
+    <row r="29" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A29" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>[Herbal medicine store-19]</v>
+      </c>
+      <c r="B29" s="109" t="s">
+        <v>254</v>
+      </c>
+      <c r="C29" s="143" t="s">
+        <v>319</v>
+      </c>
+      <c r="D29" s="97" t="s">
+        <v>345</v>
+      </c>
+      <c r="E29" s="168"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="168"/>
+      <c r="I29" s="168"/>
+      <c r="J29" s="90"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A30" s="140"/>
+      <c r="B30" s="140" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="233"/>
+      <c r="D30" s="234"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="90"/>
+    </row>
+    <row r="31" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A31" s="54" t="str">
+        <f>IF(OR(B31&lt;&gt;"",D31&lt;F30&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Herbal medicine store-21]</v>
+      </c>
+      <c r="B31" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="143" t="s">
+        <v>347</v>
+      </c>
+      <c r="D31" s="97" t="s">
+        <v>348</v>
+      </c>
+      <c r="E31" s="193"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="192"/>
+      <c r="I31" s="193"/>
+      <c r="J31" s="90"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A32" s="138" t="str">
+        <f t="shared" ref="A32" si="2">IF(OR(B32&lt;&gt;"",D32&lt;E31&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Herbal medicine store-22]</v>
+      </c>
+      <c r="B32" s="97" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="143" t="s">
+        <v>264</v>
+      </c>
+      <c r="D32" s="97" t="s">
+        <v>349</v>
+      </c>
+      <c r="E32" s="193"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="192"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="90"/>
+    </row>
+    <row r="33" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A33" s="167" t="str">
+        <f>IF(OR(B33&lt;&gt;"",D33&lt;F30&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Herbal medicine store-23]</v>
+      </c>
+      <c r="B33" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="143" t="s">
+        <v>265</v>
+      </c>
+      <c r="D33" s="166" t="s">
+        <v>266</v>
+      </c>
+      <c r="E33" s="193"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="192"/>
+      <c r="I33" s="193"/>
+      <c r="J33" s="90"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A34" s="54" t="str">
+        <f>IF(OR(B34&lt;&gt;"",D34&lt;E31&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Herbal medicine store-24]</v>
+      </c>
+      <c r="B34" s="109" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="143" t="s">
+        <v>267</v>
+      </c>
+      <c r="D34" s="97" t="s">
+        <v>268</v>
+      </c>
+      <c r="E34" s="193"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="192"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="90"/>
+    </row>
+    <row r="35" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A35" s="54" t="str">
+        <f>IF(OR(B35&lt;&gt;"",D35&lt;E32&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Herbal medicine store-25]</v>
+      </c>
+      <c r="B35" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="143" t="s">
+        <v>269</v>
+      </c>
+      <c r="D35" s="97" t="s">
+        <v>270</v>
+      </c>
+      <c r="E35" s="193"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="192"/>
+      <c r="I35" s="193"/>
+      <c r="J35" s="90"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A36" s="138" t="str">
+        <f t="shared" ref="A36:A60" si="3">IF(OR(B36&lt;&gt;"",D36&lt;E35&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Herbal medicine store-26]</v>
+      </c>
+      <c r="B36" s="109" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="143" t="s">
+        <v>271</v>
+      </c>
+      <c r="D36" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="E36" s="193"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="192"/>
+      <c r="I36" s="193"/>
+      <c r="J36" s="90"/>
+    </row>
+    <row r="37" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A37" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>[Herbal medicine store-27]</v>
+      </c>
+      <c r="B37" s="109" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="143" t="s">
+        <v>273</v>
+      </c>
+      <c r="D37" s="97" t="s">
+        <v>274</v>
+      </c>
+      <c r="E37" s="193"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="192"/>
+      <c r="I37" s="193"/>
+      <c r="J37" s="90"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A38" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>[Herbal medicine store-28]</v>
+      </c>
+      <c r="B38" s="109" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="143" t="s">
+        <v>275</v>
+      </c>
+      <c r="D38" s="97" t="s">
+        <v>276</v>
+      </c>
+      <c r="E38" s="193"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="192"/>
+      <c r="I38" s="193"/>
+      <c r="J38" s="90"/>
+    </row>
+    <row r="39" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A39" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>[Herbal medicine store-29]</v>
+      </c>
+      <c r="B39" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="143" t="s">
+        <v>277</v>
+      </c>
+      <c r="D39" s="97" t="s">
+        <v>278</v>
+      </c>
+      <c r="E39" s="193"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="192"/>
+      <c r="I39" s="193"/>
+      <c r="J39" s="90"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A40" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>[Herbal medicine store-30]</v>
+      </c>
+      <c r="B40" s="109" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="143" t="s">
+        <v>279</v>
+      </c>
+      <c r="D40" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="E40" s="193"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="192"/>
+      <c r="I40" s="193"/>
+      <c r="J40" s="90"/>
+    </row>
+    <row r="41" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A41" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>[Herbal medicine store-31]</v>
+      </c>
+      <c r="B41" s="109" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="143" t="s">
+        <v>281</v>
+      </c>
+      <c r="D41" s="97" t="s">
+        <v>282</v>
+      </c>
+      <c r="E41" s="168"/>
+      <c r="F41" s="168"/>
+      <c r="G41" s="168"/>
+      <c r="H41" s="168"/>
+      <c r="I41" s="168"/>
+      <c r="J41" s="90"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A42" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>[Herbal medicine store-32]</v>
+      </c>
+      <c r="B42" s="175" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="143" t="s">
+        <v>283</v>
+      </c>
+      <c r="D42" s="144" t="s">
+        <v>284</v>
+      </c>
+      <c r="E42" s="193"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="192"/>
+      <c r="I42" s="193"/>
+      <c r="J42" s="90"/>
+    </row>
+    <row r="43" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A43" s="145"/>
+      <c r="B43" s="158" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" s="235"/>
+      <c r="D43" s="236"/>
+      <c r="E43" s="193"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="192"/>
+      <c r="I43" s="193"/>
+      <c r="J43" s="90"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A44" s="96" t="str">
+        <f>IF(OR(B44&lt;&gt;"",D44&lt;E42&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Herbal medicine store-34]</v>
+      </c>
+      <c r="B44" s="172" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="173" t="s">
+        <v>285</v>
+      </c>
+      <c r="D44" s="173" t="s">
+        <v>351</v>
+      </c>
+      <c r="E44" s="193"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="192"/>
+      <c r="I44" s="193"/>
+      <c r="J44" s="90"/>
+    </row>
+    <row r="45" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A45" s="96" t="str">
+        <f>IF(OR(B45&lt;&gt;"",D45&lt;E43&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Herbal medicine store-35]</v>
+      </c>
+      <c r="B45" s="172" t="s">
+        <v>195</v>
+      </c>
+      <c r="C45" s="173" t="s">
+        <v>285</v>
+      </c>
+      <c r="D45" s="173" t="s">
+        <v>286</v>
+      </c>
+      <c r="E45" s="193"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="109"/>
+      <c r="H45" s="192"/>
+      <c r="I45" s="193"/>
+      <c r="J45" s="90"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A46" s="96" t="str">
+        <f>IF(OR(B46&lt;&gt;"",D46&lt;E43&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Herbal medicine store-36]</v>
+      </c>
+      <c r="B46" s="178" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="171" t="s">
+        <v>287</v>
+      </c>
+      <c r="D46" s="106" t="s">
+        <v>288</v>
+      </c>
+      <c r="E46" s="193"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="109"/>
+      <c r="H46" s="192"/>
+      <c r="I46" s="193"/>
+      <c r="J46" s="90"/>
+    </row>
+    <row r="47" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A47" s="96" t="str">
+        <f>IF(OR(B47&lt;&gt;"",D47&lt;E46&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Herbal medicine store-37]</v>
+      </c>
+      <c r="B47" s="179" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="137" t="s">
+        <v>285</v>
+      </c>
+      <c r="D47" s="97" t="s">
+        <v>289</v>
+      </c>
+      <c r="E47" s="168"/>
+      <c r="F47" s="168"/>
+      <c r="G47" s="168"/>
+      <c r="H47" s="168"/>
+      <c r="I47" s="168"/>
+      <c r="J47" s="90"/>
+    </row>
+    <row r="48" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A48" s="145"/>
+      <c r="B48" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="233"/>
+      <c r="D48" s="234"/>
+      <c r="E48" s="193"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="109"/>
+      <c r="H48" s="194"/>
+      <c r="I48" s="193"/>
+      <c r="J48" s="90"/>
+    </row>
+    <row r="49" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A49" s="170" t="str">
+        <f>IF(OR(B49&lt;&gt;"",D49&lt;E48&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Herbal medicine store-39]</v>
+      </c>
+      <c r="B49" s="97" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="137" t="s">
+        <v>290</v>
+      </c>
+      <c r="D49" s="97" t="s">
+        <v>350</v>
+      </c>
+      <c r="E49" s="168"/>
+      <c r="F49" s="168"/>
+      <c r="G49" s="168"/>
+      <c r="H49" s="168"/>
+      <c r="I49" s="168"/>
+      <c r="J49" s="90"/>
+    </row>
+    <row r="50" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A50" s="138" t="str">
+        <f>IF(OR(B50&lt;&gt;"",D50&lt;E49&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Herbal medicine store-40]</v>
+      </c>
+      <c r="B50" s="97" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" s="137" t="s">
+        <v>291</v>
+      </c>
+      <c r="D50" s="97" t="s">
+        <v>292</v>
+      </c>
+      <c r="E50" s="193"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="192"/>
+      <c r="I50" s="193"/>
+      <c r="J50" s="90"/>
+    </row>
+    <row r="51" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A51" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>[Herbal medicine store-41]</v>
+      </c>
+      <c r="B51" s="109" t="s">
+        <v>217</v>
+      </c>
+      <c r="C51" s="137" t="s">
+        <v>293</v>
+      </c>
+      <c r="D51" s="97" t="s">
+        <v>294</v>
+      </c>
+      <c r="E51" s="168"/>
+      <c r="F51" s="168"/>
+      <c r="G51" s="168"/>
+      <c r="H51" s="168"/>
+      <c r="I51" s="168"/>
+      <c r="J51" s="90"/>
+    </row>
+    <row r="52" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A52" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>[Herbal medicine store-42]</v>
+      </c>
+      <c r="B52" s="109" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" s="137" t="s">
+        <v>295</v>
+      </c>
+      <c r="D52" s="97" t="s">
+        <v>296</v>
+      </c>
+      <c r="E52" s="193"/>
+      <c r="F52" s="109"/>
+      <c r="G52" s="109"/>
+      <c r="H52" s="192"/>
+      <c r="I52" s="193"/>
+      <c r="J52" s="90"/>
+    </row>
+    <row r="53" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A53" s="177" t="str">
+        <f t="shared" si="3"/>
+        <v>[Herbal medicine store-43]</v>
+      </c>
+      <c r="B53" s="175" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" s="137" t="s">
+        <v>287</v>
+      </c>
+      <c r="D53" s="97" t="s">
+        <v>297</v>
+      </c>
+      <c r="E53" s="193"/>
+      <c r="F53" s="109"/>
+      <c r="G53" s="109"/>
+      <c r="H53" s="192"/>
+      <c r="I53" s="193"/>
+      <c r="J53" s="90"/>
+    </row>
+    <row r="54" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A54" s="145"/>
+      <c r="B54" s="141" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" s="233"/>
+      <c r="D54" s="234"/>
+      <c r="E54" s="193"/>
+      <c r="F54" s="109"/>
+      <c r="G54" s="109"/>
+      <c r="H54" s="192"/>
+      <c r="I54" s="193"/>
+      <c r="J54" s="90"/>
+    </row>
+    <row r="55" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A55" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>[Herbal medicine store-45]</v>
+      </c>
+      <c r="B55" s="176" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55" s="142" t="s">
+        <v>298</v>
+      </c>
+      <c r="D55" s="139" t="s">
+        <v>299</v>
+      </c>
+      <c r="E55" s="193"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="109"/>
+      <c r="H55" s="192"/>
+      <c r="I55" s="193"/>
+      <c r="J55" s="90"/>
+    </row>
+    <row r="56" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A56" s="170" t="str">
+        <f t="shared" si="3"/>
+        <v>[Herbal medicine store-46]</v>
+      </c>
+      <c r="B56" s="109" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="137" t="s">
+        <v>300</v>
+      </c>
+      <c r="D56" s="97" t="s">
+        <v>301</v>
+      </c>
+      <c r="E56" s="193"/>
+      <c r="F56" s="109"/>
+      <c r="G56" s="109"/>
+      <c r="H56" s="192"/>
+      <c r="I56" s="193"/>
+      <c r="J56" s="90"/>
+    </row>
+    <row r="57" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A57" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>[Herbal medicine store-47]</v>
+      </c>
+      <c r="B57" s="109" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="137" t="s">
+        <v>302</v>
+      </c>
+      <c r="D57" s="97" t="s">
+        <v>303</v>
+      </c>
+      <c r="E57" s="193"/>
+      <c r="F57" s="109"/>
+      <c r="G57" s="109"/>
+      <c r="H57" s="192"/>
+      <c r="I57" s="193"/>
+      <c r="J57" s="90"/>
+    </row>
+    <row r="58" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A58" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>[Herbal medicine store-48]</v>
+      </c>
+      <c r="B58" s="109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="143" t="s">
+        <v>304</v>
+      </c>
+      <c r="D58" s="97" t="s">
+        <v>305</v>
+      </c>
+      <c r="E58" s="193"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="109"/>
+      <c r="H58" s="192"/>
+      <c r="I58" s="193"/>
+      <c r="J58" s="90"/>
+    </row>
+    <row r="59" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A59" s="145"/>
+      <c r="B59" s="141" t="s">
+        <v>223</v>
+      </c>
+      <c r="C59" s="233"/>
+      <c r="D59" s="234"/>
+      <c r="E59" s="193"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="109"/>
+      <c r="H59" s="192"/>
+      <c r="I59" s="193"/>
+      <c r="J59" s="90"/>
+    </row>
+    <row r="60" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A60" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>[Herbal medicine store-50]</v>
+      </c>
+      <c r="B60" s="139" t="s">
+        <v>224</v>
+      </c>
+      <c r="C60" s="142" t="s">
+        <v>287</v>
+      </c>
+      <c r="D60" s="139" t="s">
+        <v>306</v>
+      </c>
+      <c r="E60" s="168"/>
+      <c r="F60" s="168"/>
+      <c r="G60" s="168"/>
+      <c r="H60" s="168"/>
+      <c r="I60" s="168"/>
+      <c r="J60" s="90"/>
+    </row>
+    <row r="61" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A61" s="152" t="str">
+        <f>IF(OR(B61&lt;&gt;"",D61&lt;E59&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Herbal medicine store-51]</v>
+      </c>
+      <c r="B61" s="97" t="s">
+        <v>226</v>
+      </c>
+      <c r="C61" s="97" t="s">
+        <v>307</v>
+      </c>
+      <c r="D61" s="97" t="s">
+        <v>308</v>
+      </c>
+      <c r="E61" s="193"/>
+      <c r="F61" s="109"/>
+      <c r="G61" s="109"/>
+      <c r="H61" s="192"/>
+      <c r="I61" s="193"/>
+      <c r="J61" s="90"/>
+    </row>
+    <row r="62" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A62" s="187"/>
+      <c r="B62" s="188" t="s">
+        <v>205</v>
+      </c>
+      <c r="C62" s="184"/>
+      <c r="D62" s="183"/>
+      <c r="E62" s="193"/>
+      <c r="F62" s="109"/>
+      <c r="G62" s="109"/>
+      <c r="H62" s="192"/>
+      <c r="I62" s="193"/>
+      <c r="J62" s="90"/>
+    </row>
+    <row r="63" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A63" s="96" t="str">
+        <f t="shared" ref="A63:A64" si="4">IF(OR(B63&lt;&gt;"",D63&lt;E62&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Herbal medicine store-53]</v>
+      </c>
+      <c r="B63" s="97" t="s">
+        <v>229</v>
+      </c>
+      <c r="C63" s="185" t="s">
+        <v>309</v>
+      </c>
+      <c r="D63" s="181" t="s">
+        <v>310</v>
+      </c>
+      <c r="E63" s="193"/>
+      <c r="F63" s="109"/>
+      <c r="G63" s="109"/>
+      <c r="H63" s="194"/>
+      <c r="I63" s="193"/>
+      <c r="J63" s="90"/>
+    </row>
+    <row r="64" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A64" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>[Herbal medicine store-54]</v>
+      </c>
+      <c r="B64" s="97" t="s">
+        <v>231</v>
+      </c>
+      <c r="C64" s="179" t="s">
+        <v>311</v>
+      </c>
+      <c r="D64" s="97" t="s">
+        <v>312</v>
+      </c>
+      <c r="E64" s="146"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="159"/>
+      <c r="I64" s="146"/>
+      <c r="J64" s="90"/>
+    </row>
+    <row r="65" spans="10:10">
+      <c r="J65" s="90"/>
+    </row>
+    <row r="66" spans="10:10">
+      <c r="J66" s="90"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C30:D30"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F61:G64 F50:G50 F48:G48 F19:G22 F25:G28 F30:G40 F42:G46 F52:G59 F12:G14 F16:G16">
+      <formula1>$J$2:$J$6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Test Report'!A1" display="Back to Test Report"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/WIP/Deliverable/Report3/VMN_System Test Case_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report3/VMN_System Test Case_v1.0_EN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" tabRatio="840" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" tabRatio="840" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="979">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -2331,39 +2331,6 @@
     <t xml:space="preserve">1. The Homepage is displayed
 2.1 "Remedy" Page is displayed
 2.2 "Personal Page" is displayed
-3. "Article Detail" Page is displayed by following fields:
-- Header
-- Illustrations
-- Edit button
-- Share button
-- Title text field
-- Ingredients text field
-- Description text field
-- Usage text field
-- Utility text field
-- Note text field
-- Rate box
-- Author
-- Comment tab
-- Related HMS
-- Footer
-4. "Change content" Page is displayed by following fields:
-- Header
-- Illustrations
-- Title text field
-- Ingredients text field
-- Description text field
-- Usage text field
-- Utility text field
-- Note text field
-- Save button
-- Footer
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. The Homepage is displayed
-2.1 "Remedy" Page is displayed
-2.2 "Personal Page" is displayed
 3. "Article Detail" Page is displayed 
 4. "Change content" Page is displayed </t>
   </si>
@@ -2376,26 +2343,6 @@
 - Send button
 5. VMN system will alert message: "Please enter your report reason" then display "Report" Popup
 </t>
-  </si>
-  <si>
-    <t>1. Homepage is displayed
-2. "Remedy" page will be displayed
-3. "Article Detail" Page will displayed by following fields:
-- Header
-- Illustrations
-- Edit button
-- Share button
-- Title 
-- Ingredients
-- Description
-- Usage
-- Utility 
-- Note 
-- Rate box
-- Author
-- Comment tab
-- Related HMS
-- Footer</t>
   </si>
   <si>
     <t>Medicinal plants article module</t>
@@ -2537,10 +2484,6 @@
 2. Click on "HMS" tab</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Login VMN system by Member or Mod role
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. The Homepage is displayed
 </t>
   </si>
@@ -3377,114 +3320,6 @@
     <t>Verify that password is encoded</t>
   </si>
   <si>
-    <t>1. The Homepage is displayed
-2. The Login page is displayed
-3. "abc123" is encoded "••••••"</t>
-  </si>
-  <si>
-    <t>1.The Home page is displayed
-2.The Login page is displayed
-3. Login button is disabled (locked)</t>
-  </si>
-  <si>
-    <t>1. The Homepage is displayed
-2. The Login page is displayed
-4. Logged in successfully</t>
-  </si>
-  <si>
-    <t>Check user login when user input email is empty</t>
-  </si>
-  <si>
-    <r>
-      <t>1. The Home page is displayed 
-2. The Login page is displayed
-3. "khanhtbse02764@fpt.edu.vn" in email field
-4. Display error message</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> MS03</t>
-    </r>
-  </si>
-  <si>
-    <t>Check user login when user input password is empty</t>
-  </si>
-  <si>
-    <r>
-      <t>1. The Home page is displayed 
-2. The Login page is displayed
-3. "123" in pass field
-4. Display error message</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> MS04</t>
-    </r>
-  </si>
-  <si>
-    <t>Check user login when user only input email or password</t>
-  </si>
-  <si>
-    <t>1. The Home page is displayed
-2. The Login page is displayed
-4. Login button is disabled (locked).</t>
-  </si>
-  <si>
-    <t>Check user login when user input correct email and wrong password</t>
-  </si>
-  <si>
-    <r>
-      <t>1. The Homepage is displayed
-2. The Login page is displayed
-3. "khanhtbse02764@fpt.edu.vn" in email field
-     "adfghjk" in pass field
-4. Display error message</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> MS06</t>
-    </r>
-  </si>
-  <si>
-    <t>Check user login when input wrong username and correct password</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. The Homepage is displayed
-2. The Login page is displayed
-3. "abcxyz" in email field
-     "123456789" in pass field
-4. Display error message </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>MS06</t>
-    </r>
-  </si>
-  <si>
-    <t>Check user login when input wrong both username and password</t>
-  </si>
-  <si>
     <t>Log out</t>
   </si>
   <si>
@@ -3495,9 +3330,6 @@
 2. The Login page is displayed
 3. The Register page is displayed
 4. "abc123" is encoded "••••••"</t>
-  </si>
-  <si>
-    <t>Check user register when user do not enter any fields of register form and click Register  button</t>
   </si>
   <si>
     <t>1.The Homepage is displayed 
@@ -3505,12 +3337,6 @@
 3.The Register page is displayed 
 4. Register button is disabled (locked)
 5. Can not click Register button</t>
-  </si>
-  <si>
-    <t>[Account Management Module-15]</t>
-  </si>
-  <si>
-    <t>Check user register when user input a string smaller than 8 characters on "Username" field</t>
   </si>
   <si>
     <r>
@@ -3531,9 +3357,6 @@
     </r>
   </si>
   <si>
-    <t>Check user register when user input a string more than 20 characters on "Username" field</t>
-  </si>
-  <si>
     <r>
       <t>1.The Homepage is displayed 
 2. The Login page is displayed
@@ -3552,9 +3375,6 @@
     </r>
   </si>
   <si>
-    <t>Check user register when user input a string contains special characters.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1. The Homepage is displayed 
 2. The Login page is displayed
@@ -3571,9 +3391,6 @@
       </rPr>
       <t>MS09</t>
     </r>
-  </si>
-  <si>
-    <t>Check user register when user input a string small than 8 character and contains special characters.</t>
   </si>
   <si>
     <r>
@@ -3611,9 +3428,6 @@
     </r>
   </si>
   <si>
-    <t>Check user register when user input a string more than 20 character and contains special characters.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1. The Homepage is displayed 
 2. The Login page is displayed
@@ -3632,9 +3446,6 @@
     </r>
   </si>
   <si>
-    <t>Check user register when user input a string less than 8 character on "Pass" field</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1.The Homepage is displayed 
 2. The Login page is displayed
@@ -3650,9 +3461,6 @@
       </rPr>
       <t>MS12</t>
     </r>
-  </si>
-  <si>
-    <t>Check user register when user input password is empty on Confirm Password field</t>
   </si>
   <si>
     <r>
@@ -3673,9 +3481,6 @@
     </r>
   </si>
   <si>
-    <t>Check user register when user input not match string with Password on Confirm Password field</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1. The Homepage is displayed 
 2. The Login page is displayed
@@ -3691,9 +3496,6 @@
       </rPr>
       <t>MS05</t>
     </r>
-  </si>
-  <si>
-    <t>Check user register when user input incorrect format email on Email field</t>
   </si>
   <si>
     <r>
@@ -3716,9 +3518,6 @@
     </r>
   </si>
   <si>
-    <t>Check user register when user input email which was registered</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1.The Homepage is displayed 
 2. The Login page is displayed
@@ -3738,20 +3537,11 @@
     </r>
   </si>
   <si>
-    <t>Check user register when user input empty fullname on Fullname field</t>
-  </si>
-  <si>
-    <t>Check user register when user input correct information on register form</t>
-  </si>
-  <si>
     <t>1.The Homepage is displayed 
 2. The Login page is displayed
 3. The Register page is displayed
 4. All field is filled correctly
 5. Display successfully message</t>
-  </si>
-  <si>
-    <t>[Account Management Module-58]</t>
   </si>
   <si>
     <t>Check user account when user enter a string longer than 50 characters on "Password" field</t>
@@ -3908,9 +3698,6 @@
 - "Sent" button disabled</t>
   </si>
   <si>
-    <t>[Account Management Module- ]</t>
-  </si>
-  <si>
     <t>Test viewing "Forgot password" page in 1024x768 screen resolution</t>
   </si>
   <si>
@@ -3927,9 +3714,6 @@
 2. The Login page is displayed
 3. Display "Forgot password" page
 4. Sent button can not click (disabled)</t>
-  </si>
-  <si>
-    <t>[Account Management Module-85]</t>
   </si>
   <si>
     <t>Check user forgot password when user input is empty email</t>
@@ -4039,139 +3823,33 @@
     <t>Check "Login" button</t>
   </si>
   <si>
-    <t>1.The Mod page is displayed 
-2. Display error message
-"The Username field is required" below the Username textbox
-"The Password field is required" below the Password textbox</t>
-  </si>
-  <si>
     <t>Check "Username" textbox</t>
   </si>
   <si>
-    <t>1.The Mod page is displayed 
-2. Pointer is flickered in "Username" textbox</t>
-  </si>
-  <si>
     <t>Check "Password" textbox</t>
   </si>
   <si>
-    <t>1.The Mod page is displayed 
-2. Pointer is flickered in "Password" textbox</t>
-  </si>
-  <si>
-    <t>1.The Mod page is displayed 
-2. Data is encoded</t>
-  </si>
-  <si>
     <t>When user input correct username and password</t>
   </si>
   <si>
-    <t>1.The Mod page is displayed 
-2. Logged in successfully, The "Mod" page is displayed</t>
-  </si>
-  <si>
     <t>When user input only username to login</t>
   </si>
   <si>
-    <t>1.The Mod page is displayed 
-2. Display error message "The Password field is required"</t>
-  </si>
-  <si>
     <t>When user input only password to login</t>
   </si>
   <si>
-    <t>1.The Mod page is displayed 
-2. Display error message "The Username field is required"</t>
-  </si>
-  <si>
     <t>When user input correct username and wrong password</t>
   </si>
   <si>
-    <t>1.The Mod page is displayed 
-2. Display error message "Username or Password wrong"</t>
-  </si>
-  <si>
     <t>When user input wrong username and correct password</t>
   </si>
   <si>
     <t>When user input wrong username and wrong password</t>
-  </si>
-  <si>
-    <t>Mod Common module</t>
-  </si>
-  <si>
-    <t>Test Mod view in 1366x768 screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Mod Page is displayed with the following list:
-- Header
-- Right Header:
-+ Logout button
-- Dashboard
-+ Total Medicinal plants
-+ Total Remedy
-+ Total Approve
-- Content details left
-+ Dashboard (default)
-+ Medicinal plants management
-+ Remedy management
-</t>
-  </si>
-  <si>
-    <t>Test Mod view in 1024x768 screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Mod Page is displayed with the following list:
-- Header
-- Right Header:
-+ Logout button
-- Dashboard
-+ Total Medicinal plants
-+ Total Remedy
-+ Total Approve
-- Content details left
-+ Dashboard (default)
-+ Medicinal plants management
-+ Remedy management
-</t>
-  </si>
-  <si>
-    <t>Test Mod when Mod click Logout button</t>
   </si>
   <si>
     <t xml:space="preserve">1. Mod Page is displayed
 2. Return log in Page is displayed
 </t>
-  </si>
-  <si>
-    <t>Mod Dashboard module</t>
-  </si>
-  <si>
-    <t>Test Mod when Mod click Dashboard button</t>
-  </si>
-  <si>
-    <t>1. Mod Page is displayed
-2. Content about dashboard is displayed with list following:
-- Total Medicinal plants
-- Total Remedy
-- Total Approve
-(Use database to test data is correct/false)</t>
-  </si>
-  <si>
-    <t>Test Mod when Mod click View button in Total Medicinal plants</t>
-  </si>
-  <si>
-    <t>1. Mod Page is displayed
-2. Dashboard Page is displayed
-3. Medicinal plants management Page is displayed with the folowing list: 
-- 3 tab: 
-+ New medicinal plants (Medicinal plants name, Author, Posted date, Action)
-+ Edited Medicinal plants (Medicinal plants name, Author, Posted date, Action) 
-+ Reported Medicinal plants (Medicinal plants name, Author, Posted date, Reported user, Reported date, Action)
-- Pagging(1 page =5 medicinal plants)</t>
-  </si>
-  <si>
-    <t>Test Mod when Mod click View button in Total Remedy</t>
   </si>
   <si>
     <t>1. Mod Page is displayed
@@ -4182,15 +3860,6 @@
 + Edited Remedy (Remedy name, Author, Posted date, Action) 
 + Reported Remedy (Remedy name, Author, Posted date, Reported user, Reported date, Action)
 - Pagging(1 page =5 medicinal plants)</t>
-  </si>
-  <si>
-    <t>Test Mod when Mod click View button in Total Approve</t>
-  </si>
-  <si>
-    <t>Medicinal plants Management module</t>
-  </si>
-  <si>
-    <t>Test Mod when Mod click Medicinal plants management button</t>
   </si>
   <si>
     <t>1. Mod Page is displayed
@@ -4804,15 +4473,6 @@
 2. Click on "Herbal medicine store" tab in Header</t>
   </si>
   <si>
-    <t>1. Homepage is displayed
-2. Herbal medicine store is displayed by following fields:
-- Header
-- Slider
-- Searching frame
-- Herbal medicine store list
-- Footer</t>
-  </si>
-  <si>
     <t>Register View</t>
   </si>
   <si>
@@ -4912,24 +4572,6 @@
   </si>
   <si>
     <t>1. Go to vmn.com
-2. Click Login button on Home page
-3. Input "abc123" to "Password" field</t>
-  </si>
-  <si>
-    <t>1. Go to vmn.com
-2. Click Login button on Home page
-3. Click "Login" button on Login page</t>
-  </si>
-  <si>
-    <t>1. Go to vmn.com
-2. Click Login button on Home page
-3. Input 
-+ Account: accountest01
-+ Password: 123456789
-4. Click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Go to vmn.com
 2. Click Login hyperlink on Homepage
 3. Input 
 + Pass: "123"
@@ -4946,12 +4588,6 @@
   </si>
   <si>
     <t>1. Go to vmn.com
-2. Click "Login" hyperlink on Home page
-3. Enter only email or password
-4. Click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Go to vmn.com
 2. Click Login hyperlink on Homepage
 3. Input 
 + Email: khanhtbse02764@fpt.edu.vn
@@ -4975,24 +4611,6 @@
 4. Click "Login" button</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. The Homepage is displayed
-2. The Login Page is displayed
-3. "abcxyz" in email field
-     "adfghjk" in pass field
-4. Display error message </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>MS06</t>
-    </r>
-  </si>
-  <si>
     <t>"Personal menu" view</t>
   </si>
   <si>
@@ -5000,44 +4618,11 @@
   </si>
   <si>
     <t>"Logout" hyperlink user click on "Logout" hyperlink on Personal menu</t>
-  </si>
-  <si>
-    <t>1. Login the system with Member or Mod role.
-2. Click on "Personal menu" in Header
-3. Click "Logout" hyper link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. The Hompage is displayed
-2. "Personal menu" is displayed
-3. Logout user and redirect to Homepage
-</t>
   </si>
   <si>
     <t>1. Go to vmn.com
 2. Click on "Login" hyperlink on Homepage
 3. Click on "Register" hyperlink on "Login" Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. The Homepage is displayed 
-2. The Login page is displayed and "Login" form located in the login page with the following information:
-- Account name or Email Address field
-- Password field
-- Remember me checkbox
-- Login button
-- Forgot your password hyperlink
-- Register right now hyperlink
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. The Home page is displayed 
-2. The Login page is displayed and "Login" form located in the login page with the following information:
-- Account name or Email Address field
-- Password field
-- Remember me checkbox
-- Login button
-- Forgot your password hyperlink
-- Register right now hyperlink
-</t>
   </si>
   <si>
     <t>"Register" Page in 1366x768 screen when user click on "Register" hyperlink on "Login" Page menu</t>
@@ -5857,181 +5442,6 @@
 - "Login" button</t>
   </si>
   <si>
-    <t>When Mod input correct username and password</t>
-  </si>
-  <si>
-    <t>When Mod input only username to login</t>
-  </si>
-  <si>
-    <t>When Mod input only password to login</t>
-  </si>
-  <si>
-    <t>When Mod input correct username and wrong password</t>
-  </si>
-  <si>
-    <t>When Mod input wrong username and correct password</t>
-  </si>
-  <si>
-    <t>When Mod input wrong username and wrong password</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Click on "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Click "Username" field</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Click "Password" field</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Input data to "Password" field</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Input username "email0@gmail.com" password "123456", then click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Input username "email0@gmail.com", password "" then click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Input username "", password "123456789"  then click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Input username "email0@gmail.com" and password "fsdfs", then click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Input username and password, then click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Input wrong username "fsdfsd" and password "123456789", then click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Loggin with Mod rule</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Click logout button in Right Header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enter Mod site
-2. Click Dashboard button
-</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Click Dashboard button
-3. Click View button in Total Medicinal plants</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Click Dashboard button
-3. Click View button in Total Remedy</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Click Dashboard button
-3. Click View button in Total Approve</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Click Medicinal plants management button</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Click Medicinal plants management button
-3. Click View button in Tab new medicinal plants</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Click Medicinal plants management button
-3. Click View button in Tab edited medicinal plants</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Click Medicinal plants management button
-3. Click View button in Tab Reported medicinal plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enter Mod site
-2. Click Medicinal plants management button
-3. Click View button in Tab new medicinal plants
-4. Click Approve/Ignore
-</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Click Medicinal plants management button
-3. Click View button in Tab edited medicinal plants
-4. Click Approve/Ignore</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Click medicinal plants management button
-3. Click pagging button</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Click Medicinal plants management button
-3. Click View button in Tab Reported medicinal plants
-4. Click Approve/Ignore</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Click Remedy management button</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Click Remedy management button
-3. Click View button in Tab new remedy</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Click Remedy management button
-3. Click View button in Tab edited remedy</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Click Remedy management button
-3. Click View button in Tab Reported remedy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enter Mod site
-2. Click Remedy management button
-3. Click View button in Tab new remedy
-4. Click Approve/Ignore
-</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Click Remedy management button
-3. Click View button in Tab edited remedy
-4. Click Approve/Ignore</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Click remedy management button
-3. Click pagging button</t>
-  </si>
-  <si>
-    <t>1. Enter Mod site
-2. Click Remedy management button
-3. Click View button in Tab Reported remedy
-4. Click Approve/Ignore</t>
-  </si>
-  <si>
     <t>Logout</t>
   </si>
   <si>
@@ -6045,15 +5455,6 @@
   </si>
   <si>
     <t>Dashboard</t>
-  </si>
-  <si>
-    <t>Check user login when user input correct Email and Password</t>
-  </si>
-  <si>
-    <t>Check Login button when user not input Email and password</t>
-  </si>
-  <si>
-    <t>When user login with non-existence user name</t>
   </si>
   <si>
     <t>1. Go to vmn.com
@@ -6070,9 +5471,6 @@
   "username@gmail.com" is displayed in User name text box 
 - "••••••" is displayed in Password text box
 4. Display message: MS06 </t>
-  </si>
-  <si>
-    <t>Check user register when user input a string less than 8 character on "Password" field</t>
   </si>
   <si>
     <t>1. Homepage is displayed by following fields:
@@ -6123,16 +5521,6 @@
   </si>
   <si>
     <t>1. Homepage is displayed
-2. Medicinal plants page is displayed include:
-- Header
-- Slider
-- Search bar
-- Medicinal plants list
-- Paging
-- Footer</t>
-  </si>
-  <si>
-    <t>1. Homepage is displayed
 2. "Remedy" Page is displayed include:
 - Header
 - Slider
@@ -6173,6 +5561,636 @@
 - List of HMS in database
 - Paging
 - Footer
+</t>
+  </si>
+  <si>
+    <t>"Login" Page when Mod NOT enter any text in "Login" Form then click on Login button</t>
+  </si>
+  <si>
+    <t>1. "Login" Page is displayed
+2. VMN system will alert:" Please enter your user name and password"</t>
+  </si>
+  <si>
+    <t>1. "Login" Page is displayed
+2. Pointer is flickered in "Username" textbox</t>
+  </si>
+  <si>
+    <t>1. "Login" Page is displayed
+2. Pointer is flickered in "Password" textbox</t>
+  </si>
+  <si>
+    <t>1. "Login" Page is displayed
+2. Data is encoded</t>
+  </si>
+  <si>
+    <t>1. "Login" Page is displayed 
+2. Logged in successfully, "Mod Site" Page is displayed</t>
+  </si>
+  <si>
+    <t>1. "Login" Page is displayed 
+2. Display error message "Username or Password wrong"</t>
+  </si>
+  <si>
+    <t>1. "Login" Page is displayed
+2. Display error message "Username or Password wrong"</t>
+  </si>
+  <si>
+    <t>"Login" Page when Mod input wrong username and wrong password</t>
+  </si>
+  <si>
+    <t>1. "Login" Page is displayed
+2. VMN system will alert message:" Username or Password wrong"</t>
+  </si>
+  <si>
+    <t>"Login" Page when Mod input wrong username and correct password</t>
+  </si>
+  <si>
+    <t>"Login" Page when Mod input correct username and wrong password</t>
+  </si>
+  <si>
+    <t>"Login" Page when Mod input only password in "Login" Form</t>
+  </si>
+  <si>
+    <t>1. "Login" Page is displayed
+2. VMN system will alert message "The Username field is required"</t>
+  </si>
+  <si>
+    <t>"Login" Page when Mod input only username in "Login" Form</t>
+  </si>
+  <si>
+    <t>1. "Login" Page is displayed
+2. VMN system will alert message "The Password field is required"</t>
+  </si>
+  <si>
+    <t>"Login" Page when Mod input correct username and password</t>
+  </si>
+  <si>
+    <t>"Login" Page when user's account is locked by Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Homepage is displayed 
+2. "Login" Page is displayed and "Login" Form is displayed by following fields:
+- Account name or Email Address field
+- Password field
+- Remember me checkbox
+- Login button
+- Forgot your password hyperlink
+- Register here hyperlink
+</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. "abc123" is encoded "••••••"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Login" Page when user NOT enter any text in "Login" Form </t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. "Login" Page on Homepage
+3. Input "abc123" to "Password" field</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click Login hyperlink on Homepage
+3. Click on "Login" button on "Login" Page</t>
+  </si>
+  <si>
+    <t>1. Home page is displayed
+2. "Login" Page is displayed
+3. VMN system will alert message:"Please enter your username and password"</t>
+  </si>
+  <si>
+    <t>"Login" Page when user input correct Email and Password</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Login" hyperlink on Homepage
+3. Input 
++ Account: accountest01
++ Password: 123456789
+4. Click "Login" button</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. Accept Member's or Mod's typed
+4. Logged in successfully, back to Homepage</t>
+  </si>
+  <si>
+    <t>"Login" Page when user login with non-existence user name</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Login" hyperlink in Header
+3. Input:
+   - User name: "username@gmail.com"
+   - Password: "123456"
+4. Click "Log in" button in "Login" Form or press Enter</t>
+  </si>
+  <si>
+    <t>"Login" Page when user input email is empty in "Login" Form</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Homepage is displayed 
+2. "Login" Page is displayed
+3. "khanhtbse02764@fpt.edu.vn" in email field
+4. Display error message</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> MS03</t>
+    </r>
+  </si>
+  <si>
+    <t>"Login" Page when user input password is empty in "Login" Form</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Homepage is displayed 
+2. "Login" Page is displayed
+3. "123" in pass field
+4. Display error message</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> MS04</t>
+    </r>
+  </si>
+  <si>
+    <t>"Login" Page when user only input password in "Login" Form</t>
+  </si>
+  <si>
+    <t>"Login" Page when user only input email in "Login" Form</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click "Login" hyperlink on Homepage
+3. Enter only email in "Login" Form
+4. Click "Login" button</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click "Login" hyperlink on Homepage
+3. Enter only password in "Login" Form
+4. Click "Login" button</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. Accept Member's or Mod's typed
+4. VMN system will alert message:" Email is required field"</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. Accept Member's or Mod's typed
+4. VMN system will alert message:" Password is required field"</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. "khanhtbse02764@fpt.edu.vn" in email field
+     "adfghjk" in pass field
+4. Display error message</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> MS06</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Homepage is displayed
+2. "Login" Page is displayed
+3. "abcxyz" in email field
+     "123456789" in pass field
+4. Display error message </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>MS06</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Homepage is displayed
+2. "Login" Page is displayed
+3. "abcxyz" in email field
+     "adfghjk" in pass field
+4. Display error message </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>MS06</t>
+    </r>
+  </si>
+  <si>
+    <t>"Login" Page when user input correct email and wrong password</t>
+  </si>
+  <si>
+    <t>"Login" Page when input wrong username and correct password</t>
+  </si>
+  <si>
+    <t>"Login" Page when input wrong both username and password</t>
+  </si>
+  <si>
+    <t>1. Login the system with Member or Mod role.
+2. Click "Logout" hyperlink on Header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hompage is displayed
+2. Log user out of VMN system and redirect to Homepage
+</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. 
+  "username@gmail.com" is displayed in User name text box 
+- "••••••" is displayed in Password text box
+4. VMN system will alert message:"Your account is locked. Please contact to Admin"</t>
+  </si>
+  <si>
+    <t>"Register" Page when user do not enter any fields of register form and click Register  button</t>
+  </si>
+  <si>
+    <t>"Register" Page when user input a string smaller than 8 characters on "Username" field</t>
+  </si>
+  <si>
+    <t>"Register" Page when user input a string more than 20 characters on "Username" field</t>
+  </si>
+  <si>
+    <t>"Register" Page when user input a string contains special characters.</t>
+  </si>
+  <si>
+    <t>"Register" Page when user input a string small than 8 character and contains special characters.</t>
+  </si>
+  <si>
+    <t>"Register" Page when user input a string more than 20 character and contains special characters.</t>
+  </si>
+  <si>
+    <t>"Register" Page when user input a string less than 8 character on "Password" field</t>
+  </si>
+  <si>
+    <t>"Register" Page when user input password is empty on Confirm Password field</t>
+  </si>
+  <si>
+    <t>"Register" Page when user input not match string with Password on Confirm Password field</t>
+  </si>
+  <si>
+    <t>"Register" Page when user input incorrect format email on Email field</t>
+  </si>
+  <si>
+    <t>"Register" Page when user input email which was registered</t>
+  </si>
+  <si>
+    <t>"Register" Page when user input empty fullname on Fullname field</t>
+  </si>
+  <si>
+    <t>"Register" Page when user input correct information on register form</t>
+  </si>
+  <si>
+    <t>"Register" Page when user input a string less than 8 character on "Pass" field</t>
+  </si>
+  <si>
+    <t>"Logout" hyperlink when Mod click on</t>
+  </si>
+  <si>
+    <t>1. Login Mod site by Mod rule
+2. Click on "Logout" hyperlink on Header</t>
+  </si>
+  <si>
+    <t>1. Enter Mod Page</t>
+  </si>
+  <si>
+    <t>1. Enter Mod Page
+2. Click on "Login" button</t>
+  </si>
+  <si>
+    <t>1. Enter Mod Page
+2. Click "Username" field</t>
+  </si>
+  <si>
+    <t>1. Enter Mod Page
+2. Click "Password" field</t>
+  </si>
+  <si>
+    <t>1. Enter Mod Page
+2. Input data to "Password" field</t>
+  </si>
+  <si>
+    <t>1. Enter Mod Page
+2. Input username "email0@gmail.com" password "123456", then click "Login" button</t>
+  </si>
+  <si>
+    <t>1. Enter Mod Page
+2. Input username "email0@gmail.com", password "" then click "Login" button</t>
+  </si>
+  <si>
+    <t>1. Enter Mod Page
+2. Input username "", password "123456789"  then click "Login" button</t>
+  </si>
+  <si>
+    <t>1. Enter Mod Page
+2. Input username "email0@gmail.com" and password "fsdfs", then click "Login" button</t>
+  </si>
+  <si>
+    <t>1. Enter Mod Page
+2. Input username and password, then click "Login" button</t>
+  </si>
+  <si>
+    <t>1. Enter Mod Page
+2. Input wrong username "fsdfsd" and password "123456789", then click "Login" button</t>
+  </si>
+  <si>
+    <t>1. Enter Mod Page
+2. Click Medicinal plants management button
+3. Click View button in Tab new medicinal plants</t>
+  </si>
+  <si>
+    <t>1. Enter Mod Page
+2. Click Medicinal plants management button
+3. Click View button in Tab edited medicinal plants</t>
+  </si>
+  <si>
+    <t>1. Enter Mod Page
+2. Click Medicinal plants management button
+3. Click View button in Tab Reported medicinal plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter Mod Page
+2. Click Medicinal plants management button
+3. Click View button in Tab new medicinal plants
+4. Click Approve/Ignore
+</t>
+  </si>
+  <si>
+    <t>1. Enter Mod Page
+2. Click Medicinal plants management button
+3. Click View button in Tab edited medicinal plants
+4. Click Approve/Ignore</t>
+  </si>
+  <si>
+    <t>1. Enter Mod Page
+2. Click medicinal plants management button
+3. Click pagging button</t>
+  </si>
+  <si>
+    <t>1. Enter Mod Page
+2. Click Medicinal plants management button
+3. Click View button in Tab Reported medicinal plants
+4. Click Approve/Ignore</t>
+  </si>
+  <si>
+    <t>1. Enter Mod Page
+2. Click Remedy management button</t>
+  </si>
+  <si>
+    <t>1. Enter Mod Page
+2. Click Remedy management button
+3. Click View button in Tab new remedy</t>
+  </si>
+  <si>
+    <t>1. Enter Mod Page
+2. Click Remedy management button
+3. Click View button in Tab edited remedy</t>
+  </si>
+  <si>
+    <t>1. Enter Mod Page
+2. Click Remedy management button
+3. Click View button in Tab Reported remedy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter Mod Page
+2. Click Remedy management button
+3. Click View button in Tab new remedy
+4. Click Approve/Ignore
+</t>
+  </si>
+  <si>
+    <t>1. Enter Mod Page
+2. Click Remedy management button
+3. Click View button in Tab edited remedy
+4. Click Approve/Ignore</t>
+  </si>
+  <si>
+    <t>1. Enter Mod Page
+2. Click remedy management button
+3. Click pagging button</t>
+  </si>
+  <si>
+    <t>1. Enter Mod Page
+2. Click Remedy management button
+3. Click View button in Tab Reported remedy
+4. Click Approve/Ignore</t>
+  </si>
+  <si>
+    <t>1. Login Mod Page by Mod rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Mod Page is displayed by following fields:
+- Header
+- Right Header:
++ Logout button
+- Dashboard
++ Total Medicinal plants
++ Total Remedy
++ Total Approve
+- Content details left
++ Dashboard (default)
++ Medicinal plants management
++ Remedy management
+</t>
+  </si>
+  <si>
+    <t>View Detail</t>
+  </si>
+  <si>
+    <t>Mod Page view in 1366x768 screen</t>
+  </si>
+  <si>
+    <t>Mod Page view in 1024x768 screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Mod Page is displayed by following fields:
+- Header
+- Right Header:
++ Logout button
+- Dashboard
++ Total Medicinal plants
++ Total Remedy
++ Total Approve
+- Content details left
++ Dashboard (default)
++ Medicinal plants management
++ Remedy management
+</t>
+  </si>
+  <si>
+    <t>[Mod Module-15]</t>
+  </si>
+  <si>
+    <t>"Dashboard" Tab view when Mod click on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login Mod Page by Mod rule
+2. Click on "Dashboard" tab
+</t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. "Dashboard" Tab detail view is displayed
+3. Medicinal plants management Page is displayed with the folowing list: 
+- 3 tab: 
++ New medicinal plants (Medicinal plants name, Author, Posted date, Action)
++ Edited Medicinal plants (Medicinal plants name, Author, Posted date, Action) 
++ Reported Medicinal plants (Medicinal plants name, Author, Posted date, Reported user, Reported date, Action)
+- Pagging(1 page =5 medicinal plants)</t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. "Dashboard" Tab detail view is displayed by following fields:
+- Total Medicinal plants
+- Total Remedy
+- Total Approve
+(Use database to test data is correct/false)</t>
+  </si>
+  <si>
+    <t>When Mod click on View hyperlink in Total Medicinal plants</t>
+  </si>
+  <si>
+    <t>When Mod click View hyperlink in Total Remedy</t>
+  </si>
+  <si>
+    <t>When Mod click View button in Total Approve</t>
+  </si>
+  <si>
+    <t>1. Login Mod Page by Mod rule
+2. Click on "Dashboard" tab
+3. Click View hyperkink in Total Remedy</t>
+  </si>
+  <si>
+    <t>1. Login Mod Page by Mod rule
+2. Click "Dashboard" tab 
+3. Click on View hyperlink in Total Medicinal plants</t>
+  </si>
+  <si>
+    <t>1. Login Mod Page by Mod rule
+2. Click on "Dashboard" tab
+3. Click View hyperlink in Total Approve</t>
+  </si>
+  <si>
+    <t>Medicinal plants Management</t>
+  </si>
+  <si>
+    <t>"Medicinal plants Management" Tab view when Mod click on Medicinal plants Management hyperlink</t>
+  </si>
+  <si>
+    <t>1. Login Mod Page by Mod rule
+2. Click on "Medicinal plants Management" tab</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Remedy" page will be displayed
+3. "Article Detail" Page will displayed by following fields:
+- Header
+- Illustrations
+- Share button
+- Title 
+- Ingredients
+- Description
+- Usage
+- Utility 
+- Note 
+- Rate box
+- Author
+- Comment tab
+- Related HMS
+- Footer</t>
+  </si>
+  <si>
+    <t>[Remedy Article-34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The Homepage is displayed
+2.1 "Remedy" Page is displayed
+2.2 "Personal Page" is displayed
+3. "Article Detail" Page is displayed by following fields:
+- Header
+- Illustrations
+- Edit button
+- Title text field
+- Ingredients text field
+- Description text field
+- Usage text field
+- Utility text field
+- Note text field
+- Author
+- Footer
+4. "Change content" Page is displayed by following fields:
+- Header
+- Illustrations
+- Title text field
+- Ingredients text field
+- Description text field
+- Usage text field
+- Utility text field
+- Note text field
+- Save button
+- Footer
+</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Medicinal plants" Page is displayed include:
+- Header
+- Slider
+- Search bar
+- Medicinal plants list
+- Paging
+- Footer</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Herbal medicine store" Page is displayed by following fields:
+- Header
+- Slider
+- Searching frame
+- Herbal medicine store list
+- Footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Member or Mod role
+2. Click on "HMS" tab
 </t>
   </si>
 </sst>
@@ -7321,7 +7339,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="306">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8018,6 +8036,9 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="40" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8144,6 +8165,12 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="41" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -8624,13 +8651,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="263" t="s">
+      <c r="C2" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -8641,11 +8668,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="264" t="s">
+      <c r="C4" s="265" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="264"/>
-      <c r="E4" s="264"/>
+      <c r="D4" s="265"/>
+      <c r="E4" s="265"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
@@ -8657,11 +8684,11 @@
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="264" t="s">
+      <c r="C5" s="265" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
+      <c r="D5" s="265"/>
+      <c r="E5" s="265"/>
       <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
@@ -8670,15 +8697,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="265" t="s">
+      <c r="B6" s="266" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="266" t="str">
+      <c r="C6" s="267" t="str">
         <f>C5&amp;"_"&amp;"System Test Case"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_System Test Case_v1.0</v>
       </c>
-      <c r="D6" s="266"/>
-      <c r="E6" s="266"/>
+      <c r="D6" s="267"/>
+      <c r="E6" s="267"/>
       <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
@@ -8687,10 +8714,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="265"/>
-      <c r="C7" s="266"/>
-      <c r="D7" s="266"/>
-      <c r="E7" s="266"/>
+      <c r="B7" s="266"/>
+      <c r="C7" s="267"/>
+      <c r="D7" s="267"/>
+      <c r="E7" s="267"/>
       <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
@@ -8820,16 +8847,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW67"/>
+  <dimension ref="A1:IW68"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="16" style="90" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="90" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="90" customWidth="1"/>
     <col min="3" max="3" width="28.5" style="90" customWidth="1"/>
     <col min="4" max="4" width="27" style="90" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="90" customWidth="1"/>
@@ -9101,14 +9128,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="275" t="s">
-        <v>605</v>
-      </c>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="277"/>
+      <c r="B2" s="276" t="s">
+        <v>571</v>
+      </c>
+      <c r="C2" s="277"/>
+      <c r="D2" s="277"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="277"/>
+      <c r="G2" s="278"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -9359,14 +9386,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="278" t="s">
-        <v>606</v>
-      </c>
-      <c r="C3" s="279"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="279"/>
-      <c r="F3" s="279"/>
-      <c r="G3" s="280"/>
+      <c r="B3" s="279" t="s">
+        <v>572</v>
+      </c>
+      <c r="C3" s="280"/>
+      <c r="D3" s="280"/>
+      <c r="E3" s="280"/>
+      <c r="F3" s="280"/>
+      <c r="G3" s="281"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -9617,14 +9644,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="278" t="s">
-        <v>780</v>
-      </c>
-      <c r="C4" s="279"/>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="280"/>
+      <c r="B4" s="279" t="s">
+        <v>722</v>
+      </c>
+      <c r="C4" s="280"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="281"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -9882,11 +9909,11 @@
       <c r="D5" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="281" t="s">
+      <c r="E5" s="282" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="282"/>
-      <c r="G5" s="283"/>
+      <c r="F5" s="283"/>
+      <c r="G5" s="284"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -10135,27 +10162,27 @@
     </row>
     <row r="6" spans="1:257" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="86">
-        <f>COUNTIF(F12:G99,"Pass")</f>
+        <f>COUNTIF(F12:G100,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="87">
-        <f>COUNTIF(F12:G99,"Fail")</f>
+        <f>COUNTIF(F12:G100,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="87">
         <f>E6-D6-B6-A6</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" s="88">
-        <f>COUNTIF(F12:G99,"N/A")</f>
+        <f>COUNTIF(F12:G100,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="284">
-        <f>COUNTA(A12:A99)</f>
-        <v>51</v>
-      </c>
-      <c r="F6" s="285"/>
-      <c r="G6" s="286"/>
+      <c r="E6" s="285">
+        <f>COUNTA(A12:A100)</f>
+        <v>53</v>
+      </c>
+      <c r="F6" s="286"/>
+      <c r="G6" s="287"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -11436,7 +11463,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="228"/>
       <c r="B11" s="228" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C11" s="229"/>
       <c r="D11" s="229"/>
@@ -11690,17 +11717,17 @@
         <f>IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Authentication-2]</v>
       </c>
-      <c r="B12" s="109" t="s">
-        <v>781</v>
+      <c r="B12" s="97" t="s">
+        <v>723</v>
       </c>
       <c r="C12" s="109" t="s">
-        <v>782</v>
+        <v>724</v>
       </c>
       <c r="D12" s="109" t="s">
-        <v>803</v>
+        <v>881</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>785</v>
+        <v>727</v>
       </c>
       <c r="F12" s="109"/>
       <c r="G12" s="109"/>
@@ -11713,17 +11740,17 @@
         <f>IF(OR(B13&lt;&gt;"",D13&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Authentication-3]</v>
       </c>
-      <c r="B13" s="109" t="s">
-        <v>784</v>
+      <c r="B13" s="97" t="s">
+        <v>726</v>
       </c>
       <c r="C13" s="109" t="s">
-        <v>782</v>
+        <v>724</v>
       </c>
       <c r="D13" s="109" t="s">
-        <v>804</v>
+        <v>881</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>786</v>
+        <v>728</v>
       </c>
       <c r="F13" s="109"/>
       <c r="G13" s="109"/>
@@ -11736,14 +11763,14 @@
         <f>IF(OR(B14&lt;&gt;"",D14&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Authentication-4]</v>
       </c>
-      <c r="B14" s="109" t="s">
-        <v>523</v>
+      <c r="B14" s="97" t="s">
+        <v>520</v>
       </c>
       <c r="C14" s="109" t="s">
-        <v>787</v>
+        <v>884</v>
       </c>
       <c r="D14" s="109" t="s">
-        <v>524</v>
+        <v>882</v>
       </c>
       <c r="E14" s="109"/>
       <c r="F14" s="109"/>
@@ -11754,17 +11781,17 @@
     </row>
     <row r="15" spans="1:257" ht="14.25" customHeight="1">
       <c r="A15" s="109" t="str">
-        <f t="shared" ref="A15:A59" si="0">IF(OR(B15&lt;&gt;"",D15&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A15:A60" si="0">IF(OR(B15&lt;&gt;"",D15&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Authentication-5]</v>
       </c>
-      <c r="B15" s="109" t="s">
-        <v>956</v>
+      <c r="B15" s="97" t="s">
+        <v>883</v>
       </c>
       <c r="C15" s="109" t="s">
-        <v>788</v>
+        <v>885</v>
       </c>
       <c r="D15" s="109" t="s">
-        <v>525</v>
+        <v>886</v>
       </c>
       <c r="E15" s="109"/>
       <c r="F15" s="109"/>
@@ -11778,14 +11805,14 @@
         <f t="shared" si="0"/>
         <v>[Authentication-6]</v>
       </c>
-      <c r="B16" s="109" t="s">
-        <v>955</v>
+      <c r="B16" s="97" t="s">
+        <v>887</v>
       </c>
       <c r="C16" s="109" t="s">
-        <v>789</v>
+        <v>888</v>
       </c>
       <c r="D16" s="109" t="s">
-        <v>526</v>
+        <v>889</v>
       </c>
       <c r="E16" s="109"/>
       <c r="F16" s="109"/>
@@ -11799,14 +11826,14 @@
         <f t="shared" si="0"/>
         <v>[Authentication-7]</v>
       </c>
-      <c r="B17" s="95" t="s">
-        <v>957</v>
+      <c r="B17" s="97" t="s">
+        <v>890</v>
       </c>
       <c r="C17" s="109" t="s">
-        <v>958</v>
+        <v>891</v>
       </c>
       <c r="D17" s="109" t="s">
-        <v>959</v>
+        <v>850</v>
       </c>
       <c r="E17" s="109"/>
       <c r="F17" s="109"/>
@@ -11816,10 +11843,19 @@
       <c r="J17" s="90"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A18" s="109"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
+      <c r="A18" s="109" t="str">
+        <f>IF(OR(B17&lt;&gt;"",D17&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Authentication-8]</v>
+      </c>
+      <c r="B18" s="97" t="s">
+        <v>880</v>
+      </c>
+      <c r="C18" s="109" t="s">
+        <v>849</v>
+      </c>
+      <c r="D18" s="109" t="s">
+        <v>910</v>
+      </c>
       <c r="E18" s="109"/>
       <c r="F18" s="109"/>
       <c r="G18" s="109"/>
@@ -11832,14 +11868,14 @@
         <f t="shared" si="0"/>
         <v>[Authentication-9]</v>
       </c>
-      <c r="B19" s="109" t="s">
-        <v>527</v>
+      <c r="B19" s="97" t="s">
+        <v>892</v>
       </c>
       <c r="C19" s="109" t="s">
-        <v>791</v>
+        <v>730</v>
       </c>
       <c r="D19" s="109" t="s">
-        <v>528</v>
+        <v>893</v>
       </c>
       <c r="E19" s="109"/>
       <c r="F19" s="109"/>
@@ -11853,14 +11889,14 @@
         <f t="shared" si="0"/>
         <v>[Authentication-10]</v>
       </c>
-      <c r="B20" s="109" t="s">
-        <v>529</v>
+      <c r="B20" s="97" t="s">
+        <v>894</v>
       </c>
       <c r="C20" s="109" t="s">
-        <v>790</v>
+        <v>729</v>
       </c>
       <c r="D20" s="109" t="s">
-        <v>530</v>
+        <v>895</v>
       </c>
       <c r="E20" s="109"/>
       <c r="F20" s="109"/>
@@ -11874,14 +11910,14 @@
         <f t="shared" si="0"/>
         <v>[Authentication-11]</v>
       </c>
-      <c r="B21" s="109" t="s">
-        <v>531</v>
+      <c r="B21" s="97" t="s">
+        <v>897</v>
       </c>
       <c r="C21" s="109" t="s">
-        <v>792</v>
+        <v>898</v>
       </c>
       <c r="D21" s="109" t="s">
-        <v>532</v>
+        <v>900</v>
       </c>
       <c r="E21" s="109"/>
       <c r="F21" s="109"/>
@@ -11895,14 +11931,14 @@
         <f t="shared" si="0"/>
         <v>[Authentication-12]</v>
       </c>
-      <c r="B22" s="109" t="s">
-        <v>533</v>
+      <c r="B22" s="97" t="s">
+        <v>896</v>
       </c>
       <c r="C22" s="109" t="s">
-        <v>793</v>
+        <v>899</v>
       </c>
       <c r="D22" s="109" t="s">
-        <v>534</v>
+        <v>901</v>
       </c>
       <c r="E22" s="109"/>
       <c r="F22" s="109"/>
@@ -11916,14 +11952,14 @@
         <f t="shared" si="0"/>
         <v>[Authentication-13]</v>
       </c>
-      <c r="B23" s="109" t="s">
-        <v>535</v>
+      <c r="B23" s="97" t="s">
+        <v>905</v>
       </c>
       <c r="C23" s="109" t="s">
-        <v>794</v>
+        <v>731</v>
       </c>
       <c r="D23" s="109" t="s">
-        <v>536</v>
+        <v>902</v>
       </c>
       <c r="E23" s="109"/>
       <c r="F23" s="109"/>
@@ -11934,17 +11970,17 @@
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
       <c r="A24" s="109" t="str">
-        <f>IF(OR(B24&lt;&gt;"",D24&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="0"/>
         <v>[Authentication-14]</v>
       </c>
-      <c r="B24" s="109" t="s">
-        <v>537</v>
+      <c r="B24" s="97" t="s">
+        <v>906</v>
       </c>
       <c r="C24" s="109" t="s">
-        <v>795</v>
+        <v>732</v>
       </c>
       <c r="D24" s="109" t="s">
-        <v>796</v>
+        <v>903</v>
       </c>
       <c r="E24" s="109"/>
       <c r="F24" s="109"/>
@@ -11954,75 +11990,75 @@
       <c r="J24" s="90"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A25" s="228"/>
-      <c r="B25" s="228" t="s">
-        <v>538</v>
-      </c>
-      <c r="C25" s="229"/>
-      <c r="D25" s="229"/>
-      <c r="E25" s="229"/>
-      <c r="F25" s="229"/>
-      <c r="G25" s="229"/>
-      <c r="H25" s="229"/>
-      <c r="I25" s="233"/>
+      <c r="A25" s="109" t="str">
+        <f>IF(OR(B25&lt;&gt;"",D25&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Authentication-15]</v>
+      </c>
+      <c r="B25" s="97" t="s">
+        <v>907</v>
+      </c>
+      <c r="C25" s="109" t="s">
+        <v>733</v>
+      </c>
+      <c r="D25" s="109" t="s">
+        <v>904</v>
+      </c>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="91"/>
       <c r="J25" s="90"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A26" s="109" t="str">
+      <c r="A26" s="228"/>
+      <c r="B26" s="228" t="s">
+        <v>521</v>
+      </c>
+      <c r="C26" s="229"/>
+      <c r="D26" s="229"/>
+      <c r="E26" s="229"/>
+      <c r="F26" s="229"/>
+      <c r="G26" s="229"/>
+      <c r="H26" s="229"/>
+      <c r="I26" s="233"/>
+      <c r="J26" s="90"/>
+    </row>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A27" s="109" t="str">
         <f t="shared" si="0"/>
-        <v>[Authentication-16]</v>
-      </c>
-      <c r="B26" s="109" t="s">
-        <v>799</v>
-      </c>
-      <c r="C26" s="109" t="s">
-        <v>800</v>
-      </c>
-      <c r="D26" s="109" t="s">
-        <v>801</v>
-      </c>
-      <c r="E26" s="109" t="s">
-        <v>798</v>
-      </c>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="234"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="90"/>
-    </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A27" s="228"/>
-      <c r="B27" s="228" t="s">
-        <v>539</v>
-      </c>
-      <c r="C27" s="229"/>
-      <c r="D27" s="229"/>
-      <c r="E27" s="229"/>
-      <c r="F27" s="229"/>
-      <c r="G27" s="229"/>
-      <c r="H27" s="229"/>
-      <c r="I27" s="233"/>
+        <v>[Authentication-17]</v>
+      </c>
+      <c r="B27" s="109" t="s">
+        <v>736</v>
+      </c>
+      <c r="C27" s="109" t="s">
+        <v>908</v>
+      </c>
+      <c r="D27" s="109" t="s">
+        <v>909</v>
+      </c>
+      <c r="E27" s="109" t="s">
+        <v>735</v>
+      </c>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="234"/>
+      <c r="I27" s="91"/>
       <c r="J27" s="90"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A28" s="109" t="str">
-        <f>IF(OR(B28&lt;&gt;"",D28&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Authentication-18]</v>
-      </c>
-      <c r="B28" s="109" t="s">
-        <v>805</v>
-      </c>
-      <c r="C28" s="109" t="s">
-        <v>802</v>
-      </c>
-      <c r="D28" s="109" t="s">
-        <v>810</v>
-      </c>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="91"/>
+      <c r="A28" s="228"/>
+      <c r="B28" s="228" t="s">
+        <v>522</v>
+      </c>
+      <c r="C28" s="229"/>
+      <c r="D28" s="229"/>
+      <c r="E28" s="229"/>
+      <c r="F28" s="229"/>
+      <c r="G28" s="229"/>
+      <c r="H28" s="229"/>
+      <c r="I28" s="233"/>
       <c r="J28" s="90"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1">
@@ -12031,13 +12067,13 @@
         <v>[Authentication-19]</v>
       </c>
       <c r="B29" s="109" t="s">
-        <v>806</v>
+        <v>738</v>
       </c>
       <c r="C29" s="109" t="s">
-        <v>802</v>
+        <v>737</v>
       </c>
       <c r="D29" s="109" t="s">
-        <v>809</v>
+        <v>743</v>
       </c>
       <c r="E29" s="109"/>
       <c r="F29" s="109"/>
@@ -12048,17 +12084,17 @@
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1">
       <c r="A30" s="109" t="str">
-        <f t="shared" ref="A30:A31" si="1">IF(OR(B30&lt;&gt;"",D30&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B30&lt;&gt;"",D30&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Authentication-20]</v>
       </c>
       <c r="B30" s="109" t="s">
-        <v>807</v>
+        <v>739</v>
       </c>
       <c r="C30" s="109" t="s">
-        <v>765</v>
+        <v>737</v>
       </c>
       <c r="D30" s="109" t="s">
-        <v>835</v>
+        <v>742</v>
       </c>
       <c r="E30" s="109"/>
       <c r="F30" s="109"/>
@@ -12069,17 +12105,17 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1">
       <c r="A31" s="109" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A31:A32" si="1">IF(OR(B31&lt;&gt;"",D31&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Authentication-21]</v>
       </c>
       <c r="B31" s="109" t="s">
-        <v>808</v>
+        <v>740</v>
       </c>
       <c r="C31" s="109" t="s">
-        <v>765</v>
+        <v>707</v>
       </c>
       <c r="D31" s="109" t="s">
-        <v>836</v>
+        <v>768</v>
       </c>
       <c r="E31" s="109"/>
       <c r="F31" s="109"/>
@@ -12090,17 +12126,17 @@
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1">
       <c r="A32" s="109" t="str">
-        <f>IF(OR(B32&lt;&gt;"",D32&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="1"/>
         <v>[Authentication-22]</v>
       </c>
       <c r="B32" s="109" t="s">
-        <v>523</v>
+        <v>741</v>
       </c>
       <c r="C32" s="109" t="s">
-        <v>812</v>
+        <v>707</v>
       </c>
       <c r="D32" s="109" t="s">
-        <v>540</v>
+        <v>769</v>
       </c>
       <c r="E32" s="109"/>
       <c r="F32" s="109"/>
@@ -12115,13 +12151,13 @@
         <v>[Authentication-23]</v>
       </c>
       <c r="B33" s="109" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="C33" s="109" t="s">
-        <v>813</v>
+        <v>745</v>
       </c>
       <c r="D33" s="109" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="E33" s="109"/>
       <c r="F33" s="109"/>
@@ -12132,17 +12168,17 @@
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1">
       <c r="A34" s="109" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B34&lt;&gt;"",D34&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Authentication-24]</v>
       </c>
       <c r="B34" s="109" t="s">
-        <v>544</v>
+        <v>911</v>
       </c>
       <c r="C34" s="109" t="s">
-        <v>814</v>
+        <v>746</v>
       </c>
       <c r="D34" s="109" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="E34" s="109"/>
       <c r="F34" s="109"/>
@@ -12157,13 +12193,13 @@
         <v>[Authentication-25]</v>
       </c>
       <c r="B35" s="109" t="s">
-        <v>546</v>
+        <v>912</v>
       </c>
       <c r="C35" s="109" t="s">
-        <v>815</v>
+        <v>747</v>
       </c>
       <c r="D35" s="109" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="E35" s="109"/>
       <c r="F35" s="109"/>
@@ -12178,13 +12214,13 @@
         <v>[Authentication-26]</v>
       </c>
       <c r="B36" s="109" t="s">
-        <v>548</v>
+        <v>913</v>
       </c>
       <c r="C36" s="109" t="s">
-        <v>816</v>
+        <v>748</v>
       </c>
       <c r="D36" s="109" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="E36" s="109"/>
       <c r="F36" s="109"/>
@@ -12199,13 +12235,13 @@
         <v>[Authentication-27]</v>
       </c>
       <c r="B37" s="109" t="s">
-        <v>550</v>
+        <v>914</v>
       </c>
       <c r="C37" s="109" t="s">
-        <v>817</v>
+        <v>749</v>
       </c>
       <c r="D37" s="109" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="E37" s="109"/>
       <c r="F37" s="109"/>
@@ -12220,13 +12256,13 @@
         <v>[Authentication-28]</v>
       </c>
       <c r="B38" s="109" t="s">
-        <v>552</v>
+        <v>915</v>
       </c>
       <c r="C38" s="109" t="s">
-        <v>818</v>
+        <v>750</v>
       </c>
       <c r="D38" s="109" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="E38" s="109"/>
       <c r="F38" s="109"/>
@@ -12241,13 +12277,13 @@
         <v>[Authentication-29]</v>
       </c>
       <c r="B39" s="109" t="s">
-        <v>960</v>
+        <v>916</v>
       </c>
       <c r="C39" s="109" t="s">
-        <v>819</v>
+        <v>751</v>
       </c>
       <c r="D39" s="109" t="s">
-        <v>555</v>
+        <v>529</v>
       </c>
       <c r="E39" s="109"/>
       <c r="F39" s="109"/>
@@ -12262,13 +12298,13 @@
         <v>[Authentication-30]</v>
       </c>
       <c r="B40" s="109" t="s">
-        <v>556</v>
+        <v>917</v>
       </c>
       <c r="C40" s="109" t="s">
-        <v>820</v>
+        <v>752</v>
       </c>
       <c r="D40" s="109" t="s">
-        <v>557</v>
+        <v>530</v>
       </c>
       <c r="E40" s="109"/>
       <c r="F40" s="109"/>
@@ -12283,13 +12319,13 @@
         <v>[Authentication-31]</v>
       </c>
       <c r="B41" s="109" t="s">
-        <v>558</v>
+        <v>918</v>
       </c>
       <c r="C41" s="109" t="s">
-        <v>821</v>
+        <v>753</v>
       </c>
       <c r="D41" s="109" t="s">
-        <v>559</v>
+        <v>531</v>
       </c>
       <c r="E41" s="109"/>
       <c r="F41" s="109"/>
@@ -12300,17 +12336,17 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1">
       <c r="A42" s="109" t="str">
-        <f>IF(OR(B42&lt;&gt;"",D42&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="0"/>
         <v>[Authentication-32]</v>
       </c>
       <c r="B42" s="109" t="s">
-        <v>560</v>
+        <v>919</v>
       </c>
       <c r="C42" s="109" t="s">
-        <v>822</v>
-      </c>
-      <c r="D42" s="230" t="s">
-        <v>561</v>
+        <v>754</v>
+      </c>
+      <c r="D42" s="109" t="s">
+        <v>532</v>
       </c>
       <c r="E42" s="109"/>
       <c r="F42" s="109"/>
@@ -12325,13 +12361,13 @@
         <v>[Authentication-33]</v>
       </c>
       <c r="B43" s="109" t="s">
-        <v>562</v>
+        <v>920</v>
       </c>
       <c r="C43" s="109" t="s">
-        <v>823</v>
+        <v>755</v>
       </c>
       <c r="D43" s="230" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="E43" s="109"/>
       <c r="F43" s="109"/>
@@ -12341,45 +12377,45 @@
       <c r="J43" s="90"/>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A44" s="95" t="str">
-        <f t="shared" ref="A44" si="2">IF(OR(B44&lt;&gt;"",D44&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+      <c r="A44" s="109" t="str">
+        <f>IF(OR(B44&lt;&gt;"",D44&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Authentication-34]</v>
       </c>
-      <c r="B44" s="95" t="s">
-        <v>564</v>
-      </c>
-      <c r="C44" s="95" t="s">
-        <v>824</v>
-      </c>
-      <c r="D44" s="254" t="s">
-        <v>811</v>
-      </c>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="255"/>
+      <c r="B44" s="109" t="s">
+        <v>921</v>
+      </c>
+      <c r="C44" s="109" t="s">
+        <v>756</v>
+      </c>
+      <c r="D44" s="230" t="s">
+        <v>534</v>
+      </c>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="104"/>
       <c r="I44" s="91"/>
       <c r="J44" s="90"/>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A45" s="97" t="str">
-        <f t="shared" si="0"/>
+      <c r="A45" s="95" t="str">
+        <f t="shared" ref="A45" si="2">IF(OR(B45&lt;&gt;"",D45&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Authentication-35]</v>
       </c>
-      <c r="B45" s="97" t="s">
-        <v>565</v>
-      </c>
-      <c r="C45" s="97" t="s">
-        <v>825</v>
-      </c>
-      <c r="D45" s="144" t="s">
-        <v>566</v>
-      </c>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
+      <c r="B45" s="95" t="s">
+        <v>922</v>
+      </c>
+      <c r="C45" s="95" t="s">
+        <v>757</v>
+      </c>
+      <c r="D45" s="254" t="s">
+        <v>744</v>
+      </c>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
       <c r="H45" s="255"/>
-      <c r="I45" s="257"/>
+      <c r="I45" s="91"/>
       <c r="J45" s="90"/>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1">
@@ -12387,20 +12423,20 @@
         <f t="shared" si="0"/>
         <v>[Authentication-36]</v>
       </c>
-      <c r="B46" s="109" t="s">
-        <v>523</v>
-      </c>
-      <c r="C46" s="109" t="s">
-        <v>826</v>
-      </c>
-      <c r="D46" s="109" t="s">
-        <v>837</v>
+      <c r="B46" s="97" t="s">
+        <v>923</v>
+      </c>
+      <c r="C46" s="97" t="s">
+        <v>758</v>
+      </c>
+      <c r="D46" s="144" t="s">
+        <v>535</v>
       </c>
       <c r="E46" s="97"/>
       <c r="F46" s="97"/>
       <c r="G46" s="97"/>
-      <c r="H46" s="104"/>
-      <c r="I46" s="105"/>
+      <c r="H46" s="255"/>
+      <c r="I46" s="257"/>
       <c r="J46" s="90"/>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1">
@@ -12409,13 +12445,13 @@
         <v>[Authentication-37]</v>
       </c>
       <c r="B47" s="109" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="C47" s="109" t="s">
-        <v>828</v>
+        <v>759</v>
       </c>
       <c r="D47" s="109" t="s">
-        <v>838</v>
+        <v>770</v>
       </c>
       <c r="E47" s="97"/>
       <c r="F47" s="97"/>
@@ -12430,13 +12466,13 @@
         <v>[Authentication-38]</v>
       </c>
       <c r="B48" s="109" t="s">
-        <v>544</v>
+        <v>911</v>
       </c>
       <c r="C48" s="109" t="s">
-        <v>827</v>
+        <v>761</v>
       </c>
       <c r="D48" s="109" t="s">
-        <v>839</v>
+        <v>771</v>
       </c>
       <c r="E48" s="97"/>
       <c r="F48" s="97"/>
@@ -12451,13 +12487,13 @@
         <v>[Authentication-39]</v>
       </c>
       <c r="B49" s="109" t="s">
-        <v>546</v>
+        <v>912</v>
       </c>
       <c r="C49" s="109" t="s">
-        <v>829</v>
+        <v>760</v>
       </c>
       <c r="D49" s="109" t="s">
-        <v>840</v>
+        <v>772</v>
       </c>
       <c r="E49" s="97"/>
       <c r="F49" s="97"/>
@@ -12472,13 +12508,13 @@
         <v>[Authentication-40]</v>
       </c>
       <c r="B50" s="109" t="s">
-        <v>548</v>
+        <v>913</v>
       </c>
       <c r="C50" s="109" t="s">
-        <v>830</v>
+        <v>762</v>
       </c>
       <c r="D50" s="109" t="s">
-        <v>841</v>
+        <v>773</v>
       </c>
       <c r="E50" s="97"/>
       <c r="F50" s="97"/>
@@ -12493,13 +12529,13 @@
         <v>[Authentication-41]</v>
       </c>
       <c r="B51" s="109" t="s">
-        <v>550</v>
+        <v>914</v>
       </c>
       <c r="C51" s="109" t="s">
-        <v>831</v>
+        <v>763</v>
       </c>
       <c r="D51" s="109" t="s">
-        <v>842</v>
+        <v>774</v>
       </c>
       <c r="E51" s="97"/>
       <c r="F51" s="97"/>
@@ -12514,13 +12550,13 @@
         <v>[Authentication-42]</v>
       </c>
       <c r="B52" s="109" t="s">
-        <v>552</v>
+        <v>915</v>
       </c>
       <c r="C52" s="109" t="s">
-        <v>832</v>
+        <v>764</v>
       </c>
       <c r="D52" s="109" t="s">
-        <v>843</v>
+        <v>775</v>
       </c>
       <c r="E52" s="97"/>
       <c r="F52" s="97"/>
@@ -12535,13 +12571,13 @@
         <v>[Authentication-43]</v>
       </c>
       <c r="B53" s="109" t="s">
-        <v>554</v>
+        <v>916</v>
       </c>
       <c r="C53" s="109" t="s">
-        <v>848</v>
+        <v>765</v>
       </c>
       <c r="D53" s="109" t="s">
-        <v>849</v>
+        <v>776</v>
       </c>
       <c r="E53" s="97"/>
       <c r="F53" s="97"/>
@@ -12556,13 +12592,13 @@
         <v>[Authentication-44]</v>
       </c>
       <c r="B54" s="109" t="s">
-        <v>556</v>
+        <v>924</v>
       </c>
       <c r="C54" s="109" t="s">
-        <v>844</v>
+        <v>781</v>
       </c>
       <c r="D54" s="109" t="s">
-        <v>850</v>
+        <v>782</v>
       </c>
       <c r="E54" s="97"/>
       <c r="F54" s="97"/>
@@ -12577,13 +12613,13 @@
         <v>[Authentication-45]</v>
       </c>
       <c r="B55" s="109" t="s">
-        <v>558</v>
+        <v>918</v>
       </c>
       <c r="C55" s="109" t="s">
-        <v>847</v>
+        <v>777</v>
       </c>
       <c r="D55" s="109" t="s">
-        <v>851</v>
+        <v>783</v>
       </c>
       <c r="E55" s="97"/>
       <c r="F55" s="97"/>
@@ -12598,13 +12634,13 @@
         <v>[Authentication-46]</v>
       </c>
       <c r="B56" s="109" t="s">
-        <v>560</v>
+        <v>919</v>
       </c>
       <c r="C56" s="109" t="s">
-        <v>833</v>
-      </c>
-      <c r="D56" s="230" t="s">
-        <v>845</v>
+        <v>780</v>
+      </c>
+      <c r="D56" s="109" t="s">
+        <v>784</v>
       </c>
       <c r="E56" s="97"/>
       <c r="F56" s="97"/>
@@ -12619,13 +12655,13 @@
         <v>[Authentication-47]</v>
       </c>
       <c r="B57" s="109" t="s">
-        <v>562</v>
+        <v>920</v>
       </c>
       <c r="C57" s="109" t="s">
-        <v>852</v>
+        <v>766</v>
       </c>
       <c r="D57" s="230" t="s">
-        <v>853</v>
+        <v>778</v>
       </c>
       <c r="E57" s="97"/>
       <c r="F57" s="97"/>
@@ -12639,14 +12675,14 @@
         <f t="shared" si="0"/>
         <v>[Authentication-48]</v>
       </c>
-      <c r="B58" s="95" t="s">
-        <v>564</v>
-      </c>
-      <c r="C58" s="95" t="s">
-        <v>834</v>
-      </c>
-      <c r="D58" s="254" t="s">
-        <v>846</v>
+      <c r="B58" s="109" t="s">
+        <v>921</v>
+      </c>
+      <c r="C58" s="109" t="s">
+        <v>785</v>
+      </c>
+      <c r="D58" s="230" t="s">
+        <v>786</v>
       </c>
       <c r="E58" s="97"/>
       <c r="F58" s="97"/>
@@ -12660,14 +12696,14 @@
         <f t="shared" si="0"/>
         <v>[Authentication-49]</v>
       </c>
-      <c r="B59" s="97" t="s">
-        <v>565</v>
-      </c>
-      <c r="C59" s="97" t="s">
-        <v>855</v>
-      </c>
-      <c r="D59" s="144" t="s">
-        <v>854</v>
+      <c r="B59" s="95" t="s">
+        <v>922</v>
+      </c>
+      <c r="C59" s="95" t="s">
+        <v>767</v>
+      </c>
+      <c r="D59" s="254" t="s">
+        <v>779</v>
       </c>
       <c r="E59" s="97"/>
       <c r="F59" s="97"/>
@@ -12677,53 +12713,53 @@
       <c r="J59" s="90"/>
     </row>
     <row r="60" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A60" s="228"/>
-      <c r="B60" s="228" t="s">
-        <v>586</v>
-      </c>
-      <c r="C60" s="229"/>
-      <c r="D60" s="229"/>
-      <c r="E60" s="229"/>
-      <c r="F60" s="229"/>
-      <c r="G60" s="229"/>
-      <c r="H60" s="229"/>
-      <c r="I60" s="235"/>
+      <c r="A60" s="97" t="str">
+        <f t="shared" si="0"/>
+        <v>[Authentication-50]</v>
+      </c>
+      <c r="B60" s="97" t="s">
+        <v>923</v>
+      </c>
+      <c r="C60" s="97" t="s">
+        <v>788</v>
+      </c>
+      <c r="D60" s="144" t="s">
+        <v>787</v>
+      </c>
+      <c r="E60" s="97"/>
+      <c r="F60" s="97"/>
+      <c r="G60" s="97"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="105"/>
       <c r="J60" s="90"/>
     </row>
     <row r="61" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A61" s="109" t="str">
-        <f t="shared" ref="A61:A66" si="3">IF(OR(B61&lt;&gt;"",D61&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Authentication-51]</v>
-      </c>
-      <c r="B61" s="109" t="s">
-        <v>892</v>
-      </c>
-      <c r="C61" s="109" t="s">
-        <v>895</v>
-      </c>
-      <c r="D61" s="109" t="s">
-        <v>899</v>
-      </c>
-      <c r="E61" s="109"/>
-      <c r="F61" s="109"/>
-      <c r="G61" s="109"/>
-      <c r="H61" s="104"/>
-      <c r="I61" s="91"/>
+      <c r="A61" s="228"/>
+      <c r="B61" s="228" t="s">
+        <v>554</v>
+      </c>
+      <c r="C61" s="229"/>
+      <c r="D61" s="229"/>
+      <c r="E61" s="229"/>
+      <c r="F61" s="229"/>
+      <c r="G61" s="229"/>
+      <c r="H61" s="229"/>
+      <c r="I61" s="235"/>
       <c r="J61" s="90"/>
     </row>
     <row r="62" spans="1:10" ht="14.25" customHeight="1">
       <c r="A62" s="109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A62:A67" si="3">IF(OR(B62&lt;&gt;"",D62&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Authentication-52]</v>
       </c>
       <c r="B62" s="109" t="s">
-        <v>893</v>
+        <v>825</v>
       </c>
       <c r="C62" s="109" t="s">
-        <v>895</v>
+        <v>828</v>
       </c>
       <c r="D62" s="109" t="s">
-        <v>899</v>
+        <v>832</v>
       </c>
       <c r="E62" s="109"/>
       <c r="F62" s="109"/>
@@ -12738,13 +12774,13 @@
         <v>[Authentication-53]</v>
       </c>
       <c r="B63" s="109" t="s">
-        <v>894</v>
+        <v>826</v>
       </c>
       <c r="C63" s="109" t="s">
-        <v>896</v>
+        <v>828</v>
       </c>
       <c r="D63" s="109" t="s">
-        <v>899</v>
+        <v>832</v>
       </c>
       <c r="E63" s="109"/>
       <c r="F63" s="109"/>
@@ -12758,14 +12794,14 @@
         <f t="shared" si="3"/>
         <v>[Authentication-54]</v>
       </c>
-      <c r="B64" s="232" t="s">
-        <v>897</v>
+      <c r="B64" s="109" t="s">
+        <v>827</v>
       </c>
       <c r="C64" s="109" t="s">
-        <v>900</v>
-      </c>
-      <c r="D64" s="231" t="s">
-        <v>901</v>
+        <v>829</v>
+      </c>
+      <c r="D64" s="109" t="s">
+        <v>832</v>
       </c>
       <c r="E64" s="109"/>
       <c r="F64" s="109"/>
@@ -12780,13 +12816,13 @@
         <v>[Authentication-55]</v>
       </c>
       <c r="B65" s="232" t="s">
-        <v>898</v>
+        <v>830</v>
       </c>
       <c r="C65" s="109" t="s">
-        <v>902</v>
+        <v>833</v>
       </c>
       <c r="D65" s="231" t="s">
-        <v>903</v>
+        <v>834</v>
       </c>
       <c r="E65" s="109"/>
       <c r="F65" s="109"/>
@@ -12801,13 +12837,13 @@
         <v>[Authentication-56]</v>
       </c>
       <c r="B66" s="232" t="s">
-        <v>904</v>
+        <v>831</v>
       </c>
       <c r="C66" s="109" t="s">
-        <v>905</v>
+        <v>835</v>
       </c>
       <c r="D66" s="231" t="s">
-        <v>906</v>
+        <v>836</v>
       </c>
       <c r="E66" s="109"/>
       <c r="F66" s="109"/>
@@ -12816,8 +12852,29 @@
       <c r="I66" s="91"/>
       <c r="J66" s="90"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A67" s="109" t="str">
+        <f t="shared" si="3"/>
+        <v>[Authentication-57]</v>
+      </c>
+      <c r="B67" s="232" t="s">
+        <v>837</v>
+      </c>
+      <c r="C67" s="109" t="s">
+        <v>838</v>
+      </c>
+      <c r="D67" s="231" t="s">
+        <v>839</v>
+      </c>
+      <c r="E67" s="109"/>
+      <c r="F67" s="109"/>
+      <c r="G67" s="109"/>
+      <c r="H67" s="104"/>
+      <c r="I67" s="91"/>
       <c r="J67" s="90"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="J68" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -12828,7 +12885,7 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:G24 F26:G26 F61:G66 F28:G59">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:G25 F27:G27 F62:G67 F29:G60">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12845,8 +12902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW111"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13124,14 +13181,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="275" t="s">
-        <v>751</v>
-      </c>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="277"/>
+      <c r="B2" s="276" t="s">
+        <v>694</v>
+      </c>
+      <c r="C2" s="277"/>
+      <c r="D2" s="277"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="277"/>
+      <c r="G2" s="278"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -13382,14 +13439,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="278" t="s">
-        <v>679</v>
-      </c>
-      <c r="C3" s="279"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="279"/>
-      <c r="F3" s="279"/>
-      <c r="G3" s="280"/>
+      <c r="B3" s="279" t="s">
+        <v>622</v>
+      </c>
+      <c r="C3" s="280"/>
+      <c r="D3" s="280"/>
+      <c r="E3" s="280"/>
+      <c r="F3" s="280"/>
+      <c r="G3" s="281"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -13640,14 +13697,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="278" t="s">
-        <v>607</v>
-      </c>
-      <c r="C4" s="279"/>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="280"/>
+      <c r="B4" s="279" t="s">
+        <v>573</v>
+      </c>
+      <c r="C4" s="280"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="281"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -13905,11 +13962,11 @@
       <c r="D5" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="281" t="s">
+      <c r="E5" s="282" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="282"/>
-      <c r="G5" s="283"/>
+      <c r="F5" s="283"/>
+      <c r="G5" s="284"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -14167,18 +14224,18 @@
       </c>
       <c r="C6" s="87">
         <f>E6-D6-B6-A6</f>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D6" s="88">
         <f>COUNTIF(F12:G143,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="284">
+      <c r="E6" s="285">
         <f>COUNTA(A12:A143)</f>
-        <v>49</v>
-      </c>
-      <c r="F6" s="285"/>
-      <c r="G6" s="286"/>
+        <v>41</v>
+      </c>
+      <c r="F6" s="286"/>
+      <c r="G6" s="287"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -15459,7 +15516,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="259"/>
       <c r="B11" s="259" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C11" s="259"/>
       <c r="D11" s="259"/>
@@ -15714,13 +15771,13 @@
         <v>[Mod Module-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>907</v>
+        <v>840</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>917</v>
+        <v>927</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>909</v>
+        <v>842</v>
       </c>
       <c r="E12" s="237"/>
       <c r="F12" s="97"/>
@@ -15735,13 +15792,13 @@
         <v>[Mod Module-3]</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>908</v>
+        <v>841</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>917</v>
+        <v>927</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>910</v>
+        <v>843</v>
       </c>
       <c r="E13" s="237"/>
       <c r="F13" s="97"/>
@@ -15756,13 +15813,13 @@
         <v>[Mod Module-4]</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>609</v>
+        <v>863</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>918</v>
+        <v>928</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>610</v>
+        <v>864</v>
       </c>
       <c r="E14" s="239"/>
       <c r="F14" s="97"/>
@@ -15777,13 +15834,13 @@
         <v>[Mod Module-5]</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>611</v>
+        <v>576</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>919</v>
+        <v>929</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>612</v>
+        <v>865</v>
       </c>
       <c r="E15" s="239"/>
       <c r="F15" s="97"/>
@@ -15798,13 +15855,13 @@
         <v>[Mod Module-6]</v>
       </c>
       <c r="B16" s="97" t="s">
-        <v>613</v>
+        <v>577</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>920</v>
+        <v>930</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>614</v>
+        <v>866</v>
       </c>
       <c r="E16" s="239"/>
       <c r="F16" s="97"/>
@@ -15819,13 +15876,13 @@
         <v>[Mod Module-7]</v>
       </c>
       <c r="B17" s="97" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>921</v>
+        <v>931</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>615</v>
+        <v>867</v>
       </c>
       <c r="E17" s="239"/>
       <c r="F17" s="97"/>
@@ -15840,15 +15897,17 @@
         <v>[Mod Module-8]</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>911</v>
+        <v>879</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>922</v>
+        <v>932</v>
       </c>
       <c r="D18" s="97" t="s">
-        <v>617</v>
-      </c>
-      <c r="E18" s="239"/>
+        <v>868</v>
+      </c>
+      <c r="E18" s="239" t="s">
+        <v>959</v>
+      </c>
       <c r="F18" s="97"/>
       <c r="G18" s="97"/>
       <c r="H18" s="104"/>
@@ -15861,13 +15920,13 @@
         <v>[Mod Module-9]</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>912</v>
+        <v>877</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>923</v>
+        <v>933</v>
       </c>
       <c r="D19" s="97" t="s">
-        <v>619</v>
+        <v>878</v>
       </c>
       <c r="E19" s="239"/>
       <c r="F19" s="97"/>
@@ -15882,13 +15941,13 @@
         <v>[Mod Module-10]</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>913</v>
+        <v>875</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>924</v>
+        <v>934</v>
       </c>
       <c r="D20" s="97" t="s">
-        <v>621</v>
+        <v>876</v>
       </c>
       <c r="E20" s="239"/>
       <c r="F20" s="97"/>
@@ -15903,13 +15962,13 @@
         <v>[Mod Module-11]</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>914</v>
+        <v>874</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>925</v>
+        <v>935</v>
       </c>
       <c r="D21" s="97" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
       <c r="E21" s="239"/>
       <c r="F21" s="97"/>
@@ -15924,13 +15983,13 @@
         <v>[Mod Module-12]</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>915</v>
+        <v>873</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
       <c r="D22" s="97" t="s">
-        <v>623</v>
+        <v>870</v>
       </c>
       <c r="E22" s="239"/>
       <c r="F22" s="97"/>
@@ -15945,13 +16004,13 @@
         <v>[Mod Module-13]</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>916</v>
+        <v>871</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
       <c r="D23" s="97" t="s">
-        <v>623</v>
+        <v>872</v>
       </c>
       <c r="E23" s="239"/>
       <c r="F23" s="97"/>
@@ -15963,7 +16022,7 @@
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
       <c r="A24" s="217"/>
       <c r="B24" s="216" t="s">
-        <v>626</v>
+        <v>955</v>
       </c>
       <c r="C24" s="217"/>
       <c r="D24" s="217"/>
@@ -15980,13 +16039,13 @@
         <v>[Mod Module-15]</v>
       </c>
       <c r="B25" s="97" t="s">
-        <v>627</v>
+        <v>956</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>928</v>
-      </c>
-      <c r="D25" s="97" t="s">
-        <v>628</v>
+        <v>953</v>
+      </c>
+      <c r="D25" s="208" t="s">
+        <v>954</v>
       </c>
       <c r="E25" s="242"/>
       <c r="F25" s="97"/>
@@ -16001,13 +16060,13 @@
         <v>[Mod Module-16]</v>
       </c>
       <c r="B26" s="97" t="s">
-        <v>629</v>
+        <v>957</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>928</v>
-      </c>
-      <c r="D26" s="97" t="s">
-        <v>630</v>
+        <v>953</v>
+      </c>
+      <c r="D26" s="208" t="s">
+        <v>958</v>
       </c>
       <c r="E26" s="242"/>
       <c r="F26" s="97"/>
@@ -16019,7 +16078,7 @@
     <row r="27" spans="1:10" ht="14.25" customHeight="1">
       <c r="A27" s="259"/>
       <c r="B27" s="258" t="s">
-        <v>950</v>
+        <v>844</v>
       </c>
       <c r="C27" s="259"/>
       <c r="D27" s="259"/>
@@ -16036,13 +16095,13 @@
         <v>[Mod Module-18]</v>
       </c>
       <c r="B28" s="97" t="s">
-        <v>631</v>
+        <v>925</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D28" s="243" t="s">
-        <v>632</v>
+        <v>584</v>
       </c>
       <c r="E28" s="242"/>
       <c r="F28" s="97"/>
@@ -16054,7 +16113,7 @@
     <row r="29" spans="1:10" ht="14.25" customHeight="1">
       <c r="A29" s="217"/>
       <c r="B29" s="216" t="s">
-        <v>633</v>
+        <v>848</v>
       </c>
       <c r="C29" s="217"/>
       <c r="D29" s="217"/>
@@ -16071,13 +16130,13 @@
         <v>[Mod Module-20]</v>
       </c>
       <c r="B30" s="97" t="s">
-        <v>634</v>
+        <v>960</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>930</v>
-      </c>
-      <c r="D30" s="243" t="s">
-        <v>635</v>
+        <v>961</v>
+      </c>
+      <c r="D30" s="263" t="s">
+        <v>963</v>
       </c>
       <c r="E30" s="242"/>
       <c r="F30" s="97"/>
@@ -16091,20 +16150,20 @@
         <f>IF(OR(B31&lt;&gt;"",D31&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Mod Module-21]</v>
       </c>
-      <c r="B31" s="244" t="s">
-        <v>636</v>
-      </c>
-      <c r="C31" s="219" t="s">
-        <v>931</v>
-      </c>
-      <c r="D31" s="245" t="s">
-        <v>637</v>
-      </c>
-      <c r="E31" s="246"/>
-      <c r="F31" s="219"/>
-      <c r="G31" s="219"/>
-      <c r="H31" s="247"/>
-      <c r="I31" s="248"/>
+      <c r="B31" s="97" t="s">
+        <v>964</v>
+      </c>
+      <c r="C31" s="97" t="s">
+        <v>968</v>
+      </c>
+      <c r="D31" s="243" t="s">
+        <v>962</v>
+      </c>
+      <c r="E31" s="242"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="241"/>
       <c r="J31" s="90"/>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1">
@@ -16112,20 +16171,20 @@
         <f>IF(OR(B32&lt;&gt;"",D32&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Mod Module-22]</v>
       </c>
-      <c r="B32" s="244" t="s">
-        <v>638</v>
-      </c>
-      <c r="C32" s="219" t="s">
-        <v>932</v>
-      </c>
-      <c r="D32" s="245" t="s">
-        <v>639</v>
-      </c>
-      <c r="E32" s="246"/>
-      <c r="F32" s="219"/>
-      <c r="G32" s="219"/>
-      <c r="H32" s="247"/>
-      <c r="I32" s="248"/>
+      <c r="B32" s="97" t="s">
+        <v>965</v>
+      </c>
+      <c r="C32" s="97" t="s">
+        <v>967</v>
+      </c>
+      <c r="D32" s="243" t="s">
+        <v>585</v>
+      </c>
+      <c r="E32" s="242"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="241"/>
       <c r="J32" s="90"/>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1">
@@ -16133,24 +16192,24 @@
         <f>IF(OR(B33&lt;&gt;"",D33&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Mod Module-23]</v>
       </c>
-      <c r="B33" s="244" t="s">
-        <v>640</v>
-      </c>
-      <c r="C33" s="219" t="s">
-        <v>933</v>
-      </c>
-      <c r="D33" s="245"/>
-      <c r="E33" s="246"/>
-      <c r="F33" s="219"/>
-      <c r="G33" s="219"/>
-      <c r="H33" s="247"/>
-      <c r="I33" s="248"/>
+      <c r="B33" s="97" t="s">
+        <v>966</v>
+      </c>
+      <c r="C33" s="97" t="s">
+        <v>969</v>
+      </c>
+      <c r="D33" s="243"/>
+      <c r="E33" s="242"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="241"/>
       <c r="J33" s="90"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1">
       <c r="A34" s="217"/>
       <c r="B34" s="216" t="s">
-        <v>641</v>
+        <v>970</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="217"/>
@@ -16167,13 +16226,13 @@
         <v>[Mod Module-25]</v>
       </c>
       <c r="B35" s="97" t="s">
-        <v>642</v>
+        <v>971</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>934</v>
+        <v>972</v>
       </c>
       <c r="D35" s="243" t="s">
-        <v>643</v>
+        <v>586</v>
       </c>
       <c r="E35" s="242"/>
       <c r="F35" s="97"/>
@@ -16188,13 +16247,13 @@
         <v>[Mod Module-26]</v>
       </c>
       <c r="B36" s="97" t="s">
-        <v>644</v>
+        <v>587</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="D36" s="243" t="s">
-        <v>645</v>
+        <v>588</v>
       </c>
       <c r="E36" s="242"/>
       <c r="F36" s="97"/>
@@ -16209,13 +16268,13 @@
         <v>[Mod Module-27]</v>
       </c>
       <c r="B37" s="97" t="s">
-        <v>646</v>
+        <v>589</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="D37" s="243" t="s">
-        <v>645</v>
+        <v>588</v>
       </c>
       <c r="E37" s="242"/>
       <c r="F37" s="97"/>
@@ -16230,13 +16289,13 @@
         <v>[Mod Module-28]</v>
       </c>
       <c r="B38" s="97" t="s">
-        <v>647</v>
+        <v>590</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="D38" s="243" t="s">
-        <v>648</v>
+        <v>591</v>
       </c>
       <c r="E38" s="242"/>
       <c r="F38" s="97"/>
@@ -16251,16 +16310,16 @@
         <v>[Mod Module-29]</v>
       </c>
       <c r="B39" s="97" t="s">
-        <v>649</v>
+        <v>592</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="D39" s="243" t="s">
-        <v>650</v>
+        <v>593</v>
       </c>
       <c r="E39" s="242" t="s">
-        <v>651</v>
+        <v>594</v>
       </c>
       <c r="F39" s="97"/>
       <c r="G39" s="97"/>
@@ -16274,13 +16333,13 @@
         <v>[Mod Module-30]</v>
       </c>
       <c r="B40" s="97" t="s">
-        <v>652</v>
+        <v>595</v>
       </c>
       <c r="C40" s="97" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="D40" s="243" t="s">
-        <v>653</v>
+        <v>596</v>
       </c>
       <c r="E40" s="242"/>
       <c r="F40" s="97"/>
@@ -16295,13 +16354,13 @@
         <v>[Mod Module-31]</v>
       </c>
       <c r="B41" s="244" t="s">
-        <v>654</v>
+        <v>597</v>
       </c>
       <c r="C41" s="219" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="D41" s="245" t="s">
-        <v>655</v>
+        <v>598</v>
       </c>
       <c r="E41" s="246"/>
       <c r="F41" s="219"/>
@@ -16316,13 +16375,13 @@
         <v>[Mod Module-32]</v>
       </c>
       <c r="B42" s="244" t="s">
-        <v>656</v>
+        <v>599</v>
       </c>
       <c r="C42" s="219" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="D42" s="245" t="s">
-        <v>657</v>
+        <v>600</v>
       </c>
       <c r="E42" s="246"/>
       <c r="F42" s="219"/>
@@ -16334,7 +16393,7 @@
     <row r="43" spans="1:10" ht="14.25" customHeight="1">
       <c r="A43" s="217"/>
       <c r="B43" s="216" t="s">
-        <v>658</v>
+        <v>601</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="217"/>
@@ -16351,13 +16410,13 @@
         <v>[Mod Module-34]</v>
       </c>
       <c r="B44" s="97" t="s">
-        <v>659</v>
+        <v>602</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="D44" s="243" t="s">
-        <v>660</v>
+        <v>603</v>
       </c>
       <c r="E44" s="242"/>
       <c r="F44" s="97"/>
@@ -16372,13 +16431,13 @@
         <v>[Mod Module-35]</v>
       </c>
       <c r="B45" s="97" t="s">
-        <v>661</v>
+        <v>604</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="D45" s="243" t="s">
-        <v>662</v>
+        <v>605</v>
       </c>
       <c r="E45" s="242"/>
       <c r="F45" s="97"/>
@@ -16393,13 +16452,13 @@
         <v>[Mod Module-36]</v>
       </c>
       <c r="B46" s="97" t="s">
-        <v>663</v>
+        <v>606</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="D46" s="243" t="s">
-        <v>664</v>
+        <v>607</v>
       </c>
       <c r="E46" s="242"/>
       <c r="F46" s="97"/>
@@ -16414,13 +16473,13 @@
         <v>[Mod Module-37]</v>
       </c>
       <c r="B47" s="97" t="s">
-        <v>665</v>
+        <v>608</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="D47" s="243" t="s">
-        <v>666</v>
+        <v>609</v>
       </c>
       <c r="E47" s="242"/>
       <c r="F47" s="97"/>
@@ -16434,16 +16493,16 @@
         <v>[Mod Module-38]</v>
       </c>
       <c r="B48" s="97" t="s">
-        <v>667</v>
+        <v>610</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="D48" s="243" t="s">
-        <v>669</v>
+        <v>612</v>
       </c>
       <c r="E48" s="242" t="s">
-        <v>651</v>
+        <v>594</v>
       </c>
       <c r="F48" s="97"/>
       <c r="G48" s="97"/>
@@ -16456,13 +16515,13 @@
         <v>[Mod Module-39]</v>
       </c>
       <c r="B49" s="97" t="s">
-        <v>670</v>
+        <v>613</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="D49" s="243" t="s">
-        <v>672</v>
+        <v>615</v>
       </c>
       <c r="E49" s="242"/>
       <c r="F49" s="97"/>
@@ -16477,13 +16536,13 @@
         <v>[Mod Module-40]</v>
       </c>
       <c r="B50" s="244" t="s">
-        <v>654</v>
+        <v>597</v>
       </c>
       <c r="C50" s="219" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="D50" s="245" t="s">
-        <v>674</v>
+        <v>617</v>
       </c>
       <c r="E50" s="246"/>
       <c r="F50" s="219"/>
@@ -16498,13 +16557,13 @@
         <v>[Mod Module-41]</v>
       </c>
       <c r="B51" s="244" t="s">
-        <v>675</v>
+        <v>618</v>
       </c>
       <c r="C51" s="219" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="D51" s="245" t="s">
-        <v>677</v>
+        <v>620</v>
       </c>
       <c r="E51" s="246"/>
       <c r="F51" s="219"/>
@@ -16531,17 +16590,15 @@
         <v>[Mod Module-43]</v>
       </c>
       <c r="B53" s="109" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C53" s="109" t="s">
-        <v>569</v>
+        <v>537</v>
       </c>
       <c r="D53" s="109" t="s">
-        <v>570</v>
-      </c>
-      <c r="E53" s="109" t="s">
-        <v>543</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="E53" s="109"/>
       <c r="F53" s="109"/>
       <c r="G53" s="109"/>
       <c r="H53" s="104"/>
@@ -16554,17 +16611,15 @@
         <v>[Mod Module-44]</v>
       </c>
       <c r="B54" s="109" t="s">
-        <v>571</v>
+        <v>539</v>
       </c>
       <c r="C54" s="109" t="s">
-        <v>572</v>
+        <v>540</v>
       </c>
       <c r="D54" s="109" t="s">
-        <v>573</v>
-      </c>
-      <c r="E54" s="109" t="s">
-        <v>543</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="E54" s="109"/>
       <c r="F54" s="109"/>
       <c r="G54" s="109"/>
       <c r="H54" s="104"/>
@@ -16577,17 +16632,15 @@
         <v>[Mod Module-45]</v>
       </c>
       <c r="B55" s="109" t="s">
-        <v>574</v>
+        <v>542</v>
       </c>
       <c r="C55" s="54" t="s">
-        <v>575</v>
+        <v>543</v>
       </c>
       <c r="D55" s="109" t="s">
-        <v>576</v>
-      </c>
-      <c r="E55" s="109" t="s">
-        <v>567</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="E55" s="109"/>
       <c r="F55" s="109"/>
       <c r="G55" s="109"/>
       <c r="H55" s="104"/>
@@ -16600,17 +16653,15 @@
         <v>[Mod Module-46]</v>
       </c>
       <c r="B56" s="109" t="s">
-        <v>577</v>
+        <v>545</v>
       </c>
       <c r="C56" s="54" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="D56" s="231" t="s">
-        <v>579</v>
-      </c>
-      <c r="E56" s="109" t="s">
-        <v>567</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="E56" s="109"/>
       <c r="F56" s="109"/>
       <c r="G56" s="109"/>
       <c r="H56" s="104"/>
@@ -16623,17 +16674,15 @@
         <v>[Mod Module-47]</v>
       </c>
       <c r="B57" s="54" t="s">
-        <v>580</v>
+        <v>548</v>
       </c>
       <c r="C57" s="54" t="s">
-        <v>581</v>
+        <v>549</v>
       </c>
       <c r="D57" s="231" t="s">
-        <v>582</v>
-      </c>
-      <c r="E57" s="109" t="s">
-        <v>567</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="E57" s="109"/>
       <c r="F57" s="109"/>
       <c r="G57" s="109"/>
       <c r="H57" s="104"/>
@@ -16646,17 +16695,15 @@
         <v>[Mod Module-48]</v>
       </c>
       <c r="B58" s="109" t="s">
-        <v>583</v>
+        <v>551</v>
       </c>
       <c r="C58" s="54" t="s">
-        <v>584</v>
+        <v>552</v>
       </c>
       <c r="D58" s="231" t="s">
-        <v>585</v>
-      </c>
-      <c r="E58" s="109" t="s">
-        <v>567</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="E58" s="109"/>
       <c r="F58" s="109"/>
       <c r="G58" s="109"/>
       <c r="H58" s="104"/>
@@ -16665,9 +16712,7 @@
     </row>
     <row r="59" spans="1:10" ht="14.25" customHeight="1">
       <c r="A59" s="228"/>
-      <c r="B59" s="228" t="s">
-        <v>586</v>
-      </c>
+      <c r="B59" s="228"/>
       <c r="C59" s="229"/>
       <c r="D59" s="229"/>
       <c r="E59" s="229"/>
@@ -16678,22 +16723,11 @@
       <c r="J59" s="90"/>
     </row>
     <row r="60" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A60" s="109" t="str">
-        <f t="shared" ref="A60:A65" si="4">IF(OR(B60&lt;&gt;"",D60&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Mod Module-50]</v>
-      </c>
-      <c r="B60" s="109" t="s">
-        <v>587</v>
-      </c>
-      <c r="C60" s="109" t="s">
-        <v>588</v>
-      </c>
-      <c r="D60" s="109" t="s">
-        <v>589</v>
-      </c>
-      <c r="E60" s="109" t="s">
-        <v>590</v>
-      </c>
+      <c r="A60" s="109"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="109"/>
       <c r="F60" s="109"/>
       <c r="G60" s="109"/>
       <c r="H60" s="104"/>
@@ -16701,22 +16735,11 @@
       <c r="J60" s="90"/>
     </row>
     <row r="61" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A61" s="109" t="str">
-        <f t="shared" si="4"/>
-        <v>[Mod Module-51]</v>
-      </c>
-      <c r="B61" s="109" t="s">
-        <v>591</v>
-      </c>
-      <c r="C61" s="109" t="s">
-        <v>588</v>
-      </c>
-      <c r="D61" s="109" t="s">
-        <v>589</v>
-      </c>
-      <c r="E61" s="109" t="s">
-        <v>590</v>
-      </c>
+      <c r="A61" s="109"/>
+      <c r="B61" s="109"/>
+      <c r="C61" s="109"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="109"/>
       <c r="F61" s="109"/>
       <c r="G61" s="109"/>
       <c r="H61" s="104"/>
@@ -16724,22 +16747,11 @@
       <c r="J61" s="90"/>
     </row>
     <row r="62" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A62" s="109" t="str">
-        <f t="shared" si="4"/>
-        <v>[Mod Module-52]</v>
-      </c>
-      <c r="B62" s="109" t="s">
-        <v>592</v>
-      </c>
-      <c r="C62" s="109" t="s">
-        <v>593</v>
-      </c>
-      <c r="D62" s="109" t="s">
-        <v>594</v>
-      </c>
-      <c r="E62" s="109" t="s">
-        <v>595</v>
-      </c>
+      <c r="A62" s="109"/>
+      <c r="B62" s="109"/>
+      <c r="C62" s="109"/>
+      <c r="D62" s="109"/>
+      <c r="E62" s="109"/>
       <c r="F62" s="109"/>
       <c r="G62" s="109"/>
       <c r="H62" s="104"/>
@@ -16747,22 +16759,11 @@
       <c r="J62" s="90"/>
     </row>
     <row r="63" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A63" s="109" t="str">
-        <f t="shared" si="4"/>
-        <v>[Mod Module-53]</v>
-      </c>
-      <c r="B63" s="232" t="s">
-        <v>596</v>
-      </c>
-      <c r="C63" s="109" t="s">
-        <v>597</v>
-      </c>
-      <c r="D63" s="231" t="s">
-        <v>598</v>
-      </c>
-      <c r="E63" s="109" t="s">
-        <v>595</v>
-      </c>
+      <c r="A63" s="109"/>
+      <c r="B63" s="232"/>
+      <c r="C63" s="109"/>
+      <c r="D63" s="231"/>
+      <c r="E63" s="109"/>
       <c r="F63" s="109"/>
       <c r="G63" s="109"/>
       <c r="H63" s="104"/>
@@ -16770,22 +16771,11 @@
       <c r="J63" s="90"/>
     </row>
     <row r="64" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A64" s="109" t="str">
-        <f t="shared" si="4"/>
-        <v>[Mod Module-54]</v>
-      </c>
-      <c r="B64" s="232" t="s">
-        <v>599</v>
-      </c>
-      <c r="C64" s="109" t="s">
-        <v>600</v>
-      </c>
-      <c r="D64" s="231" t="s">
-        <v>601</v>
-      </c>
-      <c r="E64" s="109" t="s">
-        <v>595</v>
-      </c>
+      <c r="A64" s="109"/>
+      <c r="B64" s="232"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="231"/>
+      <c r="E64" s="109"/>
       <c r="F64" s="109"/>
       <c r="G64" s="109"/>
       <c r="H64" s="104"/>
@@ -16793,22 +16783,11 @@
       <c r="J64" s="90"/>
     </row>
     <row r="65" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A65" s="109" t="str">
-        <f t="shared" si="4"/>
-        <v>[Mod Module-55]</v>
-      </c>
-      <c r="B65" s="109" t="s">
-        <v>602</v>
-      </c>
-      <c r="C65" s="109" t="s">
-        <v>603</v>
-      </c>
-      <c r="D65" s="109" t="s">
-        <v>604</v>
-      </c>
-      <c r="E65" s="109" t="s">
-        <v>595</v>
-      </c>
+      <c r="A65" s="109"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="109"/>
+      <c r="D65" s="109"/>
+      <c r="E65" s="109"/>
       <c r="F65" s="109"/>
       <c r="G65" s="109"/>
       <c r="H65" s="104"/>
@@ -16816,19 +16795,10 @@
       <c r="J65" s="90"/>
     </row>
     <row r="66" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A66" s="96" t="str">
-        <f t="shared" ref="A66:A67" si="5">IF(OR(B66&lt;&gt;"",D66&lt;E65&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Mod Module-56]</v>
-      </c>
-      <c r="B66" s="97" t="s">
-        <v>469</v>
-      </c>
-      <c r="C66" s="97" t="s">
-        <v>470</v>
-      </c>
-      <c r="D66" s="97" t="s">
-        <v>471</v>
-      </c>
+      <c r="A66" s="96"/>
+      <c r="B66" s="97"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="97"/>
       <c r="E66" s="146"/>
       <c r="F66" s="95"/>
       <c r="G66" s="97"/>
@@ -16837,19 +16807,10 @@
       <c r="J66" s="90"/>
     </row>
     <row r="67" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A67" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>[Mod Module-57]</v>
-      </c>
-      <c r="B67" s="97" t="s">
-        <v>472</v>
-      </c>
-      <c r="C67" s="97" t="s">
-        <v>473</v>
-      </c>
-      <c r="D67" s="97" t="s">
-        <v>474</v>
-      </c>
+      <c r="A67" s="96"/>
+      <c r="B67" s="97"/>
+      <c r="C67" s="97"/>
+      <c r="D67" s="97"/>
       <c r="E67" s="146"/>
       <c r="F67" s="95"/>
       <c r="G67" s="97"/>
@@ -17688,14 +17649,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="275" t="s">
-        <v>750</v>
-      </c>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="277"/>
+      <c r="B2" s="276" t="s">
+        <v>693</v>
+      </c>
+      <c r="C2" s="277"/>
+      <c r="D2" s="277"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="277"/>
+      <c r="G2" s="278"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -17946,14 +17907,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="278" t="s">
-        <v>679</v>
-      </c>
-      <c r="C3" s="279"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="279"/>
-      <c r="F3" s="279"/>
-      <c r="G3" s="280"/>
+      <c r="B3" s="279" t="s">
+        <v>622</v>
+      </c>
+      <c r="C3" s="280"/>
+      <c r="D3" s="280"/>
+      <c r="E3" s="280"/>
+      <c r="F3" s="280"/>
+      <c r="G3" s="281"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -18204,14 +18165,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="278" t="s">
-        <v>607</v>
-      </c>
-      <c r="C4" s="279"/>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="280"/>
+      <c r="B4" s="279" t="s">
+        <v>573</v>
+      </c>
+      <c r="C4" s="280"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="281"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -18469,11 +18430,11 @@
       <c r="D5" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="281" t="s">
+      <c r="E5" s="282" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="282"/>
-      <c r="G5" s="283"/>
+      <c r="F5" s="283"/>
+      <c r="G5" s="284"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -18737,12 +18698,12 @@
         <f>COUNTIF(F12:G142,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="284">
+      <c r="E6" s="285">
         <f>COUNTA(A12:A142)</f>
         <v>45</v>
       </c>
-      <c r="F6" s="285"/>
-      <c r="G6" s="286"/>
+      <c r="F6" s="286"/>
+      <c r="G6" s="287"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -20022,16 +19983,16 @@
     </row>
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="236"/>
-      <c r="B11" s="305" t="s">
-        <v>522</v>
-      </c>
-      <c r="C11" s="305"/>
-      <c r="D11" s="305"/>
-      <c r="E11" s="305"/>
-      <c r="F11" s="305"/>
-      <c r="G11" s="305"/>
-      <c r="H11" s="305"/>
-      <c r="I11" s="305"/>
+      <c r="B11" s="306" t="s">
+        <v>519</v>
+      </c>
+      <c r="C11" s="306"/>
+      <c r="D11" s="306"/>
+      <c r="E11" s="306"/>
+      <c r="F11" s="306"/>
+      <c r="G11" s="306"/>
+      <c r="H11" s="306"/>
+      <c r="I11" s="306"/>
       <c r="J11" s="78"/>
       <c r="K11" s="78"/>
       <c r="L11" s="78"/>
@@ -20278,13 +20239,13 @@
         <v>[Admin module-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>608</v>
+        <v>574</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>680</v>
+        <v>623</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>681</v>
+        <v>624</v>
       </c>
       <c r="E12" s="237"/>
       <c r="F12" s="97"/>
@@ -20299,13 +20260,13 @@
         <v>[Admin module-3]</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>609</v>
+        <v>575</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>682</v>
+        <v>625</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>683</v>
+        <v>626</v>
       </c>
       <c r="E13" s="239"/>
       <c r="F13" s="97"/>
@@ -20320,13 +20281,13 @@
         <v>[Admin module-4]</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>611</v>
+        <v>576</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>684</v>
+        <v>627</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>685</v>
+        <v>628</v>
       </c>
       <c r="E14" s="239"/>
       <c r="F14" s="97"/>
@@ -20341,13 +20302,13 @@
         <v>[Admin module-5]</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>613</v>
+        <v>577</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>686</v>
+        <v>629</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>687</v>
+        <v>630</v>
       </c>
       <c r="E15" s="239"/>
       <c r="F15" s="97"/>
@@ -20362,13 +20323,13 @@
         <v>[Admin module-6]</v>
       </c>
       <c r="B16" s="97" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>688</v>
+        <v>631</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>689</v>
+        <v>632</v>
       </c>
       <c r="E16" s="239"/>
       <c r="F16" s="97"/>
@@ -20383,13 +20344,13 @@
         <v>[Admin module-7]</v>
       </c>
       <c r="B17" s="97" t="s">
-        <v>616</v>
+        <v>578</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>690</v>
+        <v>633</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>691</v>
+        <v>634</v>
       </c>
       <c r="E17" s="239"/>
       <c r="F17" s="97"/>
@@ -20404,13 +20365,13 @@
         <v>[Admin module-8]</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>618</v>
+        <v>579</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>692</v>
+        <v>635</v>
       </c>
       <c r="D18" s="97" t="s">
-        <v>693</v>
+        <v>636</v>
       </c>
       <c r="E18" s="239"/>
       <c r="F18" s="97"/>
@@ -20425,13 +20386,13 @@
         <v>[Admin module-9]</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>694</v>
+        <v>637</v>
       </c>
       <c r="D19" s="97" t="s">
-        <v>695</v>
+        <v>638</v>
       </c>
       <c r="E19" s="239"/>
       <c r="F19" s="97"/>
@@ -20446,13 +20407,13 @@
         <v>[Admin module-10]</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>622</v>
+        <v>581</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>696</v>
+        <v>639</v>
       </c>
       <c r="D20" s="97" t="s">
-        <v>697</v>
+        <v>640</v>
       </c>
       <c r="E20" s="239"/>
       <c r="F20" s="97"/>
@@ -20467,13 +20428,13 @@
         <v>[Admin module-11]</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>624</v>
+        <v>582</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>698</v>
+        <v>641</v>
       </c>
       <c r="D21" s="97" t="s">
-        <v>697</v>
+        <v>640</v>
       </c>
       <c r="E21" s="239"/>
       <c r="F21" s="97"/>
@@ -20488,13 +20449,13 @@
         <v>[Admin module-12]</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>699</v>
+        <v>642</v>
       </c>
       <c r="D22" s="97" t="s">
-        <v>697</v>
+        <v>640</v>
       </c>
       <c r="E22" s="239"/>
       <c r="F22" s="97"/>
@@ -20506,7 +20467,7 @@
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
       <c r="A23" s="217"/>
       <c r="B23" s="216" t="s">
-        <v>953</v>
+        <v>847</v>
       </c>
       <c r="C23" s="217"/>
       <c r="D23" s="217"/>
@@ -20523,13 +20484,13 @@
         <v>[Admin module-14]</v>
       </c>
       <c r="B24" s="97" t="s">
-        <v>700</v>
+        <v>643</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>701</v>
+        <v>644</v>
       </c>
       <c r="D24" s="97" t="s">
-        <v>702</v>
+        <v>645</v>
       </c>
       <c r="E24" s="242"/>
       <c r="F24" s="97"/>
@@ -20544,13 +20505,13 @@
         <v>[Admin module-15]</v>
       </c>
       <c r="B25" s="97" t="s">
-        <v>703</v>
+        <v>646</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>701</v>
+        <v>644</v>
       </c>
       <c r="D25" s="97" t="s">
-        <v>702</v>
+        <v>645</v>
       </c>
       <c r="E25" s="242"/>
       <c r="F25" s="97"/>
@@ -20562,7 +20523,7 @@
     <row r="26" spans="1:10" ht="14.25" customHeight="1">
       <c r="A26" s="259"/>
       <c r="B26" s="258" t="s">
-        <v>950</v>
+        <v>844</v>
       </c>
       <c r="C26" s="259"/>
       <c r="D26" s="259"/>
@@ -20579,13 +20540,13 @@
         <v>[Admin module-17]</v>
       </c>
       <c r="B27" s="97" t="s">
-        <v>704</v>
+        <v>647</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>705</v>
+        <v>648</v>
       </c>
       <c r="D27" s="243" t="s">
-        <v>706</v>
+        <v>649</v>
       </c>
       <c r="E27" s="242"/>
       <c r="F27" s="97"/>
@@ -20597,7 +20558,7 @@
     <row r="28" spans="1:10" ht="14.25" customHeight="1">
       <c r="A28" s="217"/>
       <c r="B28" s="216" t="s">
-        <v>954</v>
+        <v>848</v>
       </c>
       <c r="C28" s="217"/>
       <c r="D28" s="217"/>
@@ -20614,13 +20575,13 @@
         <v>[Admin module-19]</v>
       </c>
       <c r="B29" s="97" t="s">
-        <v>707</v>
+        <v>650</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>708</v>
+        <v>651</v>
       </c>
       <c r="D29" s="243" t="s">
-        <v>709</v>
+        <v>652</v>
       </c>
       <c r="E29" s="242"/>
       <c r="F29" s="97"/>
@@ -20635,13 +20596,13 @@
         <v>[Admin module-20]</v>
       </c>
       <c r="B30" s="244" t="s">
-        <v>710</v>
+        <v>653</v>
       </c>
       <c r="C30" s="219" t="s">
-        <v>711</v>
+        <v>654</v>
       </c>
       <c r="D30" s="245" t="s">
-        <v>712</v>
+        <v>655</v>
       </c>
       <c r="E30" s="246"/>
       <c r="F30" s="219"/>
@@ -20656,13 +20617,13 @@
         <v>[Admin module-21]</v>
       </c>
       <c r="B31" s="244" t="s">
-        <v>713</v>
+        <v>656</v>
       </c>
       <c r="C31" s="219" t="s">
-        <v>714</v>
+        <v>657</v>
       </c>
       <c r="D31" s="245" t="s">
-        <v>715</v>
+        <v>658</v>
       </c>
       <c r="E31" s="246"/>
       <c r="F31" s="219"/>
@@ -20677,13 +20638,13 @@
         <v>[Admin module-22]</v>
       </c>
       <c r="B32" s="244" t="s">
-        <v>716</v>
+        <v>659</v>
       </c>
       <c r="C32" s="219" t="s">
-        <v>717</v>
+        <v>660</v>
       </c>
       <c r="D32" s="245" t="s">
-        <v>718</v>
+        <v>661</v>
       </c>
       <c r="E32" s="246"/>
       <c r="F32" s="219"/>
@@ -20695,7 +20656,7 @@
     <row r="33" spans="1:10" ht="14.25" customHeight="1">
       <c r="A33" s="217"/>
       <c r="B33" s="216" t="s">
-        <v>952</v>
+        <v>846</v>
       </c>
       <c r="C33" s="217"/>
       <c r="D33" s="217"/>
@@ -20712,13 +20673,13 @@
         <v>[Admin module-24]</v>
       </c>
       <c r="B34" s="97" t="s">
-        <v>719</v>
+        <v>662</v>
       </c>
       <c r="C34" s="97" t="s">
-        <v>720</v>
+        <v>663</v>
       </c>
       <c r="D34" s="243" t="s">
-        <v>721</v>
+        <v>664</v>
       </c>
       <c r="E34" s="242"/>
       <c r="F34" s="97"/>
@@ -20733,13 +20694,13 @@
         <v>[Admin module-25]</v>
       </c>
       <c r="B35" s="97" t="s">
-        <v>722</v>
+        <v>665</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>723</v>
+        <v>666</v>
       </c>
       <c r="D35" s="243" t="s">
-        <v>724</v>
+        <v>667</v>
       </c>
       <c r="E35" s="242"/>
       <c r="F35" s="97"/>
@@ -20754,13 +20715,13 @@
         <v>[Admin module-26]</v>
       </c>
       <c r="B36" s="97" t="s">
-        <v>725</v>
+        <v>668</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>726</v>
+        <v>669</v>
       </c>
       <c r="D36" s="243" t="s">
-        <v>727</v>
+        <v>670</v>
       </c>
       <c r="E36" s="242"/>
       <c r="F36" s="97"/>
@@ -20775,13 +20736,13 @@
         <v>[Admin module-27]</v>
       </c>
       <c r="B37" s="97" t="s">
-        <v>728</v>
+        <v>671</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>729</v>
+        <v>672</v>
       </c>
       <c r="D37" s="243" t="s">
-        <v>730</v>
+        <v>673</v>
       </c>
       <c r="E37" s="242"/>
       <c r="F37" s="97"/>
@@ -20796,16 +20757,16 @@
         <v>[Admin module-28]</v>
       </c>
       <c r="B38" s="97" t="s">
-        <v>731</v>
+        <v>674</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>732</v>
+        <v>675</v>
       </c>
       <c r="D38" s="243" t="s">
-        <v>733</v>
+        <v>676</v>
       </c>
       <c r="E38" s="242" t="s">
-        <v>734</v>
+        <v>677</v>
       </c>
       <c r="F38" s="97"/>
       <c r="G38" s="97"/>
@@ -20819,13 +20780,13 @@
         <v>[Admin module-29]</v>
       </c>
       <c r="B39" s="97" t="s">
-        <v>735</v>
+        <v>678</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>736</v>
+        <v>679</v>
       </c>
       <c r="D39" s="243" t="s">
-        <v>737</v>
+        <v>680</v>
       </c>
       <c r="E39" s="242"/>
       <c r="F39" s="97"/>
@@ -20837,7 +20798,7 @@
     <row r="40" spans="1:10" ht="14.25" customHeight="1">
       <c r="A40" s="217"/>
       <c r="B40" s="216" t="s">
-        <v>951</v>
+        <v>845</v>
       </c>
       <c r="C40" s="217"/>
       <c r="D40" s="217"/>
@@ -20854,13 +20815,13 @@
         <v>[Admin module-31]</v>
       </c>
       <c r="B41" s="97" t="s">
-        <v>738</v>
+        <v>681</v>
       </c>
       <c r="C41" s="97" t="s">
-        <v>739</v>
+        <v>682</v>
       </c>
       <c r="D41" s="243" t="s">
-        <v>740</v>
+        <v>683</v>
       </c>
       <c r="E41" s="242"/>
       <c r="F41" s="97"/>
@@ -20875,13 +20836,13 @@
         <v>[Admin module-32]</v>
       </c>
       <c r="B42" s="97" t="s">
-        <v>722</v>
+        <v>665</v>
       </c>
       <c r="C42" s="97" t="s">
-        <v>741</v>
+        <v>684</v>
       </c>
       <c r="D42" s="243" t="s">
-        <v>742</v>
+        <v>685</v>
       </c>
       <c r="E42" s="242"/>
       <c r="F42" s="97"/>
@@ -20896,13 +20857,13 @@
         <v>[Admin module-33]</v>
       </c>
       <c r="B43" s="97" t="s">
-        <v>725</v>
+        <v>668</v>
       </c>
       <c r="C43" s="97" t="s">
-        <v>743</v>
+        <v>686</v>
       </c>
       <c r="D43" s="243" t="s">
-        <v>744</v>
+        <v>687</v>
       </c>
       <c r="E43" s="242"/>
       <c r="F43" s="97"/>
@@ -20917,13 +20878,13 @@
         <v>[Admin module-34]</v>
       </c>
       <c r="B44" s="97" t="s">
-        <v>745</v>
+        <v>688</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>746</v>
+        <v>689</v>
       </c>
       <c r="D44" s="243" t="s">
-        <v>747</v>
+        <v>690</v>
       </c>
       <c r="E44" s="242"/>
       <c r="F44" s="97"/>
@@ -20938,13 +20899,13 @@
         <v>[Admin module-35]</v>
       </c>
       <c r="B45" s="97" t="s">
-        <v>735</v>
+        <v>678</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>748</v>
+        <v>691</v>
       </c>
       <c r="D45" s="243" t="s">
-        <v>749</v>
+        <v>692</v>
       </c>
       <c r="E45" s="242"/>
       <c r="F45" s="97"/>
@@ -20970,13 +20931,13 @@
         <v>[Admin module-37]</v>
       </c>
       <c r="B47" s="97" t="s">
-        <v>667</v>
+        <v>610</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>668</v>
+        <v>611</v>
       </c>
       <c r="D47" s="243" t="s">
-        <v>669</v>
+        <v>612</v>
       </c>
       <c r="E47" s="242"/>
       <c r="F47" s="97"/>
@@ -20990,13 +20951,13 @@
         <v>[Admin module-38]</v>
       </c>
       <c r="B48" s="97" t="s">
-        <v>670</v>
+        <v>613</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>671</v>
+        <v>614</v>
       </c>
       <c r="D48" s="243" t="s">
-        <v>672</v>
+        <v>615</v>
       </c>
       <c r="E48" s="242"/>
       <c r="F48" s="97"/>
@@ -21011,13 +20972,13 @@
         <v>[Admin module-39]</v>
       </c>
       <c r="B49" s="244" t="s">
-        <v>654</v>
+        <v>597</v>
       </c>
       <c r="C49" s="219" t="s">
-        <v>673</v>
+        <v>616</v>
       </c>
       <c r="D49" s="245" t="s">
-        <v>674</v>
+        <v>617</v>
       </c>
       <c r="E49" s="246"/>
       <c r="F49" s="219"/>
@@ -21032,13 +20993,13 @@
         <v>[Admin module-40]</v>
       </c>
       <c r="B50" s="244" t="s">
-        <v>675</v>
+        <v>618</v>
       </c>
       <c r="C50" s="219" t="s">
-        <v>676</v>
+        <v>619</v>
       </c>
       <c r="D50" s="245" t="s">
-        <v>677</v>
+        <v>620</v>
       </c>
       <c r="E50" s="246"/>
       <c r="F50" s="219"/>
@@ -21065,13 +21026,13 @@
         <v>[Admin module-42]</v>
       </c>
       <c r="B52" s="109" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C52" s="109" t="s">
-        <v>569</v>
+        <v>537</v>
       </c>
       <c r="D52" s="109" t="s">
-        <v>570</v>
+        <v>538</v>
       </c>
       <c r="E52" s="109"/>
       <c r="F52" s="109"/>
@@ -21086,13 +21047,13 @@
         <v>[Admin module-43]</v>
       </c>
       <c r="B53" s="109" t="s">
-        <v>571</v>
+        <v>539</v>
       </c>
       <c r="C53" s="109" t="s">
-        <v>572</v>
+        <v>540</v>
       </c>
       <c r="D53" s="109" t="s">
-        <v>573</v>
+        <v>541</v>
       </c>
       <c r="E53" s="109"/>
       <c r="F53" s="109"/>
@@ -21107,13 +21068,13 @@
         <v>[Admin module-44]</v>
       </c>
       <c r="B54" s="109" t="s">
-        <v>574</v>
+        <v>542</v>
       </c>
       <c r="C54" s="54" t="s">
-        <v>575</v>
+        <v>543</v>
       </c>
       <c r="D54" s="109" t="s">
-        <v>576</v>
+        <v>544</v>
       </c>
       <c r="E54" s="109"/>
       <c r="F54" s="109"/>
@@ -21128,13 +21089,13 @@
         <v>[Admin module-45]</v>
       </c>
       <c r="B55" s="109" t="s">
-        <v>577</v>
+        <v>545</v>
       </c>
       <c r="C55" s="54" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="D55" s="231" t="s">
-        <v>579</v>
+        <v>547</v>
       </c>
       <c r="E55" s="109"/>
       <c r="F55" s="109"/>
@@ -21149,13 +21110,13 @@
         <v>[Admin module-46]</v>
       </c>
       <c r="B56" s="54" t="s">
-        <v>580</v>
+        <v>548</v>
       </c>
       <c r="C56" s="54" t="s">
-        <v>581</v>
+        <v>549</v>
       </c>
       <c r="D56" s="231" t="s">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="E56" s="109"/>
       <c r="F56" s="109"/>
@@ -21170,13 +21131,13 @@
         <v>[Admin module-47]</v>
       </c>
       <c r="B57" s="109" t="s">
-        <v>583</v>
+        <v>551</v>
       </c>
       <c r="C57" s="54" t="s">
-        <v>584</v>
+        <v>552</v>
       </c>
       <c r="D57" s="231" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
       <c r="E57" s="109"/>
       <c r="F57" s="109"/>
@@ -21188,7 +21149,7 @@
     <row r="58" spans="1:10" ht="14.25" customHeight="1">
       <c r="A58" s="228"/>
       <c r="B58" s="228" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
       <c r="C58" s="229"/>
       <c r="D58" s="229"/>
@@ -21205,13 +21166,13 @@
         <v>[Admin module-49]</v>
       </c>
       <c r="B59" s="109" t="s">
-        <v>587</v>
+        <v>555</v>
       </c>
       <c r="C59" s="109" t="s">
-        <v>588</v>
+        <v>556</v>
       </c>
       <c r="D59" s="109" t="s">
-        <v>589</v>
+        <v>557</v>
       </c>
       <c r="E59" s="109"/>
       <c r="F59" s="109"/>
@@ -21226,13 +21187,13 @@
         <v>[Admin module-50]</v>
       </c>
       <c r="B60" s="109" t="s">
-        <v>591</v>
+        <v>558</v>
       </c>
       <c r="C60" s="109" t="s">
-        <v>588</v>
+        <v>556</v>
       </c>
       <c r="D60" s="109" t="s">
-        <v>589</v>
+        <v>557</v>
       </c>
       <c r="E60" s="109"/>
       <c r="F60" s="109"/>
@@ -21247,13 +21208,13 @@
         <v>[Admin module-51]</v>
       </c>
       <c r="B61" s="109" t="s">
-        <v>592</v>
+        <v>559</v>
       </c>
       <c r="C61" s="109" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="D61" s="109" t="s">
-        <v>594</v>
+        <v>561</v>
       </c>
       <c r="E61" s="109"/>
       <c r="F61" s="109"/>
@@ -21268,13 +21229,13 @@
         <v>[Admin module-52]</v>
       </c>
       <c r="B62" s="232" t="s">
-        <v>596</v>
+        <v>562</v>
       </c>
       <c r="C62" s="109" t="s">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="D62" s="231" t="s">
-        <v>598</v>
+        <v>564</v>
       </c>
       <c r="E62" s="109"/>
       <c r="F62" s="109"/>
@@ -21289,13 +21250,13 @@
         <v>[Admin module-53]</v>
       </c>
       <c r="B63" s="232" t="s">
-        <v>599</v>
+        <v>565</v>
       </c>
       <c r="C63" s="109" t="s">
-        <v>600</v>
+        <v>566</v>
       </c>
       <c r="D63" s="231" t="s">
-        <v>601</v>
+        <v>567</v>
       </c>
       <c r="E63" s="109"/>
       <c r="F63" s="109"/>
@@ -21310,13 +21271,13 @@
         <v>[Admin module-54]</v>
       </c>
       <c r="B64" s="109" t="s">
-        <v>602</v>
+        <v>568</v>
       </c>
       <c r="C64" s="109" t="s">
-        <v>603</v>
+        <v>569</v>
       </c>
       <c r="D64" s="109" t="s">
-        <v>604</v>
+        <v>570</v>
       </c>
       <c r="E64" s="109"/>
       <c r="F64" s="109"/>
@@ -21917,15 +21878,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="270" t="s">
+      <c r="B1" s="271" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
+      <c r="G1" s="271"/>
+      <c r="H1" s="271"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="55"/>
@@ -21941,15 +21902,15 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="267" t="str">
+      <c r="C3" s="268" t="str">
         <f>Cover!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="D3" s="267"/>
-      <c r="E3" s="268" t="s">
+      <c r="D3" s="268"/>
+      <c r="E3" s="269" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="268"/>
+      <c r="F3" s="269"/>
       <c r="G3" s="58" t="s">
         <v>117</v>
       </c>
@@ -21959,15 +21920,15 @@
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="267" t="str">
+      <c r="C4" s="268" t="str">
         <f>Cover!C5</f>
         <v>VMN</v>
       </c>
-      <c r="D4" s="267"/>
-      <c r="E4" s="268" t="s">
+      <c r="D4" s="268"/>
+      <c r="E4" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="268"/>
+      <c r="F4" s="269"/>
       <c r="G4" s="58" t="s">
         <v>118</v>
       </c>
@@ -21977,17 +21938,17 @@
       <c r="B5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="267" t="str">
+      <c r="C5" s="268" t="str">
         <f>C4&amp;"_"&amp;"System Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_System Test Report_v1.0</v>
       </c>
-      <c r="D5" s="267"/>
-      <c r="E5" s="268" t="s">
+      <c r="D5" s="268"/>
+      <c r="E5" s="269" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="268"/>
+      <c r="F5" s="269"/>
       <c r="G5" s="94" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H5" s="61"/>
     </row>
@@ -21996,12 +21957,12 @@
       <c r="B6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="269"/>
-      <c r="D6" s="269"/>
-      <c r="E6" s="269"/>
-      <c r="F6" s="269"/>
-      <c r="G6" s="269"/>
-      <c r="H6" s="269"/>
+      <c r="C6" s="270"/>
+      <c r="D6" s="270"/>
+      <c r="E6" s="270"/>
+      <c r="F6" s="270"/>
+      <c r="G6" s="270"/>
+      <c r="H6" s="270"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="55"/>
@@ -22120,7 +22081,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="120" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D13" s="130">
         <f>'Herbal medicine store'!A6</f>
@@ -22149,7 +22110,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="120" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D14" s="130">
         <f>'Personal Page'!A6</f>
@@ -22178,7 +22139,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="120" t="s">
-        <v>605</v>
+        <v>571</v>
       </c>
       <c r="D15" s="130">
         <f>Authentication!A6</f>
@@ -22190,7 +22151,7 @@
       </c>
       <c r="F15" s="130">
         <f>Authentication!C6</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G15" s="130">
         <f>Authentication!D6</f>
@@ -22198,7 +22159,7 @@
       </c>
       <c r="H15" s="130">
         <f>Authentication!E6</f>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.45" customHeight="1">
@@ -22207,7 +22168,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="120" t="s">
-        <v>751</v>
+        <v>694</v>
       </c>
       <c r="D16" s="130">
         <f>'Mod Module'!A6</f>
@@ -22219,7 +22180,7 @@
       </c>
       <c r="F16" s="130">
         <f>'Mod Module'!C6</f>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G16" s="130">
         <f>'Mod Module'!D6</f>
@@ -22227,7 +22188,7 @@
       </c>
       <c r="H16" s="130">
         <f>'Mod Module'!E6</f>
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.45" customHeight="1">
@@ -22236,7 +22197,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="120" t="s">
-        <v>752</v>
+        <v>695</v>
       </c>
       <c r="D17" s="130">
         <f>'Admin Module'!A6</f>
@@ -22315,7 +22276,7 @@
       </c>
       <c r="F22" s="117">
         <f>SUM(F11:F21)</f>
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G22" s="117">
         <f>SUM(G11:G21)</f>
@@ -22323,7 +22284,7 @@
       </c>
       <c r="H22" s="118">
         <f>SUM(H11:H21)</f>
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -22431,39 +22392,39 @@
       <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="273" t="s">
+      <c r="B3" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="273"/>
-      <c r="D3" s="267" t="str">
+      <c r="C3" s="274"/>
+      <c r="D3" s="268" t="str">
         <f>Cover!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
+      <c r="E3" s="268"/>
+      <c r="F3" s="268"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="273" t="s">
+      <c r="B4" s="274" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="273"/>
-      <c r="D4" s="267" t="str">
+      <c r="C4" s="274"/>
+      <c r="D4" s="268" t="str">
         <f>Cover!C5</f>
         <v>VMN</v>
       </c>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="268"/>
     </row>
     <row r="5" spans="2:6" s="39" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="271" t="s">
+      <c r="B5" s="272" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="271"/>
-      <c r="D5" s="272" t="s">
+      <c r="C5" s="272"/>
+      <c r="D5" s="273" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="272"/>
-      <c r="F5" s="272"/>
+      <c r="E5" s="273"/>
+      <c r="F5" s="273"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="40"/>
@@ -22501,10 +22462,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="127" t="s">
+        <v>345</v>
+      </c>
+      <c r="D9" s="122" t="s">
         <v>347</v>
-      </c>
-      <c r="D9" s="122" t="s">
-        <v>349</v>
       </c>
       <c r="E9" s="128"/>
       <c r="F9" s="129"/>
@@ -22514,10 +22475,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="127" t="s">
+        <v>346</v>
+      </c>
+      <c r="D10" s="165" t="s">
         <v>348</v>
-      </c>
-      <c r="D10" s="165" t="s">
-        <v>350</v>
       </c>
       <c r="E10" s="128"/>
       <c r="F10" s="129"/>
@@ -22527,10 +22488,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="127" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D11" s="165" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E11" s="129"/>
       <c r="F11" s="129"/>
@@ -22540,10 +22501,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="127" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D12" s="165" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E12" s="129"/>
       <c r="F12" s="129"/>
@@ -22553,10 +22514,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="127" t="s">
-        <v>605</v>
+        <v>571</v>
       </c>
       <c r="D13" s="165" t="s">
-        <v>605</v>
+        <v>571</v>
       </c>
       <c r="E13" s="129"/>
       <c r="F13" s="129"/>
@@ -22566,10 +22527,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="127" t="s">
-        <v>678</v>
+        <v>621</v>
       </c>
       <c r="D14" s="165" t="s">
-        <v>678</v>
+        <v>621</v>
       </c>
       <c r="E14" s="129"/>
       <c r="F14" s="129"/>
@@ -22579,10 +22540,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="127" t="s">
-        <v>750</v>
+        <v>693</v>
       </c>
       <c r="D15" s="165" t="s">
-        <v>750</v>
+        <v>693</v>
       </c>
       <c r="E15" s="129"/>
       <c r="F15" s="129"/>
@@ -22619,7 +22580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -22632,11 +22593,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A1" s="274" t="s">
+      <c r="A1" s="275" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="274"/>
-      <c r="C1" s="274"/>
+      <c r="B1" s="275"/>
+      <c r="C1" s="275"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:3" ht="15">
@@ -22941,8 +22902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW41"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -23220,14 +23181,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="275" t="s">
-        <v>511</v>
-      </c>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="277"/>
+      <c r="B2" s="276" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="277"/>
+      <c r="D2" s="277"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="277"/>
+      <c r="G2" s="278"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -23478,14 +23439,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="278" t="s">
-        <v>512</v>
-      </c>
-      <c r="C3" s="279"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="279"/>
-      <c r="F3" s="279"/>
-      <c r="G3" s="280"/>
+      <c r="B3" s="279" t="s">
+        <v>509</v>
+      </c>
+      <c r="C3" s="280"/>
+      <c r="D3" s="280"/>
+      <c r="E3" s="280"/>
+      <c r="F3" s="280"/>
+      <c r="G3" s="281"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -23736,14 +23697,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="278" t="s">
-        <v>780</v>
-      </c>
-      <c r="C4" s="279"/>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="280"/>
+      <c r="B4" s="279" t="s">
+        <v>722</v>
+      </c>
+      <c r="C4" s="280"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="281"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -24001,11 +23962,11 @@
       <c r="D5" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="281" t="s">
+      <c r="E5" s="282" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="282"/>
-      <c r="G5" s="283"/>
+      <c r="F5" s="283"/>
+      <c r="G5" s="284"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -24269,12 +24230,12 @@
         <f>COUNTIF(F12:G73,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="284">
+      <c r="E6" s="285">
         <f>COUNTA(A12:A73)</f>
         <v>18</v>
       </c>
-      <c r="F6" s="285"/>
-      <c r="G6" s="286"/>
+      <c r="F6" s="286"/>
+      <c r="G6" s="287"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -25555,7 +25516,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="51"/>
       <c r="B11" s="51" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -25810,13 +25771,13 @@
         <v>[Homepage-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>755</v>
+        <v>698</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>962</v>
+        <v>852</v>
       </c>
       <c r="E12" s="100"/>
       <c r="F12" s="95"/>
@@ -25831,13 +25792,13 @@
         <v>[Homepage-3]</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>756</v>
+        <v>699</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>962</v>
+        <v>852</v>
       </c>
       <c r="E13" s="103"/>
       <c r="F13" s="95"/>
@@ -25852,13 +25813,13 @@
         <v>[Homepage-4]</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>757</v>
+        <v>700</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>759</v>
+        <v>702</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>961</v>
+        <v>851</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="95"/>
@@ -25873,13 +25834,13 @@
         <v>[Homepage-5]</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>758</v>
+        <v>701</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>759</v>
+        <v>702</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>961</v>
+        <v>851</v>
       </c>
       <c r="E15" s="103"/>
       <c r="F15" s="95"/>
@@ -25894,13 +25855,13 @@
         <v>[Homepage-6]</v>
       </c>
       <c r="B16" s="227" t="s">
-        <v>776</v>
+        <v>718</v>
       </c>
       <c r="C16" s="106" t="s">
-        <v>760</v>
+        <v>703</v>
       </c>
       <c r="D16" s="227" t="s">
-        <v>779</v>
+        <v>721</v>
       </c>
       <c r="E16" s="103"/>
       <c r="F16" s="95"/>
@@ -25915,13 +25876,13 @@
         <v>[Homepage-7]</v>
       </c>
       <c r="B17" s="227" t="s">
-        <v>777</v>
+        <v>719</v>
       </c>
       <c r="C17" s="106" t="s">
-        <v>778</v>
+        <v>720</v>
       </c>
       <c r="D17" s="227" t="s">
-        <v>779</v>
+        <v>721</v>
       </c>
       <c r="E17" s="103"/>
       <c r="F17" s="95"/>
@@ -25936,13 +25897,13 @@
         <v>[Homepage-8]</v>
       </c>
       <c r="B18" s="227" t="s">
-        <v>963</v>
+        <v>853</v>
       </c>
       <c r="C18" s="106" t="s">
-        <v>754</v>
+        <v>697</v>
       </c>
       <c r="D18" s="227" t="s">
-        <v>969</v>
+        <v>976</v>
       </c>
       <c r="E18" s="103"/>
       <c r="F18" s="95"/>
@@ -25957,13 +25918,13 @@
         <v>[Homepage-9]</v>
       </c>
       <c r="B19" s="227" t="s">
-        <v>964</v>
+        <v>854</v>
       </c>
       <c r="C19" s="106" t="s">
-        <v>966</v>
+        <v>856</v>
       </c>
       <c r="D19" s="227" t="s">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="E19" s="103"/>
       <c r="F19" s="95"/>
@@ -25978,13 +25939,13 @@
         <v>[Homepage-10]</v>
       </c>
       <c r="B20" s="227" t="s">
-        <v>968</v>
+        <v>858</v>
       </c>
       <c r="C20" s="106" t="s">
-        <v>753</v>
+        <v>696</v>
       </c>
       <c r="D20" s="227" t="s">
-        <v>971</v>
+        <v>860</v>
       </c>
       <c r="E20" s="103"/>
       <c r="F20" s="95"/>
@@ -25999,13 +25960,13 @@
         <v>[Homepage-11]</v>
       </c>
       <c r="B21" s="227" t="s">
-        <v>965</v>
+        <v>855</v>
       </c>
       <c r="C21" s="106" t="s">
-        <v>967</v>
+        <v>857</v>
       </c>
       <c r="D21" s="227" t="s">
-        <v>970</v>
+        <v>859</v>
       </c>
       <c r="E21" s="103"/>
       <c r="F21" s="95"/>
@@ -26020,13 +25981,13 @@
         <v>[Homepage-12]</v>
       </c>
       <c r="B22" s="227" t="s">
-        <v>761</v>
+        <v>704</v>
       </c>
       <c r="C22" s="106" t="s">
-        <v>762</v>
+        <v>705</v>
       </c>
       <c r="D22" s="227" t="s">
-        <v>763</v>
+        <v>977</v>
       </c>
       <c r="E22" s="103"/>
       <c r="F22" s="95"/>
@@ -26041,13 +26002,13 @@
         <v>[Homepage-13]</v>
       </c>
       <c r="B23" s="109" t="s">
-        <v>783</v>
+        <v>725</v>
       </c>
       <c r="C23" s="109" t="s">
-        <v>766</v>
+        <v>708</v>
       </c>
       <c r="D23" s="109" t="s">
-        <v>769</v>
+        <v>711</v>
       </c>
       <c r="E23" s="103"/>
       <c r="F23" s="95"/>
@@ -26062,13 +26023,13 @@
         <v>[Homepage-14]</v>
       </c>
       <c r="B24" s="109" t="s">
-        <v>764</v>
+        <v>706</v>
       </c>
       <c r="C24" s="109" t="s">
-        <v>765</v>
+        <v>707</v>
       </c>
       <c r="D24" s="109" t="s">
-        <v>767</v>
+        <v>709</v>
       </c>
       <c r="E24" s="103"/>
       <c r="F24" s="95"/>
@@ -26083,13 +26044,13 @@
         <v>[Homepage-15]</v>
       </c>
       <c r="B25" s="251" t="s">
-        <v>797</v>
+        <v>734</v>
       </c>
       <c r="C25" s="227" t="s">
-        <v>768</v>
+        <v>710</v>
       </c>
       <c r="D25" s="227" t="s">
-        <v>770</v>
+        <v>712</v>
       </c>
       <c r="E25" s="226"/>
       <c r="F25" s="95"/>
@@ -26104,13 +26065,13 @@
         <v>[Homepage-16]</v>
       </c>
       <c r="B26" s="227" t="s">
-        <v>773</v>
+        <v>715</v>
       </c>
       <c r="C26" s="227" t="s">
-        <v>771</v>
+        <v>713</v>
       </c>
       <c r="D26" s="227" t="s">
-        <v>772</v>
+        <v>714</v>
       </c>
       <c r="E26" s="103"/>
       <c r="F26" s="97"/>
@@ -26125,13 +26086,13 @@
         <v>[Homepage-17]</v>
       </c>
       <c r="B27" s="252" t="s">
-        <v>774</v>
+        <v>716</v>
       </c>
       <c r="C27" s="227" t="s">
-        <v>775</v>
+        <v>717</v>
       </c>
       <c r="D27" s="227" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E27" s="103"/>
       <c r="F27" s="97"/>
@@ -26146,13 +26107,13 @@
         <v>[Homepage-18]</v>
       </c>
       <c r="B28" s="227" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C28" s="227" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D28" s="227" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E28" s="103"/>
       <c r="F28" s="97"/>
@@ -26167,13 +26128,13 @@
         <v>[Homepage-19]</v>
       </c>
       <c r="B29" s="227" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C29" s="227" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D29" s="227" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E29" s="103"/>
       <c r="F29" s="97"/>
@@ -26342,8 +26303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW78"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -26621,14 +26582,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="276" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="277"/>
+      <c r="C2" s="277"/>
+      <c r="D2" s="277"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="277"/>
+      <c r="G2" s="278"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -26879,14 +26840,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="278" t="s">
+      <c r="B3" s="279" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="279"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="279"/>
-      <c r="F3" s="279"/>
-      <c r="G3" s="280"/>
+      <c r="C3" s="280"/>
+      <c r="D3" s="280"/>
+      <c r="E3" s="280"/>
+      <c r="F3" s="280"/>
+      <c r="G3" s="281"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -27137,14 +27098,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="278" t="s">
+      <c r="B4" s="279" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="279"/>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="280"/>
+      <c r="C4" s="280"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="281"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -27402,11 +27363,11 @@
       <c r="D5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="281" t="s">
+      <c r="E5" s="282" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="282"/>
-      <c r="G5" s="283"/>
+      <c r="F5" s="283"/>
+      <c r="G5" s="284"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -27670,12 +27631,12 @@
         <f>COUNTIF(F12:G110,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="284">
+      <c r="E6" s="285">
         <f>COUNTA(A12:A110)</f>
         <v>57</v>
       </c>
-      <c r="F6" s="285"/>
-      <c r="G6" s="286"/>
+      <c r="F6" s="286"/>
+      <c r="G6" s="287"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -29358,13 +29319,13 @@
         <v>[Medicinal plants Article-9]</v>
       </c>
       <c r="B19" s="109" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C19" s="143" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D19" s="97" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E19" s="103"/>
       <c r="F19" s="95"/>
@@ -29400,13 +29361,13 @@
         <v>[Medicinal plants Article-11]</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D21" s="97" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E21" s="103"/>
       <c r="F21" s="97"/>
@@ -29442,13 +29403,13 @@
         <v>[Medicinal plants Article-13]</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D23" s="97" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E23" s="103"/>
       <c r="F23" s="97"/>
@@ -29484,13 +29445,13 @@
         <v>[Medicinal plants Article-15]</v>
       </c>
       <c r="B25" s="97" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D25" s="97" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E25" s="103"/>
       <c r="F25" s="97"/>
@@ -29526,13 +29487,13 @@
         <v>[Medicinal plants Article-17]</v>
       </c>
       <c r="B27" s="97" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D27" s="97" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E27" s="103"/>
       <c r="F27" s="97"/>
@@ -29568,13 +29529,13 @@
         <v>[Medicinal plants Article-19]</v>
       </c>
       <c r="B29" s="97" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D29" s="97" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E29" s="103"/>
       <c r="F29" s="97"/>
@@ -29610,13 +29571,13 @@
         <v>[Medicinal plants Article-21]</v>
       </c>
       <c r="B31" s="97" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D31" s="144" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E31" s="103"/>
       <c r="F31" s="97"/>
@@ -29630,13 +29591,13 @@
       <c r="B32" s="140" t="s">
         <v>186</v>
       </c>
-      <c r="C32" s="287"/>
-      <c r="D32" s="287"/>
-      <c r="E32" s="287"/>
-      <c r="F32" s="287"/>
-      <c r="G32" s="287"/>
-      <c r="H32" s="287"/>
-      <c r="I32" s="288"/>
+      <c r="C32" s="288"/>
+      <c r="D32" s="288"/>
+      <c r="E32" s="288"/>
+      <c r="F32" s="288"/>
+      <c r="G32" s="288"/>
+      <c r="H32" s="288"/>
+      <c r="I32" s="289"/>
       <c r="J32" s="90"/>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1">
@@ -29896,13 +29857,13 @@
       <c r="B45" s="158" t="s">
         <v>192</v>
       </c>
-      <c r="C45" s="289"/>
-      <c r="D45" s="289"/>
-      <c r="E45" s="289"/>
-      <c r="F45" s="289"/>
-      <c r="G45" s="289"/>
-      <c r="H45" s="289"/>
-      <c r="I45" s="290"/>
+      <c r="C45" s="290"/>
+      <c r="D45" s="290"/>
+      <c r="E45" s="290"/>
+      <c r="F45" s="290"/>
+      <c r="G45" s="290"/>
+      <c r="H45" s="290"/>
+      <c r="I45" s="291"/>
       <c r="J45" s="90"/>
     </row>
     <row r="46" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1">
@@ -29957,7 +29918,7 @@
         <v>210</v>
       </c>
       <c r="D48" s="106" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E48" s="174"/>
       <c r="F48" s="160"/>
@@ -29992,13 +29953,13 @@
       <c r="B50" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="291"/>
-      <c r="D50" s="291"/>
-      <c r="E50" s="291"/>
-      <c r="F50" s="291"/>
-      <c r="G50" s="291"/>
-      <c r="H50" s="291"/>
-      <c r="I50" s="291"/>
+      <c r="C50" s="292"/>
+      <c r="D50" s="292"/>
+      <c r="E50" s="292"/>
+      <c r="F50" s="292"/>
+      <c r="G50" s="292"/>
+      <c r="H50" s="292"/>
+      <c r="I50" s="292"/>
       <c r="J50" s="90"/>
     </row>
     <row r="51" spans="1:10" ht="14.25" customHeight="1">
@@ -30097,7 +30058,7 @@
         <v>210</v>
       </c>
       <c r="D55" s="139" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E55" s="150"/>
       <c r="F55" s="95"/>
@@ -30111,13 +30072,13 @@
       <c r="B56" s="141" t="s">
         <v>204</v>
       </c>
-      <c r="C56" s="291"/>
-      <c r="D56" s="291"/>
-      <c r="E56" s="291"/>
-      <c r="F56" s="291"/>
-      <c r="G56" s="291"/>
-      <c r="H56" s="291"/>
-      <c r="I56" s="291"/>
+      <c r="C56" s="292"/>
+      <c r="D56" s="292"/>
+      <c r="E56" s="292"/>
+      <c r="F56" s="292"/>
+      <c r="G56" s="292"/>
+      <c r="H56" s="292"/>
+      <c r="I56" s="292"/>
       <c r="J56" s="90"/>
     </row>
     <row r="57" spans="1:10" ht="14.25" customHeight="1">
@@ -30153,7 +30114,7 @@
         <v>225</v>
       </c>
       <c r="D58" s="97" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E58" s="146"/>
       <c r="F58" s="95"/>
@@ -30209,13 +30170,13 @@
       <c r="B61" s="141" t="s">
         <v>223</v>
       </c>
-      <c r="C61" s="291"/>
-      <c r="D61" s="291"/>
-      <c r="E61" s="291"/>
-      <c r="F61" s="291"/>
-      <c r="G61" s="291"/>
-      <c r="H61" s="291"/>
-      <c r="I61" s="291"/>
+      <c r="C61" s="292"/>
+      <c r="D61" s="292"/>
+      <c r="E61" s="292"/>
+      <c r="F61" s="292"/>
+      <c r="G61" s="292"/>
+      <c r="H61" s="292"/>
+      <c r="I61" s="292"/>
       <c r="J61" s="90"/>
     </row>
     <row r="62" spans="1:10" ht="14.25" customHeight="1">
@@ -30230,7 +30191,7 @@
         <v>210</v>
       </c>
       <c r="D62" s="181" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E62" s="174"/>
       <c r="F62" s="160"/>
@@ -30280,13 +30241,13 @@
         <v>[Medicinal plants Article-55]</v>
       </c>
       <c r="B65" s="214" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C65" s="180" t="s">
         <v>230</v>
       </c>
       <c r="D65" s="181" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E65" s="196"/>
       <c r="F65" s="160"/>
@@ -30301,7 +30262,7 @@
         <v>[Medicinal plants Article-56]</v>
       </c>
       <c r="B66" s="179" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C66" s="97" t="s">
         <v>232</v>
@@ -30319,7 +30280,7 @@
     <row r="67" spans="1:10" ht="14.25" customHeight="1">
       <c r="A67" s="145"/>
       <c r="B67" s="184" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C67" s="184"/>
       <c r="D67" s="182"/>
@@ -30336,13 +30297,13 @@
         <v>[Medicinal plants Article-58]</v>
       </c>
       <c r="B68" s="97" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C68" s="97" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D68" s="97" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E68" s="146"/>
       <c r="F68" s="97"/>
@@ -30357,13 +30318,13 @@
         <v>[Medicinal plants Article-59]</v>
       </c>
       <c r="B69" s="219" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C69" s="97" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D69" s="223" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E69" s="220"/>
       <c r="F69" s="185"/>
@@ -30375,7 +30336,7 @@
     <row r="70" spans="1:10" ht="14.25" customHeight="1">
       <c r="A70" s="145"/>
       <c r="B70" s="184" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C70" s="184"/>
       <c r="D70" s="182"/>
@@ -30392,13 +30353,13 @@
         <v>[Medicinal plants Article-61]</v>
       </c>
       <c r="B71" s="97" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C71" s="97" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D71" s="97" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E71" s="146"/>
       <c r="F71" s="95"/>
@@ -30413,13 +30374,13 @@
         <v>[Medicinal plants Article-62]</v>
       </c>
       <c r="B72" s="109" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C72" s="143" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D72" s="97" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E72" s="146"/>
       <c r="F72" s="95"/>
@@ -30434,13 +30395,13 @@
         <v>[Medicinal plants Article-63]</v>
       </c>
       <c r="B73" s="109" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C73" s="97" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D73" s="97" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E73" s="146"/>
       <c r="F73" s="95"/>
@@ -30455,13 +30416,13 @@
         <v>[Medicinal plants Article-64]</v>
       </c>
       <c r="B74" s="109" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C74" s="97" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D74" s="97" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E74" s="146"/>
       <c r="F74" s="95"/>
@@ -30476,13 +30437,13 @@
         <v>[Medicinal plants Article-65]</v>
       </c>
       <c r="B75" s="97" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C75" s="97" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D75" s="97" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E75" s="146"/>
       <c r="F75" s="95"/>
@@ -30497,13 +30458,13 @@
         <v>[Medicinal plants Article-66]</v>
       </c>
       <c r="B76" s="97" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C76" s="97" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D76" s="97" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E76" s="146"/>
       <c r="F76" s="95"/>
@@ -30529,16 +30490,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C50:I50"/>
+    <mergeCell ref="C56:I56"/>
+    <mergeCell ref="C61:I61"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="C50:I50"/>
-    <mergeCell ref="C56:I56"/>
-    <mergeCell ref="C61:I61"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:G31 F33:G44 F48:G49 F51:G55 F62:G63 F57:G60 F65:G66 F68:G69 F71:G77">
@@ -30558,12 +30519,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="17.375" style="90" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="90" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="90" customWidth="1"/>
     <col min="3" max="3" width="34.375" style="90" customWidth="1"/>
     <col min="4" max="4" width="25.375" style="90" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="90" customWidth="1"/>
@@ -30836,14 +30799,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="295" t="s">
+      <c r="B2" s="296" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="295"/>
-      <c r="D2" s="295"/>
-      <c r="E2" s="295"/>
-      <c r="F2" s="295"/>
-      <c r="G2" s="295"/>
+      <c r="C2" s="296"/>
+      <c r="D2" s="296"/>
+      <c r="E2" s="296"/>
+      <c r="F2" s="296"/>
+      <c r="G2" s="296"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -31094,14 +31057,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="295" t="s">
+      <c r="B3" s="296" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="295"/>
-      <c r="E3" s="295"/>
-      <c r="F3" s="295"/>
-      <c r="G3" s="295"/>
+      <c r="C3" s="296"/>
+      <c r="D3" s="296"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="296"/>
+      <c r="G3" s="296"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -31352,14 +31315,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="296" t="s">
+      <c r="B4" s="297" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="296"/>
-      <c r="D4" s="296"/>
-      <c r="E4" s="296"/>
-      <c r="F4" s="296"/>
-      <c r="G4" s="296"/>
+      <c r="C4" s="297"/>
+      <c r="D4" s="297"/>
+      <c r="E4" s="297"/>
+      <c r="F4" s="297"/>
+      <c r="G4" s="297"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -31617,11 +31580,11 @@
       <c r="D5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="297" t="s">
+      <c r="E5" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
+      <c r="F5" s="298"/>
+      <c r="G5" s="298"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -31885,12 +31848,12 @@
         <f>COUNTIF(F12:G162,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="298">
+      <c r="E6" s="299">
         <f>COUNTA(A12:A162)</f>
         <v>55</v>
       </c>
-      <c r="F6" s="298"/>
-      <c r="G6" s="298"/>
+      <c r="F6" s="299"/>
+      <c r="G6" s="299"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -33478,7 +33441,7 @@
         <v>235</v>
       </c>
       <c r="D14" s="166" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="109"/>
@@ -33807,13 +33770,13 @@
       <c r="B30" s="140" t="s">
         <v>186</v>
       </c>
-      <c r="C30" s="287"/>
-      <c r="D30" s="287"/>
-      <c r="E30" s="287"/>
-      <c r="F30" s="287"/>
-      <c r="G30" s="287"/>
-      <c r="H30" s="287"/>
-      <c r="I30" s="288"/>
+      <c r="C30" s="288"/>
+      <c r="D30" s="288"/>
+      <c r="E30" s="288"/>
+      <c r="F30" s="288"/>
+      <c r="G30" s="288"/>
+      <c r="H30" s="288"/>
+      <c r="I30" s="289"/>
       <c r="J30" s="90"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1">
@@ -33828,7 +33791,7 @@
         <v>342</v>
       </c>
       <c r="D31" s="97" t="s">
-        <v>343</v>
+        <v>975</v>
       </c>
       <c r="E31" s="146"/>
       <c r="F31" s="109"/>
@@ -33849,7 +33812,7 @@
         <v>264</v>
       </c>
       <c r="D32" s="97" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E32" s="146"/>
       <c r="F32" s="109"/>
@@ -34073,13 +34036,13 @@
       <c r="B43" s="158" t="s">
         <v>192</v>
       </c>
-      <c r="C43" s="287"/>
-      <c r="D43" s="287"/>
-      <c r="E43" s="287"/>
-      <c r="F43" s="287"/>
-      <c r="G43" s="287"/>
-      <c r="H43" s="287"/>
-      <c r="I43" s="288"/>
+      <c r="C43" s="288"/>
+      <c r="D43" s="288"/>
+      <c r="E43" s="288"/>
+      <c r="F43" s="288"/>
+      <c r="G43" s="288"/>
+      <c r="H43" s="288"/>
+      <c r="I43" s="289"/>
       <c r="J43" s="90"/>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1">
@@ -34094,7 +34057,7 @@
         <v>285</v>
       </c>
       <c r="D44" s="173" t="s">
-        <v>346</v>
+        <v>973</v>
       </c>
       <c r="E44" s="146"/>
       <c r="F44" s="109"/>
@@ -34136,9 +34099,11 @@
         <v>287</v>
       </c>
       <c r="D46" s="106" t="s">
-        <v>359</v>
-      </c>
-      <c r="E46" s="150"/>
+        <v>357</v>
+      </c>
+      <c r="E46" s="307" t="s">
+        <v>974</v>
+      </c>
       <c r="F46" s="95"/>
       <c r="G46" s="95"/>
       <c r="H46" s="199"/>
@@ -34159,7 +34124,9 @@
       <c r="D47" s="139" t="s">
         <v>288</v>
       </c>
-      <c r="E47" s="203"/>
+      <c r="E47" s="307" t="s">
+        <v>974</v>
+      </c>
       <c r="F47" s="203"/>
       <c r="G47" s="203"/>
       <c r="H47" s="203"/>
@@ -34168,16 +34135,16 @@
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1">
       <c r="A48" s="145"/>
-      <c r="B48" s="302" t="s">
+      <c r="B48" s="303" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="303"/>
-      <c r="D48" s="303"/>
-      <c r="E48" s="303"/>
-      <c r="F48" s="303"/>
-      <c r="G48" s="303"/>
-      <c r="H48" s="303"/>
-      <c r="I48" s="304"/>
+      <c r="C48" s="304"/>
+      <c r="D48" s="304"/>
+      <c r="E48" s="304"/>
+      <c r="F48" s="304"/>
+      <c r="G48" s="304"/>
+      <c r="H48" s="304"/>
+      <c r="I48" s="305"/>
       <c r="J48" s="90"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1">
@@ -34192,7 +34159,7 @@
         <v>289</v>
       </c>
       <c r="D49" s="194" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E49" s="204"/>
       <c r="F49" s="204"/>
@@ -34276,7 +34243,7 @@
         <v>287</v>
       </c>
       <c r="D53" s="97" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E53" s="146"/>
       <c r="F53" s="109"/>
@@ -34287,16 +34254,16 @@
     </row>
     <row r="54" spans="1:10" ht="14.25" customHeight="1">
       <c r="A54" s="145"/>
-      <c r="B54" s="299" t="s">
+      <c r="B54" s="300" t="s">
         <v>204</v>
       </c>
-      <c r="C54" s="300"/>
-      <c r="D54" s="300"/>
-      <c r="E54" s="300"/>
-      <c r="F54" s="300"/>
-      <c r="G54" s="300"/>
-      <c r="H54" s="300"/>
-      <c r="I54" s="301"/>
+      <c r="C54" s="301"/>
+      <c r="D54" s="301"/>
+      <c r="E54" s="301"/>
+      <c r="F54" s="301"/>
+      <c r="G54" s="301"/>
+      <c r="H54" s="301"/>
+      <c r="I54" s="302"/>
       <c r="J54" s="90"/>
     </row>
     <row r="55" spans="1:10" ht="14.25" customHeight="1">
@@ -34332,7 +34299,7 @@
         <v>298</v>
       </c>
       <c r="D56" s="97" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E56" s="146"/>
       <c r="F56" s="109"/>
@@ -34385,16 +34352,16 @@
     </row>
     <row r="59" spans="1:10" ht="14.25" customHeight="1">
       <c r="A59" s="145"/>
-      <c r="B59" s="299" t="s">
+      <c r="B59" s="300" t="s">
         <v>223</v>
       </c>
-      <c r="C59" s="300"/>
-      <c r="D59" s="300"/>
-      <c r="E59" s="300"/>
-      <c r="F59" s="300"/>
-      <c r="G59" s="300"/>
-      <c r="H59" s="300"/>
-      <c r="I59" s="301"/>
+      <c r="C59" s="301"/>
+      <c r="D59" s="301"/>
+      <c r="E59" s="301"/>
+      <c r="F59" s="301"/>
+      <c r="G59" s="301"/>
+      <c r="H59" s="301"/>
+      <c r="I59" s="302"/>
       <c r="J59" s="90"/>
     </row>
     <row r="60" spans="1:10" ht="14.25" customHeight="1">
@@ -34409,7 +34376,7 @@
         <v>287</v>
       </c>
       <c r="D60" s="139" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E60" s="168"/>
       <c r="F60" s="168"/>
@@ -34465,7 +34432,7 @@
         <v>305</v>
       </c>
       <c r="D63" s="181" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E63" s="196"/>
       <c r="F63" s="160"/>
@@ -34497,16 +34464,16 @@
     </row>
     <row r="65" spans="1:10" ht="14.25" customHeight="1">
       <c r="A65" s="145"/>
-      <c r="B65" s="292" t="s">
-        <v>449</v>
-      </c>
-      <c r="C65" s="293"/>
-      <c r="D65" s="293"/>
-      <c r="E65" s="293"/>
-      <c r="F65" s="293"/>
-      <c r="G65" s="293"/>
-      <c r="H65" s="293"/>
-      <c r="I65" s="294"/>
+      <c r="B65" s="293" t="s">
+        <v>446</v>
+      </c>
+      <c r="C65" s="294"/>
+      <c r="D65" s="294"/>
+      <c r="E65" s="294"/>
+      <c r="F65" s="294"/>
+      <c r="G65" s="294"/>
+      <c r="H65" s="294"/>
+      <c r="I65" s="295"/>
       <c r="J65" s="90"/>
     </row>
     <row r="66" spans="1:10" ht="12.75" customHeight="1">
@@ -34515,13 +34482,13 @@
         <v>[Remedy Article-56]</v>
       </c>
       <c r="B66" s="97" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C66" s="97" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D66" s="97" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E66" s="146"/>
       <c r="F66" s="146"/>
@@ -34536,13 +34503,13 @@
         <v>[Remedy Article-57]</v>
       </c>
       <c r="B67" s="97" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C67" s="97" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D67" s="208" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E67" s="146"/>
       <c r="F67" s="146"/>
@@ -34553,16 +34520,16 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="145"/>
-      <c r="B68" s="292" t="s">
-        <v>453</v>
-      </c>
-      <c r="C68" s="293"/>
-      <c r="D68" s="293"/>
-      <c r="E68" s="293"/>
-      <c r="F68" s="293"/>
-      <c r="G68" s="293"/>
-      <c r="H68" s="293"/>
-      <c r="I68" s="294"/>
+      <c r="B68" s="293" t="s">
+        <v>450</v>
+      </c>
+      <c r="C68" s="294"/>
+      <c r="D68" s="294"/>
+      <c r="E68" s="294"/>
+      <c r="F68" s="294"/>
+      <c r="G68" s="294"/>
+      <c r="H68" s="294"/>
+      <c r="I68" s="295"/>
     </row>
     <row r="69" spans="1:10" ht="12.75" customHeight="1">
       <c r="A69" s="96" t="str">
@@ -34570,13 +34537,13 @@
         <v>[Remedy Article-59]</v>
       </c>
       <c r="B69" s="97" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C69" s="97" t="s">
         <v>235</v>
       </c>
       <c r="D69" s="97" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E69" s="146"/>
       <c r="F69" s="146"/>
@@ -34590,13 +34557,13 @@
         <v>[Remedy Article-60]</v>
       </c>
       <c r="B70" s="97" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C70" s="97" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D70" s="97" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E70" s="146"/>
       <c r="F70" s="146"/>
@@ -34610,13 +34577,13 @@
         <v>[Remedy Article-61]</v>
       </c>
       <c r="B71" s="97" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C71" s="97" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D71" s="97" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E71" s="146"/>
       <c r="F71" s="146"/>
@@ -34630,13 +34597,13 @@
         <v>[Remedy Article-62]</v>
       </c>
       <c r="B72" s="97" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C72" s="97" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D72" s="97" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E72" s="146"/>
       <c r="F72" s="146"/>
@@ -34650,13 +34617,13 @@
         <v>[Remedy Article-63]</v>
       </c>
       <c r="B73" s="97" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C73" s="97" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D73" s="97" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E73" s="146"/>
       <c r="F73" s="146"/>
@@ -34670,13 +34637,13 @@
         <v>[Remedy Article-64]</v>
       </c>
       <c r="B74" s="97" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C74" s="97" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D74" s="97" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E74" s="146"/>
       <c r="F74" s="146"/>
@@ -34717,8 +34684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -34997,14 +34964,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="295" t="s">
-        <v>368</v>
-      </c>
-      <c r="C2" s="295"/>
-      <c r="D2" s="295"/>
-      <c r="E2" s="295"/>
-      <c r="F2" s="295"/>
-      <c r="G2" s="295"/>
+      <c r="B2" s="296" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2" s="296"/>
+      <c r="D2" s="296"/>
+      <c r="E2" s="296"/>
+      <c r="F2" s="296"/>
+      <c r="G2" s="296"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -35255,14 +35222,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="295" t="s">
-        <v>352</v>
-      </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="295"/>
-      <c r="E3" s="295"/>
-      <c r="F3" s="295"/>
-      <c r="G3" s="295"/>
+      <c r="B3" s="296" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="296"/>
+      <c r="D3" s="296"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="296"/>
+      <c r="G3" s="296"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -35513,14 +35480,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="296" t="s">
+      <c r="B4" s="297" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="296"/>
-      <c r="D4" s="296"/>
-      <c r="E4" s="296"/>
-      <c r="F4" s="296"/>
-      <c r="G4" s="296"/>
+      <c r="C4" s="297"/>
+      <c r="D4" s="297"/>
+      <c r="E4" s="297"/>
+      <c r="F4" s="297"/>
+      <c r="G4" s="297"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -35778,11 +35745,11 @@
       <c r="D5" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="297" t="s">
+      <c r="E5" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
+      <c r="F5" s="298"/>
+      <c r="G5" s="298"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -36046,12 +36013,12 @@
         <f>COUNTIF(F12:G123,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="298">
+      <c r="E6" s="299">
         <f>COUNTA(A12:A126)</f>
         <v>12</v>
       </c>
-      <c r="F6" s="298"/>
-      <c r="G6" s="298"/>
+      <c r="F6" s="299"/>
+      <c r="G6" s="299"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -37334,7 +37301,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="51"/>
       <c r="B11" s="51" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -37591,13 +37558,13 @@
         <v>[Herbal medicine store-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C12" s="109" t="s">
-        <v>376</v>
-      </c>
-      <c r="D12" s="95" t="s">
-        <v>377</v>
+        <v>978</v>
+      </c>
+      <c r="D12" s="308" t="s">
+        <v>374</v>
       </c>
       <c r="E12" s="98"/>
       <c r="F12" s="109"/>
@@ -37612,13 +37579,13 @@
         <v>[Herbal medicine store-3]</v>
       </c>
       <c r="B13" s="139" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C13" s="142" t="s">
-        <v>376</v>
-      </c>
-      <c r="D13" s="97" t="s">
-        <v>378</v>
+        <v>978</v>
+      </c>
+      <c r="D13" s="208" t="s">
+        <v>375</v>
       </c>
       <c r="E13" s="103"/>
       <c r="F13" s="109"/>
@@ -37633,13 +37600,13 @@
         <v>[Herbal medicine store-4]</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C14" s="143" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D14" s="166" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="109"/>
@@ -37651,7 +37618,7 @@
     <row r="15" spans="1:257" ht="14.25" customHeight="1">
       <c r="A15" s="51"/>
       <c r="B15" s="51" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C15" s="52"/>
       <c r="D15" s="52"/>
@@ -37908,13 +37875,13 @@
         <v>[Herbal medicine store-6]</v>
       </c>
       <c r="B16" s="109" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C16" s="143" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>973</v>
+        <v>862</v>
       </c>
       <c r="E16" s="188"/>
       <c r="F16" s="109"/>
@@ -37929,13 +37896,13 @@
         <v>[Herbal medicine store-7]</v>
       </c>
       <c r="B17" s="109" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C17" s="143" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>973</v>
+        <v>862</v>
       </c>
       <c r="E17" s="168"/>
       <c r="F17" s="168"/>
@@ -37950,13 +37917,13 @@
         <v>[Herbal medicine store-8]</v>
       </c>
       <c r="B18" s="109" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C18" s="143" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D18" s="208" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E18" s="168"/>
       <c r="F18" s="189"/>
@@ -37971,13 +37938,13 @@
         <v>[Herbal medicine store-9]</v>
       </c>
       <c r="B19" s="109" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C19" s="143" t="s">
+        <v>378</v>
+      </c>
+      <c r="D19" s="208" t="s">
         <v>381</v>
-      </c>
-      <c r="D19" s="208" t="s">
-        <v>384</v>
       </c>
       <c r="E19" s="190"/>
       <c r="F19" s="109"/>
@@ -37992,13 +37959,13 @@
         <v>[Herbal medicine store-10]</v>
       </c>
       <c r="B20" s="109" t="s">
+        <v>382</v>
+      </c>
+      <c r="C20" s="143" t="s">
+        <v>383</v>
+      </c>
+      <c r="D20" s="97" t="s">
         <v>385</v>
-      </c>
-      <c r="C20" s="143" t="s">
-        <v>386</v>
-      </c>
-      <c r="D20" s="97" t="s">
-        <v>388</v>
       </c>
       <c r="E20" s="190"/>
       <c r="F20" s="109"/>
@@ -38013,13 +37980,13 @@
         <v>[Herbal medicine store-11]</v>
       </c>
       <c r="B21" s="109" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C21" s="143" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D21" s="97" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E21" s="190"/>
       <c r="F21" s="109"/>
@@ -38048,13 +38015,13 @@
         <v>[Herbal medicine store-13]</v>
       </c>
       <c r="B23" s="109" t="s">
+        <v>389</v>
+      </c>
+      <c r="C23" s="209" t="s">
+        <v>393</v>
+      </c>
+      <c r="D23" s="97" t="s">
         <v>392</v>
-      </c>
-      <c r="C23" s="209" t="s">
-        <v>396</v>
-      </c>
-      <c r="D23" s="97" t="s">
-        <v>395</v>
       </c>
       <c r="E23" s="168"/>
       <c r="F23" s="168"/>
@@ -38069,13 +38036,13 @@
         <v>[Herbal medicine store-14]</v>
       </c>
       <c r="B24" s="109" t="s">
+        <v>390</v>
+      </c>
+      <c r="C24" s="143" t="s">
         <v>393</v>
       </c>
-      <c r="C24" s="143" t="s">
-        <v>396</v>
-      </c>
       <c r="D24" s="97" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E24" s="168"/>
       <c r="F24" s="189"/>
@@ -38089,8 +38056,8 @@
       <c r="B25" s="141" t="s">
         <v>223</v>
       </c>
-      <c r="C25" s="287"/>
-      <c r="D25" s="288"/>
+      <c r="C25" s="288"/>
+      <c r="D25" s="289"/>
       <c r="E25" s="192"/>
       <c r="F25" s="109"/>
       <c r="G25" s="109"/>
@@ -38107,10 +38074,10 @@
         <v>226</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D26" s="97" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E26" s="192"/>
       <c r="F26" s="109"/>
@@ -38151,8 +38118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW53"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -38431,14 +38398,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="295" t="s">
-        <v>399</v>
-      </c>
-      <c r="C2" s="295"/>
-      <c r="D2" s="295"/>
-      <c r="E2" s="295"/>
-      <c r="F2" s="295"/>
-      <c r="G2" s="295"/>
+      <c r="B2" s="296" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" s="296"/>
+      <c r="D2" s="296"/>
+      <c r="E2" s="296"/>
+      <c r="F2" s="296"/>
+      <c r="G2" s="296"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -38689,14 +38656,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="295" t="s">
-        <v>400</v>
-      </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="295"/>
-      <c r="E3" s="295"/>
-      <c r="F3" s="295"/>
-      <c r="G3" s="295"/>
+      <c r="B3" s="296" t="s">
+        <v>397</v>
+      </c>
+      <c r="C3" s="296"/>
+      <c r="D3" s="296"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="296"/>
+      <c r="G3" s="296"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -38947,14 +38914,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="296" t="s">
+      <c r="B4" s="297" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="296"/>
-      <c r="D4" s="296"/>
-      <c r="E4" s="296"/>
-      <c r="F4" s="296"/>
-      <c r="G4" s="296"/>
+      <c r="C4" s="297"/>
+      <c r="D4" s="297"/>
+      <c r="E4" s="297"/>
+      <c r="F4" s="297"/>
+      <c r="G4" s="297"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -39212,11 +39179,11 @@
       <c r="D5" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="297" t="s">
+      <c r="E5" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
+      <c r="F5" s="298"/>
+      <c r="G5" s="298"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -39480,12 +39447,12 @@
         <f>COUNTIF(F12:G127,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="298">
+      <c r="E6" s="299">
         <f>COUNTA(A12:A127)</f>
         <v>30</v>
       </c>
-      <c r="F6" s="298"/>
-      <c r="G6" s="298"/>
+      <c r="F6" s="299"/>
+      <c r="G6" s="299"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -40768,7 +40735,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="51"/>
       <c r="B11" s="51" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -41025,13 +40992,13 @@
         <v>[Personal Page-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C12" s="109" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D12" s="95" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E12" s="98"/>
       <c r="F12" s="109"/>
@@ -41046,13 +41013,13 @@
         <v>[Personal Page-3]</v>
       </c>
       <c r="B13" s="139" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C13" s="142" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E13" s="103"/>
       <c r="F13" s="109"/>
@@ -41064,7 +41031,7 @@
     <row r="14" spans="1:257" ht="14.25" customHeight="1">
       <c r="A14" s="51"/>
       <c r="B14" s="51" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -41081,13 +41048,13 @@
         <v>[Personal Page-5]</v>
       </c>
       <c r="B15" s="210" t="s">
+        <v>416</v>
+      </c>
+      <c r="C15" s="143" t="s">
+        <v>418</v>
+      </c>
+      <c r="D15" s="97" t="s">
         <v>419</v>
-      </c>
-      <c r="C15" s="143" t="s">
-        <v>421</v>
-      </c>
-      <c r="D15" s="97" t="s">
-        <v>422</v>
       </c>
       <c r="E15" s="107"/>
       <c r="F15" s="95"/>
@@ -41102,13 +41069,13 @@
         <v>[Personal Page-6]</v>
       </c>
       <c r="B16" s="109" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C16" s="143" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E16" s="200"/>
       <c r="F16" s="97"/>
@@ -41120,7 +41087,7 @@
     <row r="17" spans="1:10" ht="14.25" customHeight="1">
       <c r="A17" s="51"/>
       <c r="B17" s="51" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C17" s="52"/>
       <c r="D17" s="52"/>
@@ -41137,13 +41104,13 @@
         <v>[Personal Page-8]</v>
       </c>
       <c r="B18" s="109" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C18" s="143" t="s">
+        <v>402</v>
+      </c>
+      <c r="D18" s="97" t="s">
         <v>405</v>
-      </c>
-      <c r="D18" s="97" t="s">
-        <v>408</v>
       </c>
       <c r="E18" s="168"/>
       <c r="F18" s="168"/>
@@ -41158,13 +41125,13 @@
         <v>[Personal Page-9]</v>
       </c>
       <c r="B19" s="109" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C19" s="143" t="s">
         <v>325</v>
       </c>
       <c r="D19" s="97" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E19" s="201"/>
       <c r="F19" s="197"/>
@@ -41176,7 +41143,7 @@
     <row r="20" spans="1:10" ht="14.25" customHeight="1">
       <c r="A20" s="51"/>
       <c r="B20" s="51" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C20" s="52"/>
       <c r="D20" s="52"/>
@@ -41193,13 +41160,13 @@
         <v>[Personal Page-11]</v>
       </c>
       <c r="B21" s="109" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C21" s="143" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D21" s="97" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E21" s="153"/>
       <c r="F21" s="95"/>
@@ -41214,13 +41181,13 @@
         <v>[Personal Page-12]</v>
       </c>
       <c r="B22" s="109" t="s">
+        <v>409</v>
+      </c>
+      <c r="C22" s="143" t="s">
+        <v>410</v>
+      </c>
+      <c r="D22" s="97" t="s">
         <v>412</v>
-      </c>
-      <c r="C22" s="143" t="s">
-        <v>413</v>
-      </c>
-      <c r="D22" s="97" t="s">
-        <v>415</v>
       </c>
       <c r="E22" s="190"/>
       <c r="F22" s="97"/>
@@ -41232,7 +41199,7 @@
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
       <c r="A23" s="51"/>
       <c r="B23" s="51" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C23" s="52"/>
       <c r="D23" s="52"/>
@@ -41249,13 +41216,13 @@
         <v>[Personal Page-14]</v>
       </c>
       <c r="B24" s="109" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C24" s="143" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D24" s="208" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E24" s="168"/>
       <c r="F24" s="168"/>
@@ -41270,13 +41237,13 @@
         <v>[Personal Page-15]</v>
       </c>
       <c r="B25" s="109" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C25" s="143" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D25" s="97" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E25" s="192"/>
       <c r="F25" s="197"/>
@@ -41291,13 +41258,13 @@
         <v>[Personal Page-16]</v>
       </c>
       <c r="B26" s="109" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C26" s="143" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D26" s="97" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E26" s="212"/>
       <c r="F26" s="95"/>
@@ -41312,13 +41279,13 @@
         <v>[Personal Page-17]</v>
       </c>
       <c r="B27" s="109" t="s">
+        <v>427</v>
+      </c>
+      <c r="C27" s="143" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="143" t="s">
-        <v>433</v>
-      </c>
       <c r="D27" s="97" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E27" s="146"/>
       <c r="F27" s="97"/>
@@ -41333,13 +41300,13 @@
         <v>[Personal Page-18]</v>
       </c>
       <c r="B28" s="95" t="s">
+        <v>429</v>
+      </c>
+      <c r="C28" s="142" t="s">
+        <v>431</v>
+      </c>
+      <c r="D28" s="139" t="s">
         <v>432</v>
-      </c>
-      <c r="C28" s="142" t="s">
-        <v>434</v>
-      </c>
-      <c r="D28" s="139" t="s">
-        <v>435</v>
       </c>
       <c r="E28" s="146"/>
       <c r="F28" s="97"/>
@@ -41354,13 +41321,13 @@
         <v>[Personal Page-19]</v>
       </c>
       <c r="B29" s="97" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D29" s="97" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E29" s="168"/>
       <c r="F29" s="168"/>
@@ -41375,13 +41342,13 @@
         <v>[Personal Page-20]</v>
       </c>
       <c r="B30" s="97" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C30" s="211" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D30" s="211" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E30" s="146"/>
       <c r="F30" s="146"/>
@@ -41396,13 +41363,13 @@
         <v>[Personal Page-21]</v>
       </c>
       <c r="B31" s="211" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C31" s="211" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D31" s="211" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E31" s="146"/>
       <c r="F31" s="146"/>
@@ -41417,13 +41384,13 @@
         <v>[Personal Page-22]</v>
       </c>
       <c r="B32" s="211" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C32" s="211" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D32" s="211" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E32" s="146"/>
       <c r="F32" s="146"/>
@@ -41434,7 +41401,7 @@
     <row r="33" spans="1:9">
       <c r="A33" s="51"/>
       <c r="B33" s="51" t="s">
-        <v>856</v>
+        <v>789</v>
       </c>
       <c r="C33" s="213"/>
       <c r="D33" s="213"/>
@@ -41450,13 +41417,13 @@
         <v>[Personal Page-24]</v>
       </c>
       <c r="B34" s="143" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
       <c r="C34" s="97" t="s">
-        <v>858</v>
+        <v>791</v>
       </c>
       <c r="D34" s="261" t="s">
-        <v>859</v>
+        <v>792</v>
       </c>
       <c r="E34" s="168"/>
       <c r="F34" s="168"/>
@@ -41470,13 +41437,13 @@
         <v>[Personal Page-25]</v>
       </c>
       <c r="B35" s="143" t="s">
-        <v>860</v>
+        <v>793</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>861</v>
+        <v>794</v>
       </c>
       <c r="D35" s="97" t="s">
-        <v>862</v>
+        <v>795</v>
       </c>
       <c r="E35" s="192"/>
       <c r="F35" s="97"/>
@@ -41490,13 +41457,13 @@
         <v>[Personal Page-26]</v>
       </c>
       <c r="B36" s="143" t="s">
-        <v>863</v>
+        <v>796</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>864</v>
+        <v>797</v>
       </c>
       <c r="D36" s="97" t="s">
-        <v>888</v>
+        <v>821</v>
       </c>
       <c r="E36" s="192"/>
       <c r="F36" s="97"/>
@@ -41510,13 +41477,13 @@
         <v>[Personal Page-27]</v>
       </c>
       <c r="B37" s="143" t="s">
-        <v>886</v>
+        <v>819</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>887</v>
+        <v>820</v>
       </c>
       <c r="D37" s="97" t="s">
-        <v>888</v>
+        <v>821</v>
       </c>
       <c r="E37" s="192"/>
       <c r="F37" s="97"/>
@@ -41530,13 +41497,13 @@
         <v>[Personal Page-28]</v>
       </c>
       <c r="B38" s="143" t="s">
-        <v>871</v>
+        <v>804</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>866</v>
+        <v>799</v>
       </c>
       <c r="D38" s="97" t="s">
-        <v>865</v>
+        <v>798</v>
       </c>
       <c r="E38" s="146"/>
       <c r="F38" s="97"/>
@@ -41550,13 +41517,13 @@
         <v>[Personal Page-29]</v>
       </c>
       <c r="B39" s="142" t="s">
-        <v>870</v>
+        <v>803</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="D39" s="97" t="s">
-        <v>868</v>
+        <v>801</v>
       </c>
       <c r="E39" s="146"/>
       <c r="F39" s="97"/>
@@ -41570,13 +41537,13 @@
         <v>[Personal Page-30]</v>
       </c>
       <c r="B40" s="244" t="s">
-        <v>869</v>
+        <v>802</v>
       </c>
       <c r="C40" s="97" t="s">
-        <v>872</v>
+        <v>805</v>
       </c>
       <c r="D40" s="97" t="s">
-        <v>873</v>
+        <v>806</v>
       </c>
       <c r="E40" s="168"/>
       <c r="F40" s="168"/>
@@ -41590,13 +41557,13 @@
         <v>[Personal Page-31]</v>
       </c>
       <c r="B41" s="244" t="s">
-        <v>874</v>
+        <v>807</v>
       </c>
       <c r="C41" s="211" t="s">
-        <v>875</v>
+        <v>808</v>
       </c>
       <c r="D41" s="211" t="s">
-        <v>876</v>
+        <v>809</v>
       </c>
       <c r="E41" s="146"/>
       <c r="F41" s="146"/>
@@ -41610,13 +41577,13 @@
         <v>[Personal Page-32]</v>
       </c>
       <c r="B42" s="211" t="s">
-        <v>877</v>
+        <v>810</v>
       </c>
       <c r="C42" s="211" t="s">
-        <v>878</v>
+        <v>811</v>
       </c>
       <c r="D42" s="211" t="s">
-        <v>879</v>
+        <v>812</v>
       </c>
       <c r="E42" s="146"/>
       <c r="F42" s="146"/>
@@ -41630,13 +41597,13 @@
         <v>[Personal Page-33]</v>
       </c>
       <c r="B43" s="211" t="s">
-        <v>880</v>
+        <v>813</v>
       </c>
       <c r="C43" s="211" t="s">
-        <v>881</v>
+        <v>814</v>
       </c>
       <c r="D43" s="211" t="s">
-        <v>882</v>
+        <v>815</v>
       </c>
       <c r="E43" s="146"/>
       <c r="F43" s="146"/>
@@ -41650,13 +41617,13 @@
         <v>[Personal Page-34]</v>
       </c>
       <c r="B44" s="211" t="s">
-        <v>883</v>
+        <v>816</v>
       </c>
       <c r="C44" s="211" t="s">
-        <v>884</v>
+        <v>817</v>
       </c>
       <c r="D44" s="211" t="s">
-        <v>885</v>
+        <v>818</v>
       </c>
       <c r="E44" s="146"/>
       <c r="F44" s="146"/>
@@ -41670,13 +41637,13 @@
         <v>[Personal Page-35]</v>
       </c>
       <c r="B45" s="211" t="s">
-        <v>877</v>
+        <v>810</v>
       </c>
       <c r="C45" s="211" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D45" s="211" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E45" s="146"/>
       <c r="F45" s="146"/>
@@ -41690,13 +41657,13 @@
         <v>[Personal Page-36]</v>
       </c>
       <c r="B46" s="97" t="s">
-        <v>889</v>
+        <v>822</v>
       </c>
       <c r="C46" s="211" t="s">
-        <v>890</v>
+        <v>823</v>
       </c>
       <c r="D46" s="211" t="s">
-        <v>891</v>
+        <v>824</v>
       </c>
       <c r="E46" s="146"/>
       <c r="F46" s="146"/>

--- a/WIP/Deliverable/Report3/VMN_System Test Case_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report3/VMN_System Test Case_v1.0_EN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" tabRatio="840" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" tabRatio="840" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="1003">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -3283,37 +3283,6 @@
     <t>1. Go to vmn.com</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Medicinal plants/Remedy detail page is displayed </t>
-  </si>
-  <si>
-    <t>Test Medicinal plants detail page view</t>
-  </si>
-  <si>
-    <t>1. Click title or image or button "Medicinal plants detail" in  slider</t>
-  </si>
-  <si>
-    <t>1. Medicinal plants detail page is displayed include:
-- Header
-- Slider
-- Search bar
-- Medicinal plants list
-- Footer</t>
-  </si>
-  <si>
-    <t>Test Remedy detail page view</t>
-  </si>
-  <si>
-    <t>1. Click title or image or button Remedy detail" in  slider</t>
-  </si>
-  <si>
-    <t>1. Remedy detail page is displayed include:
-- Header
-- Slider
-- Search bar
-- Remedy list
-- Footer</t>
-  </si>
-  <si>
     <t>Log in</t>
   </si>
   <si>
@@ -3321,9 +3290,6 @@
   </si>
   <si>
     <t>Log out</t>
-  </si>
-  <si>
-    <t>Register</t>
   </si>
   <si>
     <t>1. The Homepage is displayed
@@ -3683,131 +3649,6 @@
     <t>Forgot Password</t>
   </si>
   <si>
-    <t>Test viewing "Forgot password" page in 1366x768 screen resolution</t>
-  </si>
-  <si>
-    <t>1. Enter the website: http://www.dandelion.com
-2. Click on "Login" button on Homepage
-3. Click on "Forgot password" link</t>
-  </si>
-  <si>
-    <t>1. The Homepage is displayed
-2. The Login page is displayed
-3. Display "Forgot password" page with information following list :
-- "Email" textbox
-- "Sent" button disabled</t>
-  </si>
-  <si>
-    <t>Test viewing "Forgot password" page in 1024x768 screen resolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check "Sent" button </t>
-  </si>
-  <si>
-    <t>1. Enter the website: http://www.dandelion.com
-2. Click on "Login" button on Homepage
-3. Click on "Forgot password" link
-4. Click "Sent" button</t>
-  </si>
-  <si>
-    <t>1. The Homepage is displayed
-2. The Login page is displayed
-3. Display "Forgot password" page
-4. Sent button can not click (disabled)</t>
-  </si>
-  <si>
-    <t>Check user forgot password when user input is empty email</t>
-  </si>
-  <si>
-    <t>1. Enter the website: http://www.dandelion.com
-2. Click on "Login" button on Homepage
-3. Click on "Forgot password" link
-4. Input " "
-5. Click "Sent" button</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. The Homepage is displayed
-2. The Login page is displayed
-3. Display "Forgot password" page
-4. Display error message </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">MS01
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>5. Sent button can not click (disabled)</t>
-    </r>
-  </si>
-  <si>
-    <t>Check user forgot password when user input special character on emai feildl</t>
-  </si>
-  <si>
-    <t>1. Enter the website: http://www.dandelion.com
-2. Click on "Login" button on Homepage
-3. Click on "Forgot password" link
-4. Input "~!@#$%^&amp;*()"
-5. Click "Sent" button</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. The Homepage is displayed
-2. The Login page is displayed
-3. Display "Forgot password" page
-4. Display error message </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">MS02
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>5. Sent button can not click (disabled)</t>
-    </r>
-  </si>
-  <si>
-    <t>Check user forgot password when user input valid email which used to regsiter account</t>
-  </si>
-  <si>
-    <t>1. Enter the website: http://www.dandelion.com
-2. Click on "Login" button on Homepage
-3. Click on "Forgot password" link
-4. Input chinhvcse02585@fpt.edu.vn
-5. Click "Sent" button</t>
-  </si>
-  <si>
-    <t>1. The Homepage is displayed
-2. The Login page is displayed
-3. Display "Forgot password" page
-5. "New password" is sent email to chinhvcse02585@gmail.com</t>
-  </si>
-  <si>
     <t>Authentication</t>
   </si>
   <si>
@@ -3817,34 +3658,10 @@
     <t>KhanhTBse</t>
   </si>
   <si>
-    <t>Test viewing "Login" form</t>
-  </si>
-  <si>
-    <t>Check "Login" button</t>
-  </si>
-  <si>
     <t>Check "Username" textbox</t>
   </si>
   <si>
     <t>Check "Password" textbox</t>
-  </si>
-  <si>
-    <t>When user input correct username and password</t>
-  </si>
-  <si>
-    <t>When user input only username to login</t>
-  </si>
-  <si>
-    <t>When user input only password to login</t>
-  </si>
-  <si>
-    <t>When user input correct username and wrong password</t>
-  </si>
-  <si>
-    <t>When user input wrong username and correct password</t>
-  </si>
-  <si>
-    <t>When user input wrong username and wrong password</t>
   </si>
   <si>
     <t xml:space="preserve">1. Mod Page is displayed
@@ -3930,9 +3747,6 @@
 4. Edited medicinal plants is Approved/Ignored</t>
   </si>
   <si>
-    <t>Test Mod when admin click pagging button</t>
-  </si>
-  <si>
     <t>1. Mod page is displayed
 2. Medicinal plants management Page is displayed
 3. Medicinal plants list show correct (1 page = 5 medicinal plants)</t>
@@ -4017,13 +3831,6 @@
     <t>Test Mod when Mod Approve/Ignore new remedy</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Enter the Mod page
-2. Click Remedy management button
-3. Click View button in Tab new remedy
-4. Click Approve/Ignore
-</t>
-  </si>
-  <si>
     <t>1. Mod page is displayed
 2. Remedy management Page is displayed
 3. New remedy detail is displayed
@@ -4033,35 +3840,18 @@
     <t>Test Mod when Mod Approve/Ignore Edited remedy</t>
   </si>
   <si>
-    <t>1. Enter the Mod page
-2. Click Remedy management button
-3. Click View button in Tab edited remedy
-4. Click Approve/Ignore</t>
-  </si>
-  <si>
     <t>1. Mod page is displayed
 2. Remedy management Page is displayed
 3. Edited remedy detail is displayed
 4. Edited remedy is Approved/Ignored</t>
   </si>
   <si>
-    <t>1. Enter the mod page
-2. Click remedy management button
-3. Click pagging button</t>
-  </si>
-  <si>
     <t>1. Mod page is displayed
 2. Remedy management Page is displayed
 3. Remedy list show correct (1 page = 5 medicinal plants)</t>
   </si>
   <si>
     <t>Test Mod when Mod Approve/Ignore Reported remedy</t>
-  </si>
-  <si>
-    <t>1. Enter the Mod page
-2. Click Remedy management button
-3. Click View button in Tab Reported remedy
-4. Click Approve/Ignore</t>
   </si>
   <si>
     <t>1. Mod page is displayed
@@ -4074,360 +3864,6 @@
   </si>
   <si>
     <t>This test cases were created to test Mod module.</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.The admin page view form is displayed with the following informaion:
-- "Username" field
-- "Password" field
-- Remember me button
-- Forgot Password hyperlink
-- "Login" button
-</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Click on "Login" button</t>
-  </si>
-  <si>
-    <t>1.The admin page is displayed 
-2. Display error message
-"The Username field is required" below the Username textbox
-"The Password field is required" below the Password textbox</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Click "Username" field</t>
-  </si>
-  <si>
-    <t>1.The admin page is displayed 
-2. Pointer is flickered in "Username" textbox</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Click "Password" field</t>
-  </si>
-  <si>
-    <t>1.The admin page is displayed 
-2. Pointer is flickered in "Password" textbox</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Input data to "Password" field</t>
-  </si>
-  <si>
-    <t>1.The admin page is displayed 
-2. Data is encoded</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Input username "email0@gmail.com" password "123456", then click "Login" button</t>
-  </si>
-  <si>
-    <t>1.The admin page is displayed 
-2. Logged in successfully, The "Admin" page is displayed</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Input username "email0@gmail.com", password "" then click "Login" button</t>
-  </si>
-  <si>
-    <t>1.The admin page is displayed 
-2. Display error message "The Password field is required"</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Input username "", password "123456789"  then click "Login" button</t>
-  </si>
-  <si>
-    <t>1.The admin page is displayed 
-2. Display error message "The Username field is required"</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Input username "email0@gmail.com" and password "fsdfs", then click "Login" button</t>
-  </si>
-  <si>
-    <t>1.The admin page is displayed 
-2. Display error message "Username or Password wrong"</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Input username and password, then click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Input wrong username "fsdfsd" and password "123456789", then click "Login" button</t>
-  </si>
-  <si>
-    <t>Test Admin view in 1366x768 screen</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Loggin with Admin rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Admin Page is displayed with the following list:
-- Header
-- Right Header:
-+ Logout button
-- Dashboard
-+ Total User
-+ Total Drugstore
-+ Total Approve
-+ Total Access
-- Content details left
-+ Dashboard (default)
-+ User management
-+ New Drugstore list
-</t>
-  </si>
-  <si>
-    <t>Test Admin view in 1024x768 screen</t>
-  </si>
-  <si>
-    <t>Test Admin when admin click Logout button</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Click logout button in Right Header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Admin Page is displayed
-2. Return log in Page is displayed
-</t>
-  </si>
-  <si>
-    <t>Test Admin when admin click Dashboard button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enter the admin page
-2. Click Dashboard button
-</t>
-  </si>
-  <si>
-    <t>1. Admin Page is displayed
-2. Content about dashboard is displayed with list following:
-- Total Users
-- Total Drugstore
-- Total Approve
-- Total Access
-(Use database to test data is correct/false)</t>
-  </si>
-  <si>
-    <t>Test Admin when admin click View button in Total User</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Click Dashboard button
-3. Click View button in Total User</t>
-  </si>
-  <si>
-    <t>1. Admin Page is displayed
-2. Dashboard Page is displayed
-3. User management Page is displayed with the folowing list: 
-- Search bar
-- 5 tab (Acccount, Email, Full name, Level, Action)
-- Pagging(1 page = 10 account)</t>
-  </si>
-  <si>
-    <t>Test Admin when admin click View button in Total Drugstore</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Click Dashboard button
-3. Click View button in Total Drugstore</t>
-  </si>
-  <si>
-    <t>1. Admin Page is displayed
-2. Dashboard Page is displayed
-3. User management Page is displayed with the folowing list: 
-- Search bar
-- 5 tab (Acccount, Email, Full name, Level="Drugstore", Action)
-- Pagging(1 page = 10 account)</t>
-  </si>
-  <si>
-    <t>Test Admin when admin click View button in Total Approve</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Click Dashboard button
-3. Click View button in Total Approve</t>
-  </si>
-  <si>
-    <t>1. Admin Page is displayed
-2. Dashboard Page is displayed
-3. User management Page is displayed with the folowing list: 
-- Search bar
-- 5 tab (Acccount, Email, Full name, Register Date, Action)
-- Pagging(1 page = 10 account)</t>
-  </si>
-  <si>
-    <t>Test Admin when admin click User management button</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Click User management button</t>
-  </si>
-  <si>
-    <t>1. Admin Page is displayed
-2. User management Page is displayed with the folowing list: 
-- Search bar
-- 5 tab (Acccount, Email, Full name, Level, Action)
-- Pagging(1 page = 10 account)
-(Use database to test data is correct/false)</t>
-  </si>
-  <si>
-    <t>Test Admin when admin search</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Click User management button
-3. Input "vmn" into search text box
-4. Click Search or press Enter</t>
-  </si>
-  <si>
-    <t>1. Admin page is displayed 
-2. User management page is displayed
-3. "vmn" is displayed in search text box
-4. Search Result page is displayed</t>
-  </si>
-  <si>
-    <t>Test Admin when admin click View button in Tab Action</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Click User management button
-3. Click View button in Tab Action</t>
-  </si>
-  <si>
-    <t>1. Admin page is displayed
-2. User management Page is displayed
-3. User's profile is displayed with the folowing list:
-- Account
-- Email
-- Full name
-- Level (Dropdown list: Content management/System management)
-- Register date
-- Save button</t>
-  </si>
-  <si>
-    <t>Test Admin when admin Edit User's level</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Click User management button
-3. Click View button in Tab Action
-4. Click dropdown list and change level
-5. Click to save</t>
-  </si>
-  <si>
-    <t>1. Admin page is displayed
-2. User management Page is displayed
-3. User's profile is displayed
-4. Level is changed
-5. Return to User management's display</t>
-  </si>
-  <si>
-    <t>Test Admin when admin Block/Unlock User</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Click User management button
-3. Click Active/Deactive button in Tab Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Admin page is displayed
-2. User management Page is displayed
-3. User is actived/Deactived
-</t>
-  </si>
-  <si>
-    <t>[Admin Module-23]</t>
-  </si>
-  <si>
-    <t>Test Admin when admin click pagging button</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Click User management button
-3. Click pagging button</t>
-  </si>
-  <si>
-    <t>1. Admin page is displayed
-2. User management Page is displayed
-3. User list show correct (1 page = 10 user)</t>
-  </si>
-  <si>
-    <t>Test Admin when admin click New drugstore list management button</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Click New drugstore list management button</t>
-  </si>
-  <si>
-    <t>1. Admin Page is displayed
-2. New drugstore list management Page is displayed with the folowing list: 
-- Search bar
-- 5 tab (Acccount, Email, Full name, Register date, Action)
-- Pagging(1 page = 10 account)
-(Use database to test data is correct/false)</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Click New drugstore list management button
-3. Input "vmn" into search text box
-4. Click Search or press Enter</t>
-  </si>
-  <si>
-    <t>1. Admin page is displayed 
-2. New drugstore management page is displayed
-3. "vmn" is displayed in search text box
-4. Search Result page is displayed</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Click New drugstore list management button
-3. Click View button in Tab Action</t>
-  </si>
-  <si>
-    <t>1. Admin page is displayed
-2. New drugstore list management Page is displayed
-3. Drugstore's profile is displayed with the folowing list:
-- Account
-- Email
-- Full name
-- Location
-- Phone
-- Approve button
-- Ignore button</t>
-  </si>
-  <si>
-    <t>Test Approve/Ignore a new drugstore</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Click New drugstore list management button
-3. Click View button in Tab Action
-4. Click Approve/Ignore button</t>
-  </si>
-  <si>
-    <t>1. Admin page is displayed
-2. New drugstore list management Page is displayed
-3. Drugstore's profile is displayed
-2. New drugstore is approved/Ignored and return New drugstore list managment Page</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Click New drugstore list management button
-3. Click pagging button</t>
-  </si>
-  <si>
-    <t>1. Admin page is displayed
-2. New drugstore list management Page is displayed
-3. New drugstore list show correct (1 page = 10 user)</t>
   </si>
   <si>
     <t>Admin module</t>
@@ -4529,12 +3965,6 @@
     <t>Slider when user click Left/Right button</t>
   </si>
   <si>
-    <t>Slider when user click on "View" medicinal/Remedy plants button</t>
-  </si>
-  <si>
-    <t>1. Click on "View" on Medicinal plants/Remedy  button in Slider</t>
-  </si>
-  <si>
     <t>Logo image button</t>
   </si>
   <si>
@@ -4585,30 +4015,6 @@
 + Email: "khanhtbse02764@fpt.edu.vn"
 4. Edit Input:
 + Email: ""</t>
-  </si>
-  <si>
-    <t>1. Go to vmn.com
-2. Click Login hyperlink on Homepage
-3. Input 
-+ Email: khanhtbse02764@fpt.edu.vn
-+ Password: adfghjk
-4. Click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Go to vmn.com
-2. Click on Login hyperlink on Homepage
-3. Input 
-+ Email: abcxyz
-+ Password: 123456789
-4. Click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Go to vmn.com
-2. Click Login hyperlink on Homepage
-3. Input 
-+ Email: abcxyz
-+ Password: adfghjk
-4. Click "Login" button</t>
   </si>
   <si>
     <t>"Personal menu" view</t>
@@ -4691,13 +4097,6 @@
     <t>1. Go to vmn.com
 2. Click on "Login" hyperlink on Header
 3. Click on Register hyperlink on "Login" Page
-4. Input not enough require fields
-5. Click "Register" button</t>
-  </si>
-  <si>
-    <t>1. Go to vmn.com
-2. Click on "Login" hyperlink on Header
-3. Click on Register hyperlink on "Login" Page
 4. Input: 
 + Username: abc1
 5. Click anywhere</t>
@@ -4761,40 +4160,6 @@
   </si>
   <si>
     <t>1. Go to vmn.com
-2. Click on "Login" hyperlink on Header
-3. Click on Register hyperlink on "Login" Page
-4. Input: 
-+ Email: "khanhtbse02764@fpt.edul.com"
-5. Other field is filled correctly
-6. Click "Sign in" button</t>
-  </si>
-  <si>
-    <t>1. Go to vmn.com
-2. Click on "Login" hyperlink on Header
-3. Click on Register hyperlink on "Login" Page
-4. Input: 
-+ Email: "chinhvcse02585@fpt.edu.com"
-5. Click "Sign in" button</t>
-  </si>
-  <si>
-    <t>1. Go to vmn.com
-2. Click on "Login" hyperlink on Header
-3. Click on Register hyperlink on "Login" Page
-4. Input 
-+ Full name: "Tran Binh Khanh"
-5. Edit Input:
-+ Full name:  ""
-6. Click "Sign in" button</t>
-  </si>
-  <si>
-    <t>1. Go to vmn.com
-2. Click on "Login" hyperlink on Header
-3. Click on Register hyperlink on "Login" Page
-4. Input correct  information
-5. Click "Register" button</t>
-  </si>
-  <si>
-    <t>1. Go to vmn.com
 2. Click on "Register" hyperlink on Header
 3. Input "abc123" to "Password" field and "Confirm Password"</t>
   </si>
@@ -4808,12 +4173,6 @@
   <si>
     <t>1. Go to vmn.com
 2. Click on "Register" hyperlink on Header
-3. Input not enough require fields
-4. Click "Register" button</t>
-  </si>
-  <si>
-    <t>1. Go to vmn.com
-2. Click on "Register" hyperlink on Header
 3. Input: 
 + Username: abcde12345abcde12345abcd
 4. Click anywhere</t>
@@ -4838,23 +4197,6 @@
 3. Input:
 + Username: "abc # abc adsfsffsfjsklfjsklfjkslfjklskfsjklf"
 4. Click anywhere</t>
-  </si>
-  <si>
-    <t>1. Go to vmn.com
-2. Click on "Register" hyperlink on Header
-3. Input: 
-+ Email: "khanhtbse02764@fpt.edul.com"
-4. Other field is filled correctly
-5. Click "Sign in" button</t>
-  </si>
-  <si>
-    <t>1. Go to vmn.com
-2. Click on "Register" hyperlink on Header
-3. Input 
-+ Full name: "Tran Binh Khanh"
-4. Edit Input:
-+ Full name:  ""
-5. Click "Sign in" button</t>
   </si>
   <si>
     <t>1. The Homepage is displayed
@@ -5040,22 +4382,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">1. Go to vmn.com
-2. Click on "Register" hyperlink on Header
-3. Input
-+ Password: "12345678"
-+ Re-enter password: "12345"
-4. Click on "Sign in" button
-</t>
-  </si>
-  <si>
-    <t>1. Go to vmn.com
-2. Click on "Register" hyperlink on Header
-3. Input 
-+ Password: "123456"
-4. Click on "Sign in" button</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1.The Homepage is displayed 
 2.The Register page is displayed 
@@ -5108,13 +4434,6 @@
     </r>
   </si>
   <si>
-    <t>1. Go to vmn.com
-2. Click on "Register" hyperlink on Header
-3. Input: 
-+ Email: "khanhtbse02764@fpt.edu.com"
-4. Click "Sign in" button</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1.The Homepage is displayed 
 2.The Register page is displayed
@@ -5139,12 +4458,6 @@
 4. Login successful </t>
   </si>
   <si>
-    <t>1. Go to vmn.com
-2. Click on "Register" hyperlink on Header
-3. Input correct  information
-4. Click "Sign in" button</t>
-  </si>
-  <si>
     <t>Change Password</t>
   </si>
   <si>
@@ -5422,36 +4735,10 @@
     <t>"Login" Page view in 1366x768 screen</t>
   </si>
   <si>
-    <t>"Login" Page view in 1024x768 screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. "Login" Page is displayed "Login" Form by the following fields:
-- "Username" field
-- "Password" field
-- Remember me button
-- Forgot Password hyperlink
-- "Login" button
-</t>
-  </si>
-  <si>
-    <t>1. "Login" Page is displayed "Login" Form by the following fields:
-- "Username" field
-- "Password" field
-- Remember me button
-- Forgot Password hyperlink
-- "Login" button</t>
-  </si>
-  <si>
     <t>Logout</t>
   </si>
   <si>
-    <t>Herbal Medicine Store Management</t>
-  </si>
-  <si>
     <t>User Management</t>
-  </si>
-  <si>
-    <t>Admin Site Detail</t>
   </si>
   <si>
     <t>Dashboard</t>
@@ -5564,65 +4851,8 @@
 </t>
   </si>
   <si>
-    <t>"Login" Page when Mod NOT enter any text in "Login" Form then click on Login button</t>
-  </si>
-  <si>
-    <t>1. "Login" Page is displayed
-2. VMN system will alert:" Please enter your user name and password"</t>
-  </si>
-  <si>
-    <t>1. "Login" Page is displayed
-2. Pointer is flickered in "Username" textbox</t>
-  </si>
-  <si>
-    <t>1. "Login" Page is displayed
-2. Pointer is flickered in "Password" textbox</t>
-  </si>
-  <si>
-    <t>1. "Login" Page is displayed
-2. Data is encoded</t>
-  </si>
-  <si>
-    <t>1. "Login" Page is displayed 
-2. Logged in successfully, "Mod Site" Page is displayed</t>
-  </si>
-  <si>
-    <t>1. "Login" Page is displayed 
-2. Display error message "Username or Password wrong"</t>
-  </si>
-  <si>
     <t>1. "Login" Page is displayed
 2. Display error message "Username or Password wrong"</t>
-  </si>
-  <si>
-    <t>"Login" Page when Mod input wrong username and wrong password</t>
-  </si>
-  <si>
-    <t>1. "Login" Page is displayed
-2. VMN system will alert message:" Username or Password wrong"</t>
-  </si>
-  <si>
-    <t>"Login" Page when Mod input wrong username and correct password</t>
-  </si>
-  <si>
-    <t>"Login" Page when Mod input correct username and wrong password</t>
-  </si>
-  <si>
-    <t>"Login" Page when Mod input only password in "Login" Form</t>
-  </si>
-  <si>
-    <t>1. "Login" Page is displayed
-2. VMN system will alert message "The Username field is required"</t>
-  </si>
-  <si>
-    <t>"Login" Page when Mod input only username in "Login" Form</t>
-  </si>
-  <si>
-    <t>1. "Login" Page is displayed
-2. VMN system will alert message "The Password field is required"</t>
-  </si>
-  <si>
-    <t>"Login" Page when Mod input correct username and password</t>
   </si>
   <si>
     <t>"Login" Page when user's account is locked by Admin</t>
@@ -5734,18 +4964,6 @@
   </si>
   <si>
     <t>"Login" Page when user only input email in "Login" Form</t>
-  </si>
-  <si>
-    <t>1. Go to vmn.com
-2. Click "Login" hyperlink on Homepage
-3. Enter only email in "Login" Form
-4. Click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Go to vmn.com
-2. Click "Login" hyperlink on Homepage
-3. Enter only password in "Login" Form
-4. Click "Login" button</t>
   </si>
   <si>
     <t>1. Homepage is displayed
@@ -5889,49 +5107,6 @@
 2. Click on "Logout" hyperlink on Header</t>
   </si>
   <si>
-    <t>1. Enter Mod Page</t>
-  </si>
-  <si>
-    <t>1. Enter Mod Page
-2. Click on "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter Mod Page
-2. Click "Username" field</t>
-  </si>
-  <si>
-    <t>1. Enter Mod Page
-2. Click "Password" field</t>
-  </si>
-  <si>
-    <t>1. Enter Mod Page
-2. Input data to "Password" field</t>
-  </si>
-  <si>
-    <t>1. Enter Mod Page
-2. Input username "email0@gmail.com" password "123456", then click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter Mod Page
-2. Input username "email0@gmail.com", password "" then click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter Mod Page
-2. Input username "", password "123456789"  then click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter Mod Page
-2. Input username "email0@gmail.com" and password "fsdfs", then click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter Mod Page
-2. Input username and password, then click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter Mod Page
-2. Input wrong username "fsdfsd" and password "123456789", then click "Login" button</t>
-  </si>
-  <si>
     <t>1. Enter Mod Page
 2. Click Medicinal plants management button
 3. Click View button in Tab new medicinal plants</t>
@@ -6032,9 +5207,6 @@
 </t>
   </si>
   <si>
-    <t>View Detail</t>
-  </si>
-  <si>
     <t>Mod Page view in 1366x768 screen</t>
   </si>
   <si>
@@ -6054,9 +5226,6 @@
 + Medicinal plants management
 + Remedy management
 </t>
-  </si>
-  <si>
-    <t>[Mod Module-15]</t>
   </si>
   <si>
     <t>"Dashboard" Tab view when Mod click on</t>
@@ -6192,6 +5361,1019 @@
     <t xml:space="preserve">1. Login VMN system by Member or Mod role
 2. Click on "HMS" tab
 </t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Register" hyperlink on Header
+3. Input correct  information
+4. Click "Sign up" button</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click "Login" hyperlink on Homepage
+3. Enter only email in "Login" Form
+4. Click "Sign in" button</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click "Login" hyperlink on Homepage
+3. Enter only password in "Login" Form
+4. Click "Sign in" button</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click Login hyperlink on Homepage
+3. Input 
++ Email: khanhtbse02764@fpt.edu.vn
++ Password: adfghjk
+4. Click "Sign in" button</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on Login hyperlink on Homepage
+3. Input 
++ Email: abcxyz
++ Password: 123456789
+4. Click "Sign in" button</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click Login hyperlink on Homepage
+3. Input 
++ Email: abcxyz
++ Password: adfghjk
+4. Click "Sign in" button</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Login" hyperlink on Header
+3. Click on Register hyperlink on "Login" Page
+4. Input not enough require fields
+5. Click "Sign up" button</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Login" hyperlink on Header
+3. Click on Register hyperlink on "Login" Page
+4. Input: 
++ Email: "khanhtbse02764@fpt.edul.com"
+5. Other field is filled correctly
+6. Click "Sign up" button</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Login" hyperlink on Header
+3. Click on Register hyperlink on "Login" Page
+4. Input: 
++ Email: "chinhvcse02585@fpt.edu.com"
+5. Click "Sign up" button</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Login" hyperlink on Header
+3. Click on Register hyperlink on "Login" Page
+4. Input 
++ Full name: "Tran Binh Khanh"
+5. Edit Input:
++ Full name:  ""
+6. Click "Sign up" button</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Login" hyperlink on Header
+3. Click on Register hyperlink on "Login" Page
+4. Input correct  information
+5. Click "Sign up" button</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Register" hyperlink on Header
+3. Input not enough require fields
+4. Click "Sign up" button</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Register" hyperlink on Header
+3. Input 
++ Password: "123456"
+4. Click on "Sign up" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to vmn.com
+2. Click on "Register" hyperlink on Header
+3. Input
++ Password: "12345678"
++ Re-enter password: "12345"
+4. Click on "Sign up" button
+</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Register" hyperlink on Header
+3. Input: 
++ Email: "khanhtbse02764@fpt.edul.com"
+4. Other field is filled correctly
+5. Click "Sign up" button</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Register" hyperlink on Header
+3. Input: 
++ Email: "khanhtbse02764@fpt.edu.com"
+4. Click "Sign up" button</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Register" hyperlink on Header
+3. Input 
++ Full name: "Tran Binh Khanh"
+4. Edit Input:
++ Full name:  ""
+5. Click "Sign up" button</t>
+  </si>
+  <si>
+    <t>Register as common member</t>
+  </si>
+  <si>
+    <t>"Register as HMS" Page in 1366x768 screen when user click on "Register as HMS" hyperlink on "Login" Page menu</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Login" hyperlink on Homepage
+3. Click on "Register ase HMS" hyperlink on "Login" Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Homepage is displayed
+2. "Login" Page is displayed
+3. "Register as HMS" Page is displayed by following fields:
+- Username text field
+- Email text field
+-Password text field
+-Re-enter password text field
+- HMS's name text field
+- Address text field
+- Mobile Phone text field
+- Representative text field
+- Sign up button
+- Sign in hyperlink
+-Full Name text field
+-Sign up button
+-Register as new Herbal medicine store hyperlink
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Homepage is displayed
+2. "Login" Page is displayed
+3. "Register as HMS" Page is displayed by following fields:
+- Username text field
+- Email text field
+- Password text field
+- Re-enter password text field
+- HMS's name text field
+- Address text field
+- Mobile Phone text field
+- Representative text field
+- Sign up button
+- Sign in hyperlink
+</t>
+  </si>
+  <si>
+    <t>"Register as HMS" Page when user NOT enter any fields in "Register as HMS" Form</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Login" hyperlink on Homepage
+3. Click on "Register ase HMS" hyperlink on "Login" Page
+4. Click on "Sign up" button</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Login" hyperlink on Homepage
+3. Click on "Register ase HMS" hyperlink on "Login" Page
+4. Enter texts in "Password" field</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. "Register as HMS" Page is displayed
+4. VMN system will alert message: "You have to enter information in this form"</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. "Register as HMS" Page is displayed
+4. Password is encoded</t>
+  </si>
+  <si>
+    <t>"Register as HMS" Page when user input a string smaller than 8 characters on "Username" field</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Login" hyperlink on Homepage
+3. Click on "Register ase HMS" hyperlink on "Login" Page
+4. Enter texts in "Username" field but under 8 characters
+5. Click on "Sign up" button</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. "Register as HMS" Page is displayed
+4. Accept Guess's typed
+5. VMN system will alert message:"Username field should over 8 characters"</t>
+  </si>
+  <si>
+    <t>"Register as HMS" Page when user input a string more than 20 characters on "Username" field</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Login" hyperlink on Homepage
+3. Click on "Register ase HMS" hyperlink on "Login" Page
+4. Enter texts in "Username" field but over 20 characters
+5. Click on "Sign up" button</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. "Register as HMS" Page is displayed
+4. Accept Guess's typed
+5. VMN system will alert message:"Username field should under 20 characters"</t>
+  </si>
+  <si>
+    <t>"Register as HMS" Page when user input a string contains special characters in "Username" field</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. "Register as HMS" Page is displayed
+4. Accept Guess's typed
+5. VMN system will alert message:"Username field should not have special character"</t>
+  </si>
+  <si>
+    <t>"Register as HMS" Page when user input a string small than 8 character and contains special characters.</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Login" hyperlink on Homepage
+3. Click on "Register ase HMS" hyperlink on "Login" Page
+4. Enter texts in "Username" field contain special characters:!@#$%^&amp;*
+5. Click on "Sign up" button</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. "Register as HMS" Page is displayed
+4. Accept Guess's typed
+5. VMN system will alert message:"Username field should over 8 characters and do not contain special characters"</t>
+  </si>
+  <si>
+    <t>"Register as HMS" Page when user input a string more than 20 character and contains special characters.</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Login" hyperlink on Homepage
+3. Click on "Register ase HMS" hyperlink on "Login" Page
+4. Enter texts in "Username" field but under 8 characters and contain special characters:!@#$%^&amp;*
+5. Click on "Sign up" button</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Login" hyperlink on Homepage
+3. Click on "Register ase HMS" hyperlink on "Login" Page
+4. Enter texts in "Username" field but over 20 characters and contain special characters:!@#$%^&amp;*
+5. Click on "Sign up" button</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. "Register as HMS" Page is displayed
+4. Accept Guess's typed
+5. VMN system will alert message:"Username field should under 20 characters and do not contain special characters"</t>
+  </si>
+  <si>
+    <t>"Register as HMS" Page when user input a string less than 8 character on "Password" field</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Login" hyperlink on Homepage
+3. Click on "Register ase HMS" hyperlink on "Login" Page
+4. Enter texts in "Password" field but under 8 characters
+5. Click on "Sign up" button</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. "Register as HMS" Page is displayed
+4. Accept Guess's typed
+5. VMN system will alert message:"Password field should over 8 characters"</t>
+  </si>
+  <si>
+    <t>"Register as HMS" Page when user NOT enter text in "Username" field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to vmn.com
+2. Click on "Login" hyperlink on Homepage
+3. Click on "Register ase HMS" hyperlink on "Login" Page
+4. Do not enter text in "Username" field
+5. Click on "Sign up" button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Register as HMS" Page when user NOT enter text in "Email" field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to vmn.com
+2. Click on "Login" hyperlink on Homepage
+3. Click on "Register ase HMS" hyperlink on "Login" Page
+4. Do not enter text in "Email" field
+5. Click on "Sign up" button
+</t>
+  </si>
+  <si>
+    <t>"Register as HMS" Page when user NOT enter text in "Password" field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to vmn.com
+2. Click on "Login" hyperlink on Homepage
+3. Click on "Register ase HMS" hyperlink on "Login" Page
+4. Do not enter text in "Password" field
+5. Click on "Sign up" button
+</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. "Register as HMS" Page is displayed
+4. "Password" field is empty
+5. VMN system will alert message:"Password field is required"</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. "Register as HMS" Page is displayed
+4. "Email" field is empty
+5. VMN system will alert message:"Email field is required"</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. "Register as HMS" Page is displayed
+4. "Username" field is empty
+5. VMN system will alert message:"Username field is required"</t>
+  </si>
+  <si>
+    <t>"Register as HMS" Page when user NOT enter text in "HMS Name" field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to vmn.com
+2. Click on "Login" hyperlink on Homepage
+3. Click on "Register ase HMS" hyperlink on "Login" Page
+4. Do not enter text in "HMS Name" field
+5. Click on "Sign up" button
+</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. "Register as HMS" Page is displayed
+4. "HMS Name" field is empty
+5. VMN system will alert message:"HMS Name field is required"</t>
+  </si>
+  <si>
+    <t>"Register as HMS" Page when user NOT enter text in "Address" field</t>
+  </si>
+  <si>
+    <t>"Register as HMS" Page when user NOT enter text in "Mobile number" field</t>
+  </si>
+  <si>
+    <t>"Register as HMS" Page when user NOT enter text in "Representative" field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to vmn.com
+2. Click on "Login" hyperlink on Homepage
+3. Click on "Register ase HMS" hyperlink on "Login" Page
+4. Do not enter text in "Mobile number" field
+5. Click on "Sign up" button
+</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. "Register as HMS" Page is displayed
+4. "Representative" field is empty
+5. VMN system will alert message:"Representative field is required"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to vmn.com
+2. Click on "Login" hyperlink on Homepage
+3. Click on "Register ase HMS" hyperlink on "Login" Page
+4. Do not enter text in "Representative" field
+5. Click on "Sign up" button
+</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. "Register as HMS" Page is displayed
+4. "Mobile number" field is empty
+5. VMN system will alert message:"Mobile number field is required"</t>
+  </si>
+  <si>
+    <t>"Register as HMS" Page when user input not match string with Password on "Confirm Password" field</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Login" hyperlink on Homepage
+3. Click on "Register ase HMS" hyperlink on "Login" Page
+4. Enter texts in "Confirm Password" field that not match with "Password" field 
+5. Click on "Sign up" button</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. "Register as HMS" Page is displayed
+4. "Confirm Password" is encode
+5. VMN system will alert message:"Confirm Password should match with Password"</t>
+  </si>
+  <si>
+    <t>"Register as HMS" Page when user input incorrect format email in "Email" field</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Login" hyperlink on Homepage
+3. Click on "Register ase HMS" hyperlink on "Login" Page
+4. Enter texts in "Email" field but not correct email's form 
+5. Click on "Sign up" button</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. "Register as HMS" Page is displayed
+4. Accept Guess's typed
+5. VMN system will alert message:"Email format is not correct"</t>
+  </si>
+  <si>
+    <t>"Register as HMS" Page when user input existed email in VMN system</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Login" hyperlink on Homepage
+3. Click on "Register ase HMS" hyperlink on "Login" Page
+4. Enter texts in "Email" field but this email existed in VMN system
+5. Click on "Sign up" button</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. "Register as HMS" Page is displayed
+4. Accept Guess's typed
+5. VMN system will alert message:"The email  is existed"</t>
+  </si>
+  <si>
+    <t>"Register as HMS" Page when user input correct information on "Register as HMS" Form</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Login" hyperlink on Homepage
+3. Click on "Register as HMS" hyperlink on "Login" Page
+4. Enter information in "Register as HMS" Form
+5. Click on "Sign up" button</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. "Register as HMS" Page is displayed
+4. Accept Guess's typed
+5. VMN system will alert message:"You registered successfully, please wait Admin’s approve" and back to "Log in" Page</t>
+  </si>
+  <si>
+    <t>This test cases were created to test Admin module.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Login" Page view in 1024x768 screen </t>
+  </si>
+  <si>
+    <t>1. Enter Admin page</t>
+  </si>
+  <si>
+    <t>"Login" Page when Admin NOT enter any text in "Login" Form then click on "Sign in"</t>
+  </si>
+  <si>
+    <t>1. Enter Admin page
+2. Click on "Sign in" button</t>
+  </si>
+  <si>
+    <t>1. Enter Admin page
+2. Click on "Username" field</t>
+  </si>
+  <si>
+    <t>1. Enter Admin page
+2. Click on "Password" field</t>
+  </si>
+  <si>
+    <t>1. Enter Admin page
+2. Input data into "Password" field</t>
+  </si>
+  <si>
+    <t>When Admin input correct username and password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. "Login" Page is displayed by following fields:
+- Username text field
+- Password text field
+- Remember me button
+- Forgot Password hyperlink
+- Sign in button
+</t>
+  </si>
+  <si>
+    <t>1. "Login" Page is displayed 
+2. VMN system will wait until Admin enter information in "Login" Form</t>
+  </si>
+  <si>
+    <t>1. "Login" Page is displayed 
+2. Pointer is flickered in "Username" textbox</t>
+  </si>
+  <si>
+    <t>1. "Login" Page is displayed 
+2. Pointer is flickered in "Password" textbox</t>
+  </si>
+  <si>
+    <t>1. "Login" Page is displayed 
+2. Data is encoded</t>
+  </si>
+  <si>
+    <t>1. Enter Admin page
+2. Input username "email0@gmail.com", password "" then click "Sign in" button</t>
+  </si>
+  <si>
+    <t>1. Enter Admin page
+2. Input username "email0@gmail.com" password "123456", then click "Sign in" button</t>
+  </si>
+  <si>
+    <t>1. "Login" Page is displayed
+2. VMN system will alert message:"The Password field is required"</t>
+  </si>
+  <si>
+    <t>"Login" Page when user input only password to "Login" Form</t>
+  </si>
+  <si>
+    <t>"Login" Page when Admin input only username to "Login" Form</t>
+  </si>
+  <si>
+    <t>1. Enter Admin page
+2. Input username "", password "123456789"  then click "Sign in" button</t>
+  </si>
+  <si>
+    <t>1. "Login" Page is displayed
+2. VMN system will alert message:"The Username field is required"</t>
+  </si>
+  <si>
+    <t>"Login" Page when user input correct username and wrong password</t>
+  </si>
+  <si>
+    <t>1. Enter Admin page
+2. Input username "email0@gmail.com" and password "fsdfs", then click "Sign in" button</t>
+  </si>
+  <si>
+    <t>1. "Login" Page is displayed
+2. VMN system will alert message:"Username or Password wrong"</t>
+  </si>
+  <si>
+    <t>"Login" Page when user input wrong username and correct password</t>
+  </si>
+  <si>
+    <t>1. Enter Admin page
+2. Input username but wrong and password but correct, then click "Sign in" button</t>
+  </si>
+  <si>
+    <t>"Login" Page when user input wrong username and wrong password</t>
+  </si>
+  <si>
+    <t>1. Enter Admin page
+2. Input wrong username "fsdfsd" and password "123456789", then click "Sign in" button</t>
+  </si>
+  <si>
+    <t>Admin Page Detail</t>
+  </si>
+  <si>
+    <t>Admin Page view detail in 1366x768 screen</t>
+  </si>
+  <si>
+    <t>Admin Page view detail in 1024x768 screen</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Admin Page is displayed with the following list:
+- Header
+- Right Header:
++ Logout button
+- Dashboard
+         + Total User
+         + Total HMS
+         + Total Waiting Approval
+         + Total Access
+- Content details left
+        + Dashboard (default)
+        + User management
+        + New register HMS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. "Login" Page is displayed 
+2. Logged in successfully, Admin Page is displayed with the following list:
+- Header
+- Right Header:
++ Logout button
+- Dashboard
+         + Total User
+         + Total HMS
+         + Total Waiting Approval
+         + Total Access
+- Content details left
+        + Dashboard (default)
+        + User management
+        + New register HMS
+</t>
+  </si>
+  <si>
+    <t>When Admin click on "Logout" button</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin rule
+2. Click on "Logout" button in right Header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Admin Page is displayed
+2. Log Admin out of VMN system, back to "Login" Page
+</t>
+  </si>
+  <si>
+    <t>"Dashboard" Page when Admin click on "Dashboard" hyperlink at the the left of Admin Page</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. "User management" Page is displayed by following fields:
+- Searching field
+- Account
+- Email
+- User's role
+- Status
+- Detail button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Admin rule
+2. Click on "Dashboard" hyperlink
+</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin rule
+2. Click on "User management" hyperlink</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin rule
+2. Click on "Waiting HMS approval" hyperlink</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. "Dashboard" Page is displayed by following fields:
+- Total of User
+- Total of HMS
+- Waiting HMS approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Admin Page is displayed
+2. "Waiting HMS Approval" Page is displayed by following fields:
+- Searching fiels
+- HMS Account
+- Email
+- Register date
+- Action
+- Detail button
+</t>
+  </si>
+  <si>
+    <t>Waiting Herbal Medicine Store Approval</t>
+  </si>
+  <si>
+    <t>1. Create 5 users for testing
+2. Login VMN system by Admin rule
+3. Click on "Dashboard" hyperlink</t>
+  </si>
+  <si>
+    <t>1. Database exist 5 users for testing
+2. Admin Page is displayed
+3. "Dashboard" Page is displayed by 5 user in "Total User" Frame</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin rule
+2. Lock 2 accounts in 5 accounts that register before
+3. Click on "Dashboard" hyperlink at the left of Admin Page</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. 2 accounts in 5 accounts that register before is locked in database
+3. "Dashboard" Page is displayed by 5 account in "Total User"</t>
+  </si>
+  <si>
+    <t>"Total User" Frame when Admin lock 2 accounts in 5 account register before</t>
+  </si>
+  <si>
+    <t>"Total User" Frame when Admin add more User into database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Total HMS" Frame when Admin approve more HMS </t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin rule
+2. Approve 5 account of HMS 
+3. Click on "Dashboard" hyperlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Admin Page is displayed
+2. Total of HMS is 5 accounts in database
+3. "Dashboard" Page is displayed by 5 accounts of HMS in "Total HMS" Frame\ </t>
+  </si>
+  <si>
+    <t>"Total HMS" Frame when Admin lock 2 accounts of HMS in 5 accounts approved before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Admin rule
+2. Lock 2 accounts of HMS in 5 accounts that register before
+3. Click on "Dashboard" hyperlink </t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. 2 accounts of HMS in 5 accounts that register before is locked in database
+3. "Dashboard" Page is displayed by 5 account in "Total HMS"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Create 5 accounts of HMS
+2. Login VMN system by Admin rule
+3. Click on "Dashboard" hyperlink
+4. Approve 2 HMS accounts in 5 account that created before
+5. Click on "Dashboard" hyperlink </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 5 HMS accounts is created, and waiting for Admin's approval
+2. Admin page is displayed
+3. "Dashboard" Page is displayed by 5 HMS account in "Waiting HMS aprroval" Frame
+4. 2 HMS accounts is approved
+5. "Dashboard" Page is displayed by 3 HMS account in "Waiting HMS approval" Frame
+ "Total HMS" Frame display 7 HMS accounts
+"Total User" Frame display 10 accounts
+</t>
+  </si>
+  <si>
+    <t>"Waiting HMS Approval" Frame when Admin approve more HMS</t>
+  </si>
+  <si>
+    <t>"User Management" Page when Admin click on "User management" hyperlink at the left of Admin Page</t>
+  </si>
+  <si>
+    <t>"User Management" Page when Admin input keyword in "Searching" field then click on Search or press enter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Admin rule
+2. Click on "User Management" hyperlink
+3. Input keyword in "Searching" field to search an account
+4. Click on "Search" button or press enter </t>
+  </si>
+  <si>
+    <t>1. Admin page is displayed 
+2. "User Management" Page is displayed
+3. Keyword is displayed in "Searching" field
+4. Display result if find out account that suitable with Admin's keyword, if not display:"The account does not exist in database"</t>
+  </si>
+  <si>
+    <t>"Account Detail" Box when Admin click on "Detail" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Admin rule
+2. Click on "User Management" hyperlink
+3. Click on "Detail" button of the account
+</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. "User Management" Page is displayed
+3. "Account Detail" Box is displayed by following fields:
+- Account
+- Email
+- Name
+- First name
+- Date of birth
+- Role select box:
+        + Mod
+        + Member
+- Save button (dont have if account is HMS)
+- Lock button</t>
+  </si>
+  <si>
+    <t>"Role" column when Admin change account's role: Member become Mod in VMN system</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin rule
+2. Click on "User Management" hyperlink
+3. Click on "Detail" button of the account
+4. Click on Mod role in "Role" select box
+5. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. "User Management" Page is displayed
+3. "Account Detail" Box is displayed
+4. The account's role is Mod 
+5. "Account Detail" Box is disapear, at "Role" column, the account's role is Mod</t>
+  </si>
+  <si>
+    <t>"Role" column when Admin change account's role: Mod become Member in VMN system</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin rule
+2. Click on "User Management" hyperlink
+3. Click on "Detail" button of the account
+4. Click on Member role in "Role" select box
+5. Click on "Save" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Admin Page is displayed
+2. "User Management" Page is displayed
+3. "Account Detail" Box is displayed
+4. The account's role is Member 
+5. "Account Detail" Box is disapear, at "Role" column, the account's role is Member
+</t>
+  </si>
+  <si>
+    <t>"Status" column when Admin lock an account</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. "User Management" Page is displayed
+3. "Account Detail" Box is displayed
+4. "Account Detail" Box is disappear, the account's "Status" column is lock status</t>
+  </si>
+  <si>
+    <t>"Status" column when Admin unlock an account</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin rule
+2. Click on "User Management" hyperlink
+3. Click on "Detail" button of the locking account
+4. Click on "UnLock" button</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin rule
+2. Click on "User Management" hyperlink
+3. Click on "Detail" button of the Unlocking account
+4. Click on "Lock" button</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. "User Management" Page is displayed
+3. "Account Detail" Box is displayed
+4. "Account Detail" Box is disappear, the account's "Status" column is active status</t>
+  </si>
+  <si>
+    <t>"Waiting HMS Approval" Page when Admin input keyword in "Searching" field then click on Search or press enter</t>
+  </si>
+  <si>
+    <t>"Waiting HMS Approval" Page when Admin click on "Waiting HMS approval" hyperlink at the left of Admin Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Admin rule
+2. Click on "Waiting HMS Approval" hyperlink
+3. Input keyword in "Searching" field to search an account
+4. Click on "Search" button or press enter </t>
+  </si>
+  <si>
+    <t>1. Admin page is displayed 
+2. "Waiting HMS Aprroval" Page is displayed
+3. Keyword is displayed in "Searching" field
+4. Display result if find out account that suitable with Admin's keyword, if not display:"The account does not exist in database"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Admin rule
+2. Click on "Waiting HMS Approval" hyperlink
+3. Click on "Detail" button of the account
+</t>
+  </si>
+  <si>
+    <t>"Waiting HMS Approval" Page when Admin accept new HMS</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin rule
+2. Click on "Waiting HMS Approval" hyperlink
+3. Click on "Detail" button of the account
+4. Click on "Accept" button</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. "Waiting HMS Approval" Page is displayed
+3. "Account Detail" Box is displayed by following fields:
+- Account
+- Email
+- Address
+- Mobile number
+- Representative
+- Accept button
+- Deny button</t>
+  </si>
+  <si>
+    <t>"Waiting HMS Approval" Page when Admin deny new HMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Admin Page is displayed
+2. "Waiting HMS Approval" Page is displayed
+3. "Account Detail" Box is displayed
+4. VMN system will alert message:"Accept success", the HMS account is existed in "User Management" Page 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Admin Page is displayed
+2. "Waiting HMS Approval" Page is displayed
+3. "Account Detail" Box is displayed
+4. VMN system will alert message:"Deny success", the HMS account is disappear in " Waiting HMS Approval" Page </t>
+  </si>
+  <si>
+    <t>1. Enter Mod page</t>
+  </si>
+  <si>
+    <t>"Login" Page when Mod NOT enter any text in "Login" Form then click on "Sign in"</t>
+  </si>
+  <si>
+    <t>1. Enter Mod page
+2. Click on "Sign in" button</t>
+  </si>
+  <si>
+    <t>1. "Login" Page is displayed 
+2. VMN system will wait until Mod enter information in "Login" Form</t>
+  </si>
+  <si>
+    <t>1. Enter Mod page
+2. Click on "Username" field</t>
+  </si>
+  <si>
+    <t>1. Enter Mod page
+2. Click on "Password" field</t>
+  </si>
+  <si>
+    <t>1. Enter Mod page
+2. Input data into "Password" field</t>
+  </si>
+  <si>
+    <t>When Mod input correct username and password</t>
+  </si>
+  <si>
+    <t>1. Enter Mod page
+2. Input username "email0@gmail.com" password "123456", then click "Sign in" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. "Login" Page is displayed 
+2. Logged in successfully, Mod Page is displayed with the following list:
+- Header
+- Right Header:
++ Logout button
+- Dashboard
+         + Total User
+         + Total HMS
+         + Total Waiting Approval
+         + Total Access
+- Content details left
+        + Dashboard (default)
+        + User management
+        + New register HMS
+</t>
+  </si>
+  <si>
+    <t>"Login" Page when Mod input only username to "Login" Form</t>
+  </si>
+  <si>
+    <t>1. Enter Mod page
+2. Input username "email0@gmail.com", password "" then click "Sign in" button</t>
+  </si>
+  <si>
+    <t>1. Enter Mod page
+2. Input username "", password "123456789"  then click "Sign in" button</t>
+  </si>
+  <si>
+    <t>1. Enter Mod page
+2. Input username "email0@gmail.com" and password "fsdfs", then click "Sign in" button</t>
+  </si>
+  <si>
+    <t>1. Enter Mod page
+2. Input username but wrong and password but correct, then click "Sign in" button</t>
+  </si>
+  <si>
+    <t>1. Enter Mod page
+2. Input wrong username "fsdfsd" and password "123456789", then click "Sign in" button</t>
+  </si>
+  <si>
+    <t>Test Mod when Mod click pagging button</t>
+  </si>
+  <si>
+    <t>Mod Page Detail</t>
   </si>
 </sst>
 </file>
@@ -6417,7 +6599,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6480,36 +6662,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66FFFF"/>
-        <bgColor indexed="41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66FFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="66">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -7328,6 +7486,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7339,7 +7598,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7957,9 +8216,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="65" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8000,14 +8256,8 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8037,6 +8287,66 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="41" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="66" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="67" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="69" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="70" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="39" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="40" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="72" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="42" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8163,14 +8473,11 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="62" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="41" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -8651,13 +8958,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="264" t="s">
+      <c r="C2" s="281" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
+      <c r="D2" s="281"/>
+      <c r="E2" s="281"/>
+      <c r="F2" s="281"/>
+      <c r="G2" s="281"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -8668,11 +8975,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="265" t="s">
+      <c r="C4" s="282" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="265"/>
-      <c r="E4" s="265"/>
+      <c r="D4" s="282"/>
+      <c r="E4" s="282"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
@@ -8684,11 +8991,11 @@
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="265" t="s">
+      <c r="C5" s="282" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="265"/>
-      <c r="E5" s="265"/>
+      <c r="D5" s="282"/>
+      <c r="E5" s="282"/>
       <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
@@ -8697,15 +9004,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="266" t="s">
+      <c r="B6" s="283" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="267" t="str">
+      <c r="C6" s="284" t="str">
         <f>C5&amp;"_"&amp;"System Test Case"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_System Test Case_v1.0</v>
       </c>
-      <c r="D6" s="267"/>
-      <c r="E6" s="267"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="284"/>
       <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
@@ -8714,10 +9021,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="266"/>
-      <c r="C7" s="267"/>
-      <c r="D7" s="267"/>
-      <c r="E7" s="267"/>
+      <c r="B7" s="283"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="284"/>
       <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
@@ -8847,10 +9154,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW68"/>
+  <dimension ref="A1:IW89"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9128,14 +9435,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="276" t="s">
-        <v>571</v>
-      </c>
-      <c r="C2" s="277"/>
-      <c r="D2" s="277"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="277"/>
-      <c r="G2" s="278"/>
+      <c r="B2" s="293" t="s">
+        <v>547</v>
+      </c>
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="294"/>
+      <c r="G2" s="295"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -9386,14 +9693,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="279" t="s">
-        <v>572</v>
-      </c>
-      <c r="C3" s="280"/>
-      <c r="D3" s="280"/>
-      <c r="E3" s="280"/>
-      <c r="F3" s="280"/>
-      <c r="G3" s="281"/>
+      <c r="B3" s="296" t="s">
+        <v>548</v>
+      </c>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="298"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -9644,14 +9951,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="279" t="s">
-        <v>722</v>
-      </c>
-      <c r="C4" s="280"/>
-      <c r="D4" s="280"/>
-      <c r="E4" s="280"/>
-      <c r="F4" s="280"/>
-      <c r="G4" s="281"/>
+      <c r="B4" s="296" t="s">
+        <v>613</v>
+      </c>
+      <c r="C4" s="297"/>
+      <c r="D4" s="297"/>
+      <c r="E4" s="297"/>
+      <c r="F4" s="297"/>
+      <c r="G4" s="298"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -9909,11 +10216,11 @@
       <c r="D5" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="282" t="s">
+      <c r="E5" s="299" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="283"/>
-      <c r="G5" s="284"/>
+      <c r="F5" s="300"/>
+      <c r="G5" s="301"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -10162,27 +10469,27 @@
     </row>
     <row r="6" spans="1:257" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="86">
-        <f>COUNTIF(F12:G100,"Pass")</f>
+        <f>COUNTIF(F12:G103,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="87">
-        <f>COUNTIF(F12:G100,"Fail")</f>
+        <f>COUNTIF(F12:G103,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="87">
         <f>E6-D6-B6-A6</f>
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D6" s="88">
-        <f>COUNTIF(F12:G100,"N/A")</f>
+        <f>COUNTIF(F12:G103,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="285">
-        <f>COUNTA(A12:A100)</f>
-        <v>53</v>
-      </c>
-      <c r="F6" s="286"/>
-      <c r="G6" s="287"/>
+      <c r="E6" s="302">
+        <f>COUNTA(A12:A103)</f>
+        <v>74</v>
+      </c>
+      <c r="F6" s="303"/>
+      <c r="G6" s="304"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -11463,7 +11770,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="228"/>
       <c r="B11" s="228" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="C11" s="229"/>
       <c r="D11" s="229"/>
@@ -11718,16 +12025,16 @@
         <v>[Authentication-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>723</v>
+        <v>614</v>
       </c>
       <c r="C12" s="109" t="s">
-        <v>724</v>
+        <v>615</v>
       </c>
       <c r="D12" s="109" t="s">
-        <v>881</v>
+        <v>736</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>727</v>
+        <v>618</v>
       </c>
       <c r="F12" s="109"/>
       <c r="G12" s="109"/>
@@ -11741,16 +12048,16 @@
         <v>[Authentication-3]</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>726</v>
+        <v>617</v>
       </c>
       <c r="C13" s="109" t="s">
-        <v>724</v>
+        <v>615</v>
       </c>
       <c r="D13" s="109" t="s">
-        <v>881</v>
+        <v>736</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>728</v>
+        <v>619</v>
       </c>
       <c r="F13" s="109"/>
       <c r="G13" s="109"/>
@@ -11764,13 +12071,13 @@
         <v>[Authentication-4]</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C14" s="109" t="s">
-        <v>884</v>
+        <v>739</v>
       </c>
       <c r="D14" s="109" t="s">
-        <v>882</v>
+        <v>737</v>
       </c>
       <c r="E14" s="109"/>
       <c r="F14" s="109"/>
@@ -11785,13 +12092,13 @@
         <v>[Authentication-5]</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>883</v>
+        <v>738</v>
       </c>
       <c r="C15" s="109" t="s">
-        <v>885</v>
+        <v>740</v>
       </c>
       <c r="D15" s="109" t="s">
-        <v>886</v>
+        <v>741</v>
       </c>
       <c r="E15" s="109"/>
       <c r="F15" s="109"/>
@@ -11806,13 +12113,13 @@
         <v>[Authentication-6]</v>
       </c>
       <c r="B16" s="97" t="s">
-        <v>887</v>
+        <v>742</v>
       </c>
       <c r="C16" s="109" t="s">
-        <v>888</v>
+        <v>743</v>
       </c>
       <c r="D16" s="109" t="s">
-        <v>889</v>
+        <v>744</v>
       </c>
       <c r="E16" s="109"/>
       <c r="F16" s="109"/>
@@ -11827,13 +12134,13 @@
         <v>[Authentication-7]</v>
       </c>
       <c r="B17" s="97" t="s">
-        <v>890</v>
+        <v>745</v>
       </c>
       <c r="C17" s="109" t="s">
-        <v>891</v>
+        <v>746</v>
       </c>
       <c r="D17" s="109" t="s">
-        <v>850</v>
+        <v>721</v>
       </c>
       <c r="E17" s="109"/>
       <c r="F17" s="109"/>
@@ -11848,13 +12155,13 @@
         <v>[Authentication-8]</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>880</v>
+        <v>735</v>
       </c>
       <c r="C18" s="109" t="s">
-        <v>849</v>
+        <v>720</v>
       </c>
       <c r="D18" s="109" t="s">
-        <v>910</v>
+        <v>763</v>
       </c>
       <c r="E18" s="109"/>
       <c r="F18" s="109"/>
@@ -11869,13 +12176,13 @@
         <v>[Authentication-9]</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>892</v>
+        <v>747</v>
       </c>
       <c r="C19" s="109" t="s">
-        <v>730</v>
+        <v>621</v>
       </c>
       <c r="D19" s="109" t="s">
-        <v>893</v>
+        <v>748</v>
       </c>
       <c r="E19" s="109"/>
       <c r="F19" s="109"/>
@@ -11890,13 +12197,13 @@
         <v>[Authentication-10]</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>894</v>
+        <v>749</v>
       </c>
       <c r="C20" s="109" t="s">
-        <v>729</v>
+        <v>620</v>
       </c>
       <c r="D20" s="109" t="s">
-        <v>895</v>
+        <v>750</v>
       </c>
       <c r="E20" s="109"/>
       <c r="F20" s="109"/>
@@ -11911,13 +12218,13 @@
         <v>[Authentication-11]</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>897</v>
+        <v>752</v>
       </c>
       <c r="C21" s="109" t="s">
-        <v>898</v>
+        <v>820</v>
       </c>
       <c r="D21" s="109" t="s">
-        <v>900</v>
+        <v>753</v>
       </c>
       <c r="E21" s="109"/>
       <c r="F21" s="109"/>
@@ -11932,13 +12239,13 @@
         <v>[Authentication-12]</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>896</v>
+        <v>751</v>
       </c>
       <c r="C22" s="109" t="s">
-        <v>899</v>
+        <v>821</v>
       </c>
       <c r="D22" s="109" t="s">
-        <v>901</v>
+        <v>754</v>
       </c>
       <c r="E22" s="109"/>
       <c r="F22" s="109"/>
@@ -11953,13 +12260,13 @@
         <v>[Authentication-13]</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>905</v>
+        <v>758</v>
       </c>
       <c r="C23" s="109" t="s">
-        <v>731</v>
+        <v>822</v>
       </c>
       <c r="D23" s="109" t="s">
-        <v>902</v>
+        <v>755</v>
       </c>
       <c r="E23" s="109"/>
       <c r="F23" s="109"/>
@@ -11974,13 +12281,13 @@
         <v>[Authentication-14]</v>
       </c>
       <c r="B24" s="97" t="s">
-        <v>906</v>
+        <v>759</v>
       </c>
       <c r="C24" s="109" t="s">
-        <v>732</v>
+        <v>823</v>
       </c>
       <c r="D24" s="109" t="s">
-        <v>903</v>
+        <v>756</v>
       </c>
       <c r="E24" s="109"/>
       <c r="F24" s="109"/>
@@ -11995,13 +12302,13 @@
         <v>[Authentication-15]</v>
       </c>
       <c r="B25" s="97" t="s">
-        <v>907</v>
+        <v>760</v>
       </c>
       <c r="C25" s="109" t="s">
-        <v>733</v>
+        <v>824</v>
       </c>
       <c r="D25" s="109" t="s">
-        <v>904</v>
+        <v>757</v>
       </c>
       <c r="E25" s="109"/>
       <c r="F25" s="109"/>
@@ -12013,7 +12320,7 @@
     <row r="26" spans="1:10" ht="14.25" customHeight="1">
       <c r="A26" s="228"/>
       <c r="B26" s="228" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C26" s="229"/>
       <c r="D26" s="229"/>
@@ -12030,16 +12337,16 @@
         <v>[Authentication-17]</v>
       </c>
       <c r="B27" s="109" t="s">
-        <v>736</v>
+        <v>624</v>
       </c>
       <c r="C27" s="109" t="s">
-        <v>908</v>
+        <v>761</v>
       </c>
       <c r="D27" s="109" t="s">
-        <v>909</v>
+        <v>762</v>
       </c>
       <c r="E27" s="109" t="s">
-        <v>735</v>
+        <v>623</v>
       </c>
       <c r="F27" s="109"/>
       <c r="G27" s="109"/>
@@ -12050,7 +12357,7 @@
     <row r="28" spans="1:10" ht="14.25" customHeight="1">
       <c r="A28" s="228"/>
       <c r="B28" s="228" t="s">
-        <v>522</v>
+        <v>836</v>
       </c>
       <c r="C28" s="229"/>
       <c r="D28" s="229"/>
@@ -12067,13 +12374,13 @@
         <v>[Authentication-19]</v>
       </c>
       <c r="B29" s="109" t="s">
-        <v>738</v>
+        <v>626</v>
       </c>
       <c r="C29" s="109" t="s">
-        <v>737</v>
+        <v>625</v>
       </c>
       <c r="D29" s="109" t="s">
-        <v>743</v>
+        <v>631</v>
       </c>
       <c r="E29" s="109"/>
       <c r="F29" s="109"/>
@@ -12088,13 +12395,13 @@
         <v>[Authentication-20]</v>
       </c>
       <c r="B30" s="109" t="s">
-        <v>739</v>
+        <v>627</v>
       </c>
       <c r="C30" s="109" t="s">
-        <v>737</v>
+        <v>625</v>
       </c>
       <c r="D30" s="109" t="s">
-        <v>742</v>
+        <v>630</v>
       </c>
       <c r="E30" s="109"/>
       <c r="F30" s="109"/>
@@ -12109,13 +12416,13 @@
         <v>[Authentication-21]</v>
       </c>
       <c r="B31" s="109" t="s">
-        <v>740</v>
+        <v>628</v>
       </c>
       <c r="C31" s="109" t="s">
-        <v>707</v>
+        <v>600</v>
       </c>
       <c r="D31" s="109" t="s">
-        <v>768</v>
+        <v>648</v>
       </c>
       <c r="E31" s="109"/>
       <c r="F31" s="109"/>
@@ -12130,13 +12437,13 @@
         <v>[Authentication-22]</v>
       </c>
       <c r="B32" s="109" t="s">
-        <v>741</v>
+        <v>629</v>
       </c>
       <c r="C32" s="109" t="s">
-        <v>707</v>
+        <v>600</v>
       </c>
       <c r="D32" s="109" t="s">
-        <v>769</v>
+        <v>649</v>
       </c>
       <c r="E32" s="109"/>
       <c r="F32" s="109"/>
@@ -12151,13 +12458,13 @@
         <v>[Authentication-23]</v>
       </c>
       <c r="B33" s="109" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C33" s="109" t="s">
-        <v>745</v>
+        <v>633</v>
       </c>
       <c r="D33" s="109" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="E33" s="109"/>
       <c r="F33" s="109"/>
@@ -12172,13 +12479,13 @@
         <v>[Authentication-24]</v>
       </c>
       <c r="B34" s="109" t="s">
-        <v>911</v>
+        <v>764</v>
       </c>
       <c r="C34" s="109" t="s">
-        <v>746</v>
+        <v>825</v>
       </c>
       <c r="D34" s="109" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="E34" s="109"/>
       <c r="F34" s="109"/>
@@ -12193,13 +12500,13 @@
         <v>[Authentication-25]</v>
       </c>
       <c r="B35" s="109" t="s">
-        <v>912</v>
+        <v>765</v>
       </c>
       <c r="C35" s="109" t="s">
-        <v>747</v>
+        <v>634</v>
       </c>
       <c r="D35" s="109" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="E35" s="109"/>
       <c r="F35" s="109"/>
@@ -12214,13 +12521,13 @@
         <v>[Authentication-26]</v>
       </c>
       <c r="B36" s="109" t="s">
-        <v>913</v>
+        <v>766</v>
       </c>
       <c r="C36" s="109" t="s">
-        <v>748</v>
+        <v>635</v>
       </c>
       <c r="D36" s="109" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="E36" s="109"/>
       <c r="F36" s="109"/>
@@ -12235,13 +12542,13 @@
         <v>[Authentication-27]</v>
       </c>
       <c r="B37" s="109" t="s">
-        <v>914</v>
+        <v>767</v>
       </c>
       <c r="C37" s="109" t="s">
-        <v>749</v>
+        <v>636</v>
       </c>
       <c r="D37" s="109" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="E37" s="109"/>
       <c r="F37" s="109"/>
@@ -12256,13 +12563,13 @@
         <v>[Authentication-28]</v>
       </c>
       <c r="B38" s="109" t="s">
-        <v>915</v>
+        <v>768</v>
       </c>
       <c r="C38" s="109" t="s">
-        <v>750</v>
+        <v>637</v>
       </c>
       <c r="D38" s="109" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="E38" s="109"/>
       <c r="F38" s="109"/>
@@ -12277,13 +12584,13 @@
         <v>[Authentication-29]</v>
       </c>
       <c r="B39" s="109" t="s">
-        <v>916</v>
+        <v>769</v>
       </c>
       <c r="C39" s="109" t="s">
-        <v>751</v>
+        <v>638</v>
       </c>
       <c r="D39" s="109" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="E39" s="109"/>
       <c r="F39" s="109"/>
@@ -12298,13 +12605,13 @@
         <v>[Authentication-30]</v>
       </c>
       <c r="B40" s="109" t="s">
-        <v>917</v>
+        <v>770</v>
       </c>
       <c r="C40" s="109" t="s">
-        <v>752</v>
+        <v>639</v>
       </c>
       <c r="D40" s="109" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="E40" s="109"/>
       <c r="F40" s="109"/>
@@ -12319,13 +12626,13 @@
         <v>[Authentication-31]</v>
       </c>
       <c r="B41" s="109" t="s">
-        <v>918</v>
+        <v>771</v>
       </c>
       <c r="C41" s="109" t="s">
-        <v>753</v>
+        <v>640</v>
       </c>
       <c r="D41" s="109" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="E41" s="109"/>
       <c r="F41" s="109"/>
@@ -12340,13 +12647,13 @@
         <v>[Authentication-32]</v>
       </c>
       <c r="B42" s="109" t="s">
-        <v>919</v>
+        <v>772</v>
       </c>
       <c r="C42" s="109" t="s">
-        <v>754</v>
+        <v>641</v>
       </c>
       <c r="D42" s="109" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="E42" s="109"/>
       <c r="F42" s="109"/>
@@ -12361,13 +12668,13 @@
         <v>[Authentication-33]</v>
       </c>
       <c r="B43" s="109" t="s">
-        <v>920</v>
+        <v>773</v>
       </c>
       <c r="C43" s="109" t="s">
-        <v>755</v>
+        <v>826</v>
       </c>
       <c r="D43" s="230" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="E43" s="109"/>
       <c r="F43" s="109"/>
@@ -12382,13 +12689,13 @@
         <v>[Authentication-34]</v>
       </c>
       <c r="B44" s="109" t="s">
-        <v>921</v>
+        <v>774</v>
       </c>
       <c r="C44" s="109" t="s">
-        <v>756</v>
+        <v>827</v>
       </c>
       <c r="D44" s="230" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="E44" s="109"/>
       <c r="F44" s="109"/>
@@ -12403,18 +12710,18 @@
         <v>[Authentication-35]</v>
       </c>
       <c r="B45" s="95" t="s">
-        <v>922</v>
+        <v>775</v>
       </c>
       <c r="C45" s="95" t="s">
-        <v>757</v>
-      </c>
-      <c r="D45" s="254" t="s">
-        <v>744</v>
+        <v>828</v>
+      </c>
+      <c r="D45" s="251" t="s">
+        <v>632</v>
       </c>
       <c r="E45" s="95"/>
       <c r="F45" s="95"/>
       <c r="G45" s="95"/>
-      <c r="H45" s="255"/>
+      <c r="H45" s="252"/>
       <c r="I45" s="91"/>
       <c r="J45" s="90"/>
     </row>
@@ -12424,19 +12731,19 @@
         <v>[Authentication-36]</v>
       </c>
       <c r="B46" s="97" t="s">
-        <v>923</v>
+        <v>776</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>758</v>
+        <v>829</v>
       </c>
       <c r="D46" s="144" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="E46" s="97"/>
       <c r="F46" s="97"/>
       <c r="G46" s="97"/>
-      <c r="H46" s="255"/>
-      <c r="I46" s="257"/>
+      <c r="H46" s="252"/>
+      <c r="I46" s="254"/>
       <c r="J46" s="90"/>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1">
@@ -12445,13 +12752,13 @@
         <v>[Authentication-37]</v>
       </c>
       <c r="B47" s="109" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C47" s="109" t="s">
-        <v>759</v>
+        <v>642</v>
       </c>
       <c r="D47" s="109" t="s">
-        <v>770</v>
+        <v>650</v>
       </c>
       <c r="E47" s="97"/>
       <c r="F47" s="97"/>
@@ -12466,13 +12773,13 @@
         <v>[Authentication-38]</v>
       </c>
       <c r="B48" s="109" t="s">
-        <v>911</v>
+        <v>764</v>
       </c>
       <c r="C48" s="109" t="s">
-        <v>761</v>
+        <v>830</v>
       </c>
       <c r="D48" s="109" t="s">
-        <v>771</v>
+        <v>651</v>
       </c>
       <c r="E48" s="97"/>
       <c r="F48" s="97"/>
@@ -12487,13 +12794,13 @@
         <v>[Authentication-39]</v>
       </c>
       <c r="B49" s="109" t="s">
-        <v>912</v>
+        <v>765</v>
       </c>
       <c r="C49" s="109" t="s">
-        <v>760</v>
+        <v>643</v>
       </c>
       <c r="D49" s="109" t="s">
-        <v>772</v>
+        <v>652</v>
       </c>
       <c r="E49" s="97"/>
       <c r="F49" s="97"/>
@@ -12508,13 +12815,13 @@
         <v>[Authentication-40]</v>
       </c>
       <c r="B50" s="109" t="s">
-        <v>913</v>
+        <v>766</v>
       </c>
       <c r="C50" s="109" t="s">
-        <v>762</v>
+        <v>644</v>
       </c>
       <c r="D50" s="109" t="s">
-        <v>773</v>
+        <v>653</v>
       </c>
       <c r="E50" s="97"/>
       <c r="F50" s="97"/>
@@ -12529,13 +12836,13 @@
         <v>[Authentication-41]</v>
       </c>
       <c r="B51" s="109" t="s">
-        <v>914</v>
+        <v>767</v>
       </c>
       <c r="C51" s="109" t="s">
-        <v>763</v>
+        <v>645</v>
       </c>
       <c r="D51" s="109" t="s">
-        <v>774</v>
+        <v>654</v>
       </c>
       <c r="E51" s="97"/>
       <c r="F51" s="97"/>
@@ -12550,13 +12857,13 @@
         <v>[Authentication-42]</v>
       </c>
       <c r="B52" s="109" t="s">
-        <v>915</v>
+        <v>768</v>
       </c>
       <c r="C52" s="109" t="s">
-        <v>764</v>
+        <v>646</v>
       </c>
       <c r="D52" s="109" t="s">
-        <v>775</v>
+        <v>655</v>
       </c>
       <c r="E52" s="97"/>
       <c r="F52" s="97"/>
@@ -12571,13 +12878,13 @@
         <v>[Authentication-43]</v>
       </c>
       <c r="B53" s="109" t="s">
-        <v>916</v>
+        <v>769</v>
       </c>
       <c r="C53" s="109" t="s">
-        <v>765</v>
+        <v>647</v>
       </c>
       <c r="D53" s="109" t="s">
-        <v>776</v>
+        <v>656</v>
       </c>
       <c r="E53" s="97"/>
       <c r="F53" s="97"/>
@@ -12592,13 +12899,13 @@
         <v>[Authentication-44]</v>
       </c>
       <c r="B54" s="109" t="s">
-        <v>924</v>
+        <v>777</v>
       </c>
       <c r="C54" s="109" t="s">
-        <v>781</v>
+        <v>831</v>
       </c>
       <c r="D54" s="109" t="s">
-        <v>782</v>
+        <v>660</v>
       </c>
       <c r="E54" s="97"/>
       <c r="F54" s="97"/>
@@ -12613,13 +12920,13 @@
         <v>[Authentication-45]</v>
       </c>
       <c r="B55" s="109" t="s">
-        <v>918</v>
+        <v>771</v>
       </c>
       <c r="C55" s="109" t="s">
-        <v>777</v>
+        <v>657</v>
       </c>
       <c r="D55" s="109" t="s">
-        <v>783</v>
+        <v>661</v>
       </c>
       <c r="E55" s="97"/>
       <c r="F55" s="97"/>
@@ -12634,13 +12941,13 @@
         <v>[Authentication-46]</v>
       </c>
       <c r="B56" s="109" t="s">
-        <v>919</v>
+        <v>772</v>
       </c>
       <c r="C56" s="109" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="D56" s="109" t="s">
-        <v>784</v>
+        <v>662</v>
       </c>
       <c r="E56" s="97"/>
       <c r="F56" s="97"/>
@@ -12655,13 +12962,13 @@
         <v>[Authentication-47]</v>
       </c>
       <c r="B57" s="109" t="s">
-        <v>920</v>
+        <v>773</v>
       </c>
       <c r="C57" s="109" t="s">
-        <v>766</v>
+        <v>833</v>
       </c>
       <c r="D57" s="230" t="s">
-        <v>778</v>
+        <v>658</v>
       </c>
       <c r="E57" s="97"/>
       <c r="F57" s="97"/>
@@ -12676,13 +12983,13 @@
         <v>[Authentication-48]</v>
       </c>
       <c r="B58" s="109" t="s">
-        <v>921</v>
+        <v>774</v>
       </c>
       <c r="C58" s="109" t="s">
-        <v>785</v>
+        <v>834</v>
       </c>
       <c r="D58" s="230" t="s">
-        <v>786</v>
+        <v>663</v>
       </c>
       <c r="E58" s="97"/>
       <c r="F58" s="97"/>
@@ -12697,13 +13004,13 @@
         <v>[Authentication-49]</v>
       </c>
       <c r="B59" s="95" t="s">
-        <v>922</v>
+        <v>775</v>
       </c>
       <c r="C59" s="95" t="s">
-        <v>767</v>
-      </c>
-      <c r="D59" s="254" t="s">
-        <v>779</v>
+        <v>835</v>
+      </c>
+      <c r="D59" s="251" t="s">
+        <v>659</v>
       </c>
       <c r="E59" s="97"/>
       <c r="F59" s="97"/>
@@ -12718,13 +13025,13 @@
         <v>[Authentication-50]</v>
       </c>
       <c r="B60" s="97" t="s">
-        <v>923</v>
+        <v>776</v>
       </c>
       <c r="C60" s="97" t="s">
-        <v>788</v>
+        <v>819</v>
       </c>
       <c r="D60" s="144" t="s">
-        <v>787</v>
+        <v>664</v>
       </c>
       <c r="E60" s="97"/>
       <c r="F60" s="97"/>
@@ -12736,7 +13043,7 @@
     <row r="61" spans="1:10" ht="14.25" customHeight="1">
       <c r="A61" s="228"/>
       <c r="B61" s="228" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C61" s="229"/>
       <c r="D61" s="229"/>
@@ -12749,17 +13056,17 @@
     </row>
     <row r="62" spans="1:10" ht="14.25" customHeight="1">
       <c r="A62" s="109" t="str">
-        <f t="shared" ref="A62:A67" si="3">IF(OR(B62&lt;&gt;"",D62&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A62:A89" si="3">IF(OR(B62&lt;&gt;"",D62&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Authentication-52]</v>
       </c>
       <c r="B62" s="109" t="s">
-        <v>825</v>
+        <v>701</v>
       </c>
       <c r="C62" s="109" t="s">
-        <v>828</v>
+        <v>704</v>
       </c>
       <c r="D62" s="109" t="s">
-        <v>832</v>
+        <v>708</v>
       </c>
       <c r="E62" s="109"/>
       <c r="F62" s="109"/>
@@ -12774,13 +13081,13 @@
         <v>[Authentication-53]</v>
       </c>
       <c r="B63" s="109" t="s">
-        <v>826</v>
+        <v>702</v>
       </c>
       <c r="C63" s="109" t="s">
-        <v>828</v>
+        <v>704</v>
       </c>
       <c r="D63" s="109" t="s">
-        <v>832</v>
+        <v>708</v>
       </c>
       <c r="E63" s="109"/>
       <c r="F63" s="109"/>
@@ -12795,13 +13102,13 @@
         <v>[Authentication-54]</v>
       </c>
       <c r="B64" s="109" t="s">
-        <v>827</v>
+        <v>703</v>
       </c>
       <c r="C64" s="109" t="s">
-        <v>829</v>
+        <v>705</v>
       </c>
       <c r="D64" s="109" t="s">
-        <v>832</v>
+        <v>708</v>
       </c>
       <c r="E64" s="109"/>
       <c r="F64" s="109"/>
@@ -12815,14 +13122,14 @@
         <f t="shared" si="3"/>
         <v>[Authentication-55]</v>
       </c>
-      <c r="B65" s="232" t="s">
-        <v>830</v>
-      </c>
-      <c r="C65" s="109" t="s">
-        <v>833</v>
-      </c>
-      <c r="D65" s="231" t="s">
-        <v>834</v>
+      <c r="B65" s="263" t="s">
+        <v>706</v>
+      </c>
+      <c r="C65" s="95" t="s">
+        <v>709</v>
+      </c>
+      <c r="D65" s="264" t="s">
+        <v>710</v>
       </c>
       <c r="E65" s="109"/>
       <c r="F65" s="109"/>
@@ -12832,20 +13139,20 @@
       <c r="J65" s="90"/>
     </row>
     <row r="66" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A66" s="109" t="str">
+      <c r="A66" s="143" t="str">
         <f t="shared" si="3"/>
         <v>[Authentication-56]</v>
       </c>
-      <c r="B66" s="232" t="s">
-        <v>831</v>
-      </c>
-      <c r="C66" s="109" t="s">
-        <v>835</v>
-      </c>
-      <c r="D66" s="231" t="s">
-        <v>836</v>
-      </c>
-      <c r="E66" s="109"/>
+      <c r="B66" s="267" t="s">
+        <v>707</v>
+      </c>
+      <c r="C66" s="268" t="s">
+        <v>711</v>
+      </c>
+      <c r="D66" s="269" t="s">
+        <v>712</v>
+      </c>
+      <c r="E66" s="175"/>
       <c r="F66" s="109"/>
       <c r="G66" s="109"/>
       <c r="H66" s="104"/>
@@ -12853,20 +13160,20 @@
       <c r="J66" s="90"/>
     </row>
     <row r="67" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A67" s="109" t="str">
+      <c r="A67" s="142" t="str">
         <f t="shared" si="3"/>
         <v>[Authentication-57]</v>
       </c>
-      <c r="B67" s="232" t="s">
-        <v>837</v>
-      </c>
-      <c r="C67" s="109" t="s">
-        <v>838</v>
-      </c>
-      <c r="D67" s="231" t="s">
-        <v>839</v>
-      </c>
-      <c r="E67" s="109"/>
+      <c r="B67" s="270" t="s">
+        <v>713</v>
+      </c>
+      <c r="C67" s="271" t="s">
+        <v>714</v>
+      </c>
+      <c r="D67" s="272" t="s">
+        <v>715</v>
+      </c>
+      <c r="E67" s="175"/>
       <c r="F67" s="109"/>
       <c r="G67" s="109"/>
       <c r="H67" s="104"/>
@@ -12874,10 +13181,442 @@
       <c r="J67" s="90"/>
     </row>
     <row r="68" spans="1:10">
+      <c r="A68" s="228"/>
+      <c r="B68" s="323" t="s">
+        <v>836</v>
+      </c>
+      <c r="C68" s="324"/>
+      <c r="D68" s="324"/>
+      <c r="E68" s="324"/>
+      <c r="F68" s="273"/>
+      <c r="G68" s="273"/>
+      <c r="H68" s="273"/>
+      <c r="I68" s="274"/>
       <c r="J68" s="90"/>
     </row>
+    <row r="69" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A69" s="265" t="str">
+        <f t="shared" si="3"/>
+        <v>[Authentication-59]</v>
+      </c>
+      <c r="B69" s="265" t="s">
+        <v>837</v>
+      </c>
+      <c r="C69" s="265" t="s">
+        <v>838</v>
+      </c>
+      <c r="D69" s="265" t="s">
+        <v>839</v>
+      </c>
+      <c r="E69" s="146"/>
+      <c r="F69" s="146"/>
+      <c r="G69" s="146"/>
+      <c r="H69" s="147"/>
+      <c r="I69" s="146"/>
+    </row>
+    <row r="70" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A70" s="265" t="str">
+        <f t="shared" si="3"/>
+        <v>[Authentication-60]</v>
+      </c>
+      <c r="B70" s="265" t="s">
+        <v>837</v>
+      </c>
+      <c r="C70" s="265" t="s">
+        <v>838</v>
+      </c>
+      <c r="D70" s="265" t="s">
+        <v>840</v>
+      </c>
+      <c r="E70" s="146"/>
+      <c r="F70" s="146"/>
+      <c r="G70" s="146"/>
+      <c r="H70" s="147"/>
+      <c r="I70" s="146"/>
+    </row>
+    <row r="71" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A71" s="265" t="str">
+        <f t="shared" si="3"/>
+        <v>[Authentication-61]</v>
+      </c>
+      <c r="B71" s="265" t="s">
+        <v>841</v>
+      </c>
+      <c r="C71" s="265" t="s">
+        <v>842</v>
+      </c>
+      <c r="D71" s="265" t="s">
+        <v>845</v>
+      </c>
+      <c r="E71" s="146"/>
+      <c r="F71" s="146"/>
+      <c r="G71" s="146"/>
+      <c r="H71" s="147"/>
+      <c r="I71" s="146"/>
+    </row>
+    <row r="72" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A72" s="265" t="str">
+        <f t="shared" si="3"/>
+        <v>[Authentication-62]</v>
+      </c>
+      <c r="B72" s="109" t="s">
+        <v>513</v>
+      </c>
+      <c r="C72" s="265" t="s">
+        <v>843</v>
+      </c>
+      <c r="D72" s="265" t="s">
+        <v>844</v>
+      </c>
+      <c r="E72" s="146"/>
+      <c r="F72" s="146"/>
+      <c r="G72" s="146"/>
+      <c r="H72" s="147"/>
+      <c r="I72" s="146"/>
+    </row>
+    <row r="73" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A73" s="265" t="str">
+        <f t="shared" si="3"/>
+        <v>[Authentication-63]</v>
+      </c>
+      <c r="B73" s="109" t="s">
+        <v>846</v>
+      </c>
+      <c r="C73" s="265" t="s">
+        <v>847</v>
+      </c>
+      <c r="D73" s="265" t="s">
+        <v>848</v>
+      </c>
+      <c r="E73" s="146"/>
+      <c r="F73" s="146"/>
+      <c r="G73" s="146"/>
+      <c r="H73" s="147"/>
+      <c r="I73" s="146"/>
+    </row>
+    <row r="74" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A74" s="265" t="str">
+        <f t="shared" si="3"/>
+        <v>[Authentication-64]</v>
+      </c>
+      <c r="B74" s="109" t="s">
+        <v>849</v>
+      </c>
+      <c r="C74" s="265" t="s">
+        <v>850</v>
+      </c>
+      <c r="D74" s="265" t="s">
+        <v>851</v>
+      </c>
+      <c r="E74" s="146"/>
+      <c r="F74" s="146"/>
+      <c r="G74" s="146"/>
+      <c r="H74" s="147"/>
+      <c r="I74" s="146"/>
+    </row>
+    <row r="75" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A75" s="265" t="str">
+        <f t="shared" si="3"/>
+        <v>[Authentication-65]</v>
+      </c>
+      <c r="B75" s="109" t="s">
+        <v>852</v>
+      </c>
+      <c r="C75" s="265" t="s">
+        <v>855</v>
+      </c>
+      <c r="D75" s="265" t="s">
+        <v>853</v>
+      </c>
+      <c r="E75" s="146"/>
+      <c r="F75" s="146"/>
+      <c r="G75" s="146"/>
+      <c r="H75" s="147"/>
+      <c r="I75" s="146"/>
+    </row>
+    <row r="76" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A76" s="265" t="str">
+        <f t="shared" si="3"/>
+        <v>[Authentication-66]</v>
+      </c>
+      <c r="B76" s="109" t="s">
+        <v>854</v>
+      </c>
+      <c r="C76" s="265" t="s">
+        <v>858</v>
+      </c>
+      <c r="D76" s="265" t="s">
+        <v>856</v>
+      </c>
+      <c r="E76" s="146"/>
+      <c r="F76" s="146"/>
+      <c r="G76" s="146"/>
+      <c r="H76" s="147"/>
+      <c r="I76" s="146"/>
+    </row>
+    <row r="77" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A77" s="265" t="str">
+        <f t="shared" si="3"/>
+        <v>[Authentication-67]</v>
+      </c>
+      <c r="B77" s="109" t="s">
+        <v>857</v>
+      </c>
+      <c r="C77" s="265" t="s">
+        <v>859</v>
+      </c>
+      <c r="D77" s="265" t="s">
+        <v>860</v>
+      </c>
+      <c r="E77" s="146"/>
+      <c r="F77" s="146"/>
+      <c r="G77" s="146"/>
+      <c r="H77" s="147"/>
+      <c r="I77" s="146"/>
+    </row>
+    <row r="78" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A78" s="265" t="str">
+        <f>IF(OR(B78&lt;&gt;"",D78&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Authentication-68]</v>
+      </c>
+      <c r="B78" s="109" t="s">
+        <v>861</v>
+      </c>
+      <c r="C78" s="265" t="s">
+        <v>862</v>
+      </c>
+      <c r="D78" s="265" t="s">
+        <v>863</v>
+      </c>
+      <c r="E78" s="146"/>
+      <c r="F78" s="146"/>
+      <c r="G78" s="146"/>
+      <c r="H78" s="147"/>
+      <c r="I78" s="146"/>
+    </row>
+    <row r="79" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A79" s="265" t="str">
+        <f t="shared" si="3"/>
+        <v>[Authentication-69]</v>
+      </c>
+      <c r="B79" s="109" t="s">
+        <v>864</v>
+      </c>
+      <c r="C79" s="265" t="s">
+        <v>865</v>
+      </c>
+      <c r="D79" s="265" t="s">
+        <v>872</v>
+      </c>
+      <c r="E79" s="146"/>
+      <c r="F79" s="146"/>
+      <c r="G79" s="146"/>
+      <c r="H79" s="147"/>
+      <c r="I79" s="146"/>
+    </row>
+    <row r="80" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A80" s="265" t="str">
+        <f t="shared" si="3"/>
+        <v>[Authentication-70]</v>
+      </c>
+      <c r="B80" s="109" t="s">
+        <v>866</v>
+      </c>
+      <c r="C80" s="265" t="s">
+        <v>867</v>
+      </c>
+      <c r="D80" s="265" t="s">
+        <v>871</v>
+      </c>
+      <c r="E80" s="146"/>
+      <c r="F80" s="146"/>
+      <c r="G80" s="146"/>
+      <c r="H80" s="147"/>
+      <c r="I80" s="146"/>
+    </row>
+    <row r="81" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A81" s="265" t="str">
+        <f t="shared" si="3"/>
+        <v>[Authentication-71]</v>
+      </c>
+      <c r="B81" s="109" t="s">
+        <v>868</v>
+      </c>
+      <c r="C81" s="265" t="s">
+        <v>869</v>
+      </c>
+      <c r="D81" s="265" t="s">
+        <v>870</v>
+      </c>
+      <c r="E81" s="146"/>
+      <c r="F81" s="146"/>
+      <c r="G81" s="146"/>
+      <c r="H81" s="147"/>
+      <c r="I81" s="146"/>
+    </row>
+    <row r="82" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A82" s="265" t="str">
+        <f t="shared" si="3"/>
+        <v>[Authentication-72]</v>
+      </c>
+      <c r="B82" s="109" t="s">
+        <v>873</v>
+      </c>
+      <c r="C82" s="265" t="s">
+        <v>874</v>
+      </c>
+      <c r="D82" s="265" t="s">
+        <v>875</v>
+      </c>
+      <c r="E82" s="146"/>
+      <c r="F82" s="146"/>
+      <c r="G82" s="146"/>
+      <c r="H82" s="147"/>
+      <c r="I82" s="146"/>
+    </row>
+    <row r="83" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A83" s="265" t="str">
+        <f t="shared" si="3"/>
+        <v>[Authentication-73]</v>
+      </c>
+      <c r="B83" s="109" t="s">
+        <v>876</v>
+      </c>
+      <c r="C83" s="265" t="s">
+        <v>874</v>
+      </c>
+      <c r="D83" s="265" t="s">
+        <v>875</v>
+      </c>
+      <c r="E83" s="146"/>
+      <c r="F83" s="146"/>
+      <c r="G83" s="146"/>
+      <c r="H83" s="147"/>
+      <c r="I83" s="146"/>
+    </row>
+    <row r="84" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A84" s="265" t="str">
+        <f t="shared" si="3"/>
+        <v>[Authentication-74]</v>
+      </c>
+      <c r="B84" s="109" t="s">
+        <v>877</v>
+      </c>
+      <c r="C84" s="265" t="s">
+        <v>879</v>
+      </c>
+      <c r="D84" s="265" t="s">
+        <v>882</v>
+      </c>
+      <c r="E84" s="146"/>
+      <c r="F84" s="146"/>
+      <c r="G84" s="146"/>
+      <c r="H84" s="147"/>
+      <c r="I84" s="146"/>
+    </row>
+    <row r="85" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A85" s="265" t="str">
+        <f t="shared" si="3"/>
+        <v>[Authentication-75]</v>
+      </c>
+      <c r="B85" s="109" t="s">
+        <v>878</v>
+      </c>
+      <c r="C85" s="265" t="s">
+        <v>881</v>
+      </c>
+      <c r="D85" s="265" t="s">
+        <v>880</v>
+      </c>
+      <c r="E85" s="146"/>
+      <c r="F85" s="146"/>
+      <c r="G85" s="146"/>
+      <c r="H85" s="147"/>
+      <c r="I85" s="146"/>
+    </row>
+    <row r="86" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A86" s="265" t="str">
+        <f t="shared" si="3"/>
+        <v>[Authentication-76]</v>
+      </c>
+      <c r="B86" s="109" t="s">
+        <v>883</v>
+      </c>
+      <c r="C86" s="265" t="s">
+        <v>884</v>
+      </c>
+      <c r="D86" s="265" t="s">
+        <v>885</v>
+      </c>
+      <c r="E86" s="146"/>
+      <c r="F86" s="146"/>
+      <c r="G86" s="146"/>
+      <c r="H86" s="147"/>
+      <c r="I86" s="146"/>
+    </row>
+    <row r="87" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A87" s="265" t="str">
+        <f t="shared" si="3"/>
+        <v>[Authentication-77]</v>
+      </c>
+      <c r="B87" s="95" t="s">
+        <v>886</v>
+      </c>
+      <c r="C87" s="266" t="s">
+        <v>887</v>
+      </c>
+      <c r="D87" s="265" t="s">
+        <v>888</v>
+      </c>
+      <c r="E87" s="146"/>
+      <c r="F87" s="146"/>
+      <c r="G87" s="146"/>
+      <c r="H87" s="147"/>
+      <c r="I87" s="146"/>
+    </row>
+    <row r="88" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A88" s="265" t="str">
+        <f t="shared" si="3"/>
+        <v>[Authentication-78]</v>
+      </c>
+      <c r="B88" s="97" t="s">
+        <v>889</v>
+      </c>
+      <c r="C88" s="265" t="s">
+        <v>890</v>
+      </c>
+      <c r="D88" s="265" t="s">
+        <v>891</v>
+      </c>
+      <c r="E88" s="146"/>
+      <c r="F88" s="146"/>
+      <c r="G88" s="146"/>
+      <c r="H88" s="147"/>
+      <c r="I88" s="146"/>
+    </row>
+    <row r="89" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A89" s="265" t="str">
+        <f t="shared" si="3"/>
+        <v>[Authentication-79]</v>
+      </c>
+      <c r="B89" s="97" t="s">
+        <v>892</v>
+      </c>
+      <c r="C89" s="265" t="s">
+        <v>893</v>
+      </c>
+      <c r="D89" s="265" t="s">
+        <v>894</v>
+      </c>
+      <c r="E89" s="146"/>
+      <c r="F89" s="146"/>
+      <c r="G89" s="146"/>
+      <c r="H89" s="147"/>
+      <c r="I89" s="146"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B68:E68"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
@@ -12902,8 +13641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW111"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13181,14 +13920,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="276" t="s">
-        <v>694</v>
-      </c>
-      <c r="C2" s="277"/>
-      <c r="D2" s="277"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="277"/>
-      <c r="G2" s="278"/>
+      <c r="B2" s="293" t="s">
+        <v>587</v>
+      </c>
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="294"/>
+      <c r="G2" s="295"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -13439,14 +14178,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="279" t="s">
-        <v>622</v>
-      </c>
-      <c r="C3" s="280"/>
-      <c r="D3" s="280"/>
-      <c r="E3" s="280"/>
-      <c r="F3" s="280"/>
-      <c r="G3" s="281"/>
+      <c r="B3" s="296" t="s">
+        <v>585</v>
+      </c>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="298"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -13697,14 +14436,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="279" t="s">
-        <v>573</v>
-      </c>
-      <c r="C4" s="280"/>
-      <c r="D4" s="280"/>
-      <c r="E4" s="280"/>
-      <c r="F4" s="280"/>
-      <c r="G4" s="281"/>
+      <c r="B4" s="296" t="s">
+        <v>549</v>
+      </c>
+      <c r="C4" s="297"/>
+      <c r="D4" s="297"/>
+      <c r="E4" s="297"/>
+      <c r="F4" s="297"/>
+      <c r="G4" s="298"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -13962,11 +14701,11 @@
       <c r="D5" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="282" t="s">
+      <c r="E5" s="299" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="283"/>
-      <c r="G5" s="284"/>
+      <c r="F5" s="300"/>
+      <c r="G5" s="301"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -14230,12 +14969,12 @@
         <f>COUNTIF(F12:G143,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="285">
+      <c r="E6" s="302">
         <f>COUNTA(A12:A143)</f>
         <v>41</v>
       </c>
-      <c r="F6" s="286"/>
-      <c r="G6" s="287"/>
+      <c r="F6" s="303"/>
+      <c r="G6" s="304"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -15514,17 +16253,17 @@
       <c r="IN10" s="78"/>
     </row>
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
-      <c r="A11" s="259"/>
-      <c r="B11" s="259" t="s">
-        <v>519</v>
-      </c>
-      <c r="C11" s="259"/>
-      <c r="D11" s="259"/>
-      <c r="E11" s="259"/>
-      <c r="F11" s="259"/>
-      <c r="G11" s="259"/>
-      <c r="H11" s="259"/>
-      <c r="I11" s="259"/>
+      <c r="A11" s="276"/>
+      <c r="B11" s="276" t="s">
+        <v>512</v>
+      </c>
+      <c r="C11" s="276"/>
+      <c r="D11" s="276"/>
+      <c r="E11" s="276"/>
+      <c r="F11" s="276"/>
+      <c r="G11" s="276"/>
+      <c r="H11" s="276"/>
+      <c r="I11" s="276"/>
       <c r="J11" s="78"/>
       <c r="K11" s="78"/>
       <c r="L11" s="78"/>
@@ -15771,19 +16510,19 @@
         <v>[Mod Module-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>840</v>
+        <v>716</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>927</v>
+        <v>985</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>842</v>
-      </c>
-      <c r="E12" s="237"/>
+        <v>904</v>
+      </c>
+      <c r="E12" s="236"/>
       <c r="F12" s="97"/>
       <c r="G12" s="97"/>
       <c r="H12" s="104"/>
-      <c r="I12" s="238"/>
+      <c r="I12" s="237"/>
       <c r="J12" s="90"/>
     </row>
     <row r="13" spans="1:257" ht="14.25" customHeight="1">
@@ -15792,19 +16531,19 @@
         <v>[Mod Module-3]</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>841</v>
+        <v>896</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>927</v>
+        <v>985</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>843</v>
-      </c>
-      <c r="E13" s="237"/>
+        <v>904</v>
+      </c>
+      <c r="E13" s="236"/>
       <c r="F13" s="97"/>
       <c r="G13" s="97"/>
       <c r="H13" s="104"/>
-      <c r="I13" s="238"/>
+      <c r="I13" s="237"/>
       <c r="J13" s="90"/>
     </row>
     <row r="14" spans="1:257" ht="14.25" customHeight="1">
@@ -15813,19 +16552,19 @@
         <v>[Mod Module-4]</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>863</v>
+        <v>986</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>928</v>
+        <v>987</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>864</v>
-      </c>
-      <c r="E14" s="239"/>
+        <v>988</v>
+      </c>
+      <c r="E14" s="238"/>
       <c r="F14" s="97"/>
       <c r="G14" s="97"/>
       <c r="H14" s="104"/>
-      <c r="I14" s="240"/>
+      <c r="I14" s="239"/>
       <c r="J14" s="90"/>
     </row>
     <row r="15" spans="1:257" ht="14.25" customHeight="1">
@@ -15834,19 +16573,19 @@
         <v>[Mod Module-5]</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>576</v>
+        <v>550</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>929</v>
+        <v>989</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>865</v>
-      </c>
-      <c r="E15" s="239"/>
+        <v>906</v>
+      </c>
+      <c r="E15" s="238"/>
       <c r="F15" s="97"/>
       <c r="G15" s="97"/>
       <c r="H15" s="104"/>
-      <c r="I15" s="240"/>
+      <c r="I15" s="239"/>
       <c r="J15" s="90"/>
     </row>
     <row r="16" spans="1:257" ht="14.25" customHeight="1">
@@ -15855,19 +16594,19 @@
         <v>[Mod Module-6]</v>
       </c>
       <c r="B16" s="97" t="s">
-        <v>577</v>
+        <v>551</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>930</v>
+        <v>990</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>866</v>
-      </c>
-      <c r="E16" s="239"/>
+        <v>907</v>
+      </c>
+      <c r="E16" s="238"/>
       <c r="F16" s="97"/>
       <c r="G16" s="97"/>
       <c r="H16" s="104"/>
-      <c r="I16" s="240"/>
+      <c r="I16" s="239"/>
       <c r="J16" s="90"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1">
@@ -15876,19 +16615,19 @@
         <v>[Mod Module-7]</v>
       </c>
       <c r="B17" s="97" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>931</v>
+        <v>991</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>867</v>
-      </c>
-      <c r="E17" s="239"/>
+        <v>908</v>
+      </c>
+      <c r="E17" s="238"/>
       <c r="F17" s="97"/>
       <c r="G17" s="97"/>
       <c r="H17" s="104"/>
-      <c r="I17" s="240"/>
+      <c r="I17" s="239"/>
       <c r="J17" s="90"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1">
@@ -15897,21 +16636,19 @@
         <v>[Mod Module-8]</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>879</v>
+        <v>992</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>932</v>
+        <v>993</v>
       </c>
       <c r="D18" s="97" t="s">
-        <v>868</v>
-      </c>
-      <c r="E18" s="239" t="s">
-        <v>959</v>
-      </c>
+        <v>994</v>
+      </c>
+      <c r="E18" s="238"/>
       <c r="F18" s="97"/>
       <c r="G18" s="97"/>
       <c r="H18" s="104"/>
-      <c r="I18" s="240"/>
+      <c r="I18" s="239"/>
       <c r="J18" s="90"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1">
@@ -15920,19 +16657,19 @@
         <v>[Mod Module-9]</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>877</v>
+        <v>995</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>933</v>
+        <v>996</v>
       </c>
       <c r="D19" s="97" t="s">
-        <v>878</v>
-      </c>
-      <c r="E19" s="239"/>
+        <v>911</v>
+      </c>
+      <c r="E19" s="238"/>
       <c r="F19" s="97"/>
       <c r="G19" s="97"/>
       <c r="H19" s="104"/>
-      <c r="I19" s="240"/>
+      <c r="I19" s="239"/>
       <c r="J19" s="90"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1">
@@ -15941,19 +16678,19 @@
         <v>[Mod Module-10]</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>875</v>
+        <v>912</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>934</v>
+        <v>997</v>
       </c>
       <c r="D20" s="97" t="s">
-        <v>876</v>
-      </c>
-      <c r="E20" s="239"/>
+        <v>915</v>
+      </c>
+      <c r="E20" s="238"/>
       <c r="F20" s="97"/>
       <c r="G20" s="97"/>
       <c r="H20" s="104"/>
-      <c r="I20" s="240"/>
+      <c r="I20" s="239"/>
       <c r="J20" s="90"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
@@ -15962,19 +16699,19 @@
         <v>[Mod Module-11]</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>874</v>
+        <v>916</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>935</v>
+        <v>998</v>
       </c>
       <c r="D21" s="97" t="s">
-        <v>869</v>
-      </c>
-      <c r="E21" s="239"/>
+        <v>918</v>
+      </c>
+      <c r="E21" s="238"/>
       <c r="F21" s="97"/>
       <c r="G21" s="97"/>
       <c r="H21" s="104"/>
-      <c r="I21" s="240"/>
+      <c r="I21" s="239"/>
       <c r="J21" s="90"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1">
@@ -15983,19 +16720,19 @@
         <v>[Mod Module-12]</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>873</v>
+        <v>919</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>936</v>
+        <v>999</v>
       </c>
       <c r="D22" s="97" t="s">
-        <v>870</v>
-      </c>
-      <c r="E22" s="239"/>
+        <v>734</v>
+      </c>
+      <c r="E22" s="238"/>
       <c r="F22" s="97"/>
       <c r="G22" s="97"/>
       <c r="H22" s="104"/>
-      <c r="I22" s="240"/>
+      <c r="I22" s="239"/>
       <c r="J22" s="90"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
@@ -16004,25 +16741,25 @@
         <v>[Mod Module-13]</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>871</v>
+        <v>921</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>937</v>
+        <v>1000</v>
       </c>
       <c r="D23" s="97" t="s">
-        <v>872</v>
-      </c>
-      <c r="E23" s="239"/>
+        <v>918</v>
+      </c>
+      <c r="E23" s="238"/>
       <c r="F23" s="97"/>
       <c r="G23" s="97"/>
       <c r="H23" s="104"/>
-      <c r="I23" s="241"/>
+      <c r="I23" s="240"/>
       <c r="J23" s="90"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
       <c r="A24" s="217"/>
       <c r="B24" s="216" t="s">
-        <v>955</v>
+        <v>1002</v>
       </c>
       <c r="C24" s="217"/>
       <c r="D24" s="217"/>
@@ -16039,19 +16776,19 @@
         <v>[Mod Module-15]</v>
       </c>
       <c r="B25" s="97" t="s">
-        <v>956</v>
+        <v>797</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>953</v>
+        <v>795</v>
       </c>
       <c r="D25" s="208" t="s">
-        <v>954</v>
-      </c>
-      <c r="E25" s="242"/>
+        <v>796</v>
+      </c>
+      <c r="E25" s="241"/>
       <c r="F25" s="97"/>
       <c r="G25" s="97"/>
       <c r="H25" s="104"/>
-      <c r="I25" s="241"/>
+      <c r="I25" s="240"/>
       <c r="J25" s="90"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1">
@@ -16060,33 +16797,33 @@
         <v>[Mod Module-16]</v>
       </c>
       <c r="B26" s="97" t="s">
-        <v>957</v>
+        <v>798</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>953</v>
+        <v>795</v>
       </c>
       <c r="D26" s="208" t="s">
-        <v>958</v>
-      </c>
-      <c r="E26" s="242"/>
+        <v>799</v>
+      </c>
+      <c r="E26" s="241"/>
       <c r="F26" s="97"/>
       <c r="G26" s="97"/>
       <c r="H26" s="104"/>
-      <c r="I26" s="241"/>
+      <c r="I26" s="240"/>
       <c r="J26" s="90"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A27" s="259"/>
-      <c r="B27" s="258" t="s">
-        <v>844</v>
-      </c>
-      <c r="C27" s="259"/>
-      <c r="D27" s="259"/>
-      <c r="E27" s="259"/>
-      <c r="F27" s="259"/>
-      <c r="G27" s="259"/>
-      <c r="H27" s="259"/>
-      <c r="I27" s="260"/>
+      <c r="A27" s="256"/>
+      <c r="B27" s="255" t="s">
+        <v>717</v>
+      </c>
+      <c r="C27" s="256"/>
+      <c r="D27" s="256"/>
+      <c r="E27" s="256"/>
+      <c r="F27" s="256"/>
+      <c r="G27" s="256"/>
+      <c r="H27" s="256"/>
+      <c r="I27" s="257"/>
       <c r="J27" s="90"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1">
@@ -16095,25 +16832,25 @@
         <v>[Mod Module-18]</v>
       </c>
       <c r="B28" s="97" t="s">
-        <v>925</v>
+        <v>778</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>926</v>
-      </c>
-      <c r="D28" s="243" t="s">
-        <v>584</v>
-      </c>
-      <c r="E28" s="242"/>
+        <v>779</v>
+      </c>
+      <c r="D28" s="242" t="s">
+        <v>552</v>
+      </c>
+      <c r="E28" s="241"/>
       <c r="F28" s="97"/>
       <c r="G28" s="97"/>
       <c r="H28" s="104"/>
-      <c r="I28" s="241"/>
+      <c r="I28" s="240"/>
       <c r="J28" s="90"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1">
       <c r="A29" s="217"/>
       <c r="B29" s="216" t="s">
-        <v>848</v>
+        <v>719</v>
       </c>
       <c r="C29" s="217"/>
       <c r="D29" s="217"/>
@@ -16130,19 +16867,19 @@
         <v>[Mod Module-20]</v>
       </c>
       <c r="B30" s="97" t="s">
-        <v>960</v>
+        <v>800</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>961</v>
-      </c>
-      <c r="D30" s="263" t="s">
-        <v>963</v>
-      </c>
-      <c r="E30" s="242"/>
+        <v>801</v>
+      </c>
+      <c r="D30" s="260" t="s">
+        <v>803</v>
+      </c>
+      <c r="E30" s="241"/>
       <c r="F30" s="97"/>
       <c r="G30" s="97"/>
       <c r="H30" s="104"/>
-      <c r="I30" s="241"/>
+      <c r="I30" s="240"/>
       <c r="J30" s="90"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1">
@@ -16151,19 +16888,19 @@
         <v>[Mod Module-21]</v>
       </c>
       <c r="B31" s="97" t="s">
-        <v>964</v>
+        <v>804</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>968</v>
-      </c>
-      <c r="D31" s="243" t="s">
-        <v>962</v>
-      </c>
-      <c r="E31" s="242"/>
+        <v>808</v>
+      </c>
+      <c r="D31" s="242" t="s">
+        <v>802</v>
+      </c>
+      <c r="E31" s="241"/>
       <c r="F31" s="97"/>
       <c r="G31" s="97"/>
       <c r="H31" s="104"/>
-      <c r="I31" s="241"/>
+      <c r="I31" s="240"/>
       <c r="J31" s="90"/>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1">
@@ -16172,19 +16909,19 @@
         <v>[Mod Module-22]</v>
       </c>
       <c r="B32" s="97" t="s">
-        <v>965</v>
+        <v>805</v>
       </c>
       <c r="C32" s="97" t="s">
-        <v>967</v>
-      </c>
-      <c r="D32" s="243" t="s">
-        <v>585</v>
-      </c>
-      <c r="E32" s="242"/>
+        <v>807</v>
+      </c>
+      <c r="D32" s="242" t="s">
+        <v>553</v>
+      </c>
+      <c r="E32" s="241"/>
       <c r="F32" s="97"/>
       <c r="G32" s="97"/>
       <c r="H32" s="104"/>
-      <c r="I32" s="241"/>
+      <c r="I32" s="240"/>
       <c r="J32" s="90"/>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1">
@@ -16193,23 +16930,23 @@
         <v>[Mod Module-23]</v>
       </c>
       <c r="B33" s="97" t="s">
-        <v>966</v>
+        <v>806</v>
       </c>
       <c r="C33" s="97" t="s">
-        <v>969</v>
-      </c>
-      <c r="D33" s="243"/>
-      <c r="E33" s="242"/>
+        <v>809</v>
+      </c>
+      <c r="D33" s="242"/>
+      <c r="E33" s="241"/>
       <c r="F33" s="97"/>
       <c r="G33" s="97"/>
       <c r="H33" s="104"/>
-      <c r="I33" s="241"/>
+      <c r="I33" s="240"/>
       <c r="J33" s="90"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1">
       <c r="A34" s="217"/>
       <c r="B34" s="216" t="s">
-        <v>970</v>
+        <v>810</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="217"/>
@@ -16226,19 +16963,19 @@
         <v>[Mod Module-25]</v>
       </c>
       <c r="B35" s="97" t="s">
-        <v>971</v>
+        <v>811</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>972</v>
-      </c>
-      <c r="D35" s="243" t="s">
-        <v>586</v>
-      </c>
-      <c r="E35" s="242"/>
+        <v>812</v>
+      </c>
+      <c r="D35" s="242" t="s">
+        <v>554</v>
+      </c>
+      <c r="E35" s="241"/>
       <c r="F35" s="97"/>
       <c r="G35" s="97"/>
       <c r="H35" s="104"/>
-      <c r="I35" s="241"/>
+      <c r="I35" s="240"/>
       <c r="J35" s="90"/>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1">
@@ -16247,19 +16984,19 @@
         <v>[Mod Module-26]</v>
       </c>
       <c r="B36" s="97" t="s">
-        <v>587</v>
+        <v>555</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>938</v>
-      </c>
-      <c r="D36" s="243" t="s">
-        <v>588</v>
-      </c>
-      <c r="E36" s="242"/>
+        <v>780</v>
+      </c>
+      <c r="D36" s="242" t="s">
+        <v>556</v>
+      </c>
+      <c r="E36" s="241"/>
       <c r="F36" s="97"/>
       <c r="G36" s="97"/>
       <c r="H36" s="104"/>
-      <c r="I36" s="241"/>
+      <c r="I36" s="240"/>
       <c r="J36" s="90"/>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1">
@@ -16268,19 +17005,19 @@
         <v>[Mod Module-27]</v>
       </c>
       <c r="B37" s="97" t="s">
-        <v>589</v>
+        <v>557</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>939</v>
-      </c>
-      <c r="D37" s="243" t="s">
-        <v>588</v>
-      </c>
-      <c r="E37" s="242"/>
+        <v>781</v>
+      </c>
+      <c r="D37" s="242" t="s">
+        <v>556</v>
+      </c>
+      <c r="E37" s="241"/>
       <c r="F37" s="97"/>
       <c r="G37" s="97"/>
       <c r="H37" s="104"/>
-      <c r="I37" s="241"/>
+      <c r="I37" s="240"/>
       <c r="J37" s="90"/>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1">
@@ -16289,19 +17026,19 @@
         <v>[Mod Module-28]</v>
       </c>
       <c r="B38" s="97" t="s">
-        <v>590</v>
+        <v>558</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>940</v>
-      </c>
-      <c r="D38" s="243" t="s">
-        <v>591</v>
-      </c>
-      <c r="E38" s="242"/>
+        <v>782</v>
+      </c>
+      <c r="D38" s="242" t="s">
+        <v>559</v>
+      </c>
+      <c r="E38" s="241"/>
       <c r="F38" s="97"/>
       <c r="G38" s="97"/>
       <c r="H38" s="104"/>
-      <c r="I38" s="241"/>
+      <c r="I38" s="240"/>
       <c r="J38" s="90"/>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1">
@@ -16310,21 +17047,21 @@
         <v>[Mod Module-29]</v>
       </c>
       <c r="B39" s="97" t="s">
-        <v>592</v>
+        <v>560</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>941</v>
-      </c>
-      <c r="D39" s="243" t="s">
-        <v>593</v>
-      </c>
-      <c r="E39" s="242" t="s">
-        <v>594</v>
+        <v>783</v>
+      </c>
+      <c r="D39" s="242" t="s">
+        <v>561</v>
+      </c>
+      <c r="E39" s="241" t="s">
+        <v>562</v>
       </c>
       <c r="F39" s="97"/>
       <c r="G39" s="97"/>
       <c r="H39" s="104"/>
-      <c r="I39" s="241"/>
+      <c r="I39" s="240"/>
       <c r="J39" s="90"/>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1">
@@ -16333,19 +17070,19 @@
         <v>[Mod Module-30]</v>
       </c>
       <c r="B40" s="97" t="s">
-        <v>595</v>
+        <v>563</v>
       </c>
       <c r="C40" s="97" t="s">
-        <v>942</v>
-      </c>
-      <c r="D40" s="243" t="s">
-        <v>596</v>
-      </c>
-      <c r="E40" s="242"/>
+        <v>784</v>
+      </c>
+      <c r="D40" s="242" t="s">
+        <v>564</v>
+      </c>
+      <c r="E40" s="241"/>
       <c r="F40" s="97"/>
       <c r="G40" s="97"/>
       <c r="H40" s="104"/>
-      <c r="I40" s="241"/>
+      <c r="I40" s="240"/>
       <c r="J40" s="90"/>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1">
@@ -16353,20 +17090,20 @@
         <f t="shared" si="1"/>
         <v>[Mod Module-31]</v>
       </c>
-      <c r="B41" s="244" t="s">
-        <v>597</v>
+      <c r="B41" s="243" t="s">
+        <v>1001</v>
       </c>
       <c r="C41" s="219" t="s">
-        <v>943</v>
-      </c>
-      <c r="D41" s="245" t="s">
-        <v>598</v>
-      </c>
-      <c r="E41" s="246"/>
+        <v>785</v>
+      </c>
+      <c r="D41" s="244" t="s">
+        <v>565</v>
+      </c>
+      <c r="E41" s="245"/>
       <c r="F41" s="219"/>
       <c r="G41" s="219"/>
-      <c r="H41" s="247"/>
-      <c r="I41" s="248"/>
+      <c r="H41" s="246"/>
+      <c r="I41" s="247"/>
       <c r="J41" s="90"/>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1">
@@ -16374,26 +17111,26 @@
         <f t="shared" si="1"/>
         <v>[Mod Module-32]</v>
       </c>
-      <c r="B42" s="244" t="s">
-        <v>599</v>
+      <c r="B42" s="243" t="s">
+        <v>566</v>
       </c>
       <c r="C42" s="219" t="s">
-        <v>944</v>
-      </c>
-      <c r="D42" s="245" t="s">
-        <v>600</v>
-      </c>
-      <c r="E42" s="246"/>
+        <v>786</v>
+      </c>
+      <c r="D42" s="244" t="s">
+        <v>567</v>
+      </c>
+      <c r="E42" s="245"/>
       <c r="F42" s="219"/>
       <c r="G42" s="219"/>
-      <c r="H42" s="247"/>
-      <c r="I42" s="248"/>
+      <c r="H42" s="246"/>
+      <c r="I42" s="247"/>
       <c r="J42" s="90"/>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1">
       <c r="A43" s="217"/>
       <c r="B43" s="216" t="s">
-        <v>601</v>
+        <v>568</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="217"/>
@@ -16410,19 +17147,19 @@
         <v>[Mod Module-34]</v>
       </c>
       <c r="B44" s="97" t="s">
-        <v>602</v>
+        <v>569</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>945</v>
-      </c>
-      <c r="D44" s="243" t="s">
-        <v>603</v>
-      </c>
-      <c r="E44" s="242"/>
+        <v>787</v>
+      </c>
+      <c r="D44" s="242" t="s">
+        <v>570</v>
+      </c>
+      <c r="E44" s="241"/>
       <c r="F44" s="97"/>
       <c r="G44" s="97"/>
       <c r="H44" s="104"/>
-      <c r="I44" s="241"/>
+      <c r="I44" s="240"/>
       <c r="J44" s="90"/>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1">
@@ -16431,19 +17168,19 @@
         <v>[Mod Module-35]</v>
       </c>
       <c r="B45" s="97" t="s">
-        <v>604</v>
+        <v>571</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>946</v>
-      </c>
-      <c r="D45" s="243" t="s">
-        <v>605</v>
-      </c>
-      <c r="E45" s="242"/>
+        <v>788</v>
+      </c>
+      <c r="D45" s="242" t="s">
+        <v>572</v>
+      </c>
+      <c r="E45" s="241"/>
       <c r="F45" s="97"/>
       <c r="G45" s="97"/>
       <c r="H45" s="104"/>
-      <c r="I45" s="241"/>
+      <c r="I45" s="240"/>
       <c r="J45" s="90"/>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1">
@@ -16452,19 +17189,19 @@
         <v>[Mod Module-36]</v>
       </c>
       <c r="B46" s="97" t="s">
-        <v>606</v>
+        <v>573</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>947</v>
-      </c>
-      <c r="D46" s="243" t="s">
-        <v>607</v>
-      </c>
-      <c r="E46" s="242"/>
+        <v>789</v>
+      </c>
+      <c r="D46" s="242" t="s">
+        <v>574</v>
+      </c>
+      <c r="E46" s="241"/>
       <c r="F46" s="97"/>
       <c r="G46" s="97"/>
       <c r="H46" s="104"/>
-      <c r="I46" s="241"/>
+      <c r="I46" s="240"/>
       <c r="J46" s="90"/>
     </row>
     <row r="47" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1">
@@ -16473,19 +17210,19 @@
         <v>[Mod Module-37]</v>
       </c>
       <c r="B47" s="97" t="s">
-        <v>608</v>
+        <v>575</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>948</v>
-      </c>
-      <c r="D47" s="243" t="s">
-        <v>609</v>
-      </c>
-      <c r="E47" s="242"/>
+        <v>790</v>
+      </c>
+      <c r="D47" s="242" t="s">
+        <v>576</v>
+      </c>
+      <c r="E47" s="241"/>
       <c r="F47" s="97"/>
       <c r="G47" s="97"/>
       <c r="H47" s="104"/>
-      <c r="I47" s="241"/>
+      <c r="I47" s="240"/>
     </row>
     <row r="48" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1">
       <c r="A48" s="143" t="str">
@@ -16493,21 +17230,21 @@
         <v>[Mod Module-38]</v>
       </c>
       <c r="B48" s="97" t="s">
-        <v>610</v>
+        <v>577</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>949</v>
-      </c>
-      <c r="D48" s="243" t="s">
-        <v>612</v>
-      </c>
-      <c r="E48" s="242" t="s">
-        <v>594</v>
+        <v>791</v>
+      </c>
+      <c r="D48" s="242" t="s">
+        <v>578</v>
+      </c>
+      <c r="E48" s="241" t="s">
+        <v>562</v>
       </c>
       <c r="F48" s="97"/>
       <c r="G48" s="97"/>
       <c r="H48" s="104"/>
-      <c r="I48" s="241"/>
+      <c r="I48" s="240"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1">
       <c r="A49" s="143" t="str">
@@ -16515,19 +17252,19 @@
         <v>[Mod Module-39]</v>
       </c>
       <c r="B49" s="97" t="s">
-        <v>613</v>
+        <v>579</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>950</v>
-      </c>
-      <c r="D49" s="243" t="s">
-        <v>615</v>
-      </c>
-      <c r="E49" s="242"/>
+        <v>792</v>
+      </c>
+      <c r="D49" s="242" t="s">
+        <v>580</v>
+      </c>
+      <c r="E49" s="241"/>
       <c r="F49" s="97"/>
       <c r="G49" s="97"/>
       <c r="H49" s="104"/>
-      <c r="I49" s="241"/>
+      <c r="I49" s="240"/>
       <c r="J49" s="90"/>
     </row>
     <row r="50" spans="1:10" ht="14.25" customHeight="1">
@@ -16535,20 +17272,20 @@
         <f t="shared" si="2"/>
         <v>[Mod Module-40]</v>
       </c>
-      <c r="B50" s="244" t="s">
-        <v>597</v>
+      <c r="B50" s="243" t="s">
+        <v>1001</v>
       </c>
       <c r="C50" s="219" t="s">
-        <v>951</v>
-      </c>
-      <c r="D50" s="245" t="s">
-        <v>617</v>
-      </c>
-      <c r="E50" s="246"/>
+        <v>793</v>
+      </c>
+      <c r="D50" s="244" t="s">
+        <v>581</v>
+      </c>
+      <c r="E50" s="245"/>
       <c r="F50" s="219"/>
       <c r="G50" s="219"/>
-      <c r="H50" s="247"/>
-      <c r="I50" s="248"/>
+      <c r="H50" s="246"/>
+      <c r="I50" s="247"/>
       <c r="J50" s="90"/>
     </row>
     <row r="51" spans="1:10" ht="14.25" customHeight="1">
@@ -16556,20 +17293,20 @@
         <f t="shared" si="2"/>
         <v>[Mod Module-41]</v>
       </c>
-      <c r="B51" s="244" t="s">
-        <v>618</v>
+      <c r="B51" s="243" t="s">
+        <v>582</v>
       </c>
       <c r="C51" s="219" t="s">
-        <v>952</v>
-      </c>
-      <c r="D51" s="245" t="s">
-        <v>620</v>
-      </c>
-      <c r="E51" s="246"/>
+        <v>794</v>
+      </c>
+      <c r="D51" s="244" t="s">
+        <v>583</v>
+      </c>
+      <c r="E51" s="245"/>
       <c r="F51" s="219"/>
       <c r="G51" s="219"/>
-      <c r="H51" s="247"/>
-      <c r="I51" s="248"/>
+      <c r="H51" s="246"/>
+      <c r="I51" s="247"/>
       <c r="J51" s="90"/>
     </row>
     <row r="52" spans="1:10" ht="14.25" customHeight="1">
@@ -16590,13 +17327,13 @@
         <v>[Mod Module-43]</v>
       </c>
       <c r="B53" s="109" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C53" s="109" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D53" s="109" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="E53" s="109"/>
       <c r="F53" s="109"/>
@@ -16611,13 +17348,13 @@
         <v>[Mod Module-44]</v>
       </c>
       <c r="B54" s="109" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C54" s="109" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D54" s="109" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="E54" s="109"/>
       <c r="F54" s="109"/>
@@ -16632,13 +17369,13 @@
         <v>[Mod Module-45]</v>
       </c>
       <c r="B55" s="109" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C55" s="54" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D55" s="109" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="E55" s="109"/>
       <c r="F55" s="109"/>
@@ -16653,13 +17390,13 @@
         <v>[Mod Module-46]</v>
       </c>
       <c r="B56" s="109" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C56" s="54" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D56" s="231" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="E56" s="109"/>
       <c r="F56" s="109"/>
@@ -16674,13 +17411,13 @@
         <v>[Mod Module-47]</v>
       </c>
       <c r="B57" s="54" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C57" s="54" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D57" s="231" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E57" s="109"/>
       <c r="F57" s="109"/>
@@ -16695,13 +17432,13 @@
         <v>[Mod Module-48]</v>
       </c>
       <c r="B58" s="109" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C58" s="54" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D58" s="231" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="E58" s="109"/>
       <c r="F58" s="109"/>
@@ -17353,7 +18090,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F66:G110">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:G23 F44:G51 F30:G33 F35:G42 F25:G26 F28:G28">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F28:G28 F44:G51 F30:G33 F35:G42 F25:G26 F12:G23">
       <formula1>$J$1:$J$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -17368,10 +18105,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW110"/>
+  <dimension ref="A1:IW107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:G6"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -17649,14 +18386,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="276" t="s">
-        <v>693</v>
-      </c>
-      <c r="C2" s="277"/>
-      <c r="D2" s="277"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="277"/>
-      <c r="G2" s="278"/>
+      <c r="B2" s="293" t="s">
+        <v>586</v>
+      </c>
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="294"/>
+      <c r="G2" s="295"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -17907,14 +18644,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="279" t="s">
-        <v>622</v>
-      </c>
-      <c r="C3" s="280"/>
-      <c r="D3" s="280"/>
-      <c r="E3" s="280"/>
-      <c r="F3" s="280"/>
-      <c r="G3" s="281"/>
+      <c r="B3" s="296" t="s">
+        <v>895</v>
+      </c>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="298"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -18165,14 +18902,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="279" t="s">
-        <v>573</v>
-      </c>
-      <c r="C4" s="280"/>
-      <c r="D4" s="280"/>
-      <c r="E4" s="280"/>
-      <c r="F4" s="280"/>
-      <c r="G4" s="281"/>
+      <c r="B4" s="296" t="s">
+        <v>549</v>
+      </c>
+      <c r="C4" s="297"/>
+      <c r="D4" s="297"/>
+      <c r="E4" s="297"/>
+      <c r="F4" s="297"/>
+      <c r="G4" s="298"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -18430,11 +19167,11 @@
       <c r="D5" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="282" t="s">
+      <c r="E5" s="299" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="283"/>
-      <c r="G5" s="284"/>
+      <c r="F5" s="300"/>
+      <c r="G5" s="301"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -18683,27 +19420,27 @@
     </row>
     <row r="6" spans="1:257" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="86">
-        <f>COUNTIF(F12:G142,"Pass")</f>
+        <f>COUNTIF(F12:G139,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="87">
-        <f>COUNTIF(F12:G142,"Fail")</f>
+        <f>COUNTIF(F12:G139,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="87">
         <f>E6-D6-B6-A6</f>
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D6" s="88">
-        <f>COUNTIF(F12:G142,"N/A")</f>
+        <f>COUNTIF(F12:G139,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="285">
-        <f>COUNTA(A12:A142)</f>
-        <v>45</v>
-      </c>
-      <c r="F6" s="286"/>
-      <c r="G6" s="287"/>
+      <c r="E6" s="302">
+        <f>COUNTA(A12:A139)</f>
+        <v>33</v>
+      </c>
+      <c r="F6" s="303"/>
+      <c r="G6" s="304"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -19982,17 +20719,17 @@
       <c r="IN10" s="78"/>
     </row>
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
-      <c r="A11" s="236"/>
-      <c r="B11" s="306" t="s">
-        <v>519</v>
-      </c>
-      <c r="C11" s="306"/>
-      <c r="D11" s="306"/>
-      <c r="E11" s="306"/>
-      <c r="F11" s="306"/>
-      <c r="G11" s="306"/>
-      <c r="H11" s="306"/>
-      <c r="I11" s="306"/>
+      <c r="A11" s="276"/>
+      <c r="B11" s="276" t="s">
+        <v>512</v>
+      </c>
+      <c r="C11" s="276"/>
+      <c r="D11" s="276"/>
+      <c r="E11" s="276"/>
+      <c r="F11" s="276"/>
+      <c r="G11" s="276"/>
+      <c r="H11" s="276"/>
+      <c r="I11" s="276"/>
       <c r="J11" s="78"/>
       <c r="K11" s="78"/>
       <c r="L11" s="78"/>
@@ -20235,23 +20972,23 @@
     </row>
     <row r="12" spans="1:257" ht="14.25" customHeight="1">
       <c r="A12" s="143" t="str">
-        <f t="shared" ref="A12:A22" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A12:A23" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin module-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>574</v>
+        <v>716</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>623</v>
+        <v>897</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>624</v>
-      </c>
-      <c r="E12" s="237"/>
+        <v>904</v>
+      </c>
+      <c r="E12" s="236"/>
       <c r="F12" s="97"/>
       <c r="G12" s="97"/>
       <c r="H12" s="104"/>
-      <c r="I12" s="238"/>
+      <c r="I12" s="237"/>
       <c r="J12" s="90"/>
     </row>
     <row r="13" spans="1:257" ht="14.25" customHeight="1">
@@ -20260,19 +20997,19 @@
         <v>[Admin module-3]</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>575</v>
+        <v>896</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>625</v>
+        <v>897</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>626</v>
-      </c>
-      <c r="E13" s="239"/>
+        <v>904</v>
+      </c>
+      <c r="E13" s="236"/>
       <c r="F13" s="97"/>
       <c r="G13" s="97"/>
       <c r="H13" s="104"/>
-      <c r="I13" s="240"/>
+      <c r="I13" s="237"/>
       <c r="J13" s="90"/>
     </row>
     <row r="14" spans="1:257" ht="14.25" customHeight="1">
@@ -20281,19 +21018,19 @@
         <v>[Admin module-4]</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>576</v>
+        <v>898</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>627</v>
+        <v>899</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>628</v>
-      </c>
-      <c r="E14" s="239"/>
+        <v>905</v>
+      </c>
+      <c r="E14" s="238"/>
       <c r="F14" s="97"/>
       <c r="G14" s="97"/>
       <c r="H14" s="104"/>
-      <c r="I14" s="240"/>
+      <c r="I14" s="239"/>
       <c r="J14" s="90"/>
     </row>
     <row r="15" spans="1:257" ht="14.25" customHeight="1">
@@ -20302,19 +21039,19 @@
         <v>[Admin module-5]</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>577</v>
+        <v>550</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>629</v>
+        <v>900</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>630</v>
-      </c>
-      <c r="E15" s="239"/>
+        <v>906</v>
+      </c>
+      <c r="E15" s="238"/>
       <c r="F15" s="97"/>
       <c r="G15" s="97"/>
       <c r="H15" s="104"/>
-      <c r="I15" s="240"/>
+      <c r="I15" s="239"/>
       <c r="J15" s="90"/>
     </row>
     <row r="16" spans="1:257" ht="14.25" customHeight="1">
@@ -20323,19 +21060,19 @@
         <v>[Admin module-6]</v>
       </c>
       <c r="B16" s="97" t="s">
-        <v>520</v>
+        <v>551</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>631</v>
+        <v>901</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>632</v>
-      </c>
-      <c r="E16" s="239"/>
+        <v>907</v>
+      </c>
+      <c r="E16" s="238"/>
       <c r="F16" s="97"/>
       <c r="G16" s="97"/>
       <c r="H16" s="104"/>
-      <c r="I16" s="240"/>
+      <c r="I16" s="239"/>
       <c r="J16" s="90"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1">
@@ -20344,19 +21081,19 @@
         <v>[Admin module-7]</v>
       </c>
       <c r="B17" s="97" t="s">
-        <v>578</v>
+        <v>513</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>633</v>
+        <v>902</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>634</v>
-      </c>
-      <c r="E17" s="239"/>
+        <v>908</v>
+      </c>
+      <c r="E17" s="238"/>
       <c r="F17" s="97"/>
       <c r="G17" s="97"/>
       <c r="H17" s="104"/>
-      <c r="I17" s="240"/>
+      <c r="I17" s="239"/>
       <c r="J17" s="90"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1">
@@ -20365,19 +21102,19 @@
         <v>[Admin module-8]</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>579</v>
+        <v>903</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>635</v>
+        <v>910</v>
       </c>
       <c r="D18" s="97" t="s">
-        <v>636</v>
-      </c>
-      <c r="E18" s="239"/>
+        <v>928</v>
+      </c>
+      <c r="E18" s="238"/>
       <c r="F18" s="97"/>
       <c r="G18" s="97"/>
       <c r="H18" s="104"/>
-      <c r="I18" s="240"/>
+      <c r="I18" s="239"/>
       <c r="J18" s="90"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1">
@@ -20386,19 +21123,19 @@
         <v>[Admin module-9]</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>580</v>
+        <v>913</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>637</v>
+        <v>909</v>
       </c>
       <c r="D19" s="97" t="s">
-        <v>638</v>
-      </c>
-      <c r="E19" s="239"/>
+        <v>911</v>
+      </c>
+      <c r="E19" s="238"/>
       <c r="F19" s="97"/>
       <c r="G19" s="97"/>
       <c r="H19" s="104"/>
-      <c r="I19" s="240"/>
+      <c r="I19" s="239"/>
       <c r="J19" s="90"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1">
@@ -20407,19 +21144,19 @@
         <v>[Admin module-10]</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>581</v>
+        <v>912</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>639</v>
+        <v>914</v>
       </c>
       <c r="D20" s="97" t="s">
-        <v>640</v>
-      </c>
-      <c r="E20" s="239"/>
+        <v>915</v>
+      </c>
+      <c r="E20" s="238"/>
       <c r="F20" s="97"/>
       <c r="G20" s="97"/>
       <c r="H20" s="104"/>
-      <c r="I20" s="240"/>
+      <c r="I20" s="239"/>
       <c r="J20" s="90"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
@@ -20428,19 +21165,19 @@
         <v>[Admin module-11]</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>582</v>
+        <v>916</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>641</v>
+        <v>917</v>
       </c>
       <c r="D21" s="97" t="s">
-        <v>640</v>
-      </c>
-      <c r="E21" s="239"/>
+        <v>918</v>
+      </c>
+      <c r="E21" s="238"/>
       <c r="F21" s="97"/>
       <c r="G21" s="97"/>
       <c r="H21" s="104"/>
-      <c r="I21" s="240"/>
+      <c r="I21" s="239"/>
       <c r="J21" s="90"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1">
@@ -20449,54 +21186,54 @@
         <v>[Admin module-12]</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>583</v>
+        <v>919</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>642</v>
+        <v>920</v>
       </c>
       <c r="D22" s="97" t="s">
-        <v>640</v>
-      </c>
-      <c r="E22" s="239"/>
+        <v>734</v>
+      </c>
+      <c r="E22" s="238"/>
       <c r="F22" s="97"/>
       <c r="G22" s="97"/>
       <c r="H22" s="104"/>
-      <c r="I22" s="241"/>
+      <c r="I22" s="239"/>
       <c r="J22" s="90"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A23" s="217"/>
-      <c r="B23" s="216" t="s">
-        <v>847</v>
-      </c>
-      <c r="C23" s="217"/>
-      <c r="D23" s="217"/>
-      <c r="E23" s="217"/>
-      <c r="F23" s="217"/>
-      <c r="G23" s="217"/>
-      <c r="H23" s="217"/>
-      <c r="I23" s="218"/>
+      <c r="A23" s="143" t="str">
+        <f t="shared" si="0"/>
+        <v>[Admin module-13]</v>
+      </c>
+      <c r="B23" s="97" t="s">
+        <v>921</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>922</v>
+      </c>
+      <c r="D23" s="97" t="s">
+        <v>918</v>
+      </c>
+      <c r="E23" s="238"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="240"/>
       <c r="J23" s="90"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A24" s="143" t="str">
-        <f>IF(OR(B24&lt;&gt;"",D24&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Admin module-14]</v>
-      </c>
-      <c r="B24" s="97" t="s">
-        <v>643</v>
-      </c>
-      <c r="C24" s="97" t="s">
-        <v>644</v>
-      </c>
-      <c r="D24" s="97" t="s">
-        <v>645</v>
-      </c>
-      <c r="E24" s="242"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="241"/>
+      <c r="A24" s="217"/>
+      <c r="B24" s="216" t="s">
+        <v>923</v>
+      </c>
+      <c r="C24" s="217"/>
+      <c r="D24" s="217"/>
+      <c r="E24" s="217"/>
+      <c r="F24" s="217"/>
+      <c r="G24" s="217"/>
+      <c r="H24" s="217"/>
+      <c r="I24" s="218"/>
       <c r="J24" s="90"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
@@ -20505,273 +21242,271 @@
         <v>[Admin module-15]</v>
       </c>
       <c r="B25" s="97" t="s">
-        <v>646</v>
+        <v>924</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>644</v>
+        <v>926</v>
       </c>
       <c r="D25" s="97" t="s">
-        <v>645</v>
-      </c>
-      <c r="E25" s="242"/>
+        <v>927</v>
+      </c>
+      <c r="E25" s="241"/>
       <c r="F25" s="97"/>
       <c r="G25" s="97"/>
       <c r="H25" s="104"/>
-      <c r="I25" s="241"/>
+      <c r="I25" s="240"/>
       <c r="J25" s="90"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A26" s="259"/>
-      <c r="B26" s="258" t="s">
-        <v>844</v>
-      </c>
-      <c r="C26" s="259"/>
-      <c r="D26" s="259"/>
-      <c r="E26" s="259"/>
-      <c r="F26" s="259"/>
-      <c r="G26" s="259"/>
-      <c r="H26" s="259"/>
-      <c r="I26" s="260"/>
+      <c r="A26" s="143" t="str">
+        <f>IF(OR(B26&lt;&gt;"",D26&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Admin module-16]</v>
+      </c>
+      <c r="B26" s="97" t="s">
+        <v>925</v>
+      </c>
+      <c r="C26" s="97" t="s">
+        <v>926</v>
+      </c>
+      <c r="D26" s="97" t="s">
+        <v>927</v>
+      </c>
+      <c r="E26" s="241"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="240"/>
       <c r="J26" s="90"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A27" s="143" t="str">
-        <f>IF(OR(B27&lt;&gt;"",D27&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Admin module-17]</v>
-      </c>
-      <c r="B27" s="97" t="s">
-        <v>647</v>
-      </c>
-      <c r="C27" s="97" t="s">
-        <v>648</v>
-      </c>
-      <c r="D27" s="243" t="s">
-        <v>649</v>
-      </c>
-      <c r="E27" s="242"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="241"/>
+      <c r="A27" s="256"/>
+      <c r="B27" s="255" t="s">
+        <v>717</v>
+      </c>
+      <c r="C27" s="256"/>
+      <c r="D27" s="256"/>
+      <c r="E27" s="256"/>
+      <c r="F27" s="256"/>
+      <c r="G27" s="256"/>
+      <c r="H27" s="256"/>
+      <c r="I27" s="257"/>
       <c r="J27" s="90"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A28" s="217"/>
-      <c r="B28" s="216" t="s">
-        <v>848</v>
-      </c>
-      <c r="C28" s="217"/>
-      <c r="D28" s="217"/>
-      <c r="E28" s="217"/>
-      <c r="F28" s="217"/>
-      <c r="G28" s="217"/>
-      <c r="H28" s="217"/>
-      <c r="I28" s="218"/>
+      <c r="A28" s="143" t="str">
+        <f>IF(OR(B28&lt;&gt;"",D28&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Admin module-18]</v>
+      </c>
+      <c r="B28" s="97" t="s">
+        <v>929</v>
+      </c>
+      <c r="C28" s="97" t="s">
+        <v>930</v>
+      </c>
+      <c r="D28" s="242" t="s">
+        <v>931</v>
+      </c>
+      <c r="E28" s="241"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="240"/>
       <c r="J28" s="90"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A29" s="143" t="str">
-        <f>IF(OR(B29&lt;&gt;"",D29&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Admin module-19]</v>
-      </c>
-      <c r="B29" s="97" t="s">
-        <v>650</v>
-      </c>
-      <c r="C29" s="97" t="s">
-        <v>651</v>
-      </c>
-      <c r="D29" s="243" t="s">
-        <v>652</v>
-      </c>
-      <c r="E29" s="242"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="241"/>
+      <c r="A29" s="217"/>
+      <c r="B29" s="216" t="s">
+        <v>719</v>
+      </c>
+      <c r="C29" s="217"/>
+      <c r="D29" s="217"/>
+      <c r="E29" s="217"/>
+      <c r="F29" s="217"/>
+      <c r="G29" s="217"/>
+      <c r="H29" s="217"/>
+      <c r="I29" s="218"/>
       <c r="J29" s="90"/>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A30" s="143" t="str">
-        <f t="shared" ref="A30:A32" si="1">IF(OR(B30&lt;&gt;"",D30&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+      <c r="A30" s="142" t="str">
+        <f>IF(OR(B30&lt;&gt;"",D30&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin module-20]</v>
       </c>
-      <c r="B30" s="244" t="s">
-        <v>653</v>
-      </c>
-      <c r="C30" s="219" t="s">
-        <v>654</v>
-      </c>
-      <c r="D30" s="245" t="s">
-        <v>655</v>
-      </c>
-      <c r="E30" s="246"/>
-      <c r="F30" s="219"/>
-      <c r="G30" s="219"/>
-      <c r="H30" s="247"/>
-      <c r="I30" s="248"/>
+      <c r="B30" s="277" t="s">
+        <v>932</v>
+      </c>
+      <c r="C30" s="277" t="s">
+        <v>934</v>
+      </c>
+      <c r="D30" s="277" t="s">
+        <v>937</v>
+      </c>
+      <c r="E30" s="241"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="240"/>
       <c r="J30" s="90"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A31" s="143" t="str">
-        <f t="shared" si="1"/>
+      <c r="A31" s="97" t="str">
+        <f>IF(OR(B37&lt;&gt;"",D37&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin module-21]</v>
       </c>
-      <c r="B31" s="244" t="s">
-        <v>656</v>
-      </c>
-      <c r="C31" s="219" t="s">
-        <v>657</v>
-      </c>
-      <c r="D31" s="245" t="s">
-        <v>658</v>
-      </c>
-      <c r="E31" s="246"/>
-      <c r="F31" s="219"/>
-      <c r="G31" s="219"/>
-      <c r="H31" s="247"/>
-      <c r="I31" s="248"/>
+      <c r="B31" s="277" t="s">
+        <v>945</v>
+      </c>
+      <c r="C31" s="277" t="s">
+        <v>940</v>
+      </c>
+      <c r="D31" s="277" t="s">
+        <v>941</v>
+      </c>
+      <c r="E31" s="241"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="240"/>
       <c r="J31" s="90"/>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A32" s="143" t="str">
-        <f t="shared" si="1"/>
+      <c r="A32" s="97" t="str">
+        <f>IF(OR(B45&lt;&gt;"",D45&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin module-22]</v>
       </c>
-      <c r="B32" s="244" t="s">
-        <v>659</v>
-      </c>
-      <c r="C32" s="219" t="s">
-        <v>660</v>
-      </c>
-      <c r="D32" s="245" t="s">
-        <v>661</v>
-      </c>
-      <c r="E32" s="246"/>
-      <c r="F32" s="219"/>
-      <c r="G32" s="219"/>
-      <c r="H32" s="247"/>
-      <c r="I32" s="248"/>
+      <c r="B32" s="277" t="s">
+        <v>944</v>
+      </c>
+      <c r="C32" s="277" t="s">
+        <v>942</v>
+      </c>
+      <c r="D32" s="277" t="s">
+        <v>943</v>
+      </c>
+      <c r="E32" s="241"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="240"/>
       <c r="J32" s="90"/>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A33" s="217"/>
-      <c r="B33" s="216" t="s">
-        <v>846</v>
-      </c>
-      <c r="C33" s="217"/>
-      <c r="D33" s="217"/>
-      <c r="E33" s="217"/>
-      <c r="F33" s="217"/>
-      <c r="G33" s="217"/>
-      <c r="H33" s="217"/>
-      <c r="I33" s="218"/>
+      <c r="A33" s="97" t="str">
+        <f>IF(OR(B46&lt;&gt;"",D46&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Admin module-23]</v>
+      </c>
+      <c r="B33" s="277" t="s">
+        <v>946</v>
+      </c>
+      <c r="C33" s="277" t="s">
+        <v>947</v>
+      </c>
+      <c r="D33" s="277" t="s">
+        <v>948</v>
+      </c>
+      <c r="E33" s="241"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="240"/>
       <c r="J33" s="90"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A34" s="143" t="str">
-        <f>IF(OR(B34&lt;&gt;"",D34&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+      <c r="A34" s="97" t="str">
+        <f>IF(OR(B47&lt;&gt;"",D47&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin module-24]</v>
       </c>
-      <c r="B34" s="97" t="s">
-        <v>662</v>
-      </c>
-      <c r="C34" s="97" t="s">
-        <v>663</v>
-      </c>
-      <c r="D34" s="243" t="s">
-        <v>664</v>
-      </c>
-      <c r="E34" s="242"/>
+      <c r="B34" s="277" t="s">
+        <v>949</v>
+      </c>
+      <c r="C34" s="277" t="s">
+        <v>950</v>
+      </c>
+      <c r="D34" s="277" t="s">
+        <v>951</v>
+      </c>
+      <c r="E34" s="241"/>
       <c r="F34" s="97"/>
       <c r="G34" s="97"/>
       <c r="H34" s="104"/>
-      <c r="I34" s="241"/>
+      <c r="I34" s="240"/>
       <c r="J34" s="90"/>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A35" s="143" t="str">
-        <f t="shared" ref="A35:A39" si="2">IF(OR(B35&lt;&gt;"",D35&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+      <c r="A35" s="97" t="str">
+        <f>IF(OR(B48&lt;&gt;"",D48&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin module-25]</v>
       </c>
-      <c r="B35" s="97" t="s">
-        <v>665</v>
-      </c>
-      <c r="C35" s="97" t="s">
-        <v>666</v>
-      </c>
-      <c r="D35" s="243" t="s">
-        <v>667</v>
-      </c>
-      <c r="E35" s="242"/>
+      <c r="B35" s="277" t="s">
+        <v>954</v>
+      </c>
+      <c r="C35" s="277" t="s">
+        <v>952</v>
+      </c>
+      <c r="D35" s="277" t="s">
+        <v>953</v>
+      </c>
+      <c r="E35" s="241"/>
       <c r="F35" s="97"/>
       <c r="G35" s="97"/>
       <c r="H35" s="104"/>
-      <c r="I35" s="241"/>
+      <c r="I35" s="240"/>
       <c r="J35" s="90"/>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A36" s="143" t="str">
-        <f t="shared" si="2"/>
-        <v>[Admin module-26]</v>
-      </c>
-      <c r="B36" s="97" t="s">
-        <v>668</v>
-      </c>
-      <c r="C36" s="97" t="s">
-        <v>669</v>
-      </c>
-      <c r="D36" s="243" t="s">
-        <v>670</v>
-      </c>
-      <c r="E36" s="242"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="241"/>
+      <c r="A36" s="275"/>
+      <c r="B36" s="216" t="s">
+        <v>718</v>
+      </c>
+      <c r="C36" s="217"/>
+      <c r="D36" s="217"/>
+      <c r="E36" s="217"/>
+      <c r="F36" s="217"/>
+      <c r="G36" s="217"/>
+      <c r="H36" s="217"/>
+      <c r="I36" s="218"/>
       <c r="J36" s="90"/>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A37" s="143" t="str">
-        <f t="shared" si="2"/>
+      <c r="A37" s="279" t="str">
+        <f t="shared" ref="A37" si="1">IF(OR(B37&lt;&gt;"",D37&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin module-27]</v>
       </c>
-      <c r="B37" s="97" t="s">
-        <v>671</v>
+      <c r="B37" s="243" t="s">
+        <v>955</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>672</v>
-      </c>
-      <c r="D37" s="243" t="s">
-        <v>673</v>
-      </c>
-      <c r="E37" s="242"/>
+        <v>935</v>
+      </c>
+      <c r="D37" s="242" t="s">
+        <v>933</v>
+      </c>
+      <c r="E37" s="241"/>
       <c r="F37" s="97"/>
       <c r="G37" s="97"/>
       <c r="H37" s="104"/>
-      <c r="I37" s="241"/>
+      <c r="I37" s="240"/>
       <c r="J37" s="90"/>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1">
       <c r="A38" s="143" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A38:A43" si="2">IF(OR(B38&lt;&gt;"",D38&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin module-28]</v>
       </c>
       <c r="B38" s="97" t="s">
-        <v>674</v>
+        <v>956</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>675</v>
-      </c>
-      <c r="D38" s="243" t="s">
-        <v>676</v>
-      </c>
-      <c r="E38" s="242" t="s">
-        <v>677</v>
-      </c>
+        <v>957</v>
+      </c>
+      <c r="D38" s="242" t="s">
+        <v>958</v>
+      </c>
+      <c r="E38" s="241"/>
       <c r="F38" s="97"/>
       <c r="G38" s="97"/>
       <c r="H38" s="104"/>
-      <c r="I38" s="241"/>
+      <c r="I38" s="240"/>
       <c r="J38" s="90"/>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1">
@@ -20780,117 +21515,117 @@
         <v>[Admin module-29]</v>
       </c>
       <c r="B39" s="97" t="s">
-        <v>678</v>
+        <v>959</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>679</v>
-      </c>
-      <c r="D39" s="243" t="s">
-        <v>680</v>
-      </c>
-      <c r="E39" s="242"/>
+        <v>960</v>
+      </c>
+      <c r="D39" s="242" t="s">
+        <v>961</v>
+      </c>
+      <c r="E39" s="241"/>
       <c r="F39" s="97"/>
       <c r="G39" s="97"/>
       <c r="H39" s="104"/>
-      <c r="I39" s="241"/>
+      <c r="I39" s="240"/>
       <c r="J39" s="90"/>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A40" s="217"/>
-      <c r="B40" s="216" t="s">
-        <v>845</v>
-      </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="217"/>
-      <c r="E40" s="217"/>
-      <c r="F40" s="217"/>
-      <c r="G40" s="217"/>
-      <c r="H40" s="217"/>
-      <c r="I40" s="218"/>
+      <c r="A40" s="143" t="str">
+        <f t="shared" si="2"/>
+        <v>[Admin module-30]</v>
+      </c>
+      <c r="B40" s="97" t="s">
+        <v>962</v>
+      </c>
+      <c r="C40" s="97" t="s">
+        <v>963</v>
+      </c>
+      <c r="D40" s="242" t="s">
+        <v>964</v>
+      </c>
+      <c r="E40" s="241"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="240"/>
       <c r="J40" s="90"/>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1">
       <c r="A41" s="143" t="str">
-        <f>IF(OR(B41&lt;&gt;"",D41&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="2"/>
         <v>[Admin module-31]</v>
       </c>
       <c r="B41" s="97" t="s">
-        <v>681</v>
+        <v>965</v>
       </c>
       <c r="C41" s="97" t="s">
-        <v>682</v>
-      </c>
-      <c r="D41" s="243" t="s">
-        <v>683</v>
-      </c>
-      <c r="E41" s="242"/>
+        <v>966</v>
+      </c>
+      <c r="D41" s="242" t="s">
+        <v>967</v>
+      </c>
+      <c r="E41" s="241"/>
       <c r="F41" s="97"/>
       <c r="G41" s="97"/>
       <c r="H41" s="104"/>
-      <c r="I41" s="249"/>
+      <c r="I41" s="240"/>
       <c r="J41" s="90"/>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1">
       <c r="A42" s="143" t="str">
-        <f>IF(OR(B42&lt;&gt;"",D42&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="2"/>
         <v>[Admin module-32]</v>
       </c>
       <c r="B42" s="97" t="s">
-        <v>665</v>
+        <v>970</v>
       </c>
       <c r="C42" s="97" t="s">
-        <v>684</v>
-      </c>
-      <c r="D42" s="243" t="s">
-        <v>685</v>
-      </c>
-      <c r="E42" s="242"/>
+        <v>971</v>
+      </c>
+      <c r="D42" s="242" t="s">
+        <v>973</v>
+      </c>
+      <c r="E42" s="241"/>
       <c r="F42" s="97"/>
       <c r="G42" s="97"/>
       <c r="H42" s="104"/>
-      <c r="I42" s="249"/>
+      <c r="I42" s="240"/>
       <c r="J42" s="90"/>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1">
       <c r="A43" s="143" t="str">
-        <f>IF(OR(B43&lt;&gt;"",D43&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="2"/>
         <v>[Admin module-33]</v>
       </c>
       <c r="B43" s="97" t="s">
-        <v>668</v>
+        <v>968</v>
       </c>
       <c r="C43" s="97" t="s">
-        <v>686</v>
-      </c>
-      <c r="D43" s="243" t="s">
-        <v>687</v>
-      </c>
-      <c r="E43" s="242"/>
+        <v>972</v>
+      </c>
+      <c r="D43" s="242" t="s">
+        <v>969</v>
+      </c>
+      <c r="E43" s="241"/>
       <c r="F43" s="97"/>
       <c r="G43" s="97"/>
       <c r="H43" s="104"/>
-      <c r="I43" s="249"/>
+      <c r="I43" s="240"/>
       <c r="J43" s="90"/>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A44" s="143" t="str">
-        <f>IF(OR(B44&lt;&gt;"",D44&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Admin module-34]</v>
-      </c>
-      <c r="B44" s="97" t="s">
-        <v>688</v>
-      </c>
-      <c r="C44" s="97" t="s">
-        <v>689</v>
-      </c>
-      <c r="D44" s="243" t="s">
-        <v>690</v>
-      </c>
-      <c r="E44" s="242"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="249"/>
+      <c r="A44" s="217"/>
+      <c r="B44" s="216" t="s">
+        <v>939</v>
+      </c>
+      <c r="C44" s="217"/>
+      <c r="D44" s="217"/>
+      <c r="E44" s="217"/>
+      <c r="F44" s="217"/>
+      <c r="G44" s="217"/>
+      <c r="H44" s="217"/>
+      <c r="I44" s="218"/>
       <c r="J44" s="90"/>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1">
@@ -20898,227 +21633,182 @@
         <f>IF(OR(B45&lt;&gt;"",D45&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin module-35]</v>
       </c>
-      <c r="B45" s="97" t="s">
-        <v>678</v>
+      <c r="B45" s="243" t="s">
+        <v>975</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>691</v>
-      </c>
-      <c r="D45" s="243" t="s">
-        <v>692</v>
-      </c>
-      <c r="E45" s="242"/>
+        <v>936</v>
+      </c>
+      <c r="D45" s="242" t="s">
+        <v>938</v>
+      </c>
+      <c r="E45" s="241"/>
       <c r="F45" s="97"/>
       <c r="G45" s="97"/>
       <c r="H45" s="104"/>
-      <c r="I45" s="249"/>
+      <c r="I45" s="248"/>
       <c r="J45" s="90"/>
     </row>
-    <row r="46" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A46" s="90"/>
-      <c r="B46" s="90"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="93"/>
-      <c r="I46" s="90"/>
-    </row>
-    <row r="47" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1">
+    <row r="46" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A46" s="143" t="str">
+        <f>IF(OR(B46&lt;&gt;"",D46&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Admin module-36]</v>
+      </c>
+      <c r="B46" s="97" t="s">
+        <v>974</v>
+      </c>
+      <c r="C46" s="97" t="s">
+        <v>976</v>
+      </c>
+      <c r="D46" s="242" t="s">
+        <v>977</v>
+      </c>
+      <c r="E46" s="241"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="248"/>
+      <c r="J46" s="90"/>
+    </row>
+    <row r="47" spans="1:10" ht="14.25" customHeight="1">
       <c r="A47" s="143" t="str">
-        <f t="shared" ref="A47:A50" si="3">IF(OR(B47&lt;&gt;"",D47&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B47&lt;&gt;"",D47&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin module-37]</v>
       </c>
       <c r="B47" s="97" t="s">
-        <v>610</v>
+        <v>959</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>611</v>
-      </c>
-      <c r="D47" s="243" t="s">
-        <v>612</v>
-      </c>
-      <c r="E47" s="242"/>
+        <v>978</v>
+      </c>
+      <c r="D47" s="242" t="s">
+        <v>981</v>
+      </c>
+      <c r="E47" s="241"/>
       <c r="F47" s="97"/>
       <c r="G47" s="97"/>
       <c r="H47" s="104"/>
-      <c r="I47" s="241"/>
+      <c r="I47" s="248"/>
+      <c r="J47" s="90"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1">
       <c r="A48" s="143" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(B48&lt;&gt;"",D48&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin module-38]</v>
       </c>
       <c r="B48" s="97" t="s">
-        <v>613</v>
+        <v>979</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>614</v>
-      </c>
-      <c r="D48" s="243" t="s">
-        <v>615</v>
-      </c>
-      <c r="E48" s="242"/>
+        <v>980</v>
+      </c>
+      <c r="D48" s="242" t="s">
+        <v>983</v>
+      </c>
+      <c r="E48" s="241"/>
       <c r="F48" s="97"/>
       <c r="G48" s="97"/>
       <c r="H48" s="104"/>
-      <c r="I48" s="241"/>
+      <c r="I48" s="248"/>
       <c r="J48" s="90"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A49" s="143" t="str">
-        <f t="shared" si="3"/>
+      <c r="A49" s="142" t="str">
+        <f>IF(OR(B49&lt;&gt;"",D49&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin module-39]</v>
       </c>
-      <c r="B49" s="244" t="s">
-        <v>597</v>
-      </c>
-      <c r="C49" s="219" t="s">
-        <v>616</v>
-      </c>
-      <c r="D49" s="245" t="s">
-        <v>617</v>
-      </c>
-      <c r="E49" s="246"/>
-      <c r="F49" s="219"/>
-      <c r="G49" s="219"/>
-      <c r="H49" s="247"/>
+      <c r="B49" s="139" t="s">
+        <v>982</v>
+      </c>
+      <c r="C49" s="139" t="s">
+        <v>980</v>
+      </c>
+      <c r="D49" s="278" t="s">
+        <v>984</v>
+      </c>
+      <c r="E49" s="241"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="104"/>
       <c r="I49" s="248"/>
       <c r="J49" s="90"/>
     </row>
-    <row r="50" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A50" s="143" t="str">
-        <f t="shared" si="3"/>
-        <v>[Admin module-40]</v>
-      </c>
-      <c r="B50" s="244" t="s">
-        <v>618</v>
-      </c>
-      <c r="C50" s="219" t="s">
-        <v>619</v>
-      </c>
-      <c r="D50" s="245" t="s">
-        <v>620</v>
-      </c>
-      <c r="E50" s="246"/>
-      <c r="F50" s="219"/>
-      <c r="G50" s="219"/>
-      <c r="H50" s="247"/>
-      <c r="I50" s="248"/>
-      <c r="J50" s="90"/>
-    </row>
-    <row r="51" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51" s="90"/>
+    <row r="50" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A50" s="146"/>
+      <c r="B50" s="146"/>
+      <c r="C50" s="146"/>
+      <c r="D50" s="146"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="90"/>
+    </row>
+    <row r="51" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A51" s="97"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="242"/>
+      <c r="E51" s="280"/>
+      <c r="F51" s="97"/>
+      <c r="G51" s="97"/>
+      <c r="H51" s="104"/>
+      <c r="I51" s="240"/>
     </row>
     <row r="52" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A52" s="54" t="str">
-        <f t="shared" ref="A52:A57" si="4">IF(OR(B52&lt;&gt;"",D52&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Admin module-42]</v>
-      </c>
-      <c r="B52" s="109" t="s">
-        <v>536</v>
-      </c>
-      <c r="C52" s="109" t="s">
-        <v>537</v>
-      </c>
-      <c r="D52" s="109" t="s">
-        <v>538</v>
-      </c>
-      <c r="E52" s="109"/>
-      <c r="F52" s="109"/>
-      <c r="G52" s="109"/>
+      <c r="A52" s="97"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="242"/>
+      <c r="E52" s="280"/>
+      <c r="F52" s="97"/>
+      <c r="G52" s="97"/>
       <c r="H52" s="104"/>
-      <c r="I52" s="91"/>
+      <c r="I52" s="240"/>
       <c r="J52" s="90"/>
     </row>
     <row r="53" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A53" s="109" t="str">
-        <f t="shared" si="4"/>
-        <v>[Admin module-43]</v>
-      </c>
-      <c r="B53" s="109" t="s">
-        <v>539</v>
-      </c>
-      <c r="C53" s="109" t="s">
-        <v>540</v>
-      </c>
-      <c r="D53" s="109" t="s">
-        <v>541</v>
-      </c>
-      <c r="E53" s="109"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
-      <c r="H53" s="104"/>
-      <c r="I53" s="91"/>
+      <c r="A53" s="97"/>
+      <c r="B53" s="97"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="242"/>
+      <c r="E53" s="245"/>
+      <c r="F53" s="219"/>
+      <c r="G53" s="219"/>
+      <c r="H53" s="246"/>
+      <c r="I53" s="247"/>
       <c r="J53" s="90"/>
     </row>
     <row r="54" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A54" s="109" t="str">
-        <f t="shared" si="4"/>
-        <v>[Admin module-44]</v>
-      </c>
-      <c r="B54" s="109" t="s">
-        <v>542</v>
-      </c>
-      <c r="C54" s="54" t="s">
-        <v>543</v>
-      </c>
-      <c r="D54" s="109" t="s">
-        <v>544</v>
-      </c>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="104"/>
-      <c r="I54" s="91"/>
+      <c r="A54" s="97"/>
+      <c r="B54" s="97"/>
+      <c r="C54" s="97"/>
+      <c r="D54" s="242"/>
+      <c r="E54" s="245"/>
+      <c r="F54" s="219"/>
+      <c r="G54" s="219"/>
+      <c r="H54" s="246"/>
+      <c r="I54" s="247"/>
       <c r="J54" s="90"/>
     </row>
     <row r="55" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A55" s="109" t="str">
-        <f t="shared" si="4"/>
-        <v>[Admin module-45]</v>
-      </c>
-      <c r="B55" s="109" t="s">
-        <v>545</v>
-      </c>
-      <c r="C55" s="54" t="s">
-        <v>546</v>
-      </c>
-      <c r="D55" s="231" t="s">
-        <v>547</v>
-      </c>
-      <c r="E55" s="109"/>
-      <c r="F55" s="109"/>
-      <c r="G55" s="109"/>
-      <c r="H55" s="104"/>
-      <c r="I55" s="91"/>
+      <c r="A55" s="127"/>
+      <c r="B55" s="127"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="127"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
       <c r="J55" s="90"/>
     </row>
     <row r="56" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A56" s="109" t="str">
-        <f t="shared" si="4"/>
-        <v>[Admin module-46]</v>
-      </c>
-      <c r="B56" s="54" t="s">
-        <v>548</v>
-      </c>
-      <c r="C56" s="54" t="s">
-        <v>549</v>
-      </c>
-      <c r="D56" s="231" t="s">
-        <v>550</v>
-      </c>
-      <c r="E56" s="109"/>
+      <c r="A56" s="96"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="97"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="175"/>
       <c r="F56" s="109"/>
       <c r="G56" s="109"/>
       <c r="H56" s="104"/>
@@ -21126,19 +21816,10 @@
       <c r="J56" s="90"/>
     </row>
     <row r="57" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A57" s="109" t="str">
-        <f t="shared" si="4"/>
-        <v>[Admin module-47]</v>
-      </c>
-      <c r="B57" s="109" t="s">
-        <v>551</v>
-      </c>
-      <c r="C57" s="54" t="s">
-        <v>552</v>
-      </c>
-      <c r="D57" s="231" t="s">
-        <v>553</v>
-      </c>
+      <c r="A57" s="197"/>
+      <c r="B57" s="197"/>
+      <c r="C57" s="197"/>
+      <c r="D57" s="197"/>
       <c r="E57" s="109"/>
       <c r="F57" s="109"/>
       <c r="G57" s="109"/>
@@ -21147,33 +21828,22 @@
       <c r="J57" s="90"/>
     </row>
     <row r="58" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A58" s="228"/>
-      <c r="B58" s="228" t="s">
-        <v>554</v>
-      </c>
-      <c r="C58" s="229"/>
-      <c r="D58" s="229"/>
-      <c r="E58" s="229"/>
-      <c r="F58" s="229"/>
-      <c r="G58" s="229"/>
-      <c r="H58" s="229"/>
-      <c r="I58" s="235"/>
+      <c r="A58" s="109"/>
+      <c r="B58" s="109"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="109"/>
+      <c r="E58" s="109"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="109"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="91"/>
       <c r="J58" s="90"/>
     </row>
     <row r="59" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A59" s="109" t="str">
-        <f t="shared" ref="A59:A64" si="5">IF(OR(B59&lt;&gt;"",D59&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Admin module-49]</v>
-      </c>
-      <c r="B59" s="109" t="s">
-        <v>555</v>
-      </c>
-      <c r="C59" s="109" t="s">
-        <v>556</v>
-      </c>
-      <c r="D59" s="109" t="s">
-        <v>557</v>
-      </c>
+      <c r="A59" s="109"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="231"/>
       <c r="E59" s="109"/>
       <c r="F59" s="109"/>
       <c r="G59" s="109"/>
@@ -21182,19 +21852,10 @@
       <c r="J59" s="90"/>
     </row>
     <row r="60" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A60" s="109" t="str">
-        <f t="shared" si="5"/>
-        <v>[Admin module-50]</v>
-      </c>
-      <c r="B60" s="109" t="s">
-        <v>558</v>
-      </c>
-      <c r="C60" s="109" t="s">
-        <v>556</v>
-      </c>
-      <c r="D60" s="109" t="s">
-        <v>557</v>
-      </c>
+      <c r="A60" s="109"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="231"/>
       <c r="E60" s="109"/>
       <c r="F60" s="109"/>
       <c r="G60" s="109"/>
@@ -21203,19 +21864,10 @@
       <c r="J60" s="90"/>
     </row>
     <row r="61" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A61" s="109" t="str">
-        <f t="shared" si="5"/>
-        <v>[Admin module-51]</v>
-      </c>
-      <c r="B61" s="109" t="s">
-        <v>559</v>
-      </c>
-      <c r="C61" s="109" t="s">
-        <v>560</v>
-      </c>
-      <c r="D61" s="109" t="s">
-        <v>561</v>
-      </c>
+      <c r="A61" s="109"/>
+      <c r="B61" s="109"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="231"/>
       <c r="E61" s="109"/>
       <c r="F61" s="109"/>
       <c r="G61" s="109"/>
@@ -21224,66 +21876,39 @@
       <c r="J61" s="90"/>
     </row>
     <row r="62" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A62" s="109" t="str">
-        <f t="shared" si="5"/>
-        <v>[Admin module-52]</v>
-      </c>
-      <c r="B62" s="232" t="s">
-        <v>562</v>
-      </c>
-      <c r="C62" s="109" t="s">
-        <v>563</v>
-      </c>
-      <c r="D62" s="231" t="s">
-        <v>564</v>
-      </c>
-      <c r="E62" s="109"/>
-      <c r="F62" s="109"/>
-      <c r="G62" s="109"/>
-      <c r="H62" s="104"/>
-      <c r="I62" s="91"/>
+      <c r="A62" s="96"/>
+      <c r="B62" s="97"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="146"/>
+      <c r="F62" s="95"/>
+      <c r="G62" s="97"/>
+      <c r="H62" s="157"/>
+      <c r="I62" s="146"/>
       <c r="J62" s="90"/>
     </row>
     <row r="63" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A63" s="109" t="str">
-        <f t="shared" si="5"/>
-        <v>[Admin module-53]</v>
-      </c>
-      <c r="B63" s="232" t="s">
-        <v>565</v>
-      </c>
-      <c r="C63" s="109" t="s">
-        <v>566</v>
-      </c>
-      <c r="D63" s="231" t="s">
-        <v>567</v>
-      </c>
-      <c r="E63" s="109"/>
-      <c r="F63" s="109"/>
-      <c r="G63" s="109"/>
-      <c r="H63" s="104"/>
-      <c r="I63" s="91"/>
+      <c r="A63" s="96"/>
+      <c r="B63" s="97"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="146"/>
+      <c r="F63" s="95"/>
+      <c r="G63" s="97"/>
+      <c r="H63" s="157"/>
+      <c r="I63" s="146"/>
       <c r="J63" s="90"/>
     </row>
     <row r="64" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A64" s="109" t="str">
-        <f t="shared" si="5"/>
-        <v>[Admin module-54]</v>
-      </c>
-      <c r="B64" s="109" t="s">
-        <v>568</v>
-      </c>
-      <c r="C64" s="109" t="s">
-        <v>569</v>
-      </c>
-      <c r="D64" s="109" t="s">
-        <v>570</v>
-      </c>
-      <c r="E64" s="109"/>
-      <c r="F64" s="109"/>
-      <c r="G64" s="109"/>
-      <c r="H64" s="104"/>
-      <c r="I64" s="91"/>
+      <c r="A64" s="96"/>
+      <c r="B64" s="97"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="146"/>
+      <c r="F64" s="161"/>
+      <c r="G64" s="97"/>
+      <c r="H64" s="157"/>
+      <c r="I64" s="146"/>
       <c r="J64" s="90"/>
     </row>
     <row r="65" spans="1:10" ht="14.25" customHeight="1">
@@ -21292,7 +21917,7 @@
       <c r="C65" s="97"/>
       <c r="D65" s="97"/>
       <c r="E65" s="146"/>
-      <c r="F65" s="95"/>
+      <c r="F65" s="160"/>
       <c r="G65" s="97"/>
       <c r="H65" s="157"/>
       <c r="I65" s="146"/>
@@ -21300,7 +21925,7 @@
     </row>
     <row r="66" spans="1:10" ht="14.25" customHeight="1">
       <c r="A66" s="96"/>
-      <c r="B66" s="97"/>
+      <c r="B66" s="109"/>
       <c r="C66" s="97"/>
       <c r="D66" s="97"/>
       <c r="E66" s="146"/>
@@ -21312,11 +21937,11 @@
     </row>
     <row r="67" spans="1:10" ht="14.25" customHeight="1">
       <c r="A67" s="96"/>
-      <c r="B67" s="97"/>
+      <c r="B67" s="109"/>
       <c r="C67" s="97"/>
       <c r="D67" s="97"/>
       <c r="E67" s="146"/>
-      <c r="F67" s="161"/>
+      <c r="F67" s="95"/>
       <c r="G67" s="97"/>
       <c r="H67" s="157"/>
       <c r="I67" s="146"/>
@@ -21324,11 +21949,11 @@
     </row>
     <row r="68" spans="1:10" ht="14.25" customHeight="1">
       <c r="A68" s="96"/>
-      <c r="B68" s="97"/>
+      <c r="B68" s="109"/>
       <c r="C68" s="97"/>
       <c r="D68" s="97"/>
       <c r="E68" s="146"/>
-      <c r="F68" s="160"/>
+      <c r="F68" s="95"/>
       <c r="G68" s="97"/>
       <c r="H68" s="157"/>
       <c r="I68" s="146"/>
@@ -21336,7 +21961,7 @@
     </row>
     <row r="69" spans="1:10" ht="14.25" customHeight="1">
       <c r="A69" s="96"/>
-      <c r="B69" s="109"/>
+      <c r="B69" s="97"/>
       <c r="C69" s="97"/>
       <c r="D69" s="97"/>
       <c r="E69" s="146"/>
@@ -21348,7 +21973,7 @@
     </row>
     <row r="70" spans="1:10" ht="14.25" customHeight="1">
       <c r="A70" s="96"/>
-      <c r="B70" s="109"/>
+      <c r="B70" s="97"/>
       <c r="C70" s="97"/>
       <c r="D70" s="97"/>
       <c r="E70" s="146"/>
@@ -21359,9 +21984,9 @@
       <c r="J70" s="90"/>
     </row>
     <row r="71" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A71" s="96"/>
+      <c r="A71" s="138"/>
       <c r="B71" s="109"/>
-      <c r="C71" s="97"/>
+      <c r="C71" s="137"/>
       <c r="D71" s="97"/>
       <c r="E71" s="146"/>
       <c r="F71" s="95"/>
@@ -21371,9 +21996,9 @@
       <c r="J71" s="90"/>
     </row>
     <row r="72" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A72" s="96"/>
-      <c r="B72" s="97"/>
-      <c r="C72" s="97"/>
+      <c r="A72" s="138"/>
+      <c r="B72" s="109"/>
+      <c r="C72" s="137"/>
       <c r="D72" s="97"/>
       <c r="E72" s="146"/>
       <c r="F72" s="95"/>
@@ -21383,10 +22008,10 @@
       <c r="J72" s="90"/>
     </row>
     <row r="73" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A73" s="96"/>
-      <c r="B73" s="97"/>
-      <c r="C73" s="97"/>
-      <c r="D73" s="97"/>
+      <c r="A73" s="138"/>
+      <c r="B73" s="95"/>
+      <c r="C73" s="136"/>
+      <c r="D73" s="139"/>
       <c r="E73" s="146"/>
       <c r="F73" s="95"/>
       <c r="G73" s="97"/>
@@ -21395,10 +22020,10 @@
       <c r="J73" s="90"/>
     </row>
     <row r="74" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A74" s="138"/>
-      <c r="B74" s="109"/>
-      <c r="C74" s="137"/>
-      <c r="D74" s="97"/>
+      <c r="A74" s="96"/>
+      <c r="B74" s="95"/>
+      <c r="C74" s="136"/>
+      <c r="D74" s="139"/>
       <c r="E74" s="146"/>
       <c r="F74" s="95"/>
       <c r="G74" s="97"/>
@@ -21407,10 +22032,10 @@
       <c r="J74" s="90"/>
     </row>
     <row r="75" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A75" s="138"/>
-      <c r="B75" s="109"/>
-      <c r="C75" s="137"/>
-      <c r="D75" s="97"/>
+      <c r="A75" s="96"/>
+      <c r="B75" s="95"/>
+      <c r="C75" s="95"/>
+      <c r="D75" s="95"/>
       <c r="E75" s="146"/>
       <c r="F75" s="95"/>
       <c r="G75" s="97"/>
@@ -21419,10 +22044,10 @@
       <c r="J75" s="90"/>
     </row>
     <row r="76" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A76" s="138"/>
+      <c r="A76" s="96"/>
       <c r="B76" s="95"/>
-      <c r="C76" s="136"/>
-      <c r="D76" s="139"/>
+      <c r="C76" s="95"/>
+      <c r="D76" s="95"/>
       <c r="E76" s="146"/>
       <c r="F76" s="95"/>
       <c r="G76" s="97"/>
@@ -21433,8 +22058,8 @@
     <row r="77" spans="1:10" ht="14.25" customHeight="1">
       <c r="A77" s="96"/>
       <c r="B77" s="95"/>
-      <c r="C77" s="136"/>
-      <c r="D77" s="139"/>
+      <c r="C77" s="95"/>
+      <c r="D77" s="95"/>
       <c r="E77" s="146"/>
       <c r="F77" s="95"/>
       <c r="G77" s="97"/>
@@ -21444,9 +22069,9 @@
     </row>
     <row r="78" spans="1:10" ht="14.25" customHeight="1">
       <c r="A78" s="96"/>
-      <c r="B78" s="95"/>
-      <c r="C78" s="95"/>
-      <c r="D78" s="95"/>
+      <c r="B78" s="97"/>
+      <c r="C78" s="136"/>
+      <c r="D78" s="139"/>
       <c r="E78" s="146"/>
       <c r="F78" s="95"/>
       <c r="G78" s="97"/>
@@ -21456,9 +22081,9 @@
     </row>
     <row r="79" spans="1:10" ht="14.25" customHeight="1">
       <c r="A79" s="96"/>
-      <c r="B79" s="95"/>
-      <c r="C79" s="95"/>
-      <c r="D79" s="95"/>
+      <c r="B79" s="97"/>
+      <c r="C79" s="142"/>
+      <c r="D79" s="139"/>
       <c r="E79" s="146"/>
       <c r="F79" s="95"/>
       <c r="G79" s="97"/>
@@ -21468,9 +22093,9 @@
     </row>
     <row r="80" spans="1:10" ht="14.25" customHeight="1">
       <c r="A80" s="96"/>
-      <c r="B80" s="95"/>
-      <c r="C80" s="95"/>
-      <c r="D80" s="95"/>
+      <c r="B80" s="97"/>
+      <c r="C80" s="142"/>
+      <c r="D80" s="139"/>
       <c r="E80" s="146"/>
       <c r="F80" s="95"/>
       <c r="G80" s="97"/>
@@ -21481,7 +22106,7 @@
     <row r="81" spans="1:10" ht="14.25" customHeight="1">
       <c r="A81" s="96"/>
       <c r="B81" s="97"/>
-      <c r="C81" s="136"/>
+      <c r="C81" s="142"/>
       <c r="D81" s="139"/>
       <c r="E81" s="146"/>
       <c r="F81" s="95"/>
@@ -21492,9 +22117,9 @@
     </row>
     <row r="82" spans="1:10" ht="14.25" customHeight="1">
       <c r="A82" s="96"/>
-      <c r="B82" s="97"/>
-      <c r="C82" s="142"/>
-      <c r="D82" s="139"/>
+      <c r="B82" s="109"/>
+      <c r="C82" s="97"/>
+      <c r="D82" s="97"/>
       <c r="E82" s="146"/>
       <c r="F82" s="95"/>
       <c r="G82" s="97"/>
@@ -21504,9 +22129,9 @@
     </row>
     <row r="83" spans="1:10" ht="14.25" customHeight="1">
       <c r="A83" s="96"/>
-      <c r="B83" s="97"/>
-      <c r="C83" s="142"/>
-      <c r="D83" s="139"/>
+      <c r="B83" s="109"/>
+      <c r="C83" s="97"/>
+      <c r="D83" s="97"/>
       <c r="E83" s="146"/>
       <c r="F83" s="95"/>
       <c r="G83" s="97"/>
@@ -21516,9 +22141,9 @@
     </row>
     <row r="84" spans="1:10" ht="14.25" customHeight="1">
       <c r="A84" s="96"/>
-      <c r="B84" s="97"/>
-      <c r="C84" s="142"/>
-      <c r="D84" s="139"/>
+      <c r="B84" s="109"/>
+      <c r="C84" s="97"/>
+      <c r="D84" s="97"/>
       <c r="E84" s="146"/>
       <c r="F84" s="95"/>
       <c r="G84" s="97"/>
@@ -21528,7 +22153,7 @@
     </row>
     <row r="85" spans="1:10" ht="14.25" customHeight="1">
       <c r="A85" s="96"/>
-      <c r="B85" s="109"/>
+      <c r="B85" s="97"/>
       <c r="C85" s="97"/>
       <c r="D85" s="97"/>
       <c r="E85" s="146"/>
@@ -21540,7 +22165,7 @@
     </row>
     <row r="86" spans="1:10" ht="14.25" customHeight="1">
       <c r="A86" s="96"/>
-      <c r="B86" s="109"/>
+      <c r="B86" s="97"/>
       <c r="C86" s="97"/>
       <c r="D86" s="97"/>
       <c r="E86" s="146"/>
@@ -21552,9 +22177,9 @@
     </row>
     <row r="87" spans="1:10" ht="14.25" customHeight="1">
       <c r="A87" s="96"/>
-      <c r="B87" s="109"/>
-      <c r="C87" s="97"/>
-      <c r="D87" s="97"/>
+      <c r="B87" s="97"/>
+      <c r="C87" s="136"/>
+      <c r="D87" s="139"/>
       <c r="E87" s="146"/>
       <c r="F87" s="95"/>
       <c r="G87" s="97"/>
@@ -21565,8 +22190,8 @@
     <row r="88" spans="1:10" ht="14.25" customHeight="1">
       <c r="A88" s="96"/>
       <c r="B88" s="97"/>
-      <c r="C88" s="97"/>
-      <c r="D88" s="97"/>
+      <c r="C88" s="136"/>
+      <c r="D88" s="139"/>
       <c r="E88" s="146"/>
       <c r="F88" s="95"/>
       <c r="G88" s="97"/>
@@ -21576,7 +22201,7 @@
     </row>
     <row r="89" spans="1:10" ht="14.25" customHeight="1">
       <c r="A89" s="96"/>
-      <c r="B89" s="97"/>
+      <c r="B89" s="109"/>
       <c r="C89" s="97"/>
       <c r="D89" s="97"/>
       <c r="E89" s="146"/>
@@ -21588,9 +22213,9 @@
     </row>
     <row r="90" spans="1:10" ht="14.25" customHeight="1">
       <c r="A90" s="96"/>
-      <c r="B90" s="97"/>
-      <c r="C90" s="136"/>
-      <c r="D90" s="139"/>
+      <c r="B90" s="109"/>
+      <c r="C90" s="97"/>
+      <c r="D90" s="97"/>
       <c r="E90" s="146"/>
       <c r="F90" s="95"/>
       <c r="G90" s="97"/>
@@ -21600,9 +22225,9 @@
     </row>
     <row r="91" spans="1:10" ht="14.25" customHeight="1">
       <c r="A91" s="96"/>
-      <c r="B91" s="97"/>
-      <c r="C91" s="136"/>
-      <c r="D91" s="139"/>
+      <c r="B91" s="109"/>
+      <c r="C91" s="97"/>
+      <c r="D91" s="97"/>
       <c r="E91" s="146"/>
       <c r="F91" s="95"/>
       <c r="G91" s="97"/>
@@ -21612,7 +22237,7 @@
     </row>
     <row r="92" spans="1:10" ht="14.25" customHeight="1">
       <c r="A92" s="96"/>
-      <c r="B92" s="109"/>
+      <c r="B92" s="97"/>
       <c r="C92" s="97"/>
       <c r="D92" s="97"/>
       <c r="E92" s="146"/>
@@ -21624,7 +22249,7 @@
     </row>
     <row r="93" spans="1:10" ht="14.25" customHeight="1">
       <c r="A93" s="96"/>
-      <c r="B93" s="109"/>
+      <c r="B93" s="97"/>
       <c r="C93" s="97"/>
       <c r="D93" s="97"/>
       <c r="E93" s="146"/>
@@ -21636,12 +22261,12 @@
     </row>
     <row r="94" spans="1:10" ht="14.25" customHeight="1">
       <c r="A94" s="96"/>
-      <c r="B94" s="109"/>
+      <c r="B94" s="97"/>
       <c r="C94" s="97"/>
       <c r="D94" s="97"/>
       <c r="E94" s="146"/>
       <c r="F94" s="95"/>
-      <c r="G94" s="97"/>
+      <c r="G94" s="95"/>
       <c r="H94" s="157"/>
       <c r="I94" s="146"/>
       <c r="J94" s="90"/>
@@ -21653,25 +22278,25 @@
       <c r="D95" s="97"/>
       <c r="E95" s="146"/>
       <c r="F95" s="95"/>
-      <c r="G95" s="97"/>
+      <c r="G95" s="95"/>
       <c r="H95" s="157"/>
       <c r="I95" s="146"/>
       <c r="J95" s="90"/>
     </row>
     <row r="96" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A96" s="96"/>
+      <c r="A96" s="152"/>
       <c r="B96" s="97"/>
       <c r="C96" s="97"/>
       <c r="D96" s="97"/>
       <c r="E96" s="146"/>
       <c r="F96" s="95"/>
-      <c r="G96" s="97"/>
+      <c r="G96" s="95"/>
       <c r="H96" s="157"/>
       <c r="I96" s="146"/>
       <c r="J96" s="90"/>
     </row>
     <row r="97" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A97" s="96"/>
+      <c r="A97" s="152"/>
       <c r="B97" s="97"/>
       <c r="C97" s="97"/>
       <c r="D97" s="97"/>
@@ -21683,7 +22308,7 @@
       <c r="J97" s="90"/>
     </row>
     <row r="98" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A98" s="96"/>
+      <c r="A98" s="152"/>
       <c r="B98" s="97"/>
       <c r="C98" s="97"/>
       <c r="D98" s="97"/>
@@ -21735,7 +22360,7 @@
       <c r="B102" s="97"/>
       <c r="C102" s="97"/>
       <c r="D102" s="97"/>
-      <c r="E102" s="146"/>
+      <c r="E102" s="150"/>
       <c r="F102" s="95"/>
       <c r="G102" s="95"/>
       <c r="H102" s="157"/>
@@ -21748,7 +22373,7 @@
       <c r="C103" s="97"/>
       <c r="D103" s="97"/>
       <c r="E103" s="146"/>
-      <c r="F103" s="95"/>
+      <c r="F103" s="97"/>
       <c r="G103" s="95"/>
       <c r="H103" s="157"/>
       <c r="I103" s="146"/>
@@ -21760,7 +22385,7 @@
       <c r="C104" s="97"/>
       <c r="D104" s="97"/>
       <c r="E104" s="146"/>
-      <c r="F104" s="95"/>
+      <c r="F104" s="97"/>
       <c r="G104" s="95"/>
       <c r="H104" s="157"/>
       <c r="I104" s="146"/>
@@ -21771,8 +22396,8 @@
       <c r="B105" s="97"/>
       <c r="C105" s="97"/>
       <c r="D105" s="97"/>
-      <c r="E105" s="150"/>
-      <c r="F105" s="95"/>
+      <c r="E105" s="146"/>
+      <c r="F105" s="97"/>
       <c r="G105" s="95"/>
       <c r="H105" s="157"/>
       <c r="I105" s="146"/>
@@ -21785,53 +22410,16 @@
       <c r="D106" s="97"/>
       <c r="E106" s="146"/>
       <c r="F106" s="97"/>
-      <c r="G106" s="95"/>
+      <c r="G106" s="97"/>
       <c r="H106" s="157"/>
       <c r="I106" s="146"/>
       <c r="J106" s="90"/>
     </row>
-    <row r="107" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A107" s="152"/>
-      <c r="B107" s="97"/>
-      <c r="C107" s="97"/>
-      <c r="D107" s="97"/>
-      <c r="E107" s="146"/>
-      <c r="F107" s="97"/>
-      <c r="G107" s="95"/>
-      <c r="H107" s="157"/>
-      <c r="I107" s="146"/>
+    <row r="107" spans="1:10">
       <c r="J107" s="90"/>
     </row>
-    <row r="108" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A108" s="152"/>
-      <c r="B108" s="97"/>
-      <c r="C108" s="97"/>
-      <c r="D108" s="97"/>
-      <c r="E108" s="146"/>
-      <c r="F108" s="97"/>
-      <c r="G108" s="95"/>
-      <c r="H108" s="157"/>
-      <c r="I108" s="146"/>
-      <c r="J108" s="90"/>
-    </row>
-    <row r="109" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A109" s="152"/>
-      <c r="B109" s="97"/>
-      <c r="C109" s="97"/>
-      <c r="D109" s="97"/>
-      <c r="E109" s="146"/>
-      <c r="F109" s="97"/>
-      <c r="G109" s="97"/>
-      <c r="H109" s="157"/>
-      <c r="I109" s="146"/>
-      <c r="J109" s="90"/>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="J110" s="90"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B11:I11"/>
+  <mergeCells count="5">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
@@ -21839,13 +22427,13 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F47:G50 F12:G22 F34:G39 F29:G32 F41:G45 F24:G25 F27:G27">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51:G54 F12:G23 F37:G43 F30:G35 F45:G49 F25:G26 F28:G28">
       <formula1>$J$1:$J$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F65:G109">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F62:G106">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F59:G64 F52:G57">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F56:G61">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -21878,15 +22466,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="271" t="s">
+      <c r="B1" s="288" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="271"/>
-      <c r="H1" s="271"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+      <c r="H1" s="288"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="55"/>
@@ -21902,15 +22490,15 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="268" t="str">
+      <c r="C3" s="285" t="str">
         <f>Cover!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="D3" s="268"/>
-      <c r="E3" s="269" t="s">
+      <c r="D3" s="285"/>
+      <c r="E3" s="286" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="269"/>
+      <c r="F3" s="286"/>
       <c r="G3" s="58" t="s">
         <v>117</v>
       </c>
@@ -21920,15 +22508,15 @@
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="268" t="str">
+      <c r="C4" s="285" t="str">
         <f>Cover!C5</f>
         <v>VMN</v>
       </c>
-      <c r="D4" s="268"/>
-      <c r="E4" s="269" t="s">
+      <c r="D4" s="285"/>
+      <c r="E4" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="269"/>
+      <c r="F4" s="286"/>
       <c r="G4" s="58" t="s">
         <v>118</v>
       </c>
@@ -21938,15 +22526,15 @@
       <c r="B5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="268" t="str">
+      <c r="C5" s="285" t="str">
         <f>C4&amp;"_"&amp;"System Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_System Test Report_v1.0</v>
       </c>
-      <c r="D5" s="268"/>
-      <c r="E5" s="269" t="s">
+      <c r="D5" s="285"/>
+      <c r="E5" s="286" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="269"/>
+      <c r="F5" s="286"/>
       <c r="G5" s="94" t="s">
         <v>349</v>
       </c>
@@ -21957,12 +22545,12 @@
       <c r="B6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="270"/>
-      <c r="D6" s="270"/>
-      <c r="E6" s="270"/>
-      <c r="F6" s="270"/>
-      <c r="G6" s="270"/>
-      <c r="H6" s="270"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="287"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
+      <c r="G6" s="287"/>
+      <c r="H6" s="287"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="55"/>
@@ -22139,7 +22727,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="120" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="D15" s="130">
         <f>Authentication!A6</f>
@@ -22151,7 +22739,7 @@
       </c>
       <c r="F15" s="130">
         <f>Authentication!C6</f>
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="G15" s="130">
         <f>Authentication!D6</f>
@@ -22159,7 +22747,7 @@
       </c>
       <c r="H15" s="130">
         <f>Authentication!E6</f>
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.45" customHeight="1">
@@ -22168,7 +22756,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="120" t="s">
-        <v>694</v>
+        <v>587</v>
       </c>
       <c r="D16" s="130">
         <f>'Mod Module'!A6</f>
@@ -22197,7 +22785,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="120" t="s">
-        <v>695</v>
+        <v>588</v>
       </c>
       <c r="D17" s="130">
         <f>'Admin Module'!A6</f>
@@ -22209,7 +22797,7 @@
       </c>
       <c r="F17" s="130">
         <f>'Admin Module'!C6</f>
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G17" s="130">
         <f>'Admin Module'!D6</f>
@@ -22217,7 +22805,7 @@
       </c>
       <c r="H17" s="130">
         <f>'Admin Module'!E6</f>
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.45" customHeight="1">
@@ -22276,7 +22864,7 @@
       </c>
       <c r="F22" s="117">
         <f>SUM(F11:F21)</f>
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="G22" s="117">
         <f>SUM(G11:G21)</f>
@@ -22284,7 +22872,7 @@
       </c>
       <c r="H22" s="118">
         <f>SUM(H11:H21)</f>
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -22392,39 +22980,39 @@
       <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="274" t="s">
+      <c r="B3" s="291" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="274"/>
-      <c r="D3" s="268" t="str">
+      <c r="C3" s="291"/>
+      <c r="D3" s="285" t="str">
         <f>Cover!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="E3" s="268"/>
-      <c r="F3" s="268"/>
+      <c r="E3" s="285"/>
+      <c r="F3" s="285"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="274" t="s">
+      <c r="B4" s="291" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="274"/>
-      <c r="D4" s="268" t="str">
+      <c r="C4" s="291"/>
+      <c r="D4" s="285" t="str">
         <f>Cover!C5</f>
         <v>VMN</v>
       </c>
-      <c r="E4" s="268"/>
-      <c r="F4" s="268"/>
+      <c r="E4" s="285"/>
+      <c r="F4" s="285"/>
     </row>
     <row r="5" spans="2:6" s="39" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="272" t="s">
+      <c r="B5" s="289" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="272"/>
-      <c r="D5" s="273" t="s">
+      <c r="C5" s="289"/>
+      <c r="D5" s="290" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="273"/>
-      <c r="F5" s="273"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="40"/>
@@ -22514,10 +23102,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="127" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="D13" s="165" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E13" s="129"/>
       <c r="F13" s="129"/>
@@ -22527,10 +23115,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="127" t="s">
-        <v>621</v>
+        <v>584</v>
       </c>
       <c r="D14" s="165" t="s">
-        <v>621</v>
+        <v>584</v>
       </c>
       <c r="E14" s="129"/>
       <c r="F14" s="129"/>
@@ -22540,10 +23128,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="127" t="s">
-        <v>693</v>
+        <v>586</v>
       </c>
       <c r="D15" s="165" t="s">
-        <v>693</v>
+        <v>586</v>
       </c>
       <c r="E15" s="129"/>
       <c r="F15" s="129"/>
@@ -22593,11 +23181,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="292" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="275"/>
-      <c r="C1" s="275"/>
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:3" ht="15">
@@ -22900,10 +23488,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW41"/>
+  <dimension ref="A1:IW38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -23181,14 +23769,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="276" t="s">
+      <c r="B2" s="293" t="s">
         <v>508</v>
       </c>
-      <c r="C2" s="277"/>
-      <c r="D2" s="277"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="277"/>
-      <c r="G2" s="278"/>
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="294"/>
+      <c r="G2" s="295"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -23439,14 +24027,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="279" t="s">
+      <c r="B3" s="296" t="s">
         <v>509</v>
       </c>
-      <c r="C3" s="280"/>
-      <c r="D3" s="280"/>
-      <c r="E3" s="280"/>
-      <c r="F3" s="280"/>
-      <c r="G3" s="281"/>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="298"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -23697,14 +24285,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="279" t="s">
-        <v>722</v>
-      </c>
-      <c r="C4" s="280"/>
-      <c r="D4" s="280"/>
-      <c r="E4" s="280"/>
-      <c r="F4" s="280"/>
-      <c r="G4" s="281"/>
+      <c r="B4" s="296" t="s">
+        <v>613</v>
+      </c>
+      <c r="C4" s="297"/>
+      <c r="D4" s="297"/>
+      <c r="E4" s="297"/>
+      <c r="F4" s="297"/>
+      <c r="G4" s="298"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -23962,11 +24550,11 @@
       <c r="D5" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="282" t="s">
+      <c r="E5" s="299" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="283"/>
-      <c r="G5" s="284"/>
+      <c r="F5" s="300"/>
+      <c r="G5" s="301"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -24215,27 +24803,27 @@
     </row>
     <row r="6" spans="1:257" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="86">
-        <f>COUNTIF(F12:G73,"Pass")</f>
+        <f>COUNTIF(F12:G70,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="87">
-        <f>COUNTIF(F12:G73,"Fail")</f>
+        <f>COUNTIF(F12:G70,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="87">
         <f>E6-D6-B6-A6</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="88">
-        <f>COUNTIF(F12:G73,"N/A")</f>
+        <f>COUNTIF(F12:G70,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="285">
-        <f>COUNTA(A12:A73)</f>
-        <v>18</v>
-      </c>
-      <c r="F6" s="286"/>
-      <c r="G6" s="287"/>
+      <c r="E6" s="302">
+        <f>COUNTA(A12:A70)</f>
+        <v>15</v>
+      </c>
+      <c r="F6" s="303"/>
+      <c r="G6" s="304"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -25771,13 +26359,13 @@
         <v>[Homepage-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>698</v>
+        <v>591</v>
       </c>
       <c r="C12" s="97" t="s">
         <v>511</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>852</v>
+        <v>723</v>
       </c>
       <c r="E12" s="100"/>
       <c r="F12" s="95"/>
@@ -25792,13 +26380,13 @@
         <v>[Homepage-3]</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>699</v>
+        <v>592</v>
       </c>
       <c r="C13" s="97" t="s">
         <v>511</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>852</v>
+        <v>723</v>
       </c>
       <c r="E13" s="103"/>
       <c r="F13" s="95"/>
@@ -25813,19 +26401,19 @@
         <v>[Homepage-4]</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>700</v>
+        <v>593</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>702</v>
+        <v>595</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>851</v>
+        <v>722</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="95"/>
       <c r="G14" s="95"/>
       <c r="H14" s="101"/>
-      <c r="I14" s="250"/>
+      <c r="I14" s="249"/>
       <c r="J14" s="90"/>
     </row>
     <row r="15" spans="1:257" ht="14.25" customHeight="1">
@@ -25834,19 +26422,19 @@
         <v>[Homepage-5]</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>701</v>
+        <v>594</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>702</v>
+        <v>595</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>851</v>
+        <v>722</v>
       </c>
       <c r="E15" s="103"/>
       <c r="F15" s="95"/>
       <c r="G15" s="95"/>
       <c r="H15" s="101"/>
-      <c r="I15" s="250"/>
+      <c r="I15" s="249"/>
       <c r="J15" s="90"/>
     </row>
     <row r="16" spans="1:257" ht="14.25" customHeight="1">
@@ -25855,13 +26443,13 @@
         <v>[Homepage-6]</v>
       </c>
       <c r="B16" s="227" t="s">
-        <v>718</v>
+        <v>609</v>
       </c>
       <c r="C16" s="106" t="s">
-        <v>703</v>
+        <v>596</v>
       </c>
       <c r="D16" s="227" t="s">
-        <v>721</v>
+        <v>612</v>
       </c>
       <c r="E16" s="103"/>
       <c r="F16" s="95"/>
@@ -25876,13 +26464,13 @@
         <v>[Homepage-7]</v>
       </c>
       <c r="B17" s="227" t="s">
-        <v>719</v>
+        <v>610</v>
       </c>
       <c r="C17" s="106" t="s">
-        <v>720</v>
+        <v>611</v>
       </c>
       <c r="D17" s="227" t="s">
-        <v>721</v>
+        <v>612</v>
       </c>
       <c r="E17" s="103"/>
       <c r="F17" s="95"/>
@@ -25897,13 +26485,13 @@
         <v>[Homepage-8]</v>
       </c>
       <c r="B18" s="227" t="s">
-        <v>853</v>
+        <v>724</v>
       </c>
       <c r="C18" s="106" t="s">
-        <v>697</v>
+        <v>590</v>
       </c>
       <c r="D18" s="227" t="s">
-        <v>976</v>
+        <v>816</v>
       </c>
       <c r="E18" s="103"/>
       <c r="F18" s="95"/>
@@ -25918,13 +26506,13 @@
         <v>[Homepage-9]</v>
       </c>
       <c r="B19" s="227" t="s">
-        <v>854</v>
+        <v>725</v>
       </c>
       <c r="C19" s="106" t="s">
-        <v>856</v>
+        <v>727</v>
       </c>
       <c r="D19" s="227" t="s">
-        <v>861</v>
+        <v>732</v>
       </c>
       <c r="E19" s="103"/>
       <c r="F19" s="95"/>
@@ -25939,13 +26527,13 @@
         <v>[Homepage-10]</v>
       </c>
       <c r="B20" s="227" t="s">
-        <v>858</v>
+        <v>729</v>
       </c>
       <c r="C20" s="106" t="s">
-        <v>696</v>
+        <v>589</v>
       </c>
       <c r="D20" s="227" t="s">
-        <v>860</v>
+        <v>731</v>
       </c>
       <c r="E20" s="103"/>
       <c r="F20" s="95"/>
@@ -25960,13 +26548,13 @@
         <v>[Homepage-11]</v>
       </c>
       <c r="B21" s="227" t="s">
-        <v>855</v>
+        <v>726</v>
       </c>
       <c r="C21" s="106" t="s">
-        <v>857</v>
+        <v>728</v>
       </c>
       <c r="D21" s="227" t="s">
-        <v>859</v>
+        <v>730</v>
       </c>
       <c r="E21" s="103"/>
       <c r="F21" s="95"/>
@@ -25981,13 +26569,13 @@
         <v>[Homepage-12]</v>
       </c>
       <c r="B22" s="227" t="s">
-        <v>704</v>
+        <v>597</v>
       </c>
       <c r="C22" s="106" t="s">
-        <v>705</v>
+        <v>598</v>
       </c>
       <c r="D22" s="227" t="s">
-        <v>977</v>
+        <v>817</v>
       </c>
       <c r="E22" s="103"/>
       <c r="F22" s="95"/>
@@ -26002,13 +26590,13 @@
         <v>[Homepage-13]</v>
       </c>
       <c r="B23" s="109" t="s">
-        <v>725</v>
+        <v>616</v>
       </c>
       <c r="C23" s="109" t="s">
-        <v>708</v>
+        <v>601</v>
       </c>
       <c r="D23" s="109" t="s">
-        <v>711</v>
+        <v>604</v>
       </c>
       <c r="E23" s="103"/>
       <c r="F23" s="95"/>
@@ -26019,17 +26607,17 @@
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
       <c r="A24" s="96" t="str">
-        <f t="shared" ref="A24:A29" si="1">IF(OR(B24&lt;&gt;"",D24&lt;E22&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A24:A26" si="1">IF(OR(B24&lt;&gt;"",D24&lt;E22&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Homepage-14]</v>
       </c>
       <c r="B24" s="109" t="s">
-        <v>706</v>
+        <v>599</v>
       </c>
       <c r="C24" s="109" t="s">
-        <v>707</v>
+        <v>600</v>
       </c>
       <c r="D24" s="109" t="s">
-        <v>709</v>
+        <v>602</v>
       </c>
       <c r="E24" s="103"/>
       <c r="F24" s="95"/>
@@ -26043,14 +26631,14 @@
         <f t="shared" si="1"/>
         <v>[Homepage-15]</v>
       </c>
-      <c r="B25" s="251" t="s">
-        <v>734</v>
+      <c r="B25" s="250" t="s">
+        <v>622</v>
       </c>
       <c r="C25" s="227" t="s">
-        <v>710</v>
+        <v>603</v>
       </c>
       <c r="D25" s="227" t="s">
-        <v>712</v>
+        <v>605</v>
       </c>
       <c r="E25" s="226"/>
       <c r="F25" s="95"/>
@@ -26065,13 +26653,13 @@
         <v>[Homepage-16]</v>
       </c>
       <c r="B26" s="227" t="s">
-        <v>715</v>
+        <v>608</v>
       </c>
       <c r="C26" s="227" t="s">
-        <v>713</v>
+        <v>606</v>
       </c>
       <c r="D26" s="227" t="s">
-        <v>714</v>
+        <v>607</v>
       </c>
       <c r="E26" s="103"/>
       <c r="F26" s="97"/>
@@ -26081,66 +26669,39 @@
       <c r="J26" s="90"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A27" s="253" t="str">
-        <f t="shared" si="1"/>
-        <v>[Homepage-17]</v>
-      </c>
-      <c r="B27" s="252" t="s">
-        <v>716</v>
-      </c>
-      <c r="C27" s="227" t="s">
-        <v>717</v>
-      </c>
-      <c r="D27" s="227" t="s">
-        <v>512</v>
-      </c>
-      <c r="E27" s="103"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="105"/>
+      <c r="A27" s="152"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="146"/>
       <c r="J27" s="90"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A28" s="253" t="str">
-        <f t="shared" si="1"/>
-        <v>[Homepage-18]</v>
-      </c>
-      <c r="B28" s="227" t="s">
-        <v>513</v>
-      </c>
-      <c r="C28" s="227" t="s">
-        <v>514</v>
-      </c>
-      <c r="D28" s="227" t="s">
-        <v>515</v>
-      </c>
-      <c r="E28" s="103"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="105"/>
+      <c r="A28" s="152"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="146"/>
       <c r="J28" s="90"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A29" s="253" t="str">
-        <f t="shared" si="1"/>
-        <v>[Homepage-19]</v>
-      </c>
-      <c r="B29" s="227" t="s">
-        <v>516</v>
-      </c>
-      <c r="C29" s="227" t="s">
-        <v>517</v>
-      </c>
-      <c r="D29" s="227" t="s">
-        <v>518</v>
-      </c>
-      <c r="E29" s="103"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="105"/>
+      <c r="A29" s="152"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="146"/>
       <c r="J29" s="90"/>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1">
@@ -26184,7 +26745,7 @@
       <c r="B33" s="97"/>
       <c r="C33" s="97"/>
       <c r="D33" s="97"/>
-      <c r="E33" s="146"/>
+      <c r="E33" s="150"/>
       <c r="F33" s="95"/>
       <c r="G33" s="95"/>
       <c r="H33" s="157"/>
@@ -26197,7 +26758,7 @@
       <c r="C34" s="97"/>
       <c r="D34" s="97"/>
       <c r="E34" s="146"/>
-      <c r="F34" s="95"/>
+      <c r="F34" s="97"/>
       <c r="G34" s="95"/>
       <c r="H34" s="157"/>
       <c r="I34" s="146"/>
@@ -26209,7 +26770,7 @@
       <c r="C35" s="97"/>
       <c r="D35" s="97"/>
       <c r="E35" s="146"/>
-      <c r="F35" s="95"/>
+      <c r="F35" s="97"/>
       <c r="G35" s="95"/>
       <c r="H35" s="157"/>
       <c r="I35" s="146"/>
@@ -26220,8 +26781,8 @@
       <c r="B36" s="97"/>
       <c r="C36" s="97"/>
       <c r="D36" s="97"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="95"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="97"/>
       <c r="G36" s="95"/>
       <c r="H36" s="157"/>
       <c r="I36" s="146"/>
@@ -26234,49 +26795,13 @@
       <c r="D37" s="97"/>
       <c r="E37" s="146"/>
       <c r="F37" s="97"/>
-      <c r="G37" s="95"/>
+      <c r="G37" s="97"/>
       <c r="H37" s="157"/>
       <c r="I37" s="146"/>
       <c r="J37" s="90"/>
     </row>
-    <row r="38" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A38" s="152"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="157"/>
-      <c r="I38" s="146"/>
+    <row r="38" spans="1:10">
       <c r="J38" s="90"/>
-    </row>
-    <row r="39" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A39" s="152"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="157"/>
-      <c r="I39" s="146"/>
-      <c r="J39" s="90"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A40" s="152"/>
-      <c r="B40" s="97"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="157"/>
-      <c r="I40" s="146"/>
-      <c r="J40" s="90"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="J41" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -26287,7 +26812,7 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:G40">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:G37">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -26582,14 +27107,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="276" t="s">
+      <c r="B2" s="293" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="277"/>
-      <c r="D2" s="277"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="277"/>
-      <c r="G2" s="278"/>
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="294"/>
+      <c r="G2" s="295"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -26840,14 +27365,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="279" t="s">
+      <c r="B3" s="296" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="280"/>
-      <c r="D3" s="280"/>
-      <c r="E3" s="280"/>
-      <c r="F3" s="280"/>
-      <c r="G3" s="281"/>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="298"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -27098,14 +27623,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="279" t="s">
+      <c r="B4" s="296" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="280"/>
-      <c r="D4" s="280"/>
-      <c r="E4" s="280"/>
-      <c r="F4" s="280"/>
-      <c r="G4" s="281"/>
+      <c r="C4" s="297"/>
+      <c r="D4" s="297"/>
+      <c r="E4" s="297"/>
+      <c r="F4" s="297"/>
+      <c r="G4" s="298"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -27363,11 +27888,11 @@
       <c r="D5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="282" t="s">
+      <c r="E5" s="299" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="283"/>
-      <c r="G5" s="284"/>
+      <c r="F5" s="300"/>
+      <c r="G5" s="301"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -27631,12 +28156,12 @@
         <f>COUNTIF(F12:G110,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="285">
+      <c r="E6" s="302">
         <f>COUNTA(A12:A110)</f>
         <v>57</v>
       </c>
-      <c r="F6" s="286"/>
-      <c r="G6" s="287"/>
+      <c r="F6" s="303"/>
+      <c r="G6" s="304"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -29591,13 +30116,13 @@
       <c r="B32" s="140" t="s">
         <v>186</v>
       </c>
-      <c r="C32" s="288"/>
-      <c r="D32" s="288"/>
-      <c r="E32" s="288"/>
-      <c r="F32" s="288"/>
-      <c r="G32" s="288"/>
-      <c r="H32" s="288"/>
-      <c r="I32" s="289"/>
+      <c r="C32" s="305"/>
+      <c r="D32" s="305"/>
+      <c r="E32" s="305"/>
+      <c r="F32" s="305"/>
+      <c r="G32" s="305"/>
+      <c r="H32" s="305"/>
+      <c r="I32" s="306"/>
       <c r="J32" s="90"/>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1">
@@ -29857,13 +30382,13 @@
       <c r="B45" s="158" t="s">
         <v>192</v>
       </c>
-      <c r="C45" s="290"/>
-      <c r="D45" s="290"/>
-      <c r="E45" s="290"/>
-      <c r="F45" s="290"/>
-      <c r="G45" s="290"/>
-      <c r="H45" s="290"/>
-      <c r="I45" s="291"/>
+      <c r="C45" s="307"/>
+      <c r="D45" s="307"/>
+      <c r="E45" s="307"/>
+      <c r="F45" s="307"/>
+      <c r="G45" s="307"/>
+      <c r="H45" s="307"/>
+      <c r="I45" s="308"/>
       <c r="J45" s="90"/>
     </row>
     <row r="46" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1">
@@ -29953,13 +30478,13 @@
       <c r="B50" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="292"/>
-      <c r="D50" s="292"/>
-      <c r="E50" s="292"/>
-      <c r="F50" s="292"/>
-      <c r="G50" s="292"/>
-      <c r="H50" s="292"/>
-      <c r="I50" s="292"/>
+      <c r="C50" s="309"/>
+      <c r="D50" s="309"/>
+      <c r="E50" s="309"/>
+      <c r="F50" s="309"/>
+      <c r="G50" s="309"/>
+      <c r="H50" s="309"/>
+      <c r="I50" s="309"/>
       <c r="J50" s="90"/>
     </row>
     <row r="51" spans="1:10" ht="14.25" customHeight="1">
@@ -30072,13 +30597,13 @@
       <c r="B56" s="141" t="s">
         <v>204</v>
       </c>
-      <c r="C56" s="292"/>
-      <c r="D56" s="292"/>
-      <c r="E56" s="292"/>
-      <c r="F56" s="292"/>
-      <c r="G56" s="292"/>
-      <c r="H56" s="292"/>
-      <c r="I56" s="292"/>
+      <c r="C56" s="309"/>
+      <c r="D56" s="309"/>
+      <c r="E56" s="309"/>
+      <c r="F56" s="309"/>
+      <c r="G56" s="309"/>
+      <c r="H56" s="309"/>
+      <c r="I56" s="309"/>
       <c r="J56" s="90"/>
     </row>
     <row r="57" spans="1:10" ht="14.25" customHeight="1">
@@ -30170,13 +30695,13 @@
       <c r="B61" s="141" t="s">
         <v>223</v>
       </c>
-      <c r="C61" s="292"/>
-      <c r="D61" s="292"/>
-      <c r="E61" s="292"/>
-      <c r="F61" s="292"/>
-      <c r="G61" s="292"/>
-      <c r="H61" s="292"/>
-      <c r="I61" s="292"/>
+      <c r="C61" s="309"/>
+      <c r="D61" s="309"/>
+      <c r="E61" s="309"/>
+      <c r="F61" s="309"/>
+      <c r="G61" s="309"/>
+      <c r="H61" s="309"/>
+      <c r="I61" s="309"/>
       <c r="J61" s="90"/>
     </row>
     <row r="62" spans="1:10" ht="14.25" customHeight="1">
@@ -30490,16 +31015,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="C32:I32"/>
     <mergeCell ref="C45:I45"/>
     <mergeCell ref="C50:I50"/>
     <mergeCell ref="C56:I56"/>
     <mergeCell ref="C61:I61"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:G31 F33:G44 F48:G49 F51:G55 F62:G63 F57:G60 F65:G66 F68:G69 F71:G77">
@@ -30519,7 +31044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW74"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -30799,14 +31324,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="296" t="s">
+      <c r="B2" s="313" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="296"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="296"/>
-      <c r="F2" s="296"/>
-      <c r="G2" s="296"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -31057,14 +31582,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="296" t="s">
+      <c r="B3" s="313" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="313"/>
+      <c r="G3" s="313"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -31315,14 +31840,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="297" t="s">
+      <c r="B4" s="314" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="297"/>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
-      <c r="F4" s="297"/>
-      <c r="G4" s="297"/>
+      <c r="C4" s="314"/>
+      <c r="D4" s="314"/>
+      <c r="E4" s="314"/>
+      <c r="F4" s="314"/>
+      <c r="G4" s="314"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -31580,11 +32105,11 @@
       <c r="D5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="298" t="s">
+      <c r="E5" s="315" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="298"/>
-      <c r="G5" s="298"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -31848,12 +32373,12 @@
         <f>COUNTIF(F12:G162,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="299">
+      <c r="E6" s="316">
         <f>COUNTA(A12:A162)</f>
         <v>55</v>
       </c>
-      <c r="F6" s="299"/>
-      <c r="G6" s="299"/>
+      <c r="F6" s="316"/>
+      <c r="G6" s="316"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -33770,13 +34295,13 @@
       <c r="B30" s="140" t="s">
         <v>186</v>
       </c>
-      <c r="C30" s="288"/>
-      <c r="D30" s="288"/>
-      <c r="E30" s="288"/>
-      <c r="F30" s="288"/>
-      <c r="G30" s="288"/>
-      <c r="H30" s="288"/>
-      <c r="I30" s="289"/>
+      <c r="C30" s="305"/>
+      <c r="D30" s="305"/>
+      <c r="E30" s="305"/>
+      <c r="F30" s="305"/>
+      <c r="G30" s="305"/>
+      <c r="H30" s="305"/>
+      <c r="I30" s="306"/>
       <c r="J30" s="90"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1">
@@ -33791,7 +34316,7 @@
         <v>342</v>
       </c>
       <c r="D31" s="97" t="s">
-        <v>975</v>
+        <v>815</v>
       </c>
       <c r="E31" s="146"/>
       <c r="F31" s="109"/>
@@ -34036,13 +34561,13 @@
       <c r="B43" s="158" t="s">
         <v>192</v>
       </c>
-      <c r="C43" s="288"/>
-      <c r="D43" s="288"/>
-      <c r="E43" s="288"/>
-      <c r="F43" s="288"/>
-      <c r="G43" s="288"/>
-      <c r="H43" s="288"/>
-      <c r="I43" s="289"/>
+      <c r="C43" s="305"/>
+      <c r="D43" s="305"/>
+      <c r="E43" s="305"/>
+      <c r="F43" s="305"/>
+      <c r="G43" s="305"/>
+      <c r="H43" s="305"/>
+      <c r="I43" s="306"/>
       <c r="J43" s="90"/>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1">
@@ -34057,7 +34582,7 @@
         <v>285</v>
       </c>
       <c r="D44" s="173" t="s">
-        <v>973</v>
+        <v>813</v>
       </c>
       <c r="E44" s="146"/>
       <c r="F44" s="109"/>
@@ -34101,8 +34626,8 @@
       <c r="D46" s="106" t="s">
         <v>357</v>
       </c>
-      <c r="E46" s="307" t="s">
-        <v>974</v>
+      <c r="E46" s="261" t="s">
+        <v>814</v>
       </c>
       <c r="F46" s="95"/>
       <c r="G46" s="95"/>
@@ -34124,8 +34649,8 @@
       <c r="D47" s="139" t="s">
         <v>288</v>
       </c>
-      <c r="E47" s="307" t="s">
-        <v>974</v>
+      <c r="E47" s="261" t="s">
+        <v>814</v>
       </c>
       <c r="F47" s="203"/>
       <c r="G47" s="203"/>
@@ -34135,16 +34660,16 @@
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1">
       <c r="A48" s="145"/>
-      <c r="B48" s="303" t="s">
+      <c r="B48" s="320" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="304"/>
-      <c r="D48" s="304"/>
-      <c r="E48" s="304"/>
-      <c r="F48" s="304"/>
-      <c r="G48" s="304"/>
-      <c r="H48" s="304"/>
-      <c r="I48" s="305"/>
+      <c r="C48" s="321"/>
+      <c r="D48" s="321"/>
+      <c r="E48" s="321"/>
+      <c r="F48" s="321"/>
+      <c r="G48" s="321"/>
+      <c r="H48" s="321"/>
+      <c r="I48" s="322"/>
       <c r="J48" s="90"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1">
@@ -34254,16 +34779,16 @@
     </row>
     <row r="54" spans="1:10" ht="14.25" customHeight="1">
       <c r="A54" s="145"/>
-      <c r="B54" s="300" t="s">
+      <c r="B54" s="317" t="s">
         <v>204</v>
       </c>
-      <c r="C54" s="301"/>
-      <c r="D54" s="301"/>
-      <c r="E54" s="301"/>
-      <c r="F54" s="301"/>
-      <c r="G54" s="301"/>
-      <c r="H54" s="301"/>
-      <c r="I54" s="302"/>
+      <c r="C54" s="318"/>
+      <c r="D54" s="318"/>
+      <c r="E54" s="318"/>
+      <c r="F54" s="318"/>
+      <c r="G54" s="318"/>
+      <c r="H54" s="318"/>
+      <c r="I54" s="319"/>
       <c r="J54" s="90"/>
     </row>
     <row r="55" spans="1:10" ht="14.25" customHeight="1">
@@ -34352,16 +34877,16 @@
     </row>
     <row r="59" spans="1:10" ht="14.25" customHeight="1">
       <c r="A59" s="145"/>
-      <c r="B59" s="300" t="s">
+      <c r="B59" s="317" t="s">
         <v>223</v>
       </c>
-      <c r="C59" s="301"/>
-      <c r="D59" s="301"/>
-      <c r="E59" s="301"/>
-      <c r="F59" s="301"/>
-      <c r="G59" s="301"/>
-      <c r="H59" s="301"/>
-      <c r="I59" s="302"/>
+      <c r="C59" s="318"/>
+      <c r="D59" s="318"/>
+      <c r="E59" s="318"/>
+      <c r="F59" s="318"/>
+      <c r="G59" s="318"/>
+      <c r="H59" s="318"/>
+      <c r="I59" s="319"/>
       <c r="J59" s="90"/>
     </row>
     <row r="60" spans="1:10" ht="14.25" customHeight="1">
@@ -34464,16 +34989,16 @@
     </row>
     <row r="65" spans="1:10" ht="14.25" customHeight="1">
       <c r="A65" s="145"/>
-      <c r="B65" s="293" t="s">
+      <c r="B65" s="310" t="s">
         <v>446</v>
       </c>
-      <c r="C65" s="294"/>
-      <c r="D65" s="294"/>
-      <c r="E65" s="294"/>
-      <c r="F65" s="294"/>
-      <c r="G65" s="294"/>
-      <c r="H65" s="294"/>
-      <c r="I65" s="295"/>
+      <c r="C65" s="311"/>
+      <c r="D65" s="311"/>
+      <c r="E65" s="311"/>
+      <c r="F65" s="311"/>
+      <c r="G65" s="311"/>
+      <c r="H65" s="311"/>
+      <c r="I65" s="312"/>
       <c r="J65" s="90"/>
     </row>
     <row r="66" spans="1:10" ht="12.75" customHeight="1">
@@ -34520,16 +35045,16 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="145"/>
-      <c r="B68" s="293" t="s">
+      <c r="B68" s="310" t="s">
         <v>450</v>
       </c>
-      <c r="C68" s="294"/>
-      <c r="D68" s="294"/>
-      <c r="E68" s="294"/>
-      <c r="F68" s="294"/>
-      <c r="G68" s="294"/>
-      <c r="H68" s="294"/>
-      <c r="I68" s="295"/>
+      <c r="C68" s="311"/>
+      <c r="D68" s="311"/>
+      <c r="E68" s="311"/>
+      <c r="F68" s="311"/>
+      <c r="G68" s="311"/>
+      <c r="H68" s="311"/>
+      <c r="I68" s="312"/>
     </row>
     <row r="69" spans="1:10" ht="12.75" customHeight="1">
       <c r="A69" s="96" t="str">
@@ -34684,8 +35209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -34964,14 +35489,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="296" t="s">
+      <c r="B2" s="313" t="s">
         <v>366</v>
       </c>
-      <c r="C2" s="296"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="296"/>
-      <c r="F2" s="296"/>
-      <c r="G2" s="296"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -35222,14 +35747,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="296" t="s">
+      <c r="B3" s="313" t="s">
         <v>350</v>
       </c>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="313"/>
+      <c r="G3" s="313"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -35480,14 +36005,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="297" t="s">
+      <c r="B4" s="314" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="297"/>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
-      <c r="F4" s="297"/>
-      <c r="G4" s="297"/>
+      <c r="C4" s="314"/>
+      <c r="D4" s="314"/>
+      <c r="E4" s="314"/>
+      <c r="F4" s="314"/>
+      <c r="G4" s="314"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -35745,11 +36270,11 @@
       <c r="D5" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="298" t="s">
+      <c r="E5" s="315" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="298"/>
-      <c r="G5" s="298"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -36013,12 +36538,12 @@
         <f>COUNTIF(F12:G123,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="299">
+      <c r="E6" s="316">
         <f>COUNTA(A12:A126)</f>
         <v>12</v>
       </c>
-      <c r="F6" s="299"/>
-      <c r="G6" s="299"/>
+      <c r="F6" s="316"/>
+      <c r="G6" s="316"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -37561,9 +38086,9 @@
         <v>369</v>
       </c>
       <c r="C12" s="109" t="s">
-        <v>978</v>
-      </c>
-      <c r="D12" s="308" t="s">
+        <v>818</v>
+      </c>
+      <c r="D12" s="262" t="s">
         <v>374</v>
       </c>
       <c r="E12" s="98"/>
@@ -37582,7 +38107,7 @@
         <v>370</v>
       </c>
       <c r="C13" s="142" t="s">
-        <v>978</v>
+        <v>818</v>
       </c>
       <c r="D13" s="208" t="s">
         <v>375</v>
@@ -37881,7 +38406,7 @@
         <v>373</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>862</v>
+        <v>733</v>
       </c>
       <c r="E16" s="188"/>
       <c r="F16" s="109"/>
@@ -37902,7 +38427,7 @@
         <v>373</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>862</v>
+        <v>733</v>
       </c>
       <c r="E17" s="168"/>
       <c r="F17" s="168"/>
@@ -38056,8 +38581,8 @@
       <c r="B25" s="141" t="s">
         <v>223</v>
       </c>
-      <c r="C25" s="288"/>
-      <c r="D25" s="289"/>
+      <c r="C25" s="305"/>
+      <c r="D25" s="306"/>
       <c r="E25" s="192"/>
       <c r="F25" s="109"/>
       <c r="G25" s="109"/>
@@ -38118,8 +38643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW53"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -38398,14 +38923,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="296" t="s">
+      <c r="B2" s="313" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="296"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="296"/>
-      <c r="F2" s="296"/>
-      <c r="G2" s="296"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -38656,14 +39181,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="296" t="s">
+      <c r="B3" s="313" t="s">
         <v>397</v>
       </c>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="313"/>
+      <c r="G3" s="313"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -38914,14 +39439,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="297" t="s">
+      <c r="B4" s="314" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="297"/>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
-      <c r="F4" s="297"/>
-      <c r="G4" s="297"/>
+      <c r="C4" s="314"/>
+      <c r="D4" s="314"/>
+      <c r="E4" s="314"/>
+      <c r="F4" s="314"/>
+      <c r="G4" s="314"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -39179,11 +39704,11 @@
       <c r="D5" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="298" t="s">
+      <c r="E5" s="315" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="298"/>
-      <c r="G5" s="298"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -39447,12 +39972,12 @@
         <f>COUNTIF(F12:G127,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="299">
+      <c r="E6" s="316">
         <f>COUNTA(A12:A127)</f>
         <v>30</v>
       </c>
-      <c r="F6" s="299"/>
-      <c r="G6" s="299"/>
+      <c r="F6" s="316"/>
+      <c r="G6" s="316"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -41401,15 +41926,15 @@
     <row r="33" spans="1:9">
       <c r="A33" s="51"/>
       <c r="B33" s="51" t="s">
-        <v>789</v>
+        <v>665</v>
       </c>
       <c r="C33" s="213"/>
       <c r="D33" s="213"/>
       <c r="E33" s="213"/>
-      <c r="F33" s="256"/>
+      <c r="F33" s="253"/>
       <c r="G33" s="213"/>
       <c r="H33" s="213"/>
-      <c r="I33" s="262"/>
+      <c r="I33" s="259"/>
     </row>
     <row r="34" spans="1:9" ht="13.5" customHeight="1">
       <c r="A34" s="96" t="str">
@@ -41417,13 +41942,13 @@
         <v>[Personal Page-24]</v>
       </c>
       <c r="B34" s="143" t="s">
-        <v>790</v>
+        <v>666</v>
       </c>
       <c r="C34" s="97" t="s">
-        <v>791</v>
-      </c>
-      <c r="D34" s="261" t="s">
-        <v>792</v>
+        <v>667</v>
+      </c>
+      <c r="D34" s="258" t="s">
+        <v>668</v>
       </c>
       <c r="E34" s="168"/>
       <c r="F34" s="168"/>
@@ -41437,13 +41962,13 @@
         <v>[Personal Page-25]</v>
       </c>
       <c r="B35" s="143" t="s">
-        <v>793</v>
+        <v>669</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>794</v>
+        <v>670</v>
       </c>
       <c r="D35" s="97" t="s">
-        <v>795</v>
+        <v>671</v>
       </c>
       <c r="E35" s="192"/>
       <c r="F35" s="97"/>
@@ -41457,13 +41982,13 @@
         <v>[Personal Page-26]</v>
       </c>
       <c r="B36" s="143" t="s">
-        <v>796</v>
+        <v>672</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>797</v>
+        <v>673</v>
       </c>
       <c r="D36" s="97" t="s">
-        <v>821</v>
+        <v>697</v>
       </c>
       <c r="E36" s="192"/>
       <c r="F36" s="97"/>
@@ -41477,13 +42002,13 @@
         <v>[Personal Page-27]</v>
       </c>
       <c r="B37" s="143" t="s">
-        <v>819</v>
+        <v>695</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>820</v>
+        <v>696</v>
       </c>
       <c r="D37" s="97" t="s">
-        <v>821</v>
+        <v>697</v>
       </c>
       <c r="E37" s="192"/>
       <c r="F37" s="97"/>
@@ -41497,13 +42022,13 @@
         <v>[Personal Page-28]</v>
       </c>
       <c r="B38" s="143" t="s">
-        <v>804</v>
+        <v>680</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>799</v>
+        <v>675</v>
       </c>
       <c r="D38" s="97" t="s">
-        <v>798</v>
+        <v>674</v>
       </c>
       <c r="E38" s="146"/>
       <c r="F38" s="97"/>
@@ -41517,13 +42042,13 @@
         <v>[Personal Page-29]</v>
       </c>
       <c r="B39" s="142" t="s">
-        <v>803</v>
+        <v>679</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>800</v>
+        <v>676</v>
       </c>
       <c r="D39" s="97" t="s">
-        <v>801</v>
+        <v>677</v>
       </c>
       <c r="E39" s="146"/>
       <c r="F39" s="97"/>
@@ -41536,14 +42061,14 @@
         <f t="shared" si="2"/>
         <v>[Personal Page-30]</v>
       </c>
-      <c r="B40" s="244" t="s">
-        <v>802</v>
+      <c r="B40" s="243" t="s">
+        <v>678</v>
       </c>
       <c r="C40" s="97" t="s">
-        <v>805</v>
+        <v>681</v>
       </c>
       <c r="D40" s="97" t="s">
-        <v>806</v>
+        <v>682</v>
       </c>
       <c r="E40" s="168"/>
       <c r="F40" s="168"/>
@@ -41556,14 +42081,14 @@
         <f t="shared" si="2"/>
         <v>[Personal Page-31]</v>
       </c>
-      <c r="B41" s="244" t="s">
-        <v>807</v>
+      <c r="B41" s="243" t="s">
+        <v>683</v>
       </c>
       <c r="C41" s="211" t="s">
-        <v>808</v>
+        <v>684</v>
       </c>
       <c r="D41" s="211" t="s">
-        <v>809</v>
+        <v>685</v>
       </c>
       <c r="E41" s="146"/>
       <c r="F41" s="146"/>
@@ -41577,13 +42102,13 @@
         <v>[Personal Page-32]</v>
       </c>
       <c r="B42" s="211" t="s">
-        <v>810</v>
+        <v>686</v>
       </c>
       <c r="C42" s="211" t="s">
-        <v>811</v>
+        <v>687</v>
       </c>
       <c r="D42" s="211" t="s">
-        <v>812</v>
+        <v>688</v>
       </c>
       <c r="E42" s="146"/>
       <c r="F42" s="146"/>
@@ -41597,13 +42122,13 @@
         <v>[Personal Page-33]</v>
       </c>
       <c r="B43" s="211" t="s">
-        <v>813</v>
+        <v>689</v>
       </c>
       <c r="C43" s="211" t="s">
-        <v>814</v>
+        <v>690</v>
       </c>
       <c r="D43" s="211" t="s">
-        <v>815</v>
+        <v>691</v>
       </c>
       <c r="E43" s="146"/>
       <c r="F43" s="146"/>
@@ -41617,13 +42142,13 @@
         <v>[Personal Page-34]</v>
       </c>
       <c r="B44" s="211" t="s">
-        <v>816</v>
+        <v>692</v>
       </c>
       <c r="C44" s="211" t="s">
-        <v>817</v>
+        <v>693</v>
       </c>
       <c r="D44" s="211" t="s">
-        <v>818</v>
+        <v>694</v>
       </c>
       <c r="E44" s="146"/>
       <c r="F44" s="146"/>
@@ -41637,7 +42162,7 @@
         <v>[Personal Page-35]</v>
       </c>
       <c r="B45" s="211" t="s">
-        <v>810</v>
+        <v>686</v>
       </c>
       <c r="C45" s="211" t="s">
         <v>444</v>
@@ -41657,13 +42182,13 @@
         <v>[Personal Page-36]</v>
       </c>
       <c r="B46" s="97" t="s">
-        <v>822</v>
+        <v>698</v>
       </c>
       <c r="C46" s="211" t="s">
-        <v>823</v>
+        <v>699</v>
       </c>
       <c r="D46" s="211" t="s">
-        <v>824</v>
+        <v>700</v>
       </c>
       <c r="E46" s="146"/>
       <c r="F46" s="146"/>

--- a/WIP/Deliverable/Report3/VMN_System Test Case_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report3/VMN_System Test Case_v1.0_EN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="840"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="840" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -7865,6 +7865,9 @@
     <xf numFmtId="165" fontId="3" fillId="6" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="68" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7932,12 +7935,6 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7971,6 +7968,12 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7985,9 +7988,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="6" borderId="68" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -8449,7 +8449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -8468,13 +8468,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="246" t="s">
+      <c r="C2" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="6"/>
@@ -8485,11 +8485,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="247" t="s">
+      <c r="C4" s="248" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
@@ -8501,11 +8501,11 @@
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="247" t="s">
+      <c r="C5" s="248" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
       <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
@@ -8514,15 +8514,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="248" t="s">
+      <c r="B6" s="249" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="249" t="str">
+      <c r="C6" s="250" t="str">
         <f>C5&amp;"_"&amp;"System Test Case"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_System Test Case_v1.0</v>
       </c>
-      <c r="D6" s="249"/>
-      <c r="E6" s="249"/>
+      <c r="D6" s="250"/>
+      <c r="E6" s="250"/>
       <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
@@ -8531,10 +8531,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="248"/>
-      <c r="C7" s="249"/>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
+      <c r="B7" s="249"/>
+      <c r="C7" s="250"/>
+      <c r="D7" s="250"/>
+      <c r="E7" s="250"/>
       <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
@@ -8945,14 +8945,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="257" t="s">
+      <c r="B2" s="258" t="s">
         <v>359</v>
       </c>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="260"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -9203,14 +9203,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="260" t="s">
+      <c r="B3" s="261" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="261"/>
-      <c r="D3" s="261"/>
-      <c r="E3" s="261"/>
-      <c r="F3" s="261"/>
-      <c r="G3" s="262"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="262"/>
+      <c r="G3" s="263"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -9461,14 +9461,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="260" t="s">
+      <c r="B4" s="261" t="s">
         <v>353</v>
       </c>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="261"/>
-      <c r="G4" s="262"/>
+      <c r="C4" s="262"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="262"/>
+      <c r="G4" s="263"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -9726,11 +9726,11 @@
       <c r="D5" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="263" t="s">
+      <c r="E5" s="264" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="264"/>
-      <c r="G5" s="265"/>
+      <c r="F5" s="265"/>
+      <c r="G5" s="266"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -9994,12 +9994,12 @@
         <f>COUNTIF(F12:G105,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="266">
+      <c r="E6" s="267">
         <f>COUNTA(A12:A105)*2</f>
         <v>112</v>
       </c>
-      <c r="F6" s="267"/>
-      <c r="G6" s="268"/>
+      <c r="F6" s="268"/>
+      <c r="G6" s="269"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -12802,7 +12802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -13081,14 +13081,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="257" t="s">
+      <c r="B2" s="258" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="260"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -13339,14 +13339,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="260" t="s">
+      <c r="B3" s="261" t="s">
         <v>503</v>
       </c>
-      <c r="C3" s="261"/>
-      <c r="D3" s="261"/>
-      <c r="E3" s="261"/>
-      <c r="F3" s="261"/>
-      <c r="G3" s="262"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="262"/>
+      <c r="G3" s="263"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -13597,14 +13597,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="260" t="s">
+      <c r="B4" s="261" t="s">
         <v>353</v>
       </c>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="261"/>
-      <c r="G4" s="262"/>
+      <c r="C4" s="262"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="262"/>
+      <c r="G4" s="263"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -13862,11 +13862,11 @@
       <c r="D5" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="263" t="s">
+      <c r="E5" s="264" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="264"/>
-      <c r="G5" s="265"/>
+      <c r="F5" s="265"/>
+      <c r="G5" s="266"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -14130,12 +14130,12 @@
         <f>COUNTIF(F12:G82,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="266">
+      <c r="E6" s="267">
         <f>COUNTA(A12:A82)*2</f>
         <v>66</v>
       </c>
-      <c r="F6" s="267"/>
-      <c r="G6" s="268"/>
+      <c r="F6" s="268"/>
+      <c r="G6" s="269"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -16472,15 +16472,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="253" t="s">
+      <c r="B1" s="254" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="55"/>
@@ -16496,15 +16496,15 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="250" t="str">
+      <c r="C3" s="251" t="str">
         <f>Cover!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="D3" s="250"/>
-      <c r="E3" s="251" t="s">
+      <c r="D3" s="251"/>
+      <c r="E3" s="252" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="251"/>
+      <c r="F3" s="252"/>
       <c r="G3" s="58" t="s">
         <v>53</v>
       </c>
@@ -16514,15 +16514,15 @@
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="250" t="str">
+      <c r="C4" s="251" t="str">
         <f>Cover!C5</f>
         <v>VMN</v>
       </c>
-      <c r="D4" s="250"/>
-      <c r="E4" s="251" t="s">
+      <c r="D4" s="251"/>
+      <c r="E4" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="251"/>
+      <c r="F4" s="252"/>
       <c r="G4" s="58" t="s">
         <v>54</v>
       </c>
@@ -16532,15 +16532,15 @@
       <c r="B5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="250" t="str">
+      <c r="C5" s="251" t="str">
         <f>C4&amp;"_"&amp;"System Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_System Test Report_v1.0</v>
       </c>
-      <c r="D5" s="250"/>
-      <c r="E5" s="251" t="s">
+      <c r="D5" s="251"/>
+      <c r="E5" s="252" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="251"/>
+      <c r="F5" s="252"/>
       <c r="G5" s="94" t="s">
         <v>226</v>
       </c>
@@ -16551,12 +16551,12 @@
       <c r="B6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="252"/>
-      <c r="D6" s="252"/>
-      <c r="E6" s="252"/>
-      <c r="F6" s="252"/>
-      <c r="G6" s="252"/>
-      <c r="H6" s="252"/>
+      <c r="C6" s="253"/>
+      <c r="D6" s="253"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="253"/>
+      <c r="G6" s="253"/>
+      <c r="H6" s="253"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="55"/>
@@ -17006,39 +17006,39 @@
       <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="256" t="s">
+      <c r="B3" s="257" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="250" t="str">
+      <c r="C3" s="257"/>
+      <c r="D3" s="251" t="str">
         <f>Cover!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="E3" s="250"/>
-      <c r="F3" s="250"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="256" t="s">
+      <c r="B4" s="257" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="256"/>
-      <c r="D4" s="250" t="str">
+      <c r="C4" s="257"/>
+      <c r="D4" s="251" t="str">
         <f>Cover!C5</f>
         <v>VMN</v>
       </c>
-      <c r="E4" s="250"/>
-      <c r="F4" s="250"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="251"/>
     </row>
     <row r="5" spans="2:6" s="39" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="254" t="s">
+      <c r="B5" s="255" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="254"/>
-      <c r="D5" s="255" t="s">
+      <c r="C5" s="255"/>
+      <c r="D5" s="256" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="255"/>
-      <c r="F5" s="255"/>
+      <c r="E5" s="256"/>
+      <c r="F5" s="256"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="40"/>
@@ -17195,7 +17195,7 @@
   <dimension ref="A1:IW27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:H26"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17473,14 +17473,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="257" t="s">
+      <c r="B2" s="258" t="s">
         <v>344</v>
       </c>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="260"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -17731,14 +17731,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="260" t="s">
+      <c r="B3" s="261" t="s">
         <v>345</v>
       </c>
-      <c r="C3" s="261"/>
-      <c r="D3" s="261"/>
-      <c r="E3" s="261"/>
-      <c r="F3" s="261"/>
-      <c r="G3" s="262"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="262"/>
+      <c r="G3" s="263"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -17989,14 +17989,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="260" t="s">
+      <c r="B4" s="261" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="261"/>
-      <c r="G4" s="262"/>
+      <c r="C4" s="262"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="262"/>
+      <c r="G4" s="263"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -18254,11 +18254,11 @@
       <c r="D5" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="263" t="s">
+      <c r="E5" s="264" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="264"/>
-      <c r="G5" s="265"/>
+      <c r="F5" s="265"/>
+      <c r="G5" s="266"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -18522,12 +18522,12 @@
         <f>COUNTIF(F12:G59,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="266">
+      <c r="E6" s="267">
         <f>COUNTA(A12:A59)*2</f>
         <v>30</v>
       </c>
-      <c r="F6" s="267"/>
-      <c r="G6" s="268"/>
+      <c r="F6" s="268"/>
+      <c r="G6" s="269"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -20400,7 +20400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW77"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
@@ -20679,14 +20679,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="257" t="s">
+      <c r="B2" s="258" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="260"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -20937,14 +20937,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="260" t="s">
+      <c r="B3" s="261" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="261"/>
-      <c r="D3" s="261"/>
-      <c r="E3" s="261"/>
-      <c r="F3" s="261"/>
-      <c r="G3" s="262"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="262"/>
+      <c r="G3" s="263"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -21195,14 +21195,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="260" t="s">
+      <c r="B4" s="261" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="261"/>
-      <c r="G4" s="262"/>
+      <c r="C4" s="262"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="262"/>
+      <c r="G4" s="263"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -21460,11 +21460,11 @@
       <c r="D5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="263" t="s">
+      <c r="E5" s="264" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="264"/>
-      <c r="G5" s="265"/>
+      <c r="F5" s="265"/>
+      <c r="G5" s="266"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -21728,12 +21728,12 @@
         <f>COUNTIF(F12:G109,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="266">
+      <c r="E6" s="267">
         <f>COUNTA(A12:A109)*2</f>
         <v>114</v>
       </c>
-      <c r="F6" s="267"/>
-      <c r="G6" s="268"/>
+      <c r="F6" s="268"/>
+      <c r="G6" s="269"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -23688,13 +23688,13 @@
       <c r="B32" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="271"/>
-      <c r="D32" s="271"/>
-      <c r="E32" s="271"/>
-      <c r="F32" s="271"/>
-      <c r="G32" s="271"/>
-      <c r="H32" s="271"/>
-      <c r="I32" s="271"/>
+      <c r="C32" s="270"/>
+      <c r="D32" s="270"/>
+      <c r="E32" s="270"/>
+      <c r="F32" s="270"/>
+      <c r="G32" s="270"/>
+      <c r="H32" s="270"/>
+      <c r="I32" s="270"/>
       <c r="J32" s="90"/>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -23954,13 +23954,13 @@
       <c r="B45" s="148" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="271"/>
-      <c r="D45" s="271"/>
-      <c r="E45" s="271"/>
-      <c r="F45" s="271"/>
-      <c r="G45" s="271"/>
-      <c r="H45" s="271"/>
-      <c r="I45" s="271"/>
+      <c r="C45" s="270"/>
+      <c r="D45" s="270"/>
+      <c r="E45" s="270"/>
+      <c r="F45" s="270"/>
+      <c r="G45" s="270"/>
+      <c r="H45" s="270"/>
+      <c r="I45" s="270"/>
       <c r="J45" s="90"/>
     </row>
     <row r="46" spans="1:10" s="152" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24050,13 +24050,13 @@
       <c r="B50" s="135" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="271"/>
-      <c r="D50" s="271"/>
-      <c r="E50" s="271"/>
-      <c r="F50" s="271"/>
-      <c r="G50" s="271"/>
-      <c r="H50" s="271"/>
-      <c r="I50" s="271"/>
+      <c r="C50" s="270"/>
+      <c r="D50" s="270"/>
+      <c r="E50" s="270"/>
+      <c r="F50" s="270"/>
+      <c r="G50" s="270"/>
+      <c r="H50" s="270"/>
+      <c r="I50" s="270"/>
       <c r="J50" s="90"/>
     </row>
     <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24169,13 +24169,13 @@
       <c r="B56" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="271"/>
-      <c r="D56" s="271"/>
-      <c r="E56" s="271"/>
-      <c r="F56" s="271"/>
-      <c r="G56" s="271"/>
-      <c r="H56" s="271"/>
-      <c r="I56" s="271"/>
+      <c r="C56" s="270"/>
+      <c r="D56" s="270"/>
+      <c r="E56" s="270"/>
+      <c r="F56" s="270"/>
+      <c r="G56" s="270"/>
+      <c r="H56" s="270"/>
+      <c r="I56" s="270"/>
       <c r="J56" s="90"/>
     </row>
     <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24267,13 +24267,13 @@
       <c r="B61" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="271"/>
-      <c r="D61" s="271"/>
-      <c r="E61" s="271"/>
-      <c r="F61" s="271"/>
-      <c r="G61" s="271"/>
-      <c r="H61" s="271"/>
-      <c r="I61" s="271"/>
+      <c r="C61" s="270"/>
+      <c r="D61" s="270"/>
+      <c r="E61" s="270"/>
+      <c r="F61" s="270"/>
+      <c r="G61" s="270"/>
+      <c r="H61" s="270"/>
+      <c r="I61" s="270"/>
       <c r="J61" s="90"/>
     </row>
     <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24566,7 +24566,7 @@
       <c r="E76" s="140"/>
       <c r="F76" s="237"/>
       <c r="G76" s="238"/>
-      <c r="H76" s="287"/>
+      <c r="H76" s="246"/>
       <c r="I76" s="140"/>
       <c r="J76" s="90"/>
     </row>
@@ -24575,16 +24575,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C50:I50"/>
+    <mergeCell ref="C56:I56"/>
+    <mergeCell ref="C61:I61"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="C50:I50"/>
-    <mergeCell ref="C56:I56"/>
-    <mergeCell ref="C61:I61"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F65:G66 F71:G76 F12:G31 F46:G49 F57:G60 F33:G44 F62:G63 F51:G55 F68:G69">
@@ -24884,14 +24884,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="274"/>
+      <c r="G2" s="274"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -25142,14 +25142,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="275" t="s">
+      <c r="B3" s="274" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="275"/>
-      <c r="D3" s="275"/>
-      <c r="E3" s="275"/>
-      <c r="F3" s="275"/>
-      <c r="G3" s="275"/>
+      <c r="C3" s="274"/>
+      <c r="D3" s="274"/>
+      <c r="E3" s="274"/>
+      <c r="F3" s="274"/>
+      <c r="G3" s="274"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -25400,14 +25400,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="276" t="s">
+      <c r="B4" s="275" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="276"/>
-      <c r="D4" s="276"/>
-      <c r="E4" s="276"/>
-      <c r="F4" s="276"/>
-      <c r="G4" s="276"/>
+      <c r="C4" s="275"/>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -25665,11 +25665,11 @@
       <c r="D5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="277" t="s">
+      <c r="E5" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="277"/>
-      <c r="G5" s="277"/>
+      <c r="F5" s="276"/>
+      <c r="G5" s="276"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -25933,12 +25933,12 @@
         <f>COUNTIF(F12:G162,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="278">
+      <c r="E6" s="277">
         <f>COUNTA(A12:A162)*2</f>
         <v>110</v>
       </c>
-      <c r="F6" s="278"/>
-      <c r="G6" s="278"/>
+      <c r="F6" s="277"/>
+      <c r="G6" s="277"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -27855,13 +27855,13 @@
       <c r="B30" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="269"/>
-      <c r="D30" s="269"/>
-      <c r="E30" s="269"/>
-      <c r="F30" s="269"/>
-      <c r="G30" s="269"/>
-      <c r="H30" s="269"/>
-      <c r="I30" s="270"/>
+      <c r="C30" s="281"/>
+      <c r="D30" s="281"/>
+      <c r="E30" s="281"/>
+      <c r="F30" s="281"/>
+      <c r="G30" s="281"/>
+      <c r="H30" s="281"/>
+      <c r="I30" s="282"/>
       <c r="J30" s="90"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -28121,13 +28121,13 @@
       <c r="B43" s="148" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="271"/>
-      <c r="D43" s="271"/>
-      <c r="E43" s="271"/>
-      <c r="F43" s="271"/>
-      <c r="G43" s="271"/>
-      <c r="H43" s="271"/>
-      <c r="I43" s="271"/>
+      <c r="C43" s="270"/>
+      <c r="D43" s="270"/>
+      <c r="E43" s="270"/>
+      <c r="F43" s="270"/>
+      <c r="G43" s="270"/>
+      <c r="H43" s="270"/>
+      <c r="I43" s="270"/>
       <c r="J43" s="90"/>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -28220,16 +28220,16 @@
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="139"/>
-      <c r="B48" s="282" t="s">
+      <c r="B48" s="283" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="283"/>
-      <c r="D48" s="283"/>
-      <c r="E48" s="283"/>
-      <c r="F48" s="283"/>
-      <c r="G48" s="283"/>
-      <c r="H48" s="283"/>
-      <c r="I48" s="284"/>
+      <c r="C48" s="284"/>
+      <c r="D48" s="284"/>
+      <c r="E48" s="284"/>
+      <c r="F48" s="284"/>
+      <c r="G48" s="284"/>
+      <c r="H48" s="284"/>
+      <c r="I48" s="285"/>
       <c r="J48" s="90"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -28339,16 +28339,16 @@
     </row>
     <row r="54" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="139"/>
-      <c r="B54" s="279" t="s">
+      <c r="B54" s="278" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="280"/>
-      <c r="D54" s="280"/>
-      <c r="E54" s="280"/>
-      <c r="F54" s="280"/>
-      <c r="G54" s="280"/>
-      <c r="H54" s="280"/>
-      <c r="I54" s="281"/>
+      <c r="C54" s="279"/>
+      <c r="D54" s="279"/>
+      <c r="E54" s="279"/>
+      <c r="F54" s="279"/>
+      <c r="G54" s="279"/>
+      <c r="H54" s="279"/>
+      <c r="I54" s="280"/>
       <c r="J54" s="90"/>
     </row>
     <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -28437,16 +28437,16 @@
     </row>
     <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="139"/>
-      <c r="B59" s="279" t="s">
+      <c r="B59" s="278" t="s">
         <v>134</v>
       </c>
-      <c r="C59" s="280"/>
-      <c r="D59" s="280"/>
-      <c r="E59" s="280"/>
-      <c r="F59" s="280"/>
-      <c r="G59" s="280"/>
-      <c r="H59" s="280"/>
-      <c r="I59" s="281"/>
+      <c r="C59" s="279"/>
+      <c r="D59" s="279"/>
+      <c r="E59" s="279"/>
+      <c r="F59" s="279"/>
+      <c r="G59" s="279"/>
+      <c r="H59" s="279"/>
+      <c r="I59" s="280"/>
       <c r="J59" s="90"/>
     </row>
     <row r="60" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -28496,13 +28496,13 @@
       <c r="B62" s="164" t="s">
         <v>117</v>
       </c>
-      <c r="C62" s="271"/>
-      <c r="D62" s="271"/>
-      <c r="E62" s="271"/>
-      <c r="F62" s="271"/>
-      <c r="G62" s="271"/>
-      <c r="H62" s="271"/>
-      <c r="I62" s="271"/>
+      <c r="C62" s="270"/>
+      <c r="D62" s="270"/>
+      <c r="E62" s="270"/>
+      <c r="F62" s="270"/>
+      <c r="G62" s="270"/>
+      <c r="H62" s="270"/>
+      <c r="I62" s="270"/>
       <c r="J62" s="90"/>
     </row>
     <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -28549,16 +28549,16 @@
     </row>
     <row r="65" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="139"/>
-      <c r="B65" s="272" t="s">
+      <c r="B65" s="271" t="s">
         <v>296</v>
       </c>
-      <c r="C65" s="273"/>
-      <c r="D65" s="273"/>
-      <c r="E65" s="273"/>
-      <c r="F65" s="273"/>
-      <c r="G65" s="273"/>
-      <c r="H65" s="273"/>
-      <c r="I65" s="274"/>
+      <c r="C65" s="272"/>
+      <c r="D65" s="272"/>
+      <c r="E65" s="272"/>
+      <c r="F65" s="272"/>
+      <c r="G65" s="272"/>
+      <c r="H65" s="272"/>
+      <c r="I65" s="273"/>
       <c r="J65" s="90"/>
     </row>
     <row r="66" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -28605,16 +28605,16 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="139"/>
-      <c r="B68" s="272" t="s">
+      <c r="B68" s="271" t="s">
         <v>299</v>
       </c>
-      <c r="C68" s="273"/>
-      <c r="D68" s="273"/>
-      <c r="E68" s="273"/>
-      <c r="F68" s="273"/>
-      <c r="G68" s="273"/>
-      <c r="H68" s="273"/>
-      <c r="I68" s="274"/>
+      <c r="C68" s="272"/>
+      <c r="D68" s="272"/>
+      <c r="E68" s="272"/>
+      <c r="F68" s="272"/>
+      <c r="G68" s="272"/>
+      <c r="H68" s="272"/>
+      <c r="I68" s="273"/>
     </row>
     <row r="69" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="96" t="str">
@@ -29050,14 +29050,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="274" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="274"/>
+      <c r="G2" s="274"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -29308,14 +29308,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="275" t="s">
+      <c r="B3" s="274" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="275"/>
-      <c r="D3" s="275"/>
-      <c r="E3" s="275"/>
-      <c r="F3" s="275"/>
-      <c r="G3" s="275"/>
+      <c r="C3" s="274"/>
+      <c r="D3" s="274"/>
+      <c r="E3" s="274"/>
+      <c r="F3" s="274"/>
+      <c r="G3" s="274"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -29566,14 +29566,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="276" t="s">
+      <c r="B4" s="275" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="276"/>
-      <c r="D4" s="276"/>
-      <c r="E4" s="276"/>
-      <c r="F4" s="276"/>
-      <c r="G4" s="276"/>
+      <c r="C4" s="275"/>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -29831,11 +29831,11 @@
       <c r="D5" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="277" t="s">
+      <c r="E5" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="277"/>
-      <c r="G5" s="277"/>
+      <c r="F5" s="276"/>
+      <c r="G5" s="276"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -30099,12 +30099,12 @@
         <f>COUNTIF(F12:G121,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="278">
+      <c r="E6" s="277">
         <f>COUNTA(A12:A124)*2</f>
         <v>22</v>
       </c>
-      <c r="F6" s="278"/>
-      <c r="G6" s="278"/>
+      <c r="F6" s="277"/>
+      <c r="G6" s="277"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -32448,14 +32448,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="274" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="274"/>
+      <c r="G2" s="274"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -32706,14 +32706,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="275" t="s">
+      <c r="B3" s="274" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="275"/>
-      <c r="D3" s="275"/>
-      <c r="E3" s="275"/>
-      <c r="F3" s="275"/>
-      <c r="G3" s="275"/>
+      <c r="C3" s="274"/>
+      <c r="D3" s="274"/>
+      <c r="E3" s="274"/>
+      <c r="F3" s="274"/>
+      <c r="G3" s="274"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -32964,14 +32964,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="276" t="s">
+      <c r="B4" s="275" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="276"/>
-      <c r="D4" s="276"/>
-      <c r="E4" s="276"/>
-      <c r="F4" s="276"/>
-      <c r="G4" s="276"/>
+      <c r="C4" s="275"/>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -33229,11 +33229,11 @@
       <c r="D5" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="277" t="s">
+      <c r="E5" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="277"/>
-      <c r="G5" s="277"/>
+      <c r="F5" s="276"/>
+      <c r="G5" s="276"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -33497,12 +33497,12 @@
         <f>COUNTIF(F12:G129,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="278">
+      <c r="E6" s="277">
         <f>COUNTA(A12:A129)*2</f>
         <v>64</v>
       </c>
-      <c r="F6" s="278"/>
-      <c r="G6" s="278"/>
+      <c r="F6" s="277"/>
+      <c r="G6" s="277"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -36074,14 +36074,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="257" t="s">
+      <c r="B2" s="258" t="s">
         <v>351</v>
       </c>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="260"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -36332,14 +36332,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="260" t="s">
+      <c r="B3" s="261" t="s">
         <v>352</v>
       </c>
-      <c r="C3" s="261"/>
-      <c r="D3" s="261"/>
-      <c r="E3" s="261"/>
-      <c r="F3" s="261"/>
-      <c r="G3" s="262"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="262"/>
+      <c r="G3" s="263"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -36590,14 +36590,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="260" t="s">
+      <c r="B4" s="261" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="261"/>
-      <c r="G4" s="262"/>
+      <c r="C4" s="262"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="262"/>
+      <c r="G4" s="263"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -36855,11 +36855,11 @@
       <c r="D5" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="263" t="s">
+      <c r="E5" s="264" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="264"/>
-      <c r="G5" s="265"/>
+      <c r="F5" s="265"/>
+      <c r="G5" s="266"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -37123,12 +37123,12 @@
         <f>COUNTIF(F12:G101,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="266">
+      <c r="E6" s="267">
         <f>COUNTA(A12:A101)*2</f>
         <v>144</v>
       </c>
-      <c r="F6" s="267"/>
-      <c r="G6" s="268"/>
+      <c r="F6" s="268"/>
+      <c r="G6" s="269"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -39779,12 +39779,12 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="193"/>
-      <c r="B66" s="285" t="s">
+      <c r="B66" s="286" t="s">
         <v>796</v>
       </c>
-      <c r="C66" s="286"/>
-      <c r="D66" s="286"/>
-      <c r="E66" s="286"/>
+      <c r="C66" s="287"/>
+      <c r="D66" s="287"/>
+      <c r="E66" s="287"/>
       <c r="F66" s="227"/>
       <c r="G66" s="227"/>
       <c r="H66" s="227"/>
